--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F419"/>
+  <dimension ref="A1:F436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39562,6 +39562,1569 @@
         </is>
       </c>
     </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>ZENITRON OM2308100070.pdf</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>增你強(香港)有限公司
+ZENITRON (H.K.) LIMITED
+6D,GoldlionHoldings Centre,13-15Yuen Shun Circuit,Siu LekYuen,Shatin HongKong HONGKONG
+TEL:852-2759-8002FAX:852-2759-3067
+PACKING LIST
+PAGE:
+1of 1
+INV NO:
+OM2308100070
+DATE:
+11-AUG-23
+BILL TO:
+海信宽带多媒體技術(香港)有限公司
+RM 3101-3105SINGGA COMMERCIAL CENTRE148 CONNAUGHT ROADWESTHK
+Tel:0532-80879748Attn:探購曹玉新
+SHIP TO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)COLIMITED
+Unit6A&amp;C,6thFloor,ShatinIndustrialBuilding,22-28WoShuiStreet,Fotan,Shatin,NewTerritories HONGKONG
+香港新界沙田火炭禾穗街22-28號沙田工業大厦6楼A及C室
+Tel:36225142 Attn:收料Edgar
+C/O PARTY:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+6/F,Ever Gain Centre,43-57Wang WoTsai Street Tsuen wan,NT,HongKong.
+香港荃灣横仔街43-57號永得利中心6楼
+Tel:39020582 Fax:Attn:收貨Etain
+C/N NO
+P/O NO
+ITEM/DESCRIPTION
+PART NO.
+PLACE
+PCS
+N.W.
+G.W.
+MEA
+ORIGIN
+(KGS)
+(KGS)
+(CM)
+1
+5970023749
+S34ML01G200TFI000
+3010080501
+TH泰國
+960
+0.49
+3.04
+44*24*26
+/MEMORYIC
+2
+4510064624
+LE9540CUQCT
+3010117601
+MY馬來西亞
+2,000
+0.44
+1.75
+38*38*9
+/IC
+4510065113
+LE9540CUQCT
+3010117601
+MY馬来西亞
+2,000
+/IC
+DA/2
+TOTAL:
+4,960
+0.93
+4.79
+0.0405
+SAY TOTAL:TWOCARTONS ONLY
+”此貨為纸皮包装無需消毒證明！！”
+REMARK:
+真空包装
+Shipping Mark:
+外包装材質：箱
+填充物類别：氯泡袋
+INV.NO.:
+OM2308100070
+C/NO.:
+DA/1-DA/2CT
+ATTN:
+探購曹玉新
+增你強(香港)有限公司
+ZENITRON (H.K.) LIMITED
+For and on behalfof
+增你強（香港）有限公司
+ZENITRON (H.K.)LIMITED
+Yanig
+e
+Authorized Signature(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>ZENITRON OM2308100070.pdf</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>2</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "OM2308100070", "Invoice Date": "11-AUG-23", "Currency": "USD", "Amount": 10734.4, "Bill To": "\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u9ad4\u6280\u8853(\u9999\u6e2f)\u6709\u9650\u516c\u53f8", "From": "\u589e\u4f60\u5f3a(\u9999\u6e2f)\u6709\u9650\u516c\u53f8", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "OM2308100070", "Invoice Date": "11-AUG-23", "Currency": "USD", "Amount": 10734.4, "Bill To": "\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u9ad4\u6280\u8853(\u9999\u6e2f)\u6709\u9650\u516c\u53f8", "From": "\u589e\u4f60\u5f3a(\u9999\u6e2f)\u6709\u9650\u516c\u53f8", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>增你强(香港)有限公司
+ZENITRON (H.K.) LIMITED
+6D,Goldlion Holdings Centre,13-15Yuen Shun Circuit,Siu Lek Yuen,Shatin Hong Kong HONGKONG
+TEL:852-2759-8002FAX:852-2759-3067
+INVOICE
+PAGE:
+1of 1
+NO:
+OM2308100070
+DATE:
+11-AUG-23
+PAYMENT
+HK结60T/T(31)
+TRADE TERM:
+DOOR TO DOOR HONG KONG
+BILL TO:
+海信宽带多媒體技術(香港)有限公司
+RM 3101-3105SINGGACOMMERCIALCENTRE148CONNAUGHTROADWESTHK
+Tel:0532-80879748Attn:購曹玉新
+SHIP TO:
+HISENSEBROADBANDMULTIMEDIA TECHNOLOGIES(HK)COLIMITED
+Unit 6A&amp;6C,6thFloor,ShatinIndustrialBuilding,22-28WoShuiStreet,Fotan,Shatin,NewTerritories HONGKONG
+香港新界沙田火炭禾穗街22-28號沙田工業大厦6楼A及C室
+Tel:36225142 Attn:收料Edgar
+C/OPARTY
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+6/F,Ever Gain Centre, 43-57 Wang Wo Tsai Street Tsuen wan, NT, Hong Kong.
+香港荃灣横窝仔街43-57號永得利中心6楼
+Tel:39020582 Fax:Attn:收货Etain
+P/O NO.
+BRAND NAME /
+ITEM
+PLACE
+PART NO.
+Q'TY
+U/PRICE
+AMOUNT
+DESCRIPTION
+ORIGIN
+USD
+USD
+4510065113
+MICROCHIP
+LE9540CUQCT
+MY馬来西亞3010117601
+2,000PCS
+2.50000
+5,000.00
+/IC
+4510064624
+MICROCHIP
+LE9540CUQCT
+MY馬来西亞3010117601
+2,000 PCS
+2.50000
+5,000.00
+/IC
+5970023749
+SKYHIGH
+S34ML01G200TFI000
+TH泰國
+3010080501
+960 PCS
+0.76500
+734.40
+/MEMORYIC
+TOTAL:
+4,960
+10,734.40
+REMARK:
+真空包装
+Shipping Mark:
+外包装材質：箱
+填充物類别：氯泡袋
+Delivery No.: 2407132
+INV.NO.:
+OM2308100070
+ATTN:
+探購曹玉新
+增你強(香港)有限公司
+ZENITRON (H.K.) LIMITED
+For and on bohalfef
+增你強（香港）有限公司
+ZENITRON(H.K.)LIMITED
+ey
+..........................
+Authorized Signature(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>230719 宽带#8047482269-INV &amp; PL.pdf</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "8047482269", "Invoice Date": "2023/7/19", "Currency": "USD", "Amount": 92034.5, "Bill To": "Hisense Broadband Multimedia Technologies(HK)Co.,Ltd.", "From": "XINYANG (HONG KONG) COMPANY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "8047482269", "Invoice Date": "2023/7/19", "Currency": "USD", "Amount": 92034.5, "Bill To": "Hisense Broadband Multimedia Technologies(HK)Co.,Ltd.", "From": "XINYANG (HONG KONG) COMPANY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>XINYANG (HONG KONG) COMPANY LIMITED
+ROOM 3101-05, SINGGA COMMERCIAL CENTRE,NO. 148 CONNAUGHT ROAD WEST, HONG KONG
+TEL : (852) 2559 0966 FAX : (852) 2559 0195
+COMMERCIAL INVOICE
+BILL TO : Hisense Broadband Multimedia Technologies(HK)Co.,Ltd. INVOICE NO.: 8047482269
+SHIP TO: CYTS-SPIRIT LOGISTICS LTD.(青旅思捷物流有限公司) DATE : 2023/7/19
+6/F,Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen wan, NT, Hong Kong.
+(香港荃灣橫窩仔街43-57號永得利中心六樓） 入仓号： ZGD-505790
+ETAIN Tel: :(+852) 3902 0582 海信宽带多媒体
+PAYMENT TERMS : 月结60天 SHIP TERMS : CIF HongKong
+Customer QUANTITY UNIT PRICE TOTAL AMOUNT
+PO NO. DATE OF ORDER DESCRIPTION Brand Part No
+Part No (PCS) (USD) (USD)
+5970023697 2023/7/6 存储IC Ramonster 3011173101 RH45126C-26F 36,800 1.3857 50,994.50
+KS81AA80-05S000
+5970023704 2023/7/7 存储IC Konsemi 3011170001 30,400 1.3500 41,040.00
+-1ABZ1C
+TOTAL : USD 92,034.50
+BANK INFORMATION:
+Beneficiary : XINYANG (HONG KONG) COMPANY LIMITED
+Banker : HSBC Hong Kong
+Account : 848-657599-274
+Swift Code : HSBCHKHHHKH</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>230719 宽带#8047482269-INV &amp; PL.pdf</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>2</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>XINYANG (HONG KONG) COMPANY LIMITED
+ROOM 3101-05, SINGGA COMMERCIAL CENTRE, NO. 148 CONNAUGHT ROAD WEST, HONG KONG
+TEL : (852) 2559 0966 FAX : (852) 2559 0195
+PACKING LIST
+BILL TO : Hisense Broadband Multimedia Technologies(HK)Co.,Ltd. PACKING LIST
+8047482269
+NO.:
+SHIP TO: CYTS-SPIRIT LOGISTICS LTD.(青旅思捷物流有限公司) DATE : 19-Jul-23
+6/F,Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen wan, NT, Hong Kong.
+(香港荃灣橫窩仔街43-57號永得利中心六樓） 入仓号： ZGD-505790
+ETAIN Tel: :(+852) 3902 0582 海信宽带多媒体
+QUANTITY NET WEIGHT GROSS WEIGHT
+Customer NUMBER OF
+PO NO. DATE OF ORDER DESCRIPTION Part No Org
+Part No CARTONS
+(PCS) (KGS) (KGS)
+5970023697 2023/7/6 存储IC 3011173101 RH45126C-26F 4 36,800 55.50 57.50 中国台湾
+KS81AA80-05S000
+5970023704 2023/7/7 存储IC 3011170001 4 30,400 36.60 44.60 中国
+-1ABZ1C
+Total 8 67200 92.10 102.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>XINYANG 8047931185.pdf</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "8047931185", "Invoice Date": "2023/08/04", "Currency": "USD", "Amount": 82080.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.", "From": "XINYANG (HONG KONG) COMPANY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "8047931185", "Invoice Date": "2023/08/04", "Currency": "USD", "Amount": 82080.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.", "From": "XINYANG (HONG KONG) COMPANY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>XINYANG (HONG KONG) COMPANY LIMITED
+ROOM 3101-05, SINGGA COMMERCIAL CENTRE,NO. 148 CONNAUGHT ROAD WEST, HONG KONG
+TEL : (852) 2559 0966FAX : (852) 2559 0195
+COMMERCIALINVOICE
+INVOICENO.:
+8047931185
+BILL TO :
+Hisense Broadband Multimedia Technologies(HK)Co.,Ltd.
+DATE:
+2023/8/4
+SHIPTO:
+CYTS-SPIRITLOGISTICSLTD.(青旅思捷物流有限公司)
+6/F,Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen wan, NT, Hong Kong.
+入仓号：
+（香港荃灣横高仔街43-57號永得利中心六楼）
+海信宽带多媒体
+BO Yim Tel: (+852) 3902 0581
+CIF HongKong
+SHIP TERMS :
+月结60天
+PAYMENTTERMS:
+QUANTITY
+UNIT PRICE
+TOTALAMOUNT
+Customer
+Part No
+(PCS)
+(USD)
+(USD)
+DESCRIPTION
+Brand
+PO NO.
+DATE OF ORDER
+PartNo
+KS81AA80-05S000
+1.3500
+82,080.00
+60,800
+存储IC
+Konsemi
+3011170001
+2023/7/27
+-1ABZ1C
+4510079700
+TOTAL:USD
+82,080.00
+BANKINFORMATION:
+XINYANG (HONG KONG) COMPANY LIMITED
+Beneficiary:
+HSBC Hong Kong
+Banker:
+848-657599-274
+Account :
+HSBCHKHHHKH
+Swift Code :</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>XINYANG 8047931185.pdf</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>2</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>XINYANG(HONGKONG)COMPANYLIMITED
+ROOM3101-05,SINGGACOMMERCIALCENTRE,NO.148CONNAUGHTROADWEST,HONGKONG
+TEL:(852) 2559 0966 FAX: (852) 2559 0195
+PACKINGLIST
+PACKINGLIST
+BILLTO:
+HisenseBroadbandMultimediaTechnologies(HK)Co.,Ltd.
+8047931185
+Nn*
+CYTS-SPIRITLOGISTICSLTD.（青旅思捷物流有限公司）
+DATE :
+4-Aug-23
+SHIP TO:
+6/F,Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen wan, NT, Hong Kong.
+（香港荃灣横仔街43-57號永得利中心六楼）
+入仓号：
+BO Yim Tel:(+852)39020581
+海信宽带多媒体
+NUMBER OF
+QUANTITY
+NET WEIGHT
+GROSSWEIGHT
+Customer
+PO NO.
+Part No
+610
+DATEOFORDERDESCRIPTION
+Part No
+CARTONS
+(PCS)
+(KGS)
+(KGS)
+KS81AA80-05S000
+4510079700
+2023/7/27
+存储IC
+3011170001
+7
+60,800
+73.40
+87.40
+China
+-1ABZ1C
+Total
+60,800
+73.40
+87.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>SUNRAY HCDN023080030.pdf</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u5176\u4ed6", "Invoice No.": "", "Invoice Date": "", "Currency": "", "Amount": 0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "Sunray-Asiacom Limited"}</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u5176\u4ed6", "Invoice No.": "", "Invoice Date": "", "Currency": "", "Amount": 0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "Sunray-Asiacom Limited"}</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>Sunray-Asiacom Limited
+TEL:852-24871000
+新蕾亚讯有限公司
+SO2308210040
+FAX:852-24101585
+3/F, Chiaphua Building, No.6 On Lok Mun Street, Fanling, New Teritories, Hong Kong
+Packihg
+List
+香港新界粉嶺安樂村安樂門街6號捷和大度3楼全層
+Bil to:
+HisenseBroadband MultimediaTechnologies(HK) Co.,Limited
+Shipto:青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+nvoiceNo:
+HCDN023080030
+PaymentTerm:
+30%预付+70%月结30天
+Rooms3101-3105SinggaCommercialCentre148ConnaughtRoadWest Hong
+香港新界荃湾横窝仔街43-57号永得利中心6楼@EternityWarehouse，6/F，EverGain
+Add:
+Kong.TEL:852-25590966FAX:852-25590195
+Add:
+Centre,43-57Wang WoTsai Street,Tsuen Wan,NewTerritories,HongKong
+ShippingTerm:
+FCA HK
+Contact:
+P.C.:
+送广东江门
+Shipping Via:
+Bytruck
+Fax:
+Attn:
+Etain
+Warehouse No:ZGD-506040
+Tel:
+00852-39020582
+Date:
+2023-08-22
+Tel:
+00852-25590966
+Line
+Cust.PO
+MPN
+Ne
+QTY
+Product Brand
+N
+REF
+MEASUREMENT
+G/W (KG)
+N/W (KG)
+4411006801
+4000
+MY
+AVAGO/安华高
+1 0F 1
+SO2308210040#001
+40*40*12
+1.17
+0.67
+4510078437
+AFCD-P74GX
+STATEMENT
+Total QTY (PCS):
+4000
+Receive Date:
+Total Carton (BOX):
+1
+We hereby certify that the above mentioned goods have been
+received in good order and cons
+Total G/W (KG):
+1.17
+SignedBy:
+發貨專用章
+Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>SUNRAY HCDN023080030.pdf</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>2</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HCDN023080030", "Invoice Date": "2023-08-22", "Currency": "USD", "Amount": 17880.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "Sunray-Asiacom Limited", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HCDN023080030", "Invoice Date": "2023-08-22", "Currency": "USD", "Amount": 17880.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "Sunray-Asiacom Limited", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>Sunray-Asiacom Limited
+TEL:852-24871000
+新蕾亚讯有限公司
+FAX:852-24101585
+3/F,Chiaphua Building,No.6On Lok MunStreet,Fanling,NewTerritories,HongKong
+om
+INVOICE
+香港新界粉嶺安樂村安乐門街6號捷和大厦3楼全層
+Bill to:
+Hisense Broadband Multimedia Technologies (HK) Co.,Limited
+Ship to:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+InvoiceNo:
+HCDN023080030
+PaymentTerm:
+30%预付+70%月结30
+香港新界荃湾横窝仔街43-57号永得利中心6楼@EternityWarehouse，
+Rooms3101-3105SinggaCommercialCentre148ConnaughtRoad WestHong Kong.TEL:852-
+天
+6/F,EverGainCentre,43-57WangWosaiStreet,TsuenWan,
+Add:
+25590966FAX:852-25590195
+Add:
+NewTerritories,Hong Kong
+ShippingTerm:
+FCA HK
+Contact:
+P.C.:
+送广东江门
+ShippingVia:
+Bytruck
+Fax:
+Attn:
+Etain
+Warehouse No:
+ZGD-506040
+Tel:
+00852-25590966
+Tel:
+00852-39020582
+Date:
+2023-08-22
+Line
+Cust.PO
+MPN
+CPN
+QTY
+C/0
+Description
+U/P(USD)
+Amount(usD)
+品牌类型
+4510078437
+AFCD-P74GX
+4411006801
+4000
+MY
+4x25G PD
+4.4700
+17880.00
+AVAGO/安华高
+1
+境外品牌(其他)
+This account hasbeenassigned to:USD
+The Hongkong and Shanghai Banking Corporation Limited and isto be paid direct to their GTRF Receivables
+Forand Onbehalfof
+entitledtogiveareceipttherefore andshouldbeadvisedimmediatelyof anyclaims,disputesorreturned
+Total Inv(USD):
+17880.00
+Sunray-Asiacom Limited
+goods on (852)3941 6227 or (852) 3941 6221.Bank transfers should be sent to:*
+Signature:
+Name:
+SUNRAY-ASIACOM LIMITED(Astrustee forHSBC)
+Bank:
+The Hongkong and ShanghaiBanking Corporation Limited
+Add:
+1 Queen' sRoad Central,HongKong
+Account:
+848-817466-274
+SWIFT
+HSBCHKHHHKH
+專用章
+Page
+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>SUNRAY HCDN023080030.pdf</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>3</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Sunray Electronics (HK) Co.，Ltd.
+TEL:852-24871000
+新蕾電子（香港）有限公司
+3/F, Chiaphua Building, No.6 On Lok Mun Street, Fanling, New Territories,
+FAX:852-24101585
+Hong Kong
+香港新界粉嶺安樂村安樂門街6號捷和大厦3樓全層
+BILLTo : Hisense Broadband Multimedia Technologies (HK) Co.,Limited
+Invoice No. :
+HCDN023080030
+香港新界荃湾横窝仔街43-57号永得利中心6楼@EternityWarehouse，
+P/L No. :
+HCDN023080030
+ShipTo：青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Payment :
+30%订金+月结30天
+香港新界荃湾横窝仔街43-57号永得利中心6楼@EternityWarehouse，
+Date :
+2023/08/22
+发货单号：
+HCDN023080030
+TEL:
+00852-39020582
+装箱DC/LOT明細表
+序号
+CID
+SKU
+数量
+DATE CODE
+LOT
+COO
+1
+HB0038955
+AFCD-P74GX
+2171
+2332
+BGXEF3K18C01-1
+MY
+2
+HB0038955
+AFCD-P74GX
+1829
+2332
+BGXEF2136F01-1
+MY
+TOTAL
+4000
+SUNRR!</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>SUNRAY HCDN023080031.pdf</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>Sunray-Asiacom Limited
+TEL:852-24871000
+新蕾亚讯有限公司
+SO2308210041
+FAX:852-24101585
+3/F, Chiaphua Building, No.6 On Lok Mun Street, Fanling, New Territories, Hong Kong
+Packing List
+Isiacom
+香港新界粉嶺安樂村安樂門街6号捷和大厦3楼全層
+Bill to:
+Hisense Broadband Multimedia Technologies (HK) Co.,Limited
+Ship to:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+InvoiceNo:
+HCDN023080031
+PaymentTerm:
+30%预付+70%月结30天
+Rooms3101-3105Singga Commercial Centre148ConnaughtRoad West Hong
+香港新界荃湾横窝仔街43-57号永得利中心6楼@EternityWarehouse，6/F，EverGain
+Add:
+Kong.TEL:852-25590966FAX:852-25590195
+Add:
+Centre,43-57Wang WoTsai Street,Tsuen Wan,NewTerritories,Hong Kong
+Shipping Term:
+:FCA HK
+Contact:
+P.C.:
+送广东江门
+Shipping Via:
+Bytruck
+Attn:
+Etain
+WarehouseNo:ZGD-506041
+Fax:
+Tel:
+00852-25590966
+Tel:
+00852-39020582
+Date:
+2023-08-22
+Cust.PO
+MPN
+CPN
+Product Brand
+Line
+C/N
+REF
+MEASUREMENT
+G/W (KG)
+N/W (KG)
+4510076014
+AFCD-V74KN2
+4401005701
+1000
+MY
+AVAGO/安华高
+1 OF 1
+SO2308210041#001
+40*40*12
+1.01
+0.51
+STATEMENT
+Total QTY(PCS):
+1000
+ReceiveDate:
+Total Carton (BOX):
+1
+We hereby certify that the above mentioned goods have been
+received in good orderand cons
+1.01
+SignedBy:
+Total G/W (KG):
+ITED
+Page
+of</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>SUNRAY HCDN023080031.pdf</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>2</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HCDN023080031", "Invoice Date": "2023-08-22", "Currency": "USD", "Amount": 25260.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co. Limited", "From": "Sunray-Asiacom Limited", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HCDN023080031", "Invoice Date": "2023-08-22", "Currency": "USD", "Amount": 25260.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co. Limited", "From": "Sunray-Asiacom Limited", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>Sunray-Asiacom Limited
+TEL:852-24871000
+新蕾亚讯有限公司
+FAX:852-24101585
+3/F, Chiaphua Building, No.6 On Lok Mun Street, Fanling, New Territories, Hong Kong
+com
+INVOICE
+香港新界粉嶺安樂村安樂門街6號捷和大度3楼全層
+Billto:
+HisenseBroadbandMultimediaTechnologies(HK)Co.Limited
+Ship to:
+香旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Invoice No:
+HCDN023080031
+30%预付+70%月结30
+香港新界荃湾横窝仔街43-57号永得利中心6楼@EternityWarehouse,
+PaymentTerm:
+Rooms3101-3105Singga CommercialCentre148ConnaughtRoadWest HongKong.TEL:852-
+天
+6/F,Ever Gain Centre,43-57Wang WoTsai Street,Tsuen Wan,
+Add:
+25590966FAX:852-25590195
+Add:
+New Territories,Hong Kong
+Shipping Term:
+FCAHK
+Contact:
+P.C.:
+送广东江门
+Shipping Via:
+Bytruck
+Fax:
+Attn:
+Etain
+Warehouse No:
+ZGD-506041
+Tel:
+00852-39020582
+Date:
+Tel:
+00852-25590966
+2023-08-22
+N
+QTY
+Description
+U/P(USD)
+Amount(uso)
+produet Brand
+Line
+Cust.PO
+MPN
+品牌类型
+1000
+MY
+4x56GVCSELCHIP
+25.2600
+25260.00
+AVAGO/安华高
+1
+4510076014
+AFCD-V74KN2
+4401005701
+境外品牌（其他）
+This account has been assigned toUSD
+The Hongkong and ShanghaiBanking Corporation Limited and is tobepaid direct to their GTRF Receivables
+For and Onbehalf of
+FinanceDivision at 9/F HSBCBuildingMongkok673NathanRoadKowloonHong Kong.They alone are
+Total Inv (USD):
+25260.00
+entitled togiveareceiptthereforeandshould beadvisedimmediatelyofanyclaims,disputesorreturned
+Sunray-Asiacom Limited
+goods on (852)3941 6227 or(852) 3941 6221.Bank transfers should be sent to:-
+Signature:
+Name:
+SUNRAY-ASIACOMLIMITED(AstrusteeforHSBC)
+Bank:
+The Hongkong and Shanghai Banking Corporation Limited
+Add:
+1Queen'sRoad Central,HongKong
+Account:
+848-817466-274
+SWIFT
+HSBCHKHHHKH
+Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>SUNRAY HCDN023080031.pdf</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>3</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HCDN023080031", "Invoice Date": "2023/08/22", "Currency": "", "Amount": 0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "Sunray Electronics (HK) Co., Ltd."}</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Packing List",
+    "Invoice No.": "HCDN023080031",
+    "Invoice Date": "2023/08/22",
+    "Currency": "",
+    "Amount": 0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Sunray Electronics (HK) Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>['Doc Type']</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Sunray Electronics (HK) Co.，Ltd.
+TEL:852-24871000
+新蕾電子（香港）有限公司
+ray
+3/F, Chiaphua Building, No.6 On Lok Mun Street, Fanling, New Territories,
+FAX:852- 24101585
+HongKong
+香港新界粉嶺安樂村安樂門街6號捷和大厦3樓全層
+BILLTo :Hisense Broadband Multimedia Technologies (HK) Co.,Limited
+Invoice No. :
+HCDN023080031
+香港新界荃湾横窝仔街43-57号永得利中心6楼@EternityWarehouse，
+P/L No. :
+HCDN023080031
+ShipTo：青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Payment :
+30%订金+月结30天
+香港新界荃湾横窝仔街43-57号永得利中心6楼EternityWarehouse，
+Date :
+2023/08/22
+发货单号：
+HCDN023080031
+TEL:
+00852-39020582
+装箱DC/LOT明細表
+序号
+CID
+SKU
+数量
+DATE CODE
+LOT
+COO
+HB0038954
+AFCD--V74KN2
+1000
+2322
+PKNEE9R91C99-Z
+MY
+TOTAL
+1000
+SUNRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>HCDN023080018.pdf</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HCDN023080018", "Invoice Date": "2023-08-10", "Currency": "USD", "Amount": 9977.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "Sunray-Asiacom Limited", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HCDN023080018", "Invoice Date": "2023-08-10", "Currency": "USD", "Amount": 9977.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "Sunray-Asiacom Limited", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Sunray-Asiacom Limited TEL:852-24871000
+Sunray-
+新蕾亚讯有限公司 FAX:852-24101585
+Asiacom 3/F, Chiaphua Building, No.6 On Lok Mun Street, Fanling, New Territories, Hong Kong
+INVOICE
+香港新界粉嶺安樂村安樂門街6號捷和大廈3樓全層
+Bill to: Hisense Broadband Multimedia Technologies (HK) Co.,Limited Ship to: 青旅思捷物流有限公司 CYTS-SPIRIT LOGISTICS LIMITED Invoice No: HCDN023080018
+30%预付+70%月结30
+PaymentTerm:
+香港新界荃湾横窝仔街43-57号永得利中心6楼@Eternity Warehouse, 天
+Rooms 3101-3105 Singga Commercial Centre 148 Connaught Road West Hong Kong.TEL:852-
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan,
+Add: 25590966 FAX:852-25590195 Add:
+New Territories, Hong Kong Shipping Term: FCA HK
+Contact: P.C. : 送广东江门 Shipping Via: By truck
+Fax: Attn: Etain Warehouse No: ZGD-505950
+Tel: 00852-25590966 Tel: 00852-39020582 Date: 2023-08-10
+Line Cust. PO MPN CPN QTY C/O Description U/P(USD) Amount(USD) Product Brand 品牌类型
+1 4510078588 SPD3025-4 4411003701 53 MY 100G PD 1.0000 53.00 AVAGO/安华高 境外品牌(其他)
+2 5050022117 SPD3025-4 4411003701 9924 MY 100G PD 1.0000 9924.00 AVAGO/安华高 境外品牌(其他)
+This account has been assigned to:USD
+The Hongkong and Shanghai Banking Corporation Limited and is to be paid direct to their GTRF Receivables For and On behalf of
+Finance Division at 9/F HSBC Building Mongkok 673 Nathan Road Kowloon Hong Kong.. They alone are
+entitled to give a receipt therefore and should be advised immediately of any claims, disputes or returned Total Inv (USD): 9977.00 Sunray-Asiacom Limited
+goods on (852) 3941 6227 or (852) 3941 6221. Bank transfers should be sent to:-
+Signature:
+Name: SUNRAY-ASIACOM LIMITED (As trustee for HSBC)
+Bank: The Hongkong and Shanghai Banking Corporation Limited
+Add: 1 Queen’s Road Central,HongKong
+Account: 848-817466-274
+SWIFT HSBCHKHHHKH
+Page 1 of 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>HCDN023080018.pdf</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>2</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>Sunray-Asiacom Limited TEL:852-24871000
+Sunray-
+新蕾亚讯有限公司 SO2308090058 FAX:852-24101585
+Asiacom 3/F, Chiaphua Building, No.6 On Lok Mun Street, Fanling, New Territories, Hong Kong Packing List
+香港新界粉嶺安樂村安樂門街6號捷和大廈3樓全層
+Bill to: Hisense Broadband Multimedia Technologies (HK) Co.,Limited Ship to: 青旅思捷物流有限公司 CYTS-SPIRIT LOGISTICS LIMITED Invoice No: HCDN023080018
+PaymentTerm: 30%预付+70%月结30天
+Rooms 3101-3105 Singga Commercial Centre 148 Connaught Road West Hong 香港新界荃湾横窝仔街43-57号永得利中心6楼@Eternity Warehouse, 6/F, Ever Gain
+Add: Kong.TEL:852-25590966 FAX:852-25590195 Add: Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong Kong
+Shipping Term:FCA HK
+Contact: P.C. : 送广东江门 Shipping Via: By truck
+Fax: Attn: Etain Warehouse No:ZGD-505950
+Tel: 00852-25590966 Tel: 00852-39020582 Date: 2023-08-10
+Line Cust. PO MPN CPN QTY C/O Product Brand C/N REF MEASUREMENT G/W (KG) N/W (KG)
+1 4510078588 SPD3025-4 4411003701 53 MY AVAGO/安华高 1 OF 2 SO2308090058#003 41*31*32 2.80 2.30
+2 5050022117 SPD3025-4 4411003701 4982 MY AVAGO/安华高 1 OF 2 SO2308090058#003 41*31*32 2.80 2.30
+3 5050022117 SPD3025-4 4411003701 4942 MY AVAGO/安华高 2 OF 2 SO2308090058#004 31*31*29 2.52 2.02
+STATEMENT Total QTY (PCS): 9977 Receive Date:
+Total Carton (BOX): 2
+We hereby certify that the above mentioned goods have been
+received in good order and cons
+Total G/W (KG): 5.32 Signed By:
+Page 1 of 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>UNIMICRON 072B208517-18.pdf</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>GLC-
+224995
+160-54000225
+UNIMICRONTECHNOLOGYCORP.
+Not negotiable
+交通部长用航空局
+179,ShanYingRoad,Kwei-Shandustrial.
+AlrWaybill*
+航空背通承摄靠許可
+Extended Zone,Taoyuan City,Taiwan,CHINA
+(Air Consignmenl nole)
+货字第2502號
+Tel:88633500386 Fax:88633500372
+IssUed by
+昆
+股份有
+限公司
+GREAT LOGISTICS CO., LTD.
+Consignee'sNamg and Address
+台北市民生束路二段168號7楼
+7F.,No.168,Sec.2,Minsheng E.Rd.,Taipel Taiwan
+Co
+Tel:886-2-2515-8528Fax:886-2-2515-8226
+C/OCYTS-SPIRITLOGISTICSLIMITED
+6/F, Ever Gain Centre,
+Coples 1 2 ad 3 of thls AirWaybillare originats and have te same validity
+43-57 Wang Wo Tsai Street, Tsuen Wan,N.T,HONG KONG
+CHINA
+ATTN:Etain Tel: 3902 0582
+E-MAlL:-tao@oyia-seiit.com
+GREAT LOGISTICS CO., LTD.
+TAIPEI TAIWAN
+Agenl's IATA Code
+Account No.
+Airport otDep
+olfirst Carrler) and req
+tedRouting
+TAIPE1
+By
+HoL
+FHGS
+Declared Value for Carniage
+Doclared Valus for Cuct
+HKG
+CX 0479/AUG.7,2023
+TWD
+PPPF
+N.V.D.
+AS PER INV
+HONG KONG
+FEgh/Date
+Flgh/Dsta
+INSURANCE il shipper req
+NIL.
+it
+ountof Insurance.
+**DOOR TO DOOR SERVICE**‘
+Handiing Intorr
+"INV &amp; P/K ATT'D"
+"FREIGHT PREPAID"
+【江門】
+Nea
+Gross
+101
+Weighl
+Commodlty
+(Incl. Dime
+RCP
+HomNo.
+Welghu
+4
+75
+75.00K
+ASARRANGED
+Printed Circuit Board
+K
+PKG
+Q'TY:9,065PCE
+INVNO:
+072B208517,
+072B208518
+WelghlC
+Colloct
+OtherChargos
+cartage
+AS ARRANGED
+Fee
+Valut
+Total other Ch
+Due Agent
+GREAT LOGISTICS CO.,LTD.
+ASARRANGED
+Aug.07,2023
+TAIPEI
+carol
+CurrencyConverstonRates
+C.C.chargooin DetCu
+[Date]
+ChargosatDe
+Totul collecl Charges
+For Carrer's Use oniy
+GLC-
+at Destination
+224995
+3. ORIGINAL-FOR THE SHIPPER</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>UNIMICRON 072B208517-18.pdf</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>2</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208518", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 9300.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208518", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 9300.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP
+179,ShanYing Road,Kwei-Shan Industrial
+Extended Zone,Taoyuan City,Taiwan,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+INVOICE
+Page1
+of1
+CONSIGN TO :
+Date:07-AUG-2023
+Vendor Code:
+Invoice/Packing No. : 072B208518
+L/C No.:
+SHIP TO:
+BILL TO
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)(
+CYTS-SPIRITLOGISTICSLIMITED
+Rooms3101-3105,SinggaCommercialCentre,
+6/F, Ever Gain Centre
+148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57Wang WoTsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA
+China
+Ship from TAIWAN ,CHINA to CHINA per AIR
+For risks and account of HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.
+C/NO
+PART NUMBER
+DESCRIPTION OF GOODS
+QTY
+P.O. NO.
+U/P
+AMOUNT
+USD
+USD
+DDU
+1331143601
+10 LayerPrinted Circuit Board
+480:4510079323
+6.20000
+2,976.00
+RGAC7.820.01B7-A
+PNL SIZE: 56.59*196.19*1.00MM
+1PNL= 10 PCS
+0X-OUT
+2-2 1331143601
+10 Layer Printed Circuit Board
+5404510079323
+6.20000
+3,348.00
+RGAC7.820.01B7-A
+PNL SIZE:56.59*196.19*1.00MM
+1PNL= 10 PCS
+1X-OUT
+1331143601
+10 Layer Printed Circuit Board
+4804510079323
+6.20000
+2,976.00
+RGAC7.820.01B7-APNLSIZE:56.59*196.19*1.00MM
+1PNL= 10 PCS
+2X-OUT
+TOTAL
+CTNS
+TOTAL QTY
+1500
+PCS
+9300.00
+SAYTOTALUSDNINETHOUSANDTHREEHUNDREDONLY
+江門
+CHINA
+C/NO. 1 - TL
+3
+CTNS
+MADEINTAIWAN,CHINA
+统一發票享用章
+统一编號
+235354350
+負人：曾子章
+TEL:(03)3500386
+章用專口出進</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>UNIMICRON 072B208517-18.pdf</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>3</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP
+179,ShanYing Road,Kwei-Shan Industrial
+ExtendedZone,TaoyuanCity，Taiwan,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+PACKING LIST
+Page1
+of1
+CONSIGN TO:
+Date:07-AUG-2023
+VendorCode:
+Invoice/Packing No.:072B208518
+L/C No. :
+SHIP TO :
+BILL TO :
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)(
+CYTS-SPIRITLOGISTICSLIMITED
+Rooms 3101-3105, Singga Commercial Centre,
+6/F, Ever Gain Centre
+148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57Wang Wo TsaiStreet
+Tsuen Wan,N.T., HONG KONG
+CHINA
+China
+Ship from TAIWAN,CHINA to CHINA perAIR
+For risksandaccount of HISENSEBROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.,
+C/NO
+PART NUMBER
+DESCRIPTION OF GOODS
+QTY
+P.O. NO.
+N.W.
+G.W.
+KGS
+KGS
+1331143601
+10 Layer Printed Circuit Board
+4804510079323
+@1.80000 @ 2.80000
+RGAC7.820.01B7-A PNL SIZE: 56.59*196.19* 1.00MM
+480
+1.80000
+2.80000
+1PNL= 10 PCS
+0
+X-OUT
+2-21331143601
+10 Layer Printed Circuit Board
+@
+5404510079323
+@ 2.10000 @ 3.10000
+RGAC7.820.01B7-A
+PNL SIZE: 56.59* 196.19* 1.00MM
+540
+2.10000
+3.10000
+1PNL= 10 PCS
+X-OUT
+3-3 1331143601
+10 LayerPrinted Circuit Board
+@
+4804510079323
+@2.10000 @ 3.10000
+RGAC7.820.01B7-A
+PNL SIZE: 56.59* 196.19* 1.00MM
+480
+2.10000
+3.10000
+1PNL= 10 PCS
+2
+X-OUT
+TOTAL
+CTNS
+TOTAL QTY
+1500
+PCS
+6.00000
+9.00000
+TOTALPACKINGINTHREECARTONS ONLY
+江門
+CHINA
+C/NO. 1 - TL
+CTNS
+MADEIN TAIWAN,CHINA
+价统一發票專用章
+统一编號
+235354356
+負貴人：曾子章
+TEL:(03)3500386
+章用享口出進</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F436"/>
+  <dimension ref="A1:F460"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41125,6 +41125,2188 @@
         </is>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>UNIMICRON 072B208517-18 - 副本.pdf</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 7420.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK)", "From": "UNIMICRON TECHNOLOGY CORP", "page": "1/3"}</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 7420.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK)", "From": "UNIMICRON TECHNOLOGY CORP", "page": "1/3"}</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>UNIMICRONTECHNOLOGY CORP
+179,Shan Ying Road, Kwei-Shan Industrial
+Extended Zone, Taoyuan City , Taiwan ,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+INVOICE
+Page
+1
+of3
+CONSIGN TO:
+Date:07-AUG-2023
+Vendor Code :
+Invoice/Packing No. : 072B208517
+L/C No. :
+SHIP TO :
+BILL TO :
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)(
+CYTS-SPIRIT LOGISTICS LIMITED
+Rooms3101-3105,SinggaCommercialCentre,
+6/F,EverGainCentre
+148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57Wang Wo TsaiStreet
+Tsuen Wan, N.T., HONG KONG
+CHINA
+China
+Shipfrom TAIWAN,CHINA to CHINA perAIR
+ForriskSandaccount ofHISENSEBROADBANDMULTIMEDIA TECHNOLOGIES(HK) CO.
+C/NO
+PARTNUMBER
+DESCRIPTIONOF GOODS
+QTY
+P.O. NO.
+U/P
+AMOUNT
+USD
+USD
+DDU
+1331145901
+08 Layer Printed Circuit Board
+1060 4510077020
+7.00000
+7,420.00
+RGAC7.820.019X-B
+PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS
+0X-OUT
+2
+-21331145901
+08 Layer Printed Circuit Board
+870 4510077020
+7.00000
+6,090.00
+RGAC7.820.019X-B
+PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS
+0X-OUT
+3
+1331145901
+08 Layer Printed Circuit Board
+480 4510077020
+7.00000
+3,360.00
+3
+RGAC7.820.019X-B
+PNL SIZE: 67.19* 196.20* 1.00MM
+1PNL= 10 PCS
+0X-OUT
+1331145901
+08 LayerPrinted CircuitBoard
+1422 4510077020
+7.00000
+9,954.00
+RGAC7.820.019X-B
+PNL SIZE: 67.19*196.20* 1.00MM
+1PNL= 10 PCS
+1
+X-OUT
+CHINA
+C/NO. 1 - TL
+11
+CTNS
+MADEIN TAIWAN,CHINA
+统一發票粤用章
+统一编號
+0235354350
+負贵人：曾子章
+TEL:(03)3500386</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>UNIMICRON 072B208517-18 - 副本.pdf</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>2</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 5670.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK)", "From": "UNIMICRON TECHNOLOGY CORP", "page": "2/3"}</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 5670.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK)", "From": "UNIMICRON TECHNOLOGY CORP", "page": "2/3"}</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP
+179,Shan Ying Road, Kwei-Shan Industrial
+Extended Zone, Taoyuan City, Taiwan ,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+INVOICE
+Page2of3
+CONSIGNTO:
+Date:07-AUG-2023
+Vendor Code:
+Invoice/Packing No.:072B208517
+L/C No. :
+SHIP TO :
+BILLTO
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)(
+CYTS-SPIRITLOGISTICSLIMITED
+Rooms 3101-3105, Singga Commercial Centre,
+6/F, Ever Gain Centre
+148 Connaught Rd.West, Sai Ying Pun,HK.
+43-57Wang Wo Tsai Street
+Tsuen Wan, N.T.,HONG KONG
+CHINA
+China
+Ship from TAIWAN,CHINA to CHINA perAIR
+ForriskSandaccount ofHISENSEBROADBAND MULTIMEDIA TECHNOLOGIES(HK)CO.
+C/NO
+PARTNUMBER
+DESCRIPTION OF GOODS
+QTY
+P.O. NO.
+U/P
+AMOUNT
+USD
+USD
+DDU
+5
+-5
+1331145901
+08 Layer Printed Circuit Board
+810 4510077020
+7.00000
+5,670.00
+RGAC7.820.019X-B
+PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS
+X-OUT
+6
+-6 1331145901
+08 Layer Printed Circuit Board
+6934510077020
+7.00000
+4,851.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20* 1.00MM
+1PNL= 10 PCS
+1
+X-OUT
+1331145901
+08 Layer Printed Circuit Board
+1984510077020
+7.00000
+1,386.00
+RGAC7.820.019X-B
+PNL SIZE:67.19*196.20*1.00MM
+1PNL= 10 PCS
+1
+X-OUT
+8-81331145901
+08 Layer Printed Circuit Board
+1168 4510077020
+7.00000
+8,176.00
+RGAC7.820.019X-B
+3PNL SIZE:67.19*196.20*1.00MM
+1PNL= 10 PCS
+2X-OUT
+CHINA
+C/NO. 1 - TL
+11
+CTNS
+MADE IN TAIWAN ,CHINA
+你统一登票專用章
+统一编號
+235354350
+負责人：曾子章
+TEL:(03)3500386</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>UNIMICRON 072B208517-18 - 副本.pdf</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>3</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 52955.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP", "page": "3/3"}</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 52955.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP", "page": "3/3"}</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>UNIMICRONTECHNOLOGY CORP
+179,ShanYingRoad,Kwei-ShanIndustrial
+Extended Zone, Taoyuan City , Taiwan ,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+INVOICE
+Page3of3
+CONSIGN TO :
+Date:07-AUG-2023
+Vendor Code :
+Invoice/Packing No. : 072B208517
+L/C No. :
+SHIP TO:
+BILLTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)(
+CYTS-SPIRITLOGISTICSLIMITED
+Rooms 3101-3105, Singga Commercial Centre,
+6/F,Ever Gain Centre
+148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57Wang Wo Tsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA
+China
+Ship from TAIWAN ,CHINA to CHINA per AIR
+For risks and account of HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.
+C/NO
+PART NUMBER
+DESCRIPTIONOF GOODS
+QTY
+P.O. NO.
+U/P
+AMOUNT
+USD
+USD
+DDU
+9
+-91331145901
+08 LayerPrinted Circuit Board
+720 4510077020
+7.00000
+5,040.00
+RGAC7.820.019X-B
+PNL SIZE:67.19*196.20*1.00MM
+1PNL= 10 PCS
+2X-OUT
+10 - 10 1331145901
+08 Layer Printed Circuit Board
+88 4510077020
+7.00000
+616.00
+RGAC7.820.019X-B
+PNL SIZE:67.19*196.20*1.00MM
+1PNL= 10 PCS
+2X-OUT
+11 - 11 1331145901
+08 Layer Printed Circuit Board
+56 4510077020
+7.00000
+392.00
+1PNL= 10 PCS
+2X-OUT
+TOTAL
+11
+CTNS
+TOTAL QTY
+7565
+PCS
+52955.00
+SAYTOTALUSDFIFTYTWOTHOUSANDNINEHUNDREDFIFTYFIVEONLY
+1 PLT =4.4KGS, TOTAL GROSS WEIGHT 52 KGS
+江門
+CHINA
+C/NO. 1 - TL
+11CTNS
+MADE IN TAIWAN,CHINA
+统一發票粤用章
+统一编號
+23535435
+負贵人：曾子章
+TEL:(03)3500386</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>UNIMICRON 072B208517-18 - 副本.pdf</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>4</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP
+179,ShanYingRoad,Kwei-Shan Industrial
+ExtendedZone,Taoyuan City，Taiwan，CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+PACKING LIST
+Page1of3
+CONSIGNTO:
+Date:07-AUG-2023
+Vendor Code:
+Invoice/Packing No.:072B208517
+L/C No. :
+SHIP TO:
+BILLTO :
+HISENSEBROADBAND MULTIMEDIA TECHNOLOGIES(HK)(
+CYTS-SPIRITLOGISTICSLIMITED
+Rooms 3101-3105, Singga Commercial Centre,
+6/F,EverGainCentre
+148 Connaught Rd.West,Sai Ying Pun, HK.
+43-57 Wang Wo Tsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA
+China
+Shipfrom TAIWAN,CHINAto CHINAperAIR
+C/NO
+PART NUMBER
+DESCRIPTIONOFGOODS
+QTY
+P.O. NO.
+N.W.
+G.W.
+KGS
+KGS
+1331145901
+08LayerPrinted Circuit Board
+@
+：10604510077020
+@ 4.60000 @ 5.60000
+RGAC7.820.019X-B
+PNL SIZE: 67.19* 196.20*1.00MM
+1060
+4.60000
+5.60000
+1PNL= 10 PCS
+0
+X-OUT
+2
+1331145901
+08 Layer Printed Circuit Board
+@
+870 4510077020
+@3.80000 @ 4.80000
+RGAC7.820.019X-B
+PNL SIZE: 67.19*196.20*1.00MM
+870
+3.80000
+4.80000
+1PNL= 10 PCS
+0
+X-OUT
+1331145901
+08 Layer Printed Circuit Board
+@
+4804510077020
+@2.10000 @3.10000
+RGAC7.820.019X-B
+PNL SIZE: 67.19* 196.20*1.00MM
+480
+2.10000
+3.10000
+1PNL= 10 PCS
+0
+X-OUT
+1331145901
+08 Layer Printed Circuit Board
+@
+14224510077020
+@6.70000 @ 7.70000
+4
+RGAC7.820.019X-B PNL SIZE: 67.19* 196.20* 1.00MM
+1422
+6.70000
+7.70000
+1PNL= 10 PCS
+1
+X-OUT
+CHINA
+C/NO.1-TL
+11CTNS
+MADE IN TAIWAN,CHINA
+统一發票粤用章
+统一编號
+23535435
+負责人：曾子章
+TEL:(03)3500386
+章用專口出進</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>UNIMICRON 072B208517-18 - 副本.pdf</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>5</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>UNIMICRONTECHNOLOGY CORP
+179,ShanYing Road,Kwei-Shan Industrial
+Extended Zone,Taoyuan City，Taiwan ，CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+PACKING LIST
+Page 2of3
+CONSIGN TO:
+Date:07-AUG-2023
+Vendor Code :
+Invoice/Packing No.: 072B208517
+L/C No. :
+SHIP TO:
+BILL TO :
+CYTS-SPIRIT LOGISTICS LIMITED
+Rooms 3101-3105, Singga Commercial Centre,
+6/F,EverGainCentre
+148 Connaught Rd.West,Sai Ying Pun,HK.
+43-57WangWoTsai Street
+Tsuen Wan, N.T, HONG KONG
+CHINA
+China
+Shipfrom TAIWAN,CHINA to CHINA perAIR
+Forrisksandaccount ofHISENSEBROADBANDMULTIMEDIA TECHNOLOGIES(HK) CO.,
+C/NO
+PART NUMBER
+DESCRIPTION OF GOODS
+QTY
+P.O. NO.
+N.W.
+G.W.
+KGS
+KGS
+5
+1331145901
+08 Layer Printed Circuit Board
+@
+8104510077020
+@3.80000@4.80000
+RGAC7.820.019X-B
+PNL SIZE:67.19*196.20*1.00MM
+810
+3.80000
+4.80000
+1PNL= 10 PCS
+1
+X-OUT
+：61331145901
+08 Layer Printed Circuit Board
+@
+693 4510077020
+@ 3.30000 @ 4.30000
+RGAC7.820.019X-B
+PNL SIZE: 67.19*196.20*1.00MM
+693
+3.30000
+4.30000
+1PNL= 10 PCS
+1
+X-OUT
+7
+1331145901
+08 Layer Printed Circuit Board
+@
+1984510077020
+@ 1.10000 @ 2.10000
+RGAC7.820.019X-B
+PNL SIZE: 67.19*196.20*1.00MM
+198
+1.10000
+2.10000
+1PNL= 10 PCS
+1
+X-OUT
+：81331145901
+08 Layer Printed Circuit Board
+@
+1168 4510077020
+@6.30000 @ 7.30000
+RGAC7.820.019X-B PNL SIZE: 67.19* 196.20* 1.00MM
+1168
+6.30000
+7.30000
+1PNL= 10 PCS
+2
+X-OUT
+CHINA
+C/NO.1-TL
+11CTNS
+MADE INTAIWAN,CHINA
+统一發票專用章
+统一编號
+23535435@
+負貴人：曾子章
+TEL:(03)3500386</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>UNIMICRON 072B208517-18 - 副本.pdf</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>6</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY COF
+179,Shan Ying Road,Kwei-Shan Industrial
+Extended Zone, Taoyuan City , Taiwan ,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+PACKING LIST
+Page3of3
+CONSIGN TO :
+Date:07-AUG-2023
+Vendor Code:
+Invoice/Packing No. : 072B208517
+L/C No. :
+SHIP TO:
+BILL TO :
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)(
+CYTS-SPIRITLOGISTICSLIMITED
+Rooms 3101-3105, Singga Commercial Centre,
+6/F,EverGain Centre
+148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57Wang Wo Tsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA
+China
+Ship from TAIWAN,CHINA to CHINA perAIR
+For risks and account of HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.
+C/NO
+PART NUMBER
+DESCRIPTIONOFGOODS
+QTY
+P.O. NO.
+N.W.
+G.W.
+KGS
+KGS
+9-9
+1331145901
+08LayerPrinted Circuit Board
+@
+720 4510077020
+@3.80000 @4.80000
+RGAC7.820.019X-B
+PNL SIZE:67.19*196.20*1.00MM
+720
+3.80000
+4.80000
+1PNL= 10 PCS
+2X-OUT
+10 -10 1331145901
+08 Layer Printed Circuit Board
+@
+88 4510077020
+@0.70000 @ 1.70000
+RGAC7.820.019X-B
+PNL SIZE:67.19*196.20*1.00MM
+88
+0.70000
+1.70000
+1PNL= 10 PCS
+2X-OUT
+11 -11 1331145901
+08 LayerPrinted Circuit Board
+@
+56 4510077020
+@0.40000 @1.40000
+RGAC7.820.019X-B
+PNLSIZE:67.19*196.20*1.00MM
+56
+0.40000
+1.40000
+1PNL= 10 PCS
+2
+X-OUT
+TOTAL
+11
+CTNS
+TOTALQTY
+7565
+PCS
+36.60000
+47.60000
+TOTALPACKINGINELEVENCARTONSONLY
+1 PLT =4.4KGS, TOTAL GROSS WEIGHT 52 KGS
+江門
+CHINA
+C/NO. 1 - TL
+11CTNS
+MADEIN TAIWAN,CHINA
+统一發票專用章
+统一编號
+23535435
+負貴人：曾子章
+TEL:(03)3500386</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>072B208517-RGAC7.820.019X-B.pdf</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP.
+179,Shan Ying Road, Kwei-Shan Industrial
+Extended Zone, Taoyuan City , Taiwan ,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+PACKING LIST
+Page 1 of 3
+CONSIGN TO :
+Date : 07-AUG-2023
+Vendor Code :
+Invoice/Packing No. : 072B208517
+L/C No. :
+SHIP TO : BILL TO :
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) C
+CYTS-SPIRIT LOGISTICS LIMITED Rooms 3101-3105, Singga Commercial Centre,
+6/F, Ever Gain Centre 148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57 Wang Wo Tsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA China
+Ship from TAIWAN,CHINA to CHINA per AIR
+For risks and account of HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.,
+C/NO PART NUMBER DESCRIPTION OF GOODS QTY P.O. NO. N.W. G.W.
+KGS KGS
+1 - 1 1331145901 08 Layer Printed Circuit Board @ 1060 4510077020 @ 4.60000 @ 5.60000
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM 1060 4.60000 5.60000
+1PNL= 10 PCS 0 X-OUT
+2 - 2 1331145901 08 Layer Printed Circuit Board @ 870 4510077020 @ 3.80000 @ 4.80000
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM 870 3.80000 4.80000
+1PNL= 10 PCS 0 X-OUT
+3 - 3 1331145901 08 Layer Printed Circuit Board @ 480 4510077020 @ 2.10000 @ 3.10000
+PNL SIZE: 67.19*196.20*1.00MM 480 2.10000 3.10000
+RGAC7.820.019X-B
+1PNL= 10 PCS 0 X-OUT
+4 - 4 1331145901 08 Layer Printed Circuit Board @ 1422 4510077020 @ 6.70000 @ 7.70000
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM 1422 6.70000 7.70000
+1PNL= 10 PCS 1 X-OUT
+CHINA
+C/NO. 1 - TL 11 CTNS
+MADE IN TAIWAN,CHINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>072B208517-RGAC7.820.019X-B.pdf</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>2</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP.
+179,Shan Ying Road, Kwei-Shan Industrial
+Extended Zone, Taoyuan City , Taiwan ,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+PACKING LIST
+Page 2 of 3
+CONSIGN TO :
+Date : 07-AUG-2023
+Vendor Code :
+Invoice/Packing No. : 072B208517
+L/C No. :
+SHIP TO : BILL TO :
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) C
+CYTS-SPIRIT LOGISTICS LIMITED Rooms 3101-3105, Singga Commercial Centre,
+6/F, Ever Gain Centre 148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57 Wang Wo Tsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA China
+Ship from TAIWAN ,CHINA to CHINA per AIR
+For risks and account of HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.,
+C/NO PART NUMBER DESCRIPTION OF GOODS QTY P.O. NO. N.W. G.W.
+KGS KGS
+5 - 5 1331145901 08 Layer Printed Circuit Board @ 810 4510077020 @ 3.80000 @ 4.80000
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM 810 3.80000 4.80000
+1PNL= 10 PCS 1 X-OUT
+6 - 6 1331145901 08 Layer Printed Circuit Board @ 693 4510077020 @ 3.30000 @ 4.30000
+PNL SIZE: 67.19*196.20*1.00MM 693 3.30000 4.30000
+RGAC7.820.019X-B
+1PNL= 10 PCS 1 X-OUT
+7 - 7 1331145901 08 Layer Printed Circuit Board @ 198 4510077020 @ 1.10000 @ 2.10000
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM 198 1.10000 2.10000
+1PNL= 10 PCS 1 X-OUT
+8 - 8 1331145901 08 Layer Printed Circuit Board @ 1168 4510077020 @ 6.30000 @ 7.30000
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM 1168 6.30000 7.30000
+1PNL= 10 PCS 2 X-OUT
+CHINA
+C/NO. 1 - TL 11 CTNS
+MADE IN TAIWAN,CHINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>072B208517-RGAC7.820.019X-B.pdf</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>3</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP.
+179,Shan Ying Road, Kwei-Shan Industrial
+Extended Zone, Taoyuan City , Taiwan ,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+PACKING LIST
+Page 3 of 3
+CONSIGN TO :
+Date : 07-AUG-2023
+Vendor Code :
+Invoice/Packing No. : 072B208517
+L/C No. :
+SHIP TO : BILL TO :
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) C
+CYTS-SPIRIT LOGISTICS LIMITED Rooms 3101-3105, Singga Commercial Centre,
+6/F, Ever Gain Centre 148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57 Wang Wo Tsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA China
+Ship from TAIWAN ,CHINA to CHINA per AIR
+For risks and account of HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.,
+C/NO PART NUMBER DESCRIPTION OF GOODS QTY P.O. NO. N.W. G.W.
+KGS KGS
+9 - 9 1331145901 08 Layer Printed Circuit Board @ 720 4510077020 @ 3.80000 @ 4.80000
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM 720 3.80000 4.80000
+1PNL= 10 PCS 2 X-OUT
+10 - 10 1331145901 08 Layer Printed Circuit Board @ 88 4510077020 @ 0.70000 @ 1.70000
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM 88 0.70000 1.70000
+1PNL= 10 PCS 2 X-OUT
+11 - 11 1331145901 08 Layer Printed Circuit Board @ 56 4510077020 @ 0.40000 @ 1.40000
+PNL SIZE: 67.19*196.20*1.00MM 56 0.40000 1.40000
+RGAC7.820.019X-B
+1PNL= 10 PCS 2 X-OUT
+TOTAL 11 CTNS TOTAL QTY 7565 PCS 36.60000 47.60000
+TOTAL PACKING IN ELEVEN CARTONS ONLY
+1 PLT =4.4KGS, TOTAL GROSS WEIGHT 52 KGS
+江門
+CHINA
+C/NO. 1 - TL 11 CTNS
+MADE IN TAIWAN ,CHINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>072B208517-RGAC7.820.019X-B.pdf</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>4</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 7420.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP.", "page": "1/3"}</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 7420.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP.", "page": "1/3"}</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP.
+179,Shan Ying Road, Kwei-Shan Industrial
+Extended Zone, Taoyuan City , Taiwan,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+INVOICE
+Page 1 of 3
+CONSIGN TO :
+Date : 07-AUG-2023
+Vendor Code :
+Invoice/Packing No. : 072B208517
+L/C No. :
+SHIP TO : BILL TO :
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) C
+CYTS-SPIRIT LOGISTICS LIMITED Rooms 3101-3105, Singga Commercial Centre,
+6/F, Ever Gain Centre 148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57 Wang Wo Tsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA China
+Ship from TAIWAN ,CHINA to CHINA per AIR
+For risks and account of HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.,
+C/NO PART NUMBER DESCRIPTION OF GOODS QTY P.O. NO. U/P AMOUNT
+USD USD
+DDU
+1 - 1 1331145901 08 Layer Printed Circuit Board 1060 4510077020 7.00000 7,420.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS 0 X-OUT
+2 - 2 1331145901 08 Layer Printed Circuit Board 870 4510077020 7.00000 6,090.00
+PNL SIZE: 67.19*196.20*1.00MM
+RGAC7.820.019X-B
+1PNL= 10 PCS 0 X-OUT
+3 - 3 1331145901 08 Layer Printed Circuit Board 480 4510077020 7.00000 3,360.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS 0 X-OUT
+4 - 4 1331145901 08 Layer Printed Circuit Board 1422 4510077020 7.00000 9,954.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS 1 X-OUT
+CHINA
+C/NO. 1 - TL 11 CTNS
+MADE IN TAIWAN ,CHINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>072B208517-RGAC7.820.019X-B.pdf</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>5</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 5670.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP.", "page": "2/3"}</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 5670.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP.", "page": "2/3"}</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP.
+179,Shan Ying Road, Kwei-Shan Industrial
+Extended Zone, Taoyuan City , Taiwan ,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+INVOICE
+Page 2 of 3
+CONSIGN TO :
+Date : 07-AUG-2023
+Vendor Code :
+Invoice/Packing No. : 072B208517
+L/C No. :
+SHIP TO : BILL TO :
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) C
+CYTS-SPIRIT LOGISTICS LIMITED Rooms 3101-3105, Singga Commercial Centre,
+6/F, Ever Gain Centre 148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57 Wang Wo Tsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA China
+Ship from TAIWAN ,CHINA to CHINA per AIR
+For risks and account of HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.,
+C/NO PART NUMBER DESCRIPTION OF GOODS QTY P.O. NO. U/P AMOUNT
+USD USD
+DDU
+5 - 5 1331145901 08 Layer Printed Circuit Board 810 4510077020 7.00000 5,670.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS 1 X-OUT
+6 - 6 1331145901 08 Layer Printed Circuit Board 693 4510077020 7.00000 4,851.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS 1 X-OUT
+7 - 7 1331145901 08 Layer Printed Circuit Board 198 4510077020 7.00000 1,386.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS 1 X-OUT
+8 - 8 1331145901 08 Layer Printed Circuit Board 1168 4510077020 7.00000 8,176.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS 2 X-OUT
+CHINA
+C/NO. 1 - TL 11 CTNS
+MADE IN TAIWAN ,CHINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>072B208517-RGAC7.820.019X-B.pdf</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>6</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 52955.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP.", "page": "3/3"}</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "072B208517", "Invoice Date": "07-AUG-2023", "Currency": "USD", "Amount": 52955.0, "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.", "From": "UNIMICRON TECHNOLOGY CORP.", "page": "3/3"}</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>UNIMICRON TECHNOLOGY CORP.
+179,Shan Ying Road, Kwei-Shan Industrial
+Extended Zone, Taoyuan City , Taiwan ,CHINA
+Tel:(03)3500386
+Fax:(03)3500372
+INVOICE
+Page 3 of 3
+CONSIGN TO :
+Date : 07-AUG-2023
+Vendor Code :
+Invoice/Packing No. : 072B208517
+L/C No. :
+SHIP TO : BILL TO :
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) C
+CYTS-SPIRIT LOGISTICS LIMITED Rooms 3101-3105, Singga Commercial Centre,
+6/F, Ever Gain Centre 148 Connaught Rd. West, Sai Ying Pun, HK.
+43-57 Wang Wo Tsai Street
+Tsuen Wan, N.T., HONG KONG
+CHINA China
+Ship from TAIWAN ,CHINA to CHINA per AIR
+For risks and account of HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES(HK) CO.,
+C/NO PART NUMBER DESCRIPTION OF GOODS QTY P.O. NO. U/P AMOUNT
+USD USD
+DDU
+9 - 9 1331145901 08 Layer Printed Circuit Board 720 4510077020 7.00000 5,040.00
+PNL SIZE: 67.19*196.20*1.00MM
+RGAC7.820.019X-B
+1PNL= 10 PCS 2 X-OUT
+10 - 10 1331145901 08 Layer Printed Circuit Board 88 4510077020 7.00000 616.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS 2 X-OUT
+11 - 11 1331145901 08 Layer Printed Circuit Board 56 4510077020 7.00000 392.00
+RGAC7.820.019X-B PNL SIZE: 67.19*196.20*1.00MM
+1PNL= 10 PCS 2 X-OUT
+TOTAL 11 CTNS TOTAL QTY 7565 PCS 52955.00
+SAY TOTAL USD FIFTY TWO THOUSAND NINE HUNDRED FIFTY FIVE ONLY
+1 PLT =4.4KGS, TOTAL GROSS WEIGHT 52 KGS
+江門
+CHINA
+C/NO. 1 - TL 11 CTNS
+MADE IN TAIWAN,CHINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>HK TECHTRONICS HKT0762-23 .pdf</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HKT0762-23", "Invoice Date": "6-Jul-23", "Currency": "USD", "Amount": 19638.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "HONG KONG TECHTRONICS INDUSTRIAL LIMITED"}</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HKT0762-23", "Invoice Date": "6-Jul-23", "Currency": "USD", "Amount": 19638.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "HONG KONG TECHTRONICS INDUSTRIAL LIMITED"}</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>echtronics
+香港泰科源實業有限公司
+HONG KONG TECHTRONICS INDUSTRIAL LIMITED
+INVOICE
+HT065
+Messrs.
+Hisense Broadband Multimedia Technologies(HK)Co.,Limited.
+Unit 6A &amp; 6C, 6th Floor, Shatin Industrial Building, 22-28 Wo Shui Street,
+Fotan, Shatin, New Territories, Hong Kong
+ Ship To:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Address:
+香港荃灣横窝仔街43-57號永得利中心六樓
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+Attn.:
+Etain
+From: WING
+Tel.:
+39020582
+Date:6-Jul-23
+Fax.:
+Inv. No.: HKT0762-23
+Item
+Description/Part No.
+Qty
+Unit Price
+Amount
+(Pcs)
+(USD)
+(USD)
+PO#:4510078103
+PN:4401010301
+SLD177H5
+6,546
+3.00
+19,638.00
+SONY/索尼
+6,546
+Total(USD):
+19,638.00
+Total:Say U.s. Dollars Nineteen Thousand Six Hundred Thirty Eight Only.
+PaymentTerms:月结30天
+Our Banker:
+Bank Name:
+BANK OF CHINA (HONG KONG)
+Account NO.:
+USD A/C:030-577-9-201889-8
+HKD A/C:030-577-0-003223-3
+Bank Name:
+HSBC
+Account NO.:
+USD/HKD:116-734120-838
+SWIFT CODE:
+BKCHHKHH
+0
+沙田安平街8號偉逹中心10楼1011-1012,1015-1023室
+Unit 1011-1012, 1015-1023, 10/F. ,Grandtech Centre,8 On Ping Street, ShaTin,NT
+Tel: (852) 2152 1516
+Fax:(852) 25421789</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>HK TECHTRONICS HKT0762-23 .pdf</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>2</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>chtronics
+香港泰科源宝業有限公司
+HONGKONGTECHTRONICSINDUSTRIALLIMITED
+PACKINGLIST
+HT065
+Messrs. Hisense Broadband Multimedia Technologies(HK)Co.,Limited.
+Unit 6A &amp; 6C, 6th Floor, Shatin Industrial Building, 22-28 Wo Shui Street,
+Fotan,Shatin,NewTerritories,HongKong
+Ship To:青旅思捷物流有限公司CYTS-SPIRIT LOGISTICSLIMITED
+Address:香港荃灣横窝仔街43-57號永得利中心六樓
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+From: WING
+Attn.:
+Etain
+Date:6-Jul-23
+Tel.:
+39020582
+Inv.No.: HKTO762-23
+Fax.:
+物流人盒號：
+Carton
+Qty
+Country
+G.Weight
+N.Weight
+Dimension
+Description/Part No.
+DC
+(Pcs)
+of Origin
+(Kgs)
+(Kgs)
+(CM)
+No.
+PO#:4510078103
+PN:4401010301
+SLD177H5
+20230428
+6,546
+JAPAN
+1.28
+1.02
+34*33*39
+SONY/索尼
+6,546
+1.28
+1.02
+Total : One (1) Cartons Only.
+出廠序列號：無
+Goods received by
+Date:
+沙田安平街8號偉逹中心10楼1011-1012,1015-1023室
+Unit 1011-1012, 1015-1023, 10/F. , Grandtech Centre, 8 On Ping Street, ShaTin, NT
+Tel: (852) 2152 1516
+Fax:(852)25421789</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>HK TECHTRONICS HKT07129-23.pdf</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HKT07129-23", "Invoice Date": "11-Jul-23", "Currency": "USD", "Amount": 34287.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "Techtronics"}</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "HKT07129-23",
+    "Invoice Date": "11-Jul-23",
+    "Currency": "USD",
+    "Amount": 34287.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "HONG KONG TECHTRONICS INDUSTRIAL LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>['From']</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>Techtronics
+香港泰科源實業有限公司
+HONGKONGTECHTRONICSINDUSTRIALLIMITED
+INVOICE
+HT065
+Messrs.
+Hisense Broadband Multimedia Technologies(HK)Co.,Limited.
+Unit 6A &amp; 6C, 6th Floor, Shatin Industrial Building, 22-28 Wo Shui Street,
+Fotan, Shatin, New Territories, Hong Kong
+Ship To:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Address:
+香港荃灣横仔街43-57號永得利中心六楼
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+Attn.:
+Etain
+From: WING
+Tel.:
+39020582
+Date:11-Jul-23
+Fax.:
+Inv. No.: HKT07129-23
+Item
+Description/Part No.
+Qty
+Unit Price
+Amount
+(Pcs)
+(USD)
+(USD)
+PO#:4510078103
+PN:4401010301
+SLD177H5
+10,454
+3.00
+31,362.00
+PO#:4510078415
+PN:4401010301
+SLD177H5
+975
+3.00
+2,925.00
+SONY/索尼
+11,429
+Total(USD):
+34,287.00
+Total:Say U.S. Dollars Thirty Four Thousand Two Hundred Eighty Seven Only.
+PaymentTerms:月结30天
+ Our Banker:
+Bank Name:
+BANK OF CHINA (HONG KONG)
+Account NO.:
+USD A/C:030-577-9-201889-8
+HKD A/C:030-577-0-003223-3
+Bank Name:
+HSBC
+Account NO.:
+USD/HKD:116-734120-838
+SWIFT CODE:
+BKCHHKHH
+沙田安平街8號偉達中心10楼1011-1012,1015-1023室
+Unit 1011-1012, 1015-1023,10/F. ,Grandtech Centre,8 On Ping Street, ShaTin, NT
+Tel: (852) 2152 1516
+Fax:(852) 25421789</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>HK TECHTRONICS HKT07129-23.pdf</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>2</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>Techtronics
+香港泰科源宝業有限公司
+HONG KONG TECHTRONICS INDUSTRIAL LIMITED
+PACKINGLIST
+HT065
+Messrs. Hisense Broadband Multimedia Technologies(HK)Co.,Limited.
+Unit 6A&amp;6C,6thFloor,Shatin Industrial Building,22-28WoShui Street,
+Fotan,Shatin,NewTerritories,HongKong
+ShipTo:青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Address：香港荃灣横高仔街43-57號永得利中心六楼
+6/F,Ever Gain Centre,43-57Wang Wo Tsai Street,Tsuen Wan,N.T.,Hong Kong
+From: WING
+Attn.:
+Etain
+Date:11-Jul-23
+Tel.:
+39020582
+Inv.No.:HKT07129-23
+Fax.:
+物流人詹號：
+Carton
+Qty
+Country
+G.Weight
+N.Weight
+Dimension
+Description/Part No.
+DC
+(Pcs)
+of Origin
+No.
+(Kgs)
+(Kgs)
+(CM)
+PO#:4510078103/4510078415
+PN:4401010301
+1
+SLD177H5
+20230606
+11,429
+JAPAN
+1.38
+1.10
+34*32*38
+SONY/索尼
+11,429
+1.38
+1.10
+Total : One (1) Cartons Only.
+出廠序列號：無
+Goods received by
+Date:
+沙田安平街8號偉達中心10楼1011-1012，1015-1023室
+Unit 1011-1012,1015-1023,10/F.,Grandtech Centre,8 On Ping Street,ShaTin,NT
+Tel: (852) 2152 1516
+Fax: (852) 2542 1789</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>TECHTRONICS HKT08151-23.pdf</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HKT08151-23", "Invoice Date": "10-Aug-23", "Currency": "USD", "Amount": 31950.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "HONG KONG TECHTRONICS INDUSTRIAL LIMITED"}</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "HKT08151-23", "Invoice Date": "10-Aug-23", "Currency": "USD", "Amount": 31950.0, "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited", "From": "HONG KONG TECHTRONICS INDUSTRIAL LIMITED"}</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>chtronics
+香港泰科源宝業有限公司
+HONG KONGTECHTRONICS INDUSTRIALLIMITED
+INVOICE
+HT065
+Messrs.
+Hisense Broadband Multimedia Technologies(HK)Co.,Limited.
+From: Hang
+Unit 6A &amp; 6C,6th Floor, Shatin Industrial Building, 22-28 Wo Shui Street,
+Fotan, Shatin, New Territories, Hong Kong
+Date:10-Aug-23
+Ship To:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Address：香港荃灣横嵩仔街43-57號永得利中心六樓
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+Attn.:
+Etain
+Tel.:
+39020582
+Inv.No.: HKT08151-23
+Fax.:
+Item
+Description/Part No.
+Qty
+Unit Price
+Amount
+(Pcs)
+(USD)
+(USD)
+PO#:4510078415
+PN:4401010301
+SLD177H5
+4,025
+3.00
+12,075.00
+SONY/索尼
+PO#:4510079129
+PN:4401010301
+SLD177H5
+2
+6,000
+3.00
+18,000.00
+SONY/索尼
+PO#:4510080209
+PN:4401010301
+SLD177H5
+625
+3.00
+1,875.00
+SONY/索尼
+10,650
+Total(USD):
+31,950.00
+Total : Say U.S. Dollars Thirty One Thousand Nine Hundred Fifty Only.
+PaymentTerms:月结30天
+Our Banker:
+Bank Name:
+BANK OF CHINA (HONG KONG)
+Account NO.:
+USD A/C:030-577-9-201889-8
+HKDA/C:030-577-0-003223-3
+ONICS
+Bank Name:
+HSBC
+Account NO.:
+USD/HKD:116-734120-838
+SWIFT CODE:
+lang
+BKCHHKHH
+沙田安平街8號偉達中心10楼1011-1012,1015-1023室
+Unit 1011-1012, 1015-1023, 10/F. ,Grandtech Centre, 8 On Ping Street, ShaTin, NT
+Tel: (852) 2152 1516
+Fax: (852) 2542 1789</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>TECHTRONICS HKT08151-23.pdf</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>2</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>echtronics
+香港泰科源實業有限公司
+HONG KONGTECHTRONICSINDUSTRIALLIMITED
+PACKINGLIST
+HT065
+From: Hang
+Messrs.
+Hisense Broadband Multimedia Technologies(HK)Co.,Limited.
+Unit 6A&amp;6C,6thFloor,Shatin Industrial Building,22-28Wo Shui Street,
+Date:10-Aug-23
+Fotan,Shatin,NewTerritories,HongKong
+ShipTo:青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Address:香港荃灣横仔街43-57號永得利中心六樓
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan,N.T., Hong Kong
+Inv.No.: HKT08151-23
+Attn.:
+Etain
+Tel.:
+39020582
+Fax.:
+Country Of
+Qty
+G.Weight
+N.Weight
+Dimension
+D/C
+Carton
+(Kgs)
+(Kgs)
+(CM)
+Description/Part No.
+Origin
+(Pcs)
+No.
+PO#:4510078415/4510079129/4510080209
+PN:4401010301
+1.50
+1.20
+32x34x38
+20230801
+JAPAN
+10,650
+SLD177H5
+SONY/索尼
+10,650
+1.50
+1.20
+Total : One (1) Cartons Only.
+ Goods received by
+Date:
+沙田安平街8號偉達中心10楼1011-1012,1015-1023室
+Unit 1011-1012,1015-1023,10/F.,Grandtech Centre,8 On Ping Street,ShaTin,NT
+Tel: (852) 2152 1516
+Fax: (852)25421789</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI 5970023442.pdf</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "JWY20230710-001", "Invoice Date": "2023/7/10", "Currency": "USD", "Amount": 10880.0, "Bill To": "\u9752\u5c9b\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u4f53\u6280\u672f\u6709\u9650\u516c\u53f8", "From": "HK JIAWEIYI TECHNOLOGY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "JWY20230710-001", "Invoice Date": "2023/7/10", "Currency": "USD", "Amount": 10880.0, "Bill To": "\u9752\u5c9b\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u4f53\u6280\u672f\u6709\u9650\u516c\u53f8", "From": "HK JIAWEIYI TECHNOLOGY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYITECHNOLOGY LIMITED
+FL20,DynamicWorld,Zhonghang Road,FutianDistrict,Shenzhen City,China
+TEL:0755-82724656
+FAX:0755-83798223
+Jiaweiui嘉伟亿
+E-mail: duan@jiaweiyi.com
+Htttp://www.jiaweiyi.com
+ATTN:段满虎
+Skype:
+COMMERCIAL INVOICE
+INV NO: JWY20230710-001
+From:
+HK JIAWEIYI TECHNOLOGY LIMITED
+DELIVERYDATE:2023/7/10
+C, 5F, Yeung Yiu Chung No.8 Industrial Building, 20 Wang Hoi Rd, Kowloon Bay, Hong
+Kong
+TEL:00852-2602 5688
+PO NO:
+5970023442
+FAX:
+入仓号：
+ZGD-505712
+ATTN：段满虎
+Bill To:
+BankInformation
+青岛海信宽带多媒体技术有限公司
+Beneficiary's Bank: BANK OF CHINA (HONG KONG) LIMITED
+中国青岛市崂山区松岭路399号海信研发中心
+Bank Address: 1 Garden Road, Hong Kong
+BeneficiaryName:HKJIAWEIYITECHNOLOGYLIMITED
+TEL:133363999783
+Account NO.:01259120360088
+FAX:
+Swift Code: BKCHHKHHXXX
+ATTN:余智勇
+PACKAGE
+ITEMCODE
+DESCRIPTION
+COO
+D/CQUANTITYUNITPRICE(USD)
+AMOUNT(USD)
+1
+3011085501
+MT29F1G01ABAFDWB-IT:FTAIWAN,CHINA21+
+16.000
+0.68
+10880
+TOTAL
+16,000
+USD 10,880.00
+有限公
+Signature&amp;Stap:段满虎</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI 5970023442.pdf</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>2</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI TECHNOLOGY LIMITED
+FL20,Dynamic World,Zhonghang Road,Futian District,Shenzhen City,China
+TEL:0755-82724656
+FAX:0755-83798223
+Jiaweiui嘉伟亿
+E-mail:duan@jiaweiyi.com
+Http://www.jiaweiyi.com
+ATTN:段满虎
+Skype:
+PACKING LIST/ DELIVERYNOTE
+Ship To:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Packing List No.:
+JWY20230710-001
+香港荃灣横寓仔街43-57號永得利中心六楼
+Proforma Invoice No.: JWY20230710-001
+6/F, Ever Gain Centre， 43-57 Wang Wo Tsai Street， Tsuen Wan,
+N.T.，Hong Kong
+Date:
+10-Jul-23
+TEL:39020582
+入仓号：
+ZGD-505712
+FAX:
+ATTN:Etaln
+Bill To:
+青岛海信宽带多媒体技术有限公司
+中国青岛市崂山区松岭路399号海信研发中心
+TEL:133363999783
+FAX:
+ATTN:余智勇
+PACKAGEITEMCODE/PARTNO.
+Brand
+QUANTITY
+D/C
+NETWET.(KGS)GROSS WET.(KGS)
+3011085501
+MT29F1G01ABAFDWB-IT:F
+MICRON
+16000
+21+
+4.82
+5.30
+7
+COO:TAIWAN.CHINA 37*38*65cm
+NO.of Package:
+1
+Gross Weight:
+5.3
+TOTAL
+16000
+Goods Received By
+Packe
+Pis sign the documents in receiving and checking the goods.and submits to the Sender.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI JWY20230720-001.pdf</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>TD3121
+94151812
+HK JIAWEIYI TECHNOLOGY LIMITED
+FL20,Dynamic World,Zhonghang Road,Futian District,Shenzhen City,China
+TEL:0755-82724656
+FAX:0755-83798223
+Jiaweiyi喜伟亿
+E-mail: duan@jiaweiyi.com
+Http://www.jiaweiyi.com
+ATTN:段满虎
+Skype:
+PACKING LIST/ DELIVERY NOTE
+Ship To:
+青旅思捷物流有限公司CYTS-SPIRIT LOGISTICS LIMITED
+Packing List No.:
+JWY20230720-001
+香港荃灣横窝仔街43-57號永得利中心六楼
+Proforma Invoice No.: JWY20230720-001
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan,
+Date:
+20-Ju1-23
+N.T., Hong Kong
+TEL:39020582
+入仓号：
+ZGD-505781
+FAX:
+ATTN:Etaln
+Bill To:
+海信宽带多媒体技术（香港）有限公司
+香港干诺道西148号成基商业中心3101-3105室
+TEL:133363999783
+FAX:
+ATTN:余智勇
+PACKAGEITEMCODE/PARTNO.
+Brand
+QUANTITY
+D/C
+NETWET.(KGS)JGROSSWET.(KGS)
+3010100101
+K4B2G1646F-BYMA
+SAMSUNG
+1120
+23+
+2.73
+3.00
+COO:CN41*21*24cm
+3011085501
+MT29F1G01ABAFDWB-IT:F
+MICRON
+16000
+21+
+4.82
+5.30
+COO:TAIWAN,CHINA 37*38*65cm
+NO.of Package:
+2
+Gross Weight:
+8.3
+TOTAL
+17120
+Goods Received By
+Packe
+Pls sign the documents in receiving and checking the goods. and submits to the Sender.</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI JWY20230720-001.pdf</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>2</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "JWY20230720-001", "Invoice Date": "2023/7/20", "Currency": "USD", "Amount": 11955.2, "Bill To": "\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u4f53\u6280\u672f\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "HK JIAWEIYI TECHNOLOGY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "JWY20230720-001", "Invoice Date": "2023/7/20", "Currency": "USD", "Amount": 11955.2, "Bill To": "\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u4f53\u6280\u672f\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "HK JIAWEIYI TECHNOLOGY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI TECHNOLOGY LIMITED
+FL20,DynamicWord,hnghangRoad,utanDistrict,henzhenCity,hin
+TEL: 0755-82724656
+FAX: 0755-83798223
+E-mail:duan@jiaweiyil.com
+fHttp://www.jiaweiyi.com
+Jiaweiui喜伟亿
+ATTN：段满虎
+Skype:
+COMMERCIALINVOICE
+INV NO: JWY20230720-001
+From:
+HK JIAWEIYI TECHNOLOGY LIMITED
+DELIVERY DATE:2023/7/20
+Kong
+TEL:00852-2602 5688
+PO NO:
+5970023737/5970023549
+FAX:
+入仓号：
+ZGD-505781
+ATTN：段满虎
+Bill To:
+BankInformation
+海信宽带多媒体技术（香港）有限公司
+Beneficiary's Bank: BANK OF CHINA(HONG KONG) LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+Bank Address:1 Garden Road,Hong Kong
+Beneficiary Name:HK JIAWEIYI TECHNOLOGY LIMITED
+TEL:133363999783
+Account NO.:01259120360088
+FAX:
+Swift Code: BKCHHKHHXXX
+ATTN：余智勇
+PACKAGE
+ITEMCODE
+DESCRIPTION
+COO
+D/C
+QUANTITYUNITPRICE(USD)
+AMOUNT(USD)
+3010100101
+K4B2G1646F-BYMA
+CN
+23+
+1,120
+0.96
+1075.2
+1
+3011085501
+MT29F1G01ABAFDWB-IT:FTAIWAN,CHINA21+
+16,000
+0.68
+10880
+1
+TOTAL
+17,120
+USD11,955.20
+有限公司司
+Signature&amp;amp段满虎</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI JWY20230804-001.pdf</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>TD3121
+94151812
+HK JIAWEIYI TECHNOLOGY LIMITED
+FL20,Dynamic Worid,Zhonghang Road,Futian District,Shenzhen City,China
+TEL:0755-82724656
+FAX:0755-83798223
+Jiaweiyi喜伟亿
+E-mail: duan@jiaweiyi.com
+Hittp://www.jiaweiyi.com
+ATTN:段满虎
+Skype:
+PACKING LIST/DELIVERYNOTE
+Ship To:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Packing List No.:
+JWY20230804-001
+香港茎灣横富仔街43-57號永得利中心六楼
+Proforma Invoice No.:JWY20230804-001
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan,
+Date:
+4-Aug-23
+N.T.,Hong Kong
+TEL:39020582
+入仓号：
+ZGD-505906
+FAX:
+ATTN: Etaln
+Bill To:
+海信宽带多媒体技术（香港）有限公司
+香港干诺道西148号成基商业中心3101-3105室
+TEL:133363999783
+FAX:
+ATTN:余智勇
+Brand
+QUANTITY
+D/C
+NET
+GROSS
+PACKAGEITEMCODE/PARTNO.
+WET.(KGS)
+WET.KGS)
+3011085501
+MT29F1G01ABAFDWB-IT:F
+MICRON
+16000
+21+
+4.82
+5.30
+1
+COO:TAIWAN.CHINA 37*38*65cm
+NO.of Package:
+1
+Gross Weight:
+5.3
+TOTAL
+16000
+Goods Received By
+Packed By
+Pls sign the documents in receiving and checking the goods. and submits to the Sender.</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI JWY20230804-001.pdf</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>2</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "JWY20230804-001", "Invoice Date": "2023/8/4", "Currency": "USD", "Amount": 10880.0, "Bill To": "\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u4f53\u6280\u672f\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "HK JIAWEIYI TECHNOLOGY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "JWY20230804-001", "Invoice Date": "2023/8/4", "Currency": "USD", "Amount": 10880.0, "Bill To": "\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u4f53\u6280\u672f\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "HK JIAWEIYI TECHNOLOGY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI TECHNOLOGY LIMITED
+FL20,Dynamic World,Zhonghang Road,Futian District,Shenzhen City,China
+TEL: 0755-82724656
+FAX:0755-83798223
+E-mail: duan@jiaweiyi.com
+Http://www.jiaweiyi.com
+Jiaweiyi嘉伟亿
+ATTN：段满虎
+Skype:
+COMMERCIALINVOICE
+INV NO:JWY20230804-001
+From:
+HK JIAWEIYI TECHNOLOGY LIMITED
+DELIVERYDATE:2023/8/4
+C, 5F, Yeung Yiu Chung No.8 Industrial Building, 20 Wang Hoi Rd, Kowioon Bay, Hong
+Kong
+TEL:00852-2602 5688
+PO NO:
+5970023549
+FAX:
+入仓号：
+ZGD-505906
+ATTN：段满虎
+Bill To:
+Bank Information
+海信宽带多媒体技术（香港）有限公司
+Beneficiary'sBank:BANK OF CHINA (HONG KONG) LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+Bank Address: 1 Garden Road,Hong Kong
+BeneficiaryName:HKJIAWEIYITECHNOLOGYLIMITED
+TEL:133363999783
+Account NO.: 01259120360088
+FAX:
+Swift Code:BKCHHKHHXXX
+ATTN：余智勇
+PACKAGE
+ITEMCODE
+DESCRIPTION
+COO
+D/CQUANTITY
+UNITPRICE(USD)
+AMOUNT(USD)
+3011085501
+MT29F1G01ABAFDWB-IT:FTAIWAN,CHINA21+
+16,000
+0.68
+10880
+TOTAL
+16,000
+USD10,880.00
+TECHNOI
+香港
+Signaturd
+焦健科技
+段满虎</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F460"/>
+  <dimension ref="A1:F475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43307,6 +43307,1379 @@
         </is>
       </c>
     </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI JWY20230817-001.pdf</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>TD3121
+94151812
+HK JIAWEIYI TECHNOLOGY LIMITED
+FL20,DynamicWord,honghangRoad,FutianDistrict,ShenzhenCity,China
+TEL:0755-82724656
+FAX:0755-83798223
+E-mail:duan@jiaweiyi.com
+Http://www.jiaweiyi.com
+Jiaweiui喜伟亿
+ATTN:段满虎
+Skype:
+PACKINGLIST/DELIVERYNOTE
+Ship To:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+Packing List No.:
+JVWY20230817-001
+香港荃灣横富仔街43-57號永得利中心六楼
+Proforma InvoiceNo.:JWY20230817-001
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan,
+Date:
+17-Aug-23
+N.T., Hong Kong
+TEL:39020582
+入仓号：
+ZGD-506010
+FAX:
+ATTN:Etaln
+Bill To:
+海信宽带多媒体技术（香港）有限公司
+香港干诺道西148号成基商业中心3101-3105室
+TEL:133363999783
+FAX:
+ATTN：余智勇
+DIC
+NET
+GROSS
+PACKAGE ITEMCODE/PARTNO.COO
+Brand
+QUANTITY
+WET.(KGS)
+WET.IKGS)
+3011085501
+MT29F1G01ABAFDWB-IT:F
+MICRON
+40000
+21+
+12.05
+13.25
+1
+COO:TAIWAN,CHINA 66*38*36cm
+3011085501
+MT29F1G01ABAFDWB-IT:F
+MICRON
+4000
+21+
+1.18
+1.30
+COO:TAIWAN.CHINA 37*38*65cm
+NO.of Package:
+2
+Gross Weight:
+14.55
+TOTAL
+44000
+ECHNO/
+嘉体健科技
+Goods Received By
+Pack
+恒外限公司
+Pls sign the documents in receiving and checking the goods.and submits to the Sender.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI JWY20230817-001.pdf</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>2</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "JWY20230817-001", "Invoice Date": "2023/8/17", "Currency": "USD", "Amount": 29920, "Bill To": "\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u4f11\u6280\u672f\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "HK JIAWEIYI TECHNOLOGY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "JWY20230817-001", "Invoice Date": "2023/8/17", "Currency": "USD", "Amount": 29920, "Bill To": "\u6d77\u4fe1\u5bbd\u5e26\u591a\u5a92\u4f11\u6280\u672f\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "HK JIAWEIYI TECHNOLOGY LIMITED"}</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>HK JIAWEIYI TECHNOLOGY LIMITED
+FL20,DynamicWorld,Zhonghang Road,FutianDistrict,Shenzhen City,China
+TEL:0755-82724656
+FAX:0755-83798223
+Jiaweiyi喜伟亿
+E-mail:duan@jiaweiyi.com
+Http://www.jiaweiyi.com
+ATTN:段满虎
+Skype:
+COMMERCIALINVOICE
+INV NO: JWY20230817-001
+From:
+HK JIAWEIYI TECHNOLOGY LIMITED
+DELIVERYDATE:2023/8/17
+C, 5F, Yeung Yiu Chung No.8 Industrial Building, 20 Wang Hoi Rd, Kowioon Bay, Hong
+Kong
+TEL:00852-2602 5688
+PO NO:
+5970023736
+FAX:
+入仓号：
+ZGD-506010
+ATTN：段满虎
+Bill To:
+BankInformation
+海信宽带多媒休技术（香港）有限公司
+Beneficiary's Bank: BANK OF CHINA (HONG KONG) LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+Bank Address: 1 Garden Road, Hong Kong
+Beneficiary Name:HKJIAWEIYITECHNOLOGYLIMITED
+TEL:133363999783
+Account NO.: 01259120360088
+FAX:
+Swift Code:BKCHHKHHXXX
+ATTN：余智勇
+COO
+DICQUANTITYUNITPRICE(USD)
+AMOUNT(USD)
+PACKAGE
+ITEMCODE
+PARTNO.
+2
+3011085501
+MT29F1G01ABAFDWB-IT:FTAIWAN,CHINA21+
+44,000
+0.68
+29920
+TOTAL
+44,000
+USD29,920.00
+TECHLVOL
+嘉律德科技
+有限公司
+Signature
+tamp
+段满虎</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>UNITE.V 2023-GH-009.pdf</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "\u975e\u53d1\u7968\uff1a\u53ef\u80fd\u662f\u88c5\u8d27\u5355\u3001waybill\u6216\u5176\u4ed6"}</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>ZCD.50587
+香港华科亚太有限公司
+H.K. UNITE .V. ASIA PACIFIC LIMITED
+UNITED815/FMAISHUNINDUSTRIALBLDG18-24KWAICHEONGROADKCNTHONGKONG
+Tel:(086)532-80991537 Fax:(086) 532-85013980
+PACKINGLIST
+SoldTo:HISENSEBOARDBANDMULTIMEDIATECH.,(HK)CO.,LTD.
+Address：香港荃灣横仔街43-53号永得利中心15樓（务必先去6楼登记）
+Recipient:ETAIN（852） 3902 0582
+InvoiceNo.(发票号码)：2023-GH-009
+InvoiceDate(发票日期):2023-7-28
+OrderNo.(定单号码)：5970021336&amp;5970021233
+箱数
+型号
+数量
+单位
+毛重
+净重
+尺寸
+批次
+LTST-C191KRKT-HS
+5,000
+pcs
+2218
+1. 600
+1. 000
+19*15*49
+LTST-C19IKGKT-HS
+55,000
+pcs
+2218
+60,000 PCS
+1.60 KG
+1.00 KG
+合计：1箱
+For and on behalf of
+H.K.UNITE.V.ASIAPACIFICLIMITED
+高惠
+H.K Authorised Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>UNITE.V 2023-GH-009.pdf</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>2</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "2023-GH-009", "Invoice Date": "2023-07-28", "Currency": "USD", "Amount": 1140.0, "Bill To": "HISENSE BOARD BAND MULTIMEDIA TECH., (HK) CO., LTD.", "From": "H.K. UNITE .V. ASIA PACIFIC LIMITED"}</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "2023-GH-009", "Invoice Date": "2023-07-28", "Currency": "USD", "Amount": 1140.0, "Bill To": "HISENSE BOARD BAND MULTIMEDIA TECH., (HK) CO., LTD.", "From": "H.K. UNITE .V. ASIA PACIFIC LIMITED"}</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>香港华科亚太有限公司
+H.K. UNITE .V. ASIA PACIFIC LIMITED
+UNITED815/FMAISHUNINDUSTRIALBLDG18-24KWAICHEONGROADKCNTHONGKONG
+Tel: (086)532-80991537 Fax: (086) 532-85013980
+INVOICE
+SoldTo:HISENSEBOARDBANDMULTIMEDIATECH.,(HK)CO.,LTD.
+Address:香港荃灣横仔街43-53号永得利中心15樓（务必先去6楼登记）
+Recipient: ETAIN
+（852）3902 0582
+InvoiceNo.(发票号码):2023-GH-009
+InvoiceDate(发票日期):2023-7-28
+OrderNo.（定单号码）:5970021336&amp;5970021233
+ORDER NO
+PART NO
+Description
+BRAND
+COO
+QTY
+UNITUNIT PRICE
+AMOUNT
+描述
+品牌
+产地
+订单号
+物料号
+数量
+单位
+单价（USD）
+金额（USD）
+5970021336
+1041020501
+LTST-C191KRKT-HS
+LITEON
+CHINA
+5000
+PCS
+$0.0190
+$95.00
+5970021233
+1041020401
+LTST-C191KGKT-HS
+LITEON
+CHINA
+55000
+PCS
+$0.0190
+$1,045.00
+合计：
+$1,140.00
+For and on behalf of
+H.K.UNITE.V.ASIA PACIFIC LIMITED
+高惠
+H.KAuthorised Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>INV#0091871870_MULTI.pdf</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "91871870", "Invoice Date": "2023/06/30", "Currency": "USD", "Amount": 13695.0, "Bill To": "\u6d77\u4fe1\u5bec\u5e36\u591a\u5a92\u9ad4\u6280\u8853\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "\u6587\u66c4\u79d1\u6280(\u9999\u6e2f)\u6709\u9650\u516c\u53f8", "page": "1/2"}</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "91871870", "Invoice Date": "2023/06/30", "Currency": "USD", "Amount": 13695.0, "Bill To": "\u6d77\u4fe1\u5bec\u5e36\u591a\u5a92\u9ad4\u6280\u8853\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "\u6587\u66c4\u79d1\u6280(\u9999\u6e2f)\u6709\u9650\u516c\u53f8", "page": "1/2"}</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>文曄科技(香港)有限公司 [1/2]
+WT MICROELECTRONICS (HK) LTD.
+香港荃灣青山道264-298號南豐中心二十樓2001E室
+Room 2001E, Nan Fung Centre, 264-298 Castle Peak Road, Tsuen Wan, N.T
+TEL: 852-2950-0820 FAX: 852-2950-0386
+W/H Address: Unit 103 on the 1st Floor, Hutchison Logistics Centre, 18 Container Port Road South, Kwai Chung , New Territories, HK
+INVOICE
+Date: 2023/06/30 INVOICE NO: 91871870
+PAYMENT TERM: NE05 Net 60 days PLANT: HB12
+INCOTERM: FOB Hongkong VENDOR CODE: 5000027
+Payment Currency: USD Rate: 1.00000
+BILL TO: SHIP TO:
+海信寬帶多媒體技術（香港）有限公司 HISENSE BROADBAND 海信寬帶多媒體技術（香港）有限公司 HISENSE BROADBAND
+MULTIMEDIATECHNOLOGIES (HK) CO., LIMITED MULTIMEDIATECHNOLOGIES (HK) CO., LIMITED
+ROOMS 3101-3105 SINGGA,COMMERCIAL CENTRE 148,CONNAUGHT ROOMS 3101-3105 SINGGA,COMMERCIAL CENTRE 148,CONNAUGHT
+ROAD WEST ,HONG KONG ROAD WEST ,HONG KONG
+TEL: 0755-82528484 FAX: 0755-83259733 TEL: 0755-82528484 FAX: 0755-83259733
+DELIVERY-TO:
+青旅思捷物流有限公司 CYTS-SPIRIT LOGISTICS LIMITED
+荃灣橫窩仔街43-57號永得利中心6樓心六樓 ［联系人: Mr.Key(阿仁)/ Gary］6/F,
+Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+TEL: 31522433/0852-39 FAX: 0852-39020555
+ITEM CTM PO/NO PO ITEM DESCRIPTION IC BODY BRAND QTY(PCS)
+CCATS EAR HS CODE ECCN
+Reference# CUSTOMER P/N CUSTOMER DESCRIPTION
+MATERIAL Mat.GRP U/P AMOUNT(USD)
+000010 4510075875 10 MAX5550ETE+T MAXIM 5,000
+EXEMPT EAR99
+4510075875 3011124801
+MAX5550ETE+T I43 2.73900 13,695.00
+Total QTY: 5,000
+Total AMT: 13,695.00 USD
+[Remark]
+Cust.contact: 藺艷麗
+Attached Doc. with Shipment: 2 sets invoice + packing用印後隨貨附送;資料上需顯示客戶料號及描述;
+WT Contact Person: Nancy Yu 0532-66885860-8016
+Others: 廣東海信寬帶；送貨前郵件索取入倉號
+These commodities were shipped in accordance with the export laws and regulations of the United States and other countries. Diversion contrary to the
+applicable laws and regulations is prohibited. Prior authorization from the U.S. and/or local government authorities may be required before resale, transfer
+and/ or re-export. This is a computer generated document, no signature in required.
+1 / 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>INV#0091871870_MULTI.pdf</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>2</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "91871885", "Invoice Date": "2023/06/30", "Currency": "USD", "Amount": 131035.0, "Bill To": "\u6d77\u4fe1\u5bec\u5e36\u591a\u5a92\u9ad4\u6280\u8853\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "WT MICROELECTRONICS (HK) LTD.", "page": "2/2"}</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "91871885", "Invoice Date": "2023/06/30", "Currency": "USD", "Amount": 131035.0, "Bill To": "\u6d77\u4fe1\u5bec\u5e36\u591a\u5a92\u9ad4\u6280\u8853\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "WT MICROELECTRONICS (HK) LTD.", "page": "2/2"}</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>文曄科技(香港)有限公司 [2/2]
+WT MICROELECTRONICS (HK) LTD.
+香港荃灣青山道264-298號南豐中心二十樓2001E室
+Room 2001E, Nan Fung Centre, 264-298 Castle Peak Road, Tsuen Wan, N.T
+TEL: 852-2950-0820 FAX: 852-2950-0386
+W/H Address: Unit 103 on the 1st Floor, Hutchison Logistics Centre, 18 Container Port Road South, Kwai Chung , New Territories, HK
+INVOICE
+Date: 2023/06/30 INVOICE NO: 91871885
+PAYMENT TERM: NE05 Net 60 days PLANT: HB12
+INCOTERM: FOB Hongkong VENDOR CODE: 5000027
+Payment Currency: USD Rate: 1.00000
+BILL TO: SHIP TO:
+海信寬帶多媒體技術（香港）有限公司 HISENSE BROADBAND 海信寬帶多媒體技術（香港）有限公司 HISENSE BROADBAND
+MULTIMEDIATECHNOLOGIES (HK) CO., LIMITED MULTIMEDIATECHNOLOGIES (HK) CO., LIMITED
+ROOMS 3101-3105 SINGGA,COMMERCIAL CENTRE 148,CONNAUGHT ROOMS 3101-3105 SINGGA,COMMERCIAL CENTRE 148,CONNAUGHT
+ROAD WEST ,HONG KONG ROAD WEST ,HONG KONG
+TEL: 0755-82528484 FAX: 0755-83259733 TEL: 0755-82528484 FAX: 0755-83259733
+DELIVERY-TO:
+青旅思捷物流有限公司 CYTS-SPIRIT LOGISTICS LIMITED
+荃灣橫窩仔街43-57號永得利中心6樓心六樓 ［联系人: Mr.Key(阿仁)/ Gary］6/F,
+Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+TEL: 31522433/0852-39 FAX: 0852-39020555
+ITEM CTM PO/NO PO ITEM DESCRIPTION IC BODY BRAND QTY(PCS)
+CCATS EAR HS CODE ECCN
+Reference# CUSTOMER P/N CUSTOMER DESCRIPTION
+MATERIAL Mat.GRP U/P AMOUNT(USD)
+000010 4510076923 20 IN025050PB02DW8FP MARVELL 14,360
+5A991.b
+4510076923 3011117301
+IN025050-PB02-DWGC-S01-8FP I43 9.12500 131,035.00
+Total QTY: 14,360
+Total AMT: 131,035.00 USD
+[Remark]
+Cust.contact: 宋澍威
+Attached Doc. with Shipment: 2 sets invoice + packing用印後隨貨附送;資料上需顯示客戶料號及描述;
+WT Contact Person: Nancy Yu 0532-66885860-8016
+Others: 廣東海信寬帶；送貨前郵件索取入倉號
+These commodities were shipped in accordance with the export laws and regulations of the United States and other countries. Diversion contrary to the
+applicable laws and regulations is prohibited. Prior authorization from the U.S. and/or local government authorities may be required before resale, transfer
+and/ or re-export. This is a computer generated document, no signature in required.
+1 / 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>INV#0091962813.pdf</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "91962813", "Invoice Date": "2023/08/16", "Currency": "USD", "Amount": 546687.88, "Bill To": "\u6d77\u4fe1\u5bec\u5e36\u591a\u5a92\u9ad4\u6280\u8853\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "WT MICROELECTRONICS (HK) LTD.", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "91962813", "Invoice Date": "2023/08/16", "Currency": "USD", "Amount": 546687.88, "Bill To": "\u6d77\u4fe1\u5bec\u5e36\u591a\u5a92\u9ad4\u6280\u8853\uff08\u9999\u6e2f\uff09\u6709\u9650\u516c\u53f8", "From": "WT MICROELECTRONICS (HK) LTD.", "page": "1/1"}</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>文曄科技(香港)有限公司 [1/1]
+WT MICROELECTRONICS (HK) LTD.
+香港荃灣青山道264-298號南豐中心二十樓2001E室
+Room 2001E, Nan Fung Centre, 264-298 Castle Peak Road, Tsuen Wan, N.T
+TEL: 852-2950-0820 FAX: 852-2950-0386
+W/H Address: Unit 103 on the 1st Floor, Hutchison Logistics Centre, 18 Container Port Road South, Kwai Chung , New Territories, HK
+INVOICE
+Date: 2023/08/16 INVOICE NO: 91962813
+PAYMENT TERM: NE05 Net 60 days PLANT: HB12
+INCOTERM: FOB Hongkong VENDOR CODE: 5000027
+Payment Currency: USD Rate: 1.00000
+BILL TO: SHIP TO:
+海信寬帶多媒體技術（香港）有限公司 HISENSE BROADBAND 海信寬帶多媒體技術（香港）有限公司 HISENSE BROADBAND
+MULTIMEDIATECHNOLOGIES (HK) CO., LIMITED MULTIMEDIATECHNOLOGIES (HK) CO., LIMITED
+ROOMS 3101-3105 SINGGA,COMMERCIAL CENTRE 148,CONNAUGHT ROOMS 3101-3105 SINGGA,COMMERCIAL CENTRE 148,CONNAUGHT
+ROAD WEST ,HONG KONG ROAD WEST ,HONG KONG
+TEL: 0755-82528484 FAX: 0755-83259733 TEL: 0755-82528484 FAX: 0755-83259733
+DELIVERY-TO:
+青旅思捷物流有限公司 CYTS-SPIRIT LOGISTICS LIMITED
+荃灣橫窩仔街43-57號永得利中心6樓心六樓 ［联系人: Mr.Key(阿仁)/ Gary］6/F,
+Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+TEL: 31522433/0852-39 FAX: 0852-39020555
+ITEM CTM PO/NO PO ITEM DESCRIPTION IC BODY BRAND QTY(PCS)
+CCATS EAR HS CODE ECCN
+Reference# CUSTOMER P/N CUSTOMER DESCRIPTION
+MATERIAL Mat.GRP U/P AMOUNT(USD)
+000010 4510076923 20 MARVELL 29,913
+5A991.b
+4510076923 3011117301
+IN025050-PB02-DWGC-S01-8FP I43 9.12500 272,956.13
+000020 4510076923 10 MARVELL 29,998
+5A991.b
+4510076923 3011117201
+IN025050-TC02-DWGC-S01-8FP I43 9.12500 273,731.75
+Total QTY: 59,911
+Total AMT: 546,687.88 USD
+[Remark]
+Cust.contact: 宋澍威
+Attached Doc. with Shipment: 2 sets invoice + packing用印後隨貨附送;資料上需顯示客戶料號及描述;
+WT Contact Person: Nancy Yu 0532-66885860-8016
+Others: 廣東海信寬帶；送貨前郵件索取入倉號
+These commodities were shipped in accordance with the export laws and regulations of the United States and other countries. Diversion contrary to the
+applicable laws and regulations is prohibited. Prior authorization from the U.S. and/or local government authorities may be required before resale, transfer
+and/ or re-export. This is a computer generated document, no signature in required.
+1 / 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>世强发票4.pdf</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "", "Invoice Date": "", "Currency": "", "Amount": 0, "Bill To": "", "From": ""}</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>{"Doc Type": "Invoice", "Invoice No.": "", "Invoice Date": "", "Currency": "", "Amount": 0, "Bill To": "", "From": ""}</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>§(cid:145) ¤w '(cid:145) “(cid:21) «(cid:148) '(cid:145) “› ‹(cid:21) fi(cid:154) fli‹(cid:4) (cid:209)(cid:154) (cid:210)(cid:21) (cid:210)(cid:211) ¶(cid:4) (cid:212)(cid:192) (cid:213)
+(cid:181)i fl(cid:145) „(cid:19) ¤w 'i ¶(cid:11) ¤(cid:154) ‚(cid:145) '¨ ‚(cid:4)
+(cid:176)(cid:11) (cid:214)(cid:21) (cid:214)(cid:148) (cid:215)z (cid:213) «w „
+¶(cid:4) (cid:221)(cid:4) (cid:210)(cid:23) (cid:213)
+˙(cid:148) (cid:222)i (cid:223)(cid:224) (cid:213) ¯(cid:21) ¯(cid:145) (cid:216)(cid:4) (cid:217)w (cid:218)(cid:11) ˇn (cid:218)(cid:2) ˆi (cid:218)(cid:21) (cid:218)(cid:148) (cid:219)w
+¤w (cid:215)i (cid:226)(cid:4) (cid:212)(cid:13) (cid:209)i ª(cid:148) (cid:221)(cid:228) «(cid:154) (cid:212)(cid:192) (cid:213) (cid:216)(cid:21) (cid:216)(cid:21) (cid:216)(cid:21) Æ(cid:21) (cid:220)(cid:154) ˚
+‚(cid:145) Ø(cid:2) ı(cid:21) ı(cid:253) ‚(cid:148) (cid:212)(cid:21) ł(cid:21) (cid:221)M (cid:213) ·(cid:21) '(cid:145) –
+–(cid:154) (cid:221)(cid:4) (cid:246)w ª(cid:13) ı(cid:148) (cid:209) (cid:21) (cid:214)(cid:19) (cid:209)b (cid:212)(cid:4) (cid:215)¤w (cid:214)w (cid:221)(cid:148) Ł
+(cid:20) (cid:19)
+'(cid:148) „(cid:21) †(cid:148) (cid:229)(cid:148) ¯(cid:13) ˆi (cid:218)(cid:11) ˇ. (cid:176)(cid:8) –(cid:154) —i (cid:230)(cid:4) ¶(cid:13) «(cid:148) (cid:217)(cid:148) „(cid:4)ˆ
+(cid:220)(cid:148) ¯(cid:13) ˆ(cid:148) ˆbe+ [(cid:27) R- ‘$ ]- Q" [(cid:27) (cid:255)? a- h(cid:27) _ Q" P" li p
+˚(cid:13) (cid:217)(cid:4) ˆn ¯(cid:21)a+ f(cid:27) Z(cid:27) R" h(cid:27) ~+ ‘$ ]S 5 (cid:242) m&amp; hi p
+(cid:17) (cid:16)
+'(cid:148) „(cid:21) †(cid:148) (cid:216)(cid:4) (cid:217)b ˚(cid:8) ˆX (cid:231)(cid:13) ‚(cid:145) (cid:217)(cid:145) ˘b ¶(cid:13) fi(cid:218)
+(cid:220)(cid:148) ¯(cid:13) ˆ(cid:148) ˆbe+ [(cid:27) R- ‘$ ]- Q" [(cid:27) (cid:255)? a- h(cid:27) _ Q" P" li p
+˚(cid:13) (cid:217)(cid:4) ˆn ¯(cid:21)a+ f(cid:27) Z(cid:27) R" h(cid:27) ~+ ‘$ ]S 5 (cid:242) m&amp; hi p
+(cid:17) (cid:16)
+'(cid:148) „(cid:21) †(cid:148) (cid:216)(cid:148) ¯(cid:21) (cid:219)(cid:8) ˇi 'n (cid:231)(cid:8) «(cid:154) (cid:220)(cid:2) (cid:181)(cid:148) ˘b ¶(cid:13) fi(cid:220)
+(cid:220)(cid:148) ¯(cid:13) ˆ(cid:148) ˆ(cid:21)e+ [(cid:27) R- ‘$ ]- Q" [(cid:27) (cid:255)? a- h(cid:27) _ Q" P" li p
+˚(cid:13) (cid:217)(cid:4) ˆn ¯(cid:21)a+ f(cid:27) Z(cid:27) R" h(cid:27) ~+ ‘$ ]S 5 (cid:242) m&amp; hi p
+(cid:17) (cid:16)
+˚ (cid:231)(cid:16) ˆ(cid:154) „w ¯(cid:21) ¯(cid:19) (cid:217)w (cid:220)(cid:4) (cid:217)(cid:4) ˆb ¯(cid:21) ¯(cid:145) (cid:220)(cid:21) (cid:229)(cid:148) ¯(cid:21) ¯
+ˆ(cid:21) ˆ(cid:21) ˆ(cid:148) ˆbe+ [(cid:27) R- ‘$ ]- Q" [(cid:27) (cid:255)? a- h(cid:27) _ Q" P" li p
+˚(cid:13) (cid:217)(cid:4) ˆn ¯(cid:21)a+ f(cid:27) Z(cid:27) R" h(cid:27) ~+ ‘$ ]S 5 (cid:242) m&amp; hi p
+(cid:17) (cid:16)
+(cid:0)(cid:2) (cid:1)(cid:4) (cid:3)(cid:6) (cid:5)(cid:6) (cid:0)(cid:6) (cid:7)(cid:6) (cid:3)(cid:9) (cid:8)(cid:11) (cid:10)(cid:13) (cid:12)(cid:14) (cid:10)(cid:13)
+fi(cid:154) (cid:221)(cid:148) Ł(cid:4) (cid:222)(cid:2) ıi (cid:252)(cid:21) (cid:246)z (cid:213)
+'(cid:145) “(cid:21) …i fl(cid:19) fiw †(cid:228) (cid:181)(cid:21) ¤(cid:154) †(cid:19) ¤n ¶(cid:13) “(cid:21) –
+(cid:176)(cid:8) –(cid:21)
+“(cid:21) «b
+˚(cid:13) (cid:217)w
+˘b ¶(cid:13)
+¯(cid:145) (cid:216)(cid:154)
+¯(cid:145) (cid:229)(cid:148)
+¯(cid:145) Æ(cid:148)
+¯(cid:145) Æ(cid:21)
+ˆi Æ(cid:21)
+¯(cid:145) (cid:216)(cid:2)
+¯(cid:21) ¯(cid:19)
+¯(cid:145) Æ(cid:4)
+(cid:15)
+‹X
+¶(cid:2)
+(cid:220)
+fi
+˚(cid:4)
+(cid:219)(cid:145)
+¯(cid:21)
+(cid:216)(cid:2)
+(cid:216)(cid:21)
+ˆw
+(cid:217)(cid:154)
+(cid:217)w
+(cid:176)(cid:8)
+fi(cid:21)
+¯(cid:21)
+(cid:216)(cid:21)
+(cid:219)(cid:21)
+ˆi
+Æ(cid:148)
+(cid:217)w
+(cid:219)(cid:21)
+(cid:220)(cid:21)
+«(cid:21)
+“z
+¯(cid:13)
+(cid:220)(cid:148)
+¯(cid:13)
+(cid:218)(cid:148)
+¯(cid:13)
+(cid:216)(cid:21)
+¯(cid:13)
+(cid:218)(cid:148)
+–‡
+`(cid:201)
+ˆ
+¯
+ˆ
+(cid:219)
+ˆ
+(cid:229)
+ˆ
+¯
+†(cid:145)
+‹(cid:21)
+·(cid:4)
+“(cid:21)
+(cid:127)(cid:18)
+(cid:181)n ¶(cid:11)
+fib ¶(cid:13)
+(cid:9)(cid:8)
+¤(cid:154)
+§¸
+(cid:128)(cid:130)
+(cid:0)(cid:2)
+†(cid:4)
+(cid:129)(cid:132) (cid:131)(cid:134) (cid:133)(cid:136)
+(cid:140)(cid:19) (cid:141)(cid:8) (cid:142)(cid:19) (cid:143)(cid:132) (cid:144)(cid:13)
+“(cid:21) –(cid:145) ¤X (cid:176)• ¶(cid:13) “w
+˚(cid:130) ‚(cid:148) fl(cid:19) «b ¶w (cid:176)(cid:16)
+(cid:0)(cid:2) (cid:1)(cid:4)
+(cid:17)(cid:145)
+‚(cid:4)
+¤(cid:148)
+(cid:3)(cid:6)
+(cid:135)(cid:138)
+(cid:143)(cid:146)
+§(cid:21)
+«(cid:21)
+(cid:17)(cid:148)
+«(cid:154)
+“(cid:21)
+(cid:5)(cid:8)
+(cid:137)(cid:132)
+(cid:147)(cid:149)
+º(cid:237)
+fl(cid:2)
+fi›
+(cid:7)(cid:6)
+(cid:139)
+(cid:0)(cid:19) (cid:150)
+(cid:236)&lt; (cid:238)(cid:240)
+(cid:181)i fl(cid:145) „(cid:19)
+(cid:204)(cid:154) fl(cid:19)
+(cid:9)(cid:11) (cid:10)(cid:13)
+:&lt; ;&lt; =? &gt;? @B A9 C /- ’+ D&lt; EG F&lt; HG IK JM LB (cid:31)&amp; ’- N&lt; (cid:29) (cid:31)( O
+1(cid:27) P( Q" RS (cid:29) (cid:31)U TV(cid:31)&amp; ’ 3(cid:27) WX TY$ Z( Q" [(cid:30) \^ ]&amp; [" _+ ‘G a(cid:27) ‘+ P(cid:27) R ]0 ‘b Tc/- ’B d" ‘ Q(cid:30) e+ f(cid:27)
+8&amp; h( [" _i TV(cid:26))j$ [( Q(cid:30) a+ k- f(cid:27) P" li TVm" ‘&amp; j&lt; \( ‘$ ](cid:27) ]- Q" R" h. ]- Q&amp; ‘+ Zn TV(cid:25)&amp; h( P" lB (cid:26)&amp; h( P"
+\$ 7(cid:27) dU o(cid:27) p" qsr( %- !( t" !- ,(cid:27) !" u+ ’(cid:27) ’ (cid:31)" /
+W)Y(cid:27) vw o(cid:27) p" qsr( %- !( t" !- ,(cid:27) !" u+ ’(cid:27) ’+ *(cid:27) /
+x" Z(cid:27) Z(cid:27) f( Q" P" lB y- [(cid:27) P(cid:27) gU pz y- [(cid:27) P(cid:27) gS h( {? a+ k( Q" P(cid:27) [| q}(cid:25)&amp; h( P" lB (cid:26)&amp; h( P" l tG
+(cid:25)(cid:27) (cid:26)(cid:27) (cid:28)(cid:30) (cid:29) (cid:31)" !$ #&amp; %" ’ (cid:31)( #)!$ #)(cid:29)+ *- , (cid:31)&amp; ’(cid:27) ’. #0 /
+1(cid:27) 2+ (cid:28)(cid:27) 3" 4( 5)6. 3(cid:27) 7- 1+ 89 (cid:29) (cid:31)" !+ %" ’ (cid:31)" !- (cid:29)+ *- ,+ !- (cid:29)(cid:27) (cid:29)(cid:27) (cid:29)
+(cid:151)+ (cid:152)(cid:154) (cid:153)( (cid:155)^ (cid:156)(cid:158) (cid:157)$ (cid:159). (cid:160). ¡(cid:4) ¢)£. ⁄$ (cid:157)^ ¥. ¥. ⁄$ ¥. ¥(cid:27) ƒ. ƒ. ƒ
+(cid:239)(cid:201) º(cid:242) æ(cid:244) (cid:243)
+¤(cid:148) “(cid:148) '» ”^ §(cid:21) …(cid:145) ‰(cid:190) ‚(cid:148) fl(cid:192) ¿(cid:145) `´ (cid:181)(cid:21) ¤(cid:154) †(cid:19) ¤n ¶(cid:13) “(cid:21) –z `( ·(cid:145) «(cid:145) ¤n ¶˜ ˆb ¯(cid:13) ˆ» ¿. ˆ(cid:148) ˘(cid:21) ˙› §(cid:148) ·i ¶(cid:19) ‚(cid:4) §(cid:145) ¤w 'w fl(cid:19) «
+fib ¶(cid:130) fi(cid:154) fli (cid:176)(cid:8) –z `(cid:201) …n ˝(cid:148) (cid:176)(cid:16) ¤(cid:190) ‚(cid:4) §(cid:148) ·(cid:145) «w „(cid:192) `(cid:201) «b ¶(cid:30) `(cid:201) §(cid:154) fl(cid:19) «w „˛ …(cid:154) fl(cid:19) «w „ ˇn —(cid:145) †
+¯(cid:145) (cid:216)(cid:11) ˇU ¯(cid:21) (cid:219)(cid:8) ˇn (cid:218)(cid:21) (cid:220)–(cid:148) (cid:222)(cid:21) (cid:214)w (cid:221)(cid:192) (cid:213)
+˙(cid:154) fl(cid:19) ‹› §(cid:154) fl(cid:19) «w „• …(cid:154) fl(cid:19) «w „¶(cid:4) (cid:221)(cid:11) ıU Ł(cid:19) (cid:246)‡ (cid:212)(cid:145) (cid:247)(cid:211) ¶(cid:16) ıi (cid:222)w ł(cid:21) (cid:221)(cid:192) (cid:213)
+«(cid:21) “b ¶• (cid:229)(cid:148) ¯(cid:130) –U (cid:176)(cid:21) (cid:230)(cid:11) '(cid:204)(cid:148) (cid:222)b ø(cid:4) Ł(cid:145) (cid:221)(cid:4) (cid:215)(cid:21) (cid:214)(cid:211) ¶(cid:4) (cid:221)(cid:11) ıU Ł(cid:19) (cid:246)z (cid:213)
+'(cid:21) (cid:222)(cid:19) (cid:209)(cid:154) (cid:210)(cid:19) (cid:209)(cid:154) (cid:215)(cid:154) œ˛ fl(cid:4) (cid:215)(cid:145) ˘U (cid:176)(cid:11) ßw (cid:212)(cid:4) Ø(cid:21) (cid:214)z (cid:213)
+(cid:204)(cid:154) (cid:212)(cid:11) ıi (cid:214)‡ (cid:212)(cid:145) (cid:247)(cid:228) (cid:181)i (cid:212)(cid:4) (cid:222)w ł(cid:13) (cid:209)(cid:154) (cid:215)(cid:154) œ(cid:224) (cid:213)´ §(cid:154) (cid:212)(cid:4) (cid:215)(cid:154) œ(cid:2) …(cid:154) (cid:212)(cid:4) (cid:215)(cid:154) œ
+Ø(cid:21) (cid:222)(cid:21) (cid:215)(cid:21) (cid:214)(cid:19) (cid:209)(cid:154) (cid:214)b ø ·(cid:145) ˘(cid:21) (cid:204) (cid:176)(cid:19) Ł(cid:145) (cid:212)(cid:4) Ø(cid:21) (cid:215)(cid:21) (cid:214)z ¿
+(cid:18)
+(cid:229)(cid:148) ¯(cid:21) ¯(cid:21) ¯ ¯(cid:224) ¿(cid:27) ¯(cid:19) (cid:217)w (cid:216)(cid:4) (cid:217)(cid:154) ¯ (cid:220)(cid:4) (cid:217)(cid:4) ˆ(cid:149) ¿(cid:27) ¯(cid:21) ¯
+ˆb ¯(cid:21) ¯(cid:21) ¯(cid:21) ¯ ¯(cid:224) ¿(cid:27) ¯(cid:21) (cid:219)(cid:21) ¯(cid:21) ¯(cid:21) ¯ (cid:219)(cid:21) ¯(cid:21) ¯(cid:224) ¿(cid:27) ¯(cid:21) ¯
+ˆi (cid:218)(cid:148) ¯(cid:21) ¯(cid:21) ¯(cid:21) ¯ ¯(cid:224) ¿(cid:27) ¯(cid:145) (cid:218)(cid:21) (cid:220)(cid:148) ¯(cid:21) ¯ (cid:218)(cid:21) Æ(cid:21) (cid:229)(cid:148) ¯(cid:224) ¿(cid:27) ¯(cid:21) ¯
+(cid:218)(cid:148) ¯(cid:21) ¯(cid:21) ¯ ˆ(cid:149) ¿+ Æ(cid:21) (cid:216)(cid:21) (cid:218)(cid:148) ¯(cid:21) ¯ (cid:220)(cid:4) (cid:217)w (cid:229)(cid:154) ˚(cid:30) ¿(cid:27) ¯(cid:21) ¯
+Æ(cid:224) `(«(cid:154) (cid:221)(cid:4) (cid:214)Œ (cid:176)(cid:19) Ł(cid:145) (cid:212)(cid:4) Ø(cid:21) (cid:215)(cid:21) (cid:214)z (cid:213)
+„(cid:145) ·n (cid:176)(cid:8) «w „(cid:4) –(cid:154) fl(cid:19) «w „• §(cid:145) ¤w '(cid:145) “(cid:21) «(cid:148) '(cid:145) “› ‹(cid:148) fi(cid:154) fli (cid:176)(cid:8) –(cid:21) ‹U (cid:176)(cid:8) «(cid:21) –(cid:253) ¶(cid:13) “w ‚(cid:4) §(cid:21) «(cid:154) fl(cid:2) (cid:181)i fl(cid:145) „b (cid:230)(cid:254) ‚(cid:148) fl(cid:192) ¿(cid:145) `$ (cid:181)n ¶(cid:13) –(cid:23) ¿
+(cid:12)(cid:4) (cid:14)(cid:16) (cid:15)(cid:18) (cid:17)(cid:19) (cid:1)(cid:21) (cid:20)(cid:8) (cid:5)(cid:23) (cid:22)(cid:21) (cid:24)(cid:2) (cid:14)
+g
+li
+d+
+(cid:217)w
+o
+Q0 ~$ Q"
+Æ(cid:4) (cid:217)z
+R- ‘- _
+¿(cid:27) ¯(cid:21) ¯</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>世强发票9.pdf</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>{
+    "error": "fail: 调用大模型接口出错"
+}</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>{
+    "error": "fail: 调用大模型接口出错"
+}</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>世强控股有限公司
+新界葵涌梨木道79号亚洲贸易中心19楼01室
+Unit 01,19/F,Asia Trade Centre,79 Lei Muk
+SEKORM LIMITED
+Road,Kwai Chung,New Territories,Hong Kong-
+TEL. : (852)26249917
+FAX.: (852)26249937
+Issuing Bank:Bank of China (Hong Kong) Limited
+HKD 012-591-2-036199-7
+USD/JPY/EUR 01259120362000
+Swift Code: BKCHHKHHXXX
+INVOICE
+Bill To:
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES （HK) CO.，LIMITED,UNIT 1O1.1/F HUTCHISON
+LOGISTICS CENTRE，BERTH 4 CONTAINER PORT ROAD，KWAI CHUNG，NT，HONG KONG
+- JM
+Attn:
+NG
+Date:18-08-23
+Tel:
+Terms of Trade: FOB HONG KONG
+Fax:
+00852-21229453
+Payment Terms: NET 60 DAYS
+Invoice No:
+883915
+Sailing On/About:
+Curr Code:
+USD
+Port of Loading: HongKong
+Item
+Description
+Ouantitv
+U/P
+Amount.
+1
+C8051F392-A-GMR
+66000
+0.63000
+41580.00
+Material Coding:
+3010028401
+Customer PO No:
+4510078427
+2
+EFM8BB21F16I-C-QFN2OR
+9000
+0.41000
+3690.00
+Material Coding:
+3010130401
+Customer PO No:
+4510078427
+3
+EFM8LB11F32ES0-C-QFN24R
+1500
+0.63410
+951.15
+Material Coding:
+3010126201
+Customer Po No:
+4510078427
+肆万陆仟贰佰贰拾壹元壹角伍分
+Net Amount:
+46,221.15
+Remarks:
+世强控股
+SEKORM LIMITED
+GUANGDONGHISENSEBROADBAND TECHNOLOGY CO.,LTD.
+End of Sales Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>WT 92009515.pdf</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>文科技(香港)有限公司
+3/31
+WT MICROELEUTRONICS (HK) LTD.
+香港荃灣青山道264-298号南豐中心二十楼2001E室
+Room 2001E, Nan Fung Centre, 264-298 Castle Peak Road, Tsuen Wan, N.T
+TEL:852-2950-0820FAX:852-2950-0386
+W/HAddress:Unit 03on thestFloor,HutchisnLgisticsCentre18ContainerortoadSouth,KwaiChungNewTerritories
+PACKING LIST
+Date:2023/09/09
+ODRNO:Z92009515
+PACKING NO:5823945
+PAYMENTTERM:NE05Net60days
+PLANT:HB12
+INCOTERM:FOBHongkong
+INVOICENO:92009515
+Route ID:R03
+BILL. TO:
+SHIPTO:
+海信宽带多媒體技術（香港）有限公司HISENSEBROADBAND
+海信宽带多媒體技術（香港）有限公司HISENSEBROADBAND
+MULTIMEDIATECHNOLOGIES (HK) CO.,LIMITED
+MULTIMEDIATECHNOLOGIES(HK)CO.,LIMITED
+ROOMS3101-3105SINGGA,COMMERCIALCENTRE148.CONNAUGHT
+ROOMS3101-3105SINGGA,COMMERCIALCENTRE148,CONNAUGHT
+ROAD WEST,HONG KONG
+ROAD WEST,HONG KONG
+TEL:0755-82528484FAX:0755-83259733
+TEL:0755-82528484FAX:0755-83259733
+DELIVERY-TO:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+荃灣横离仔街43-57永得利中心6楼心六楼【联系人：Mr.Key（阿仁/Gary］6/F，
+EverGainCentre4357WangWoTsaiStreet,Tsuen Wan,N.T.,Hong Kong
+TEL:31522433/0852-39FAX:0852-39020555
+C/NO
+Cust.P/O#Header
+DESCRIPTION
+QTY(@PCS)
+BRAND
+LOT NO
+Cust.P/O#TEM
+Cust.P/N
+QTY(PCS)
+ORIGIN
+DATE CODE
+Serial NO
+ECCN
+CCATS
+Pack. Type
+PO ITEM
+CUST.DESCR
+VOL.WG(@/KGS)
+ICBODY
+N.W(@/KGS)
+G.W(@/KGS)
+DM(CM*CM*CM)
+N.W(KGS)
+G.W(KGS)
+MATERIAL.
+001~001
+STM32L476JEY6TR
+@10000
+ST
+A533100Z
+4510079188
+4510079188
+3011087901
+10,000
+CHINESE TAIWAN
+2331
+EAR99
+10
+5.83
+@0.208
+@3.010
+36*27*36
+0.208
+3.010
+STM32L476JEY6TR
+STM32L476JEY6TR
+@10000
+1S
+A5332016
+002~002
+4510079188
+4510079188
+3011087901
+10.000
+CHINESE TAIWAN
+2332
+EAR99
+10
+5.67
+@0.208
+@2.950
+36*27*35
+0.208
+2.950
+STM32L476JEY6TR
+TOTAL
+0.416
+5.960
+20,000
+11.50
+[Remark]
+Cust.contact：劉晨
+=DeliveryNo.
+0092009515
+=0092009515Others
+廣东海信宽带；送貨前郵件索取入盒號
+SO#ZGD-506215
+This isa computergenerated document,no signature inrequired.
+1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>WILL K3202308090002.pdf</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>销售发货通知单
+公司代码：香港韦尔半导体股份有限公司 此单仅作内部通知用（不随货）
+DATE:2023-08-09 单号: K3202308090002
+(香港韦尔半导体股份有限公司)公司 销售SALEMAN: 万太龙
+客户CUSTOMER:海信宽带多媒体技术（香港）有 限 客户订公司 单号 ORDER ID:5970022632 销售订单号: 32013002009
+出库仓库WAREHOUSE: (6102)库房 税码TAX : 付款PAYMENT: 5970022632 币别:USD
+含税金额 未税金额
+行物号 料 品牌BRAND 含数税量价PRICE 不含QU税ANTITY 单价位NOT(AUXOPMR)IC 备注备注1 备承注3 诺2 料备备注数号注NUM 量客5 4 户订替代物单号 ORDER ID:料
+AMOUNT AMOUNT
+1SPD61089-8/TR WILL 8kps 43 43 344 344 3010101901 5970022632 8
+合计8 344 344
+审批(APPROVED): 审核(CHECK): 收货(RECEIVER):
+交货确认(DELIVERY): 审核(CHECK): 收货(RECEIVER):
+客户编码:C12010174 销售订单号(32013002009) 采购订单号 ()
+标签代码:CBJ-HXKDP
+出库单位:
+收货 CYTS-SPIRITLOGIST地ICSLIMI址TED香：青港旅思荃捷物灣流橫有窩限仔街公司 43-57號永得利中心六樓6/F,EverGainCentre,43-57WangWoTsaiStreet,TsuenWan,N.T.,HongKong
+收货人：Etain
+电话：39020582
+出货要求：
+日期要求： 产品说明： 原厂/HB:
+送货单要求： 是否涂标： 装箱要求：
+●
+特殊要求：1.请帮忙贴外箱标签2.外箱标签的流水号一定不能与内箱重复3.尽量减少拼箱，如果拼箱，箱内有的物料，外包装箱一定都要贴标签 中包装标签： 特殊标签：</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>WILL K3202308090002.pdf</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>2</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>Will Semiconductor Limited
+Invoice
+Invoice Date: 09-08-2023
+Ship to Customer: 海信宽带多媒体技术（香港）有Inv限oice NO: K3202308090002 公司
+add ： 青 CYTS-SPIRITLOGISTICSLIMITED 旅香港思捷荃物灣流有橫系限窩K3202308090002 统仔街公司 发货43-57號永单:得利中心六樓
+Customer Code: 6C/1F20,1E01v74erGainCentre,43-57WangWoTsaiStreet,TsuenWan,N.T.,HongKong P● /L Date: 09-08-2023
+Bill to Customer: 海信宽带多媒体技术（香港）有Cus限tomer Order No: 公司
+Attn: Etain Sales Order No:
+Phone: 39020582 Sales Contract No:
+Fax: Trade Term: FOB CD
+Ship Via: Currency: USD
+Zip code 16693 Payment Term: 月结30天
+Item Material No./ Customer Device ID Customer Device Name Sales Qty（PCS) Unit Price (USD ) Amount ( USD )
+1.1 SPD61089-8/TR 8000pcs 0.043 \pcs 344
+Total Amount : USD 344
+Item total: PCS 8000
+Output Tax: 0% 0
+Total: PCS 8000
+BINK INFO
+Will Semiconductor Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>WT 92009515.pdf</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>2</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>文科技(香港)有限公司
+[3/3]
+WTMICROELECTRONICS(HK)LTD.
+香港荃灣青山道264-298號南豐中心二十楼2001E室
+Room 2001E,NanFung Centre,264-298CastlePeakRoad,TsuenWan,N.T
+TEL:852-2950-0820FAX:852-2950-0386
+W/H Address: Unit 103 on the 1st Floor, Hutchison L.ogistics Centre, 18 Container Port Road South,Kwai Chung ,New Teritories,HK
+INVOICE
+Date:2023/09/09
+INVOICE NO: 92009515
+PAYMENTTERM:NE05Net60days
+PLANT:HB12
+INCOTERM:FOB Hongkong
+VENDORCODE:5000027
+Payment Currency:USD
+Rate:1.00000
+BILLTO:
+SHIPTO:
+海信宽带多媒體技術（香港）有限公司HISENSEBROADBAND
+海信宽带多媒體技術（香港）有限公司HISENSEBROADBAND
+MULTIMEDIATECHNOLOGIES(HK)CO.,LIMITED
+MULTIMEDIATECHNOLOGIES(HK) CO.,LIMITED
+ROOMS3101-3105SINGGA,COMMERCIALCENTRE148.CONNAUGHT
+ROOMS3101-3105SINGGA.COMMERCIAL CENTRE148,CONNAUGHT
+ROAD WEST ,HONG KONG
+ROAD WEST ,HONG KONG
+TEL:0755-82528484 FAX:0755-83259733
+TEL:0755-82528484 FAX:0755-83259733
+DELIVERY-TO:
+青旅思捷物流有限公司CYTS-SPIRITLOGISTICSLIMITED
+荃灣横离仔街43-57號永得利中心6樓心六楼【联系人：Mr.Key(阿仁)/Gary16/F，
+Ever Gain Centre,43-57Wang WoTsai Street,Tsuen Wan,N.T.,Hong Kong
+TEL:31522433/0852-39FAX:0852-39020555
+ITEM
+CTMPO/NO
+POITEM DESCRIPTION
+ICBODY
+BRAND
+QTY(PCS)
+CCATS
+EAR
+HS CODE
+ECCN
+Reference#
+CUSTOMERP/N
+CUSTOMERDESCRIPTION
+MATERIAL
+Mat.GRP
+U/P
+AMOUNT(USD)
+STM32L476JEY6TR
+ST
+20,000
+000010
+4510079188
+10
+EAR99
+4510079188
+3011087901
+STM32L476JEY6TR
+123
+2.12000
+42,400.00
+Total QTY:
+20,000
+Total AMT:
+42,400.00 USD
+[Remark]
+Cust.contact:劉晨
+AttachedDoc.withShlpment:2setsinvoice+packing用印後随货附送；资料上需示客户料号及描述；
+WT ContactPerson:NancyYu0532-66885860-8016
+Others:廣束海信宽带；送货前郵件索取入合號
+SO#ZGD-506215
+These commoditieswere shipped inaccordancewith the export laws andregulations of theUnitedStatesand other countries.Diversioncontrary to the
+applicable laws andregulations is prohibited.Priorauthorization from theU.S.and/or local government authoritiesmayberequired beforeresale,transfer
+and/or re-export.This isa computergenerated document,no signature inrequired.
+1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>WILL K3202308090002.pdf</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>3</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>Will Semiconductor Limited
+PACKING LIST
+贴客户条码标签
+●
+明天帮忙送货
+Ship to Customer: Bill to Customer:
+青旅思捷物流有限公司
+海信宽带多媒体技术（香港）有限公司
+HISENSE BROADBAND MULTIMEDIA
+TECH.,(HK) CO.,LTD.
+C/O : CARE LOGISTICS &amp; WAREHOUSE CO. LTD
+CYTS-SPIRIT LOGISTICS LIMITED
+UNIT 101 .1/F HUTCHISON LOGISTICS CENTRE
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai
+BERTH 4 CONTAINER PORT ROAD , KWAI
+Street, Tsuen Wan, N.T., Hong Kong
+CHUNG ,NT
+HONG KONG
+Attn: Etain P/L Date: 00/01/1900
+Phone: 3902 0582 P/L NO:
+Fax: Customer Order No:
+Ship Via: Sales Order No:
+Sales Contract No:
+Item Material No Sales Qty (PCS) Box Size (CM) Net Weight(KGS) Gross
+Weight(KGS)
+PCS
+1
+PCS
+2
+Total： - PCS
+Will Semiconductor Limited
+Room A1, 7/F Continental Electric Building No 17 Wang Chiu Road Kowloon Bay Hong Kong.
+香A1室港九龍灣宏照道十七號康大電業大廈7樓
+Tel. No. : 00852-22677683 Fax No. : 00852-2●2677098</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>WILL K3202308090002.pdf</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>4</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>Will Semiconductor Limited
+PACKING LIST
+贴客户条码标签
+●
+明天帮忙送货
+Ship to Customer: Bill to Customer:
+青旅思捷物流有限公司
+海信宽带多媒体技术（香港）有限公司
+HISENSE BROADBAND MULTIMEDIA
+TECH.,(HK) CO.,LTD.
+C/O : CARE LOGISTICS &amp; WAREHOUSE CO. LTD
+CYTS-SPIRIT LOGISTICS LIMITED
+UNIT 101 .1/F HUTCHISON LOGISTICS CENTRE
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai
+BERTH 4 CONTAINER PORT ROAD , KWAI
+Street, Tsuen Wan, N.T., Hong Kong
+CHUNG ,NT
+HONG KONG
+Attn: Etain P/L Date: 09-08-2023
+Phone: 3902 0582 P/L NO: K3202308090002
+Fax: Customer Order No:
+Ship Via: Sales Order No:
+Sales Contract No:
+Item Material No Sales Qty (PCS) Box Size (CM) Net Gross
+Weight(KGS) Weight(KGS)
+SPD61089-8/TR 8000 PCS 45*45*24 1.76 2.76
+1
+Total： 1CTNS 8,000.00 PCS 1.76 2.76
+Will Semiconductor Limited
+Room A1, 7/F Continental Electric Building No 17 Wang Chiu Road Kowloon Bay Hong Kong.
+香港九龍灣宏照道十七號康大電業大廈7樓A1室
+Tel. No. : 00852-22677683 Fax No. : 00852-22677098</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F475"/>
+  <dimension ref="A1:F476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44680,6 +44680,104 @@
         </is>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>世强发票1.pdf</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "888725",
+    "Invoice Date": "2008-09-23",
+    "Currency": "USD",
+    "Amount": 1902.3,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LTD",
+    "From": "SEKORM LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "888725",
+    "Invoice Date": "2008-09-23",
+    "Currency": "USD",
+    "Amount": 1902.3,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LTD",
+    "From": "SEKORM LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>世强控股有限公司
+新界葵涌梨木道79号亚洲贸易中心19楼01室
+Unit 01,19/F,Asia Trade Centre,79 Lei Muk
+SEKORM LIMITED
+Road,Kwai Chung,New Territories,HongKong-
+TEL : (852)26249917
+FAX.: (852)26249937
+Issuing Bank:Bank of China (Hong Kong) Limited
+HKD 012-591-2-036199-7
+USD/JPY/EUR 01259120362000
+Swift Code: BKCHHKHHXXX
+INVOICE
+Bill To:
+HISENSE BROADBAND MULTIMEDIATECHNOLOGIES(HK)CO.，LTD
+ROOMS 3101-3105 SINGGA COMMERCIAL CENTRE,148 CONNAUGHT R0AD WEST,SAI YING PUN, HONG KONG.
+Attn:
+ANDY CHENG/GARY
+Date:08-09-23
+Tel:
+Terms of Trade: FOB HONG KONG
+Fax:
+0852-39020521/39020555
+Payment Terms: NET 60 DAYS
+Invoice No:
+888725
+Sailing On/About:
+Curr Code:
+USD
+Port of Loading: HongKong
+Item
+Description
+Ouantitv
+U/P
+Amount.
+1
+EFM8LB11F32ES0-C-QFN24R
+3000
+0.63410
+1902.30
+Material Coding:
+3010126201
+Customer PO No:
+4570071937
+壹仟玖佰零拾贰元叁角零分
+Net Amount:
+1,902.30
+Remarks:
+M
+世强控股
+有限公司
+SEKORM LIMITED
+HISENSEBROADBANDMULTIMEDIA TECHNOLOGIES(HK)CO.，LTD
+End of Sales Invoice</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F476"/>
+  <dimension ref="A1:F497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44778,6 +44778,1904 @@
         </is>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>世建发票1.pdf</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90827520",
+    "Invoice Date": "28 Aug 2023",
+    "Currency": "USD",
+    "Amount": 12474.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90827520",
+    "Invoice Date": "28 Aug 2023",
+    "Currency": "USD",
+    "Amount": 12474.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世世世世(香香)有有有有 InvoiceNo. :90827520
+Currency :USD
+IssuedBy :VickyYan
+Salesman :TONYGUO
+Date :28Aug2023
+Customer Code :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)
+COLIMITED COLIMITED
+ROOMS3101-3105SINGGACOMMERCIALCENTRE ROOMS3101-3105SINGGACOMMERCIALCENTRE
+148CONNAUGHT ROADWEST 148CONNAUGHT ROADWEST
+WESTERN DISTRICT,Hong Kong WESTERN DISTRICT,Hong Kong
+海海海海海海海海海(香香)有有有有 海海海海海海海海海(香香)有有有有
+Tel:852-25935622 Tel:852-25935622
+____________________________________________________________________________________________________
+TERMS OFPAYMENT:60DAYSAMS
+TERMS OFSHIPMENT: FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTY Unit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0200 ADP2120ACPZ-R7 4510066029 31,500PC 0.396000 12,474.00
+______3_0_1_00_7_8_4_01________________8_0_7_9_70_9_7__________________________________________________________________
+Total: 31,500PC 12,474.00
+LessDepositPaid: 0.00
+NetTotal: 12,474.00
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出出出出出出(編編EN-1102)isattached
+INV#90827520,BRAND:ADI,COUNTRYOFORIGIN:SOUTHKOREA
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39Wang KwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>世建发票1.pdf</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>2</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90827622",
+    "Invoice Date": "28 Aug 2023",
+    "Currency": "USD",
+    "Amount": 7155.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90827622",
+    "Invoice Date": "28 Aug 2023",
+    "Currency": "USD",
+    "Amount": 7155.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世世世世(香香)有有有有 InvoiceNo. :90827622
+Currency :USD
+IssuedBy :VickyYan
+Salesman :TONYGUO
+Date :28Aug2023
+Customer Code :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)
+COLIMITED COLIMITED
+ROOMS3101-3105SINGGACOMMERCIALCENTRE ROOMS3101-3105SINGGACOMMERCIALCENTRE
+148CONNAUGHT ROADWEST 148CONNAUGHT ROADWEST
+WESTERN DISTRICT,Hong Kong WESTERN DISTRICT,Hong Kong
+海海海海海海海海海(香香)有有有有 海海海海海海海海海(香香)有有有有
+Tel:852-25935622 Tel:852-25935622
+____________________________________________________________________________________________________
+TERMS OFPAYMENT:60DAYSAMS
+TERMS OFSHIPMENT: FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTY Unit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0010 ADUCM420BCBZ-RL7 4510079885 1,500PC 4.770000 7,155.00
+______3_0_1_11_0_6_1_01________________8_0_7_9_71_9_4__________________________________________________________________
+Total: 1,500PC 7,155.00
+LessDepositPaid: 0.00
+NetTotal: 7,155.00
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出出出出出出(編編EN-1102)isattached
+INV#90827622,BRAND:ADI,COUNTRYOFORIGIN: SINGAPORE
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39Wang KwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>世建发票1.pdf</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>3</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90827668",
+    "Invoice Date": "28 Aug 2023",
+    "Currency": "USD",
+    "Amount": 7155.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90827668",
+    "Invoice Date": "28 Aug 2023",
+    "Currency": "USD",
+    "Amount": 7155.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世世世世(香香)有有有有 InvoiceNo. :90827668
+Currency :USD
+IssuedBy :VickyYan
+Salesman :TONYGUO
+Date :28Aug2023
+Customer Code :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)
+COLIMITED COLIMITED
+ROOMS3101-3105SINGGACOMMERCIALCENTRE ROOMS3101-3105SINGGACOMMERCIALCENTRE
+148CONNAUGHT ROADWEST 148CONNAUGHT ROADWEST
+WESTERN DISTRICT,Hong Kong WESTERN DISTRICT,Hong Kong
+海海海海海海海海海(香香)有有有有 海海海海海海海海海(香香)有有有有
+Tel:852-25935622 Tel:852-25935622
+____________________________________________________________________________________________________
+TERMS OFPAYMENT:60DAYSAMS
+TERMS OFSHIPMENT: FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTY Unit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0010 ADUCM420BCBZ-RL7 4510080078 1,500PC 4.770000 7,155.00
+______3_0_1_11_0_6_1_01________________8_0_7_9_71_9_2__________________________________________________________________
+Total: 1,500PC 7,155.00
+LessDepositPaid: 0.00
+NetTotal: 7,155.00
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出出出出出出(編編EN-1102)isattached
+INV#90827668,BRAND:ADI,COUNTRYOFORIGIN:SINGAPORE
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39Wang KwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>世建发票1.pdf</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>4</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90827701",
+    "Invoice Date": "28 Aug 2023",
+    "Currency": "USD",
+    "Amount": 23836.5,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90827701",
+    "Invoice Date": "28 Aug 2023",
+    "Currency": "USD",
+    "Amount": 23836.5,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世世世世(香香)有有有有 InvoiceNo. :90827701
+Currency :USD
+IssuedBy :VickyYan
+Salesman :TONYGUO
+Date :28Aug2023
+Customer Code :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)
+COLIMITED COLIMITED
+ROOMS3101-3105SINGGACOMMERCIALCENTRE ROOMS3101-3105SINGGACOMMERCIALCENTRE
+148CONNAUGHT ROADWEST 148CONNAUGHT ROADWEST
+WESTERN DISTRICT,Hong Kong WESTERN DISTRICT,Hong Kong
+海海海海海海海海海(香香)有有有有 海海海海海海海海海(香香)有有有有
+Tel:852-25935622 Tel:852-25935622
+____________________________________________________________________________________________________
+TERMS OFPAYMENT:60DAYSAMS
+TERMS OFSHIPMENT: FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTY Unit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0010 ADUCM420BCBZ-RL7 4510077212 1,500PC 5.297000 7,945.50
+______3_0_1_11_0_6_1_01________________8_0_7_9_72_6_6__________________________________________________________________
+0070 ADUCM420BCBZ-RL7 4510077212 1,500PC 5.297000 7,945.50
+______3_0_1_11_0_6_1_01________________8_0_7_9_72_6_6__________________________________________________________________
+0100 ADUCM420BCBZ-RL7 4510077212 1,500PC 5.297000 7,945.50
+______3_0_1_11_0_6_1_01________________8_0_7_9_72_6_6__________________________________________________________________
+Total: 4,500PC 23,836.50
+LessDepositPaid: 0.00
+NetTotal: 23,836.50
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出出出出出出(編編EN-1102)isattached
+INV#90827701,BRAND:ADI,COUNTRYOFORIGIN:SINGAPORE
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39Wang KwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>世建发票7.pdf</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90817165",
+    "Invoice Date": "03Jul2023",
+    "Currency": "USD",
+    "Amount": 31782.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90817165",
+    "Invoice Date": "03Jul2023",
+    "Currency": "USD",
+    "Amount": 31782.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世世世世(香香)有有有有 InvoiceNo. :90817165
+Currency :USD
+IssuedBy :VickyYan
+Salesman :TONYGUO
+Date :03Jul2023
+Customer Code :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK)
+COLIMITED COLIMITED
+ROOMS3101-3105SINGGACOMMERCIALCENTRE ROOMS3101-3105SINGGACOMMERCIALCENTRE
+148CONNAUGHT ROADWEST 148CONNAUGHT ROADWEST
+WESTERN DISTRICT,Hong Kong WESTERN DISTRICT,Hong Kong
+海海海海海海海海海(香香)有有有有 海海海海海海海海海(香香)有有有有
+Tel:852-25935622 Tel:852-25935622
+____________________________________________________________________________________________________
+TERMS OFPAYMENT:60DAYSAMS
+TERMS OFSHIPMENT: FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTY Unit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0030 ADUCM420BCBZ-RL7 4510077212 1,500PC 5.297000 7,945.50
+______3_0_1_11_0_6_1_01________________8_0_7_8_69_5_8__________________________________________________________________
+0040 ADUCM420BCBZ-RL7 4510077212 1,500PC 5.297000 7,945.50
+______3_0_1_11_0_6_1_01________________8_0_7_8_69_5_8__________________________________________________________________
+0050 ADUCM420BCBZ-RL7 4510077212 1,500PC 5.297000 7,945.50
+______3_0_1_11_0_6_1_01________________8_0_7_8_69_5_8__________________________________________________________________
+0060 ADUCM420BCBZ-RL7 4510077212 1,500PC 5.297000 7,945.50
+______3_0_1_11_0_6_1_01________________8_0_7_8_69_5_8__________________________________________________________________
+Total: 6,000PC 31,782.00
+LessDepositPaid: 0.00
+NetTotal: 31,782.00
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出出出出出出(編編EN-1102)isattached
+INV#90817165,BRAND:ADI,COUNTRYOFORIGIN: SINGAPORE
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39Wang KwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>世建发票3.pdf</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824620",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 4750.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824620",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 4750.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世健系統(香港)有限公司 InvoiceNo. :90824620
+Currency :USD
+IssuedBy :ShirleyHu
+Salesman :TONYGUO
+Date :09Aug2023
+CustomerCode :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIESCO
+COLIMITED LTD
+ROOMS3101-3105SINGGACOMMERCIALCENTRE NO218QIANWANROAD
+148CONNAUGHTROADWEST QINGDAOECONOMICANDTECHNOLOGICAL
+WESTERNDISTRICT,HongKong DEVELOPMENTZONE
+海信寬帶多媒體技術(香港)有限公司 QINGDAO
+Tel:852-25935622 QINGDAO,China
+PostalCode:266071
+青島海信寬帶多媒體技術有限公司
+青島經濟技術開發區前灣路218號
+Tel:86-532-86016016Fax:86-532-86016007
+____________________________________________________________________________________________________
+TERMSOFPAYMENT:60DAYSAMS
+TERMSOFSHIPMENT:FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTYUnit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0370 ADUC7020BCPZ62I-RL 4570065409 2,500PC 1.900000 4,750.00
+______3_0_1_00_0_3_4_01________________8_0_7_9_42_9_1__________________________________________________________________
+Total: 2,500PC 4,750.00
+LessDepositPaid: 0.00
+NetTotal: 4,750.00
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出口事宜須知(編號EN-1102)isattached
+REF#AL0000036780,INV#90824620,BRAND:ADI,COUNTRYOFORIGIN:CHINA
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39WangKwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>世建发票3.pdf</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>2</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824626",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 4338.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824626",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 4338.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世健系統(香港)有限公司 InvoiceNo. :90824626
+Currency :USD
+IssuedBy :ShirleyHu
+Salesman :TONYGUO
+Date :09Aug2023
+CustomerCode :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIESCO
+COLIMITED LTD
+ROOMS3101-3105SINGGACOMMERCIALCENTRE NO218QIANWANROAD
+148CONNAUGHTROADWEST QINGDAOECONOMICANDTECHNOLOGICAL
+WESTERNDISTRICT,HongKong DEVELOPMENTZONE
+海信寬帶多媒體技術(香港)有限公司 QINGDAO
+Tel:852-25935622 QINGDAO,China
+PostalCode:266071
+青島海信寬帶多媒體技術有限公司
+青島經濟技術開發區前灣路218號
+Tel:86-532-86016016Fax:86-532-86016007
+____________________________________________________________________________________________________
+TERMSOFPAYMENT:60DAYSAMS
+TERMSOFSHIPMENT:FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTYUnit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0010 ADA4096-4ACPZ-R7 4570067453 1,500PC 2.892000 4,338.00
+______3_0_1_10_3_0_5_01________________8_0_7_9_42_9_7__________________________________________________________________
+Total: 1,500PC 4,338.00
+LessDepositPaid: 0.00
+NetTotal: 4,338.00
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出口事宜須知(編號EN-1102)isattached
+REF#AL0000037196,INV#90824626,BRAND:ADI,COUNTRYOFORIGIN:KOREA
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39WangKwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>世建发票3.pdf</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>3</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824632",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 30270.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824632",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 30270.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世健系統(香港)有限公司 InvoiceNo. :90824632
+Currency :USD
+IssuedBy :ShirleyHu
+Salesman :TONYGUO
+Date :09Aug2023
+CustomerCode :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIESCO
+COLIMITED LTD
+ROOMS3101-3105SINGGACOMMERCIALCENTRE NO218QIANWANROAD
+148CONNAUGHTROADWEST QINGDAOECONOMICANDTECHNOLOGICAL
+WESTERNDISTRICT,HongKong DEVELOPMENTZONE
+海信寬帶多媒體技術(香港)有限公司 QINGDAO
+Tel:852-25935622 QINGDAO,China
+PostalCode:266071
+青島海信寬帶多媒體技術有限公司
+青島經濟技術開發區前灣路218號
+Tel:86-532-86016016Fax:86-532-86016007
+____________________________________________________________________________________________________
+TERMSOFPAYMENT:60DAYSAMS
+TERMSOFSHIPMENT:FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTYUnit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0040 AD5679RBCPZ-2-RL7 4570067453 1,500PC 20.180000 30,270.00
+______3_0_1_11_3_0_4_01________________8_0_7_9_43_0_2__________________________________________________________________
+Total: 1,500PC 30,270.00
+LessDepositPaid: 0.00
+NetTotal: 30,270.00
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出口事宜須知(編號EN-1102)isattached
+REF#AL0000037196,INV#90824632,BRAND:ADI,COUNTRYOFORIGIN:SOUTH
+KOREA
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39WangKwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>世建发票3.pdf</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>4</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824629",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 5576.69,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824629",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 5576.69,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世健系統(香港)有限公司 InvoiceNo. :90824629
+Currency :USD
+IssuedBy :ShirleyHu
+Salesman :TONYGUO
+Date :09Aug2023
+CustomerCode :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIESCO
+COLIMITED LTD
+ROOMS3101-3105SINGGACOMMERCIALCENTRE NO218QIANWANROAD
+148CONNAUGHTROADWEST QINGDAOECONOMICANDTECHNOLOGICAL
+WESTERNDISTRICT,HongKong DEVELOPMENTZONE
+海信寬帶多媒體技術(香港)有限公司 QINGDAO
+Tel:852-25935622 QINGDAO,China
+PostalCode:266071
+青島海信寬帶多媒體技術有限公司
+青島經濟技術開發區前灣路218號
+Tel:86-532-86016016Fax:86-532-86016007
+____________________________________________________________________________________________________
+TERMSOFPAYMENT:60DAYSAMS
+TERMSOFSHIPMENT:FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTYUnit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0030 LTC3311SEV#PBF 4570066240 1,872PC 2.979000 5,576.69
+______3_0_1_11_1_5_8_01________________8_0_7_9_43_0_0__________________________________________________________________
+Total: 1,872PC 5,576.69
+LessDepositPaid: 0.00
+NetTotal: 5,576.69
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出口事宜須知(編號EN-1102)isattached
+REF#AL0000036955,INV#90824629,BRAND:ADI,COUNTRYOFORIGIN:SOUTH
+KOREA
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39WangKwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>世建发票3.pdf</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>5</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824628",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 873.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824628",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 873.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世健系統(香港)有限公司 InvoiceNo. :90824628
+Currency :USD
+IssuedBy :ShirleyHu
+Salesman :TONYGUO
+Date :09Aug2023
+CustomerCode :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIESCO
+COLIMITED LTD
+ROOMS3101-3105SINGGACOMMERCIALCENTRE NO218QIANWANROAD
+148CONNAUGHTROADWEST QINGDAOECONOMICANDTECHNOLOGICAL
+WESTERNDISTRICT,HongKong DEVELOPMENTZONE
+海信寬帶多媒體技術(香港)有限公司 QINGDAO
+Tel:852-25935622 QINGDAO,China
+PostalCode:266071
+青島海信寬帶多媒體技術有限公司
+青島經濟技術開發區前灣路218號
+Tel:86-532-86016016Fax:86-532-86016007
+____________________________________________________________________________________________________
+TERMSOFPAYMENT:60DAYSAMS
+TERMSOFSHIPMENT:FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTYUnit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0050 LTC3308AEV#TRMPBF 4570066645 500PC 1.746000 873.00
+______3_0_1_11_0_8_1_01________________8_0_7_9_42_9_9__________________________________________________________________
+Total: 500PC 873.00
+LessDepositPaid: 0.00
+NetTotal: 873.00
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出口事宜須知(編號EN-1102)isattached
+REF#AL0000037071,INV#90824628,BRAND:ADI,COUNTRYOFORIGIN:SOUTH
+KOREA
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39WangKwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>世建发票3.pdf</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>6</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824625",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 5104.5,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "90824625",
+    "Invoice Date": "09 Aug 2023",
+    "Currency": "USD",
+    "Amount": 5104.5,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED",
+    "From": "Excelpoint Systems (H.K.) Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>ExcelpointSystems(H.K.)Limited Page :1/ 1
+世健系統(香港)有限公司 InvoiceNo. :90824625
+Currency :USD
+IssuedBy :ShirleyHu
+Salesman :TONYGUO
+Date :09Aug2023
+CustomerCode :6000004601
+____________________________________________________________________________________________________
+INVOICE
+____________________________________________________________________________________________________
+BILLTO: SOLDTO:
+HISENSEBROADBANDMULTIMEDIATECHNOLOGIES(HK) HISENSEBROADBANDMULTIMEDIATECHNOLOGIESCO
+COLIMITED LTD
+ROOMS3101-3105SINGGACOMMERCIALCENTRE NO218QIANWANROAD
+148CONNAUGHTROADWEST QINGDAOECONOMICANDTECHNOLOGICAL
+WESTERNDISTRICT,HongKong DEVELOPMENTZONE
+海信寬帶多媒體技術(香港)有限公司 QINGDAO
+Tel:852-25935622 QINGDAO,China
+PostalCode:266071
+青島海信寬帶多媒體技術有限公司
+青島經濟技術開發區前灣路218號
+Tel:86-532-86016016Fax:86-532-86016007
+____________________________________________________________________________________________________
+TERMSOFPAYMENT:60DAYSAMS
+TERMSOFSHIPMENT:FCAHONGKONG
+_____________________________________________________________________________________________________
+Item# Productcode PONo QTYUnit Unitprice Amount
+ExcelPointP/N DNNo
+CustomerP/N
+_____________________________________________________________________________________________________
+0010 ADN8834ACBZ-R7 4570065810 1,500PC 3.403000 5,104.50
+______3_0_1_01_1_8_3_01________________8_0_7_9_42_9_4__________________________________________________________________
+Total: 1,500PC 5,104.50
+LessDepositPaid: 0.00
+NetTotal: 5,104.50
+======================================================================================
+____________________________________________________________________________________________________
+ThisInvoiceisacomputerprintoutandnosignatureisrequired
+SHIPPINGMARKS:
+Remarks:
+出口事宜須知(編號EN-1102)isattached
+REF#AL0000036866,INV#90824625,BRAND:ADI,COUNTRYOFORIGIN:SINGAPORE
+____________________________________________________________________________________________________
+Address:3108,31/F,SkylineTower,39WangKwongRoad,,HongKong
+Phone:(852)2503-2212FAX:(852)2503-1558</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>WIN TREND XSCKD-SD-230818-09333.pdf</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "XSCKD-SD-230818-09333",
+    "Invoice Date": "2023-08-18",
+    "Currency": "USD",
+    "Amount": 1078.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd",
+    "From": "Win Trend Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "XSCKD-SD-230818-09333",
+    "Invoice Date": "2023-08-18",
+    "Currency": "USD",
+    "Amount": 1078.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd",
+    "From": "Win Trend Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>INVOICE
+Win Trend Electronic Technology Limited.
+6/F, EVERWIN CENTRE, NO.72 HUNG TO ROAD, KWUN TONG, KOWLOON, HONG KONG
+Invoice no.: XSCKD-SD-230818-09333
+Tel :Sally Siu 9623 7440 / Angie Kwan 9408 3888
+Bill to: Hisense Broadband Multimedia Technologies (HK) Co.,Ltd Date: 2023-08-18
+Attn. To: Shipping Terms
+Tel.: +86(0)532-80879676 / 18366214997 Payment Terms:月结60天
+Room 3101-3105, Singga Commercial Centre, 148 Connaught
+Add.: Sales: 孙志鹏
+Rd. West, Sai Ying Pun, HK
+QTY U/P AMT
+ITEM CSTM P/O NO. BRAND CSTM P/N DESCRIPTION
+PCS USD USD
+1 4570072564 CREDO/默升 3011105301 CFD50502-A0-ABXN 98 11.00 1078.00
+合计： 98 1078.00
+Beneficiary:Win Trend Electronic Technology Ltd.
+Bank Name:The Hong Kong and Shanghai Banking Corporation Ltd.
+Add.: No.1 Queen's Road Central, Hong Kong
+A/C No.: 848 533 097 838
+Swift Code:HSBCHKHHHKH
+送貨地址: 青旅思捷物流有限公司CYTS-SPIRIT LOGISTICS LIMITED
+香港荃灣橫窩仔街43-57號永得利中心六樓6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+TEL: 31522431 联系人： Mr. Key (阿仁)
+入仓单号： ZGD-506019 备注： 江门
+E. &amp; O. E.
+CONFIRM &amp; RECEIVED BY:</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>WIN TREND XSCKD-SD-230818-09333.pdf</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>2</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>PACKING LIST
+Win Trend Electronic Technology Limited
+6/F, EVERWIN CENTRE, NO.72 HUNG TO ROAD, KWUN TONG, KOWLOON, HONG KONG
+Tel :Sally Siu 9623 7440 / Angie Kwan 9408 3888
+Bill to: Date: 2023-08-18
+Hisense Broadband Multimedia Technologies (HK) Co.,Ltd Invoice No. :XSCKD-SD-230818-09333
+Ship to: TEL: 31522431
+青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+Contact: Mr. Key (阿仁)
+香港荃灣橫窩仔街43-57號永得利中心六樓
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong
+Kong
+N.W. G.W.
+QTY SIZE
+CTN No. PART No. CSTM PART No. PO NO. BRAND COO /CTN /CTN Remark
+(PCS) ( CM )
+KG KG
+CREDO/默
+1 CFD50502-A0-ABXN 3011105301 4570072564 KR 98 0.9 1.3 40X40X15 江门
+升
+合计： 98
+for and on behalf of for and on behalf of
+WIN TREND Electronic Technology Limited.
+Authorized Signatures Confirmed &amp; Received by</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>WIN TREND XSCKD-SD-230818-09341.pdf</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "XSCKD-SD-230818-09341",
+    "Invoice Date": "2023-08-18",
+    "Currency": "USD",
+    "Amount": 0.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Ltd",
+    "From": "Win Trend Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "XSCKD-SD-230818-09341",
+    "Invoice Date": "2023-08-18",
+    "Currency": "USD",
+    "Amount": 0.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Ltd",
+    "From": "Win Trend Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>INVOICE
+Win Trend Electronic Technology Limited.
+6/F, EVERWIN CENTRE, NO.72 HUNG TO ROAD, KWUN TONG, KOWLOON, HONG KONG
+Invoice no.: XSCKD-SD-230818-09341
+Tel :Sally Siu 9623 7440 / Angie Kwan 9408 3888
+Bill to: Hisense Broadband Multimedia Technologies (HK) Co.,Ltd Date: 2023-08-18
+Attn. To: Shipping Terms:
+Tel.: +86(0)532-80879676 / 18366214997 Payment Terms: 月结60天
+Room 3101-3105, Singga Commercial Centre, 148 Connaught
+Add.: Sales: 孙志鹏
+Rd. West, Sai Ying Pun, HK
+QTY U/P AMT
+ITEM CSTM P/O NO. BRAND CSTM P/N DESCRIPTION
+PCS USD USD
+1 5010001959 CREDO/默升 3011105301 CFD50502-A0-ABXN 120 0.00 0.00
+合计： 120 0.00
+Beneficiary:Win Trend Electronic Technology Ltd.
+Bank Name:The Hong Kong and Shanghai Banking Corporation Ltd.
+Add.: No.1 Queen's Road Central, Hong Kong
+A/C No.: 848 533 097 838
+Swift Code:HSBCHKHHHKH
+送貨地址: 青旅思捷物流有限公司CYTS-SPIRIT LOGISTICS LIMITED
+香港荃灣橫窩仔街43-57號永得利中心六樓6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+TEL: 31522431 联系人： Mr. Key (阿仁)
+ZGD-506021 江门
+入仓单号： 备注：
+E. &amp; O. E.
+CONFIRM &amp; RECEIVED BY:</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>WIN TREND XSCKD-SD-230818-09341.pdf</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>2</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>PACKING LIST
+Win Trend Electronic Technology Limited
+6/F, EVERWIN CENTRE, NO.72 HUNG TO ROAD, KWUN TONG, KOWLOON, HONG KONG
+Tel :Sally Siu 9623 7440 / Angie Kwan 9408 3888
+Bill to: Date: 2023-08-18
+Hisense Broadband Multimedia Technologies (HK) Co.,Ltd Invoice No. : XSCKD-SD-230818-09341
+Ship to: TEL: 31522431
+青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+Contact: Mr. Key (阿仁)
+香港荃灣橫窩仔街43-57號永得利中心六樓
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong
+Kong
+N.W. G.W.
+QTY SIZE
+CTN No. PART No. CSTM PART No. PO NO. BRAND COO /CTN /CTN Remark
+(PCS) ( CM )
+KG KG
+CREDO/默
+1 CFD50502-A0-ABXN 3011105301 5010001959 TW,CN 120 0.7 1.4 40X40X15 江门
+升
+合计： 1 120 0.7 1.4
+for and on behalf of for and on behalf of
+WIN TREND Electronic Technology Limited.
+Authorized Signatures Confirmed &amp; Received by</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>WIN TREND XSCKD-SD-230907-09490.pdf</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "其他",
+    "Invoice No.": "",
+    "Invoice Date": "2023-09-07",
+    "Currency": "",
+    "Amount": 0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Ltd",
+    "From": "WIN TREND Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "其他",
+    "Invoice No.": "",
+    "Invoice Date": "2023-09-07",
+    "Currency": "",
+    "Amount": 0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Ltd",
+    "From": "WIN TREND Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>PACKING
+G LIST
+胜达科
+WIN TREND TECHNOLOGY
+Win Trend ElectronicTechnology Limited
+6/F,EVERWINCENTRE,NO.72HUNGTOROAD,KWUNTONG,KOWLOON,HONGKONG
+Tel:Sally Siu 96237440/Angie Kwan 94083888
+Bill to:
+Date:
+2023-09-07
+Hisense Broadband Multimedia Technologies (HK) Co.,Ltd
+Invoice No.: XSCKD-SD-230907-09490
+Ship to:
+TEL:
+31522431
+青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+Contact:
+Mr.Key（阿仁）
+香港荃灣横商仔街43-57號永得利中心六楼
+6/F. Ever Gain Centre. 43-57 Wang Wo Tsai Street. Tsuen Wan. N.T..
+N.W.
+G.W.
+BRAND
+QTY
+SIZE
+CTN No.
+PART No.
+CSTM PART No.
+PO NO.
+COO
+/CTN
+/CTN
+(PCS)
+(CM）
+KG
+KG
+1
+MP2161GJ-Z
+3010074101
+/
+MPS/芯源
+CHINA
+6000
+0.5
+0.8
+24X23X14
+合计：
+1
+0.5
+0.8
+for and on behalf of
+for and on behalf of
+WIN TREND Electronic Technology Limited.
+Authorized Signatures
+Confirmed &amp; Received by</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>WIN TREND XSCKD-SD-230907-09490.pdf</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>2</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "XSCKD-SD-230907-09490",
+    "Invoice Date": "2023-09-07",
+    "Currency": "USD",
+    "Amount": 559.8,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Ltd",
+    "From": "Win Trend Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "XSCKD-SD-230907-09490",
+    "Invoice Date": "2023-09-07",
+    "Currency": "USD",
+    "Amount": 559.8,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Ltd",
+    "From": "Win Trend Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>INVOICE
+WIN TREMD FECHBNO)IOGY
+Win Trend Electronic Technology Limited.
+6/F, EVERWIN CENTRE, NO.72 HUNG TO ROAD, KWUN TONG, KOWLOON, HONG KONG
+Invoice no.:
+XSCKD-SD-230907-09490
+Tel :Sally Siu 9623 7440 / Angie Kwan 9408 3888
+Bill to:
+Hisense Broadband Multimedia Technologies (HK) Co.,Ltd
+Date:
+2023-09-07
+Attn. To:
+Shipping
+Tel. :
++86 (0)532-80879676 / 18366214997
+Payment
+月结60天
+Room 3101-3105, Singga Commercial Centre,148 Connaught Rd.
+Add. :
+Sales:
+孙志鹏
+West, Sai Ying Pun, HK
+QTY
+d/n
+AMT
+ITEM
+CSTM P/0 NO.
+BRAND
+CSTM P/N
+DESCRIPTION
+PCS
+USD
+USD
+1
+MPS/芯源
+3010074101
+MP2161GJ-Z
+6000
+0.0933
+559.80
+Beneficiary:Win Trend Electronic Technology Ltd.
+Bank Name:The Hong Kong and Shanghai Banking Corporation Ltd.
+Add.: No.1 Queen' s Road Central, Hong Kong
+A/C No.:848533097838
+Swift Code:HSBCHKHHHKH
+送货地址：
+青旅思捷物流有限公司CYTS-SPIRIT LOGISTICSLIMITED
+香港基灣横仔街43-57號永得利中心六樓6/F，Ever Gain Centre，43-57Wang Wo Tsai Street，Tsuen Wan，N.T.，Hong Kong
+TEL:
+31522431
+联系人：
+Mr.Key (阿仁)
+入仓单号：
+NA
+备注：
+青岛
+E.&amp;O.E.
+CONFIRM &amp; RECEIVED BY:</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>XSCKD-SD-230818-09332 INV-青岛.pdf</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "XSCKD-SD-230818-09332",
+    "Invoice Date": "2023-08-18",
+    "Currency": "USD",
+    "Amount": 5170.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd",
+    "From": "Win Trend Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "XSCKD-SD-230818-09332",
+    "Invoice Date": "2023-08-18",
+    "Currency": "USD",
+    "Amount": 5170.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd",
+    "From": "Win Trend Electronic Technology Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>INVOICE
+Win Trend Electronic Technology Limited.
+6/F, EVERWIN CENTRE, NO.72 HUNG TO ROAD, KWUN TONG, KOWLOON, HONG KONG
+Invoice no.: XSCKD-SD-230818-09332
+Tel :Sally Siu 9623 7440 / Angie Kwan 9408 3888
+Bill to: Hisense Broadband Multimedia Technologies (HK) Co.,Ltd Date: 2023-08-18
+Attn. To: Shipping Terms:
+Tel.: +86(0)532-80879676 / 18366214997 Payment Terms: 月结60天
+Room 3101-3105, Singga Commercial Centre, 148 Connaught
+Add.: Sales: 孙志鹏
+Rd. West, Sai Ying Pun, HK
+QTY U/P AMT
+ITEM CSTM P/O NO. BRAND CSTM P/N DESCRIPTION
+PCS USD USD
+1 4570072564 CREDO/默升 3011105301 CFD50502-A0-ABXN 470 11.00 5170.00
+合计： 470 5170.00
+Beneficiary:Win Trend Electronic Technology Ltd.
+Bank Name:The Hong Kong and Shanghai Banking Corporation Ltd.
+Add.: No.1 Queen's Road Central, Hong Kong
+A/C No.: 848 533 097 838
+Swift Code:HSBCHKHHHKH
+送貨地址: 青旅思捷物流有限公司CYTS-SPIRIT LOGISTICS LIMITED
+香港荃灣橫窩仔街43-57號永得利中心六樓6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+TEL: 31522431 联系人： Mr. Key (阿仁)
+入仓单号： NA 备注： 青岛
+E. &amp; O. E.
+CONFIRM &amp; RECEIVED BY:</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>HK00213203.pdf</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "HK00213203",
+    "Invoice Date": "2023/4/13",
+    "Currency": "USD",
+    "Amount": 27000.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LTD.",
+    "From": "HITACHI HIGH-TECH HONG KONG LTD",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "HK00213203",
+    "Invoice Date": "2023/4/13",
+    "Currency": "USD",
+    "Amount": 27000.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LTD.",
+    "From": "HITACHI HIGH-TECH HONG KONG LTD",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>Hitachi High-Tech Hong Kong Ltd.
+8/F, Building 20E, Phase 3, Hong Kong Science Park,
+Pak Shek Kok, N.T., Hong Kong
+TEL: 852-2737-4700
+FAX: 852-2370-7255
+Invoice
+Bill To: PAGE 1/1
+Purchasing Departmet Invoice No.: HK00213203
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO.,LTD. Invoice Date : 2023/4/13
+ROOMS 3010-3105 SINGGA COMMERCIAL CENTRE Inco Terms : FCA JAPAN
+148 CONNAUGHT ROAD WEST HONG KONG Terms Of Payment : T/T 60 DAYS MONTYLY
+Shipped Per : DHL
+Ship To : Shipment date: 2023/4/13
+Loading Port : TOKYO
+CYTS-SPIRIT LOGISTICS LIMITED Discharge Port : HONG KONG
+Eternity Warehouse 6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Vendor Code: 5001060
+Tsuen Wan, N.T.. HONGKONG
+boyim@cyts-spirit.com
+Item Cust. PO No. Description Part NO. Quantity Unit Price Amount
+(PCS) (USD) (USD)
+1 4510070120 4431004801 1-P7175-01-R00 100,000 0.27 27,000.00
+Total : 100,000 27,000.00
+Packing list
+COUNTRY Gross
+OF ORIGIN Quantity(PCS) Carton Net Weight(KGS) Weight(KGS) CBM(M3)
+JAPAN 4431004801 50,000 2-1 0.10 3.30 0.017204
+4431004801 50,000 2-2 0.10 3.30 0.017204
+Total: 100,000 2 0.20 6.60 0.034
+Remarks:
+入仓号: ZGD-505007 (广东宽带多媒体货物)
+Remit to : MUFG BANK LTD HONG KONG BRANCH
+Account Name : HITACHI HIGH-TECH HONG KONG LTD
+Account No : 047-821-85806018194
+Swift Code : BOTKHKHH
+for Hitachi High-Tech Hong Kong Ltd.
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>HK00214688.pdf</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "HK00214688",
+    "Invoice Date": "2023/7/7",
+    "Currency": "USD",
+    "Amount": 4800.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LTD.",
+    "From": "HITACHI HIGH-TECH HONG KONG LTD",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "HK00214688",
+    "Invoice Date": "2023/7/7",
+    "Currency": "USD",
+    "Amount": 4800.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LTD.",
+    "From": "HITACHI HIGH-TECH HONG KONG LTD",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>Hitachi High-Tech Hong Kong Ltd.
+8/F, Building 20E, Phase 3, Hong Kong Science Park,
+Pak Shek Kok, N.T., Hong Kong
+TEL: 852-2737-4700
+FAX: 852-2370-7255
+Invoice
+Bill To: PAGE 1/1
+Purchasing Departmet Invoice No.: HK00214688
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO.,LTD. Invoice Date : 2023/7/7
+ROOMS 3010-3105 SINGGA COMMERCIAL CENTRE Inco Terms : FCA JAPAN
+148 CONNAUGHT ROAD WEST HONG KONG Terms Of Payment : T/T 60 DAYS MONTYLY
+Shipped Per : DHL
+Ship To : Shipment date: 2023/7/7
+Loading Port : TOKYO
+CYTS-SPIRIT LOGISTICS LIMITED Discharge Port : HONG KONG
+Eternity Warehouse 6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Vendor Code: 5001060
+Tsuen Wan, N.T.. HONGKONG
+boyim@cyts-spirit.com
+Item Cust. PO No. Description Part NO. Quantity Unit Price Amount
+(PCS) (USD) (USD)
+1 4570071385 KSHH018XCA 4501003801 1,000 4.80 4,800.00
+Total : 1,000 4,800.00
+Packing list
+COUNTRY Gross
+OF ORIGIN Quantity(PCS) Carton Net Weight(KGS) Weight(KGS) CBM(M3)
+JAPAN KSHH018XCA 1,000 1-1 0.05 0.70 0.01
+Total: 1,000 1 0.05 0.70 0.010
+Remarks:
+Remit to : MUFG BANK LTD HONG KONG BRANCH
+Account Name : HITACHI HIGH-TECH HONG KONG LTD
+Account No : 047-821-85806018194
+Swift Code : BOTKHKHH
+for Hitachi High-Tech Hong Kong Ltd.
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>MISSION 5970023769.pdf</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "F230726000015",
+    "Invoice Date": "2023-07-26",
+    "Currency": "",
+    "Amount": 0,
+    "Bill To": "Hisense broadband multimedia technologies (HK) CO., Ltd",
+    "From": "Mission Electronics International Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "F230726000015",
+    "Invoice Date": "2023-07-26",
+    "Currency": "",
+    "Amount": 0,
+    "Bill To": "Hisense broadband multimedia technologies (HK) CO., Ltd",
+    "From": "Mission Electronics International Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>美盛電子國際有限公司
+MISSION ELECTRONICSINTERNATIONAL LIMITED
+Webite:www.mission-io.com
+General line:((00852)27582283Fax:(00852)31051139
+美盛
+盛Address:香港九龍九龍灣宏開道20號杨耀崧第八工業大厦9樓E室
+NOISSIW
+Flat E,9/F,Yeung Yiu Chung (No.8) Industrial Building,No.20 Wang Hoi Road, Kowloon Bay,Kowloon
+57023272
+PACKINGLIST
+Customer:Hisense broadband multimedia technologies (HK) CO.,Ltd
+P.O.No.:5970023769
+InvoiceNo.:F230726000015
+PaymentTerm:发货单出货后30天付款(NET30)
+InvoiceDate:2023-07-26
+ShipVia:
+BillTo:Hisense broadbandmultimedia technologies(HK) CO.,Ltd
+ShipTo:CYTS-SPIRITLOGISTICS,LTD
+Room 3101-3105, Singga Commercial Centre, 148 Conaught R d.
+6/F,43-57.Wang Wo Tsai Street, Ever Gain centre ,Tsuen wan,
+West, Sai Ying Pun, HK
+NT,HONG KONG
+Attn:蔺艳莉
+Attn:BO YIM
+Tel:15684730865
+Tel:31522507
+数量
+重量
+尺寸
+产地
+行号
+客户料号Cusr
+规格型号
+DC
+Brand
+QTY
+Weight
+Dimension
+Country of
+LOT NO.
+CTN#
+Internalpart No.
+Part No.
+年份
+品牌
+(pcs)
+(KG)
+(cm)
+origin
+NW:2.3
+3011093801
+INA216A3YFFT
+750
+60*24*24
+2325
+T1
+1
+3431356CL3
+GW:3.7
+3011093801
+INA216A3YFFT
+1500
+2318
+Il.
+3304605CL3
+INA216A3YFFT
+500
+2318
+TI
+3011093801
+3304608CL3
+3011093801
+INA216A3YFFT
+2500
+2318
+T
+3304607CL3
+3011093801
+INA216A3YFFT
+500
+2318
+T
+3304606CL3
+3011093801
+INA216A3YFFT
+250
+2318
+T
+3304609CL3
+NW:1.2
+3011089901
+TPS62480RNCT
+6000
+42*15*43
+2141
+TI
+2141
+2
+GW:2.0
+3011089901
+3000
+2150
+2150
+TPS62480RNCT
+12000
+NW:2.8
+3
+3011089901
+TPS62480RNCT
+40*30*40
+2150
+T1
+2150
+GW:4.3
+3000
+2204
+TI
+3011089901
+TPS62480RNCT
+2204
+3011089901
+TPS62480RNCT
+6000
+2226
+TI
+2226
+Total:
+3
+Cartons
+36000 PCS
+NW: 6.3 KG ; GW: 10.0 KG
+Note:
+1.Purchase Order Number must be quoted on all documents to facilitate payment.
+2.No Cancellation ,No Return ,No Reschedule (except for Electronic Failure).
+3.Any complaints against this invoice must be notified to the company within 7 days of data hereof.
+4.We are not responsible for any banking charges outside ShenZhen The Payment received in our
+account must be the same as the amount we invoiced.
+For and on behalf of
+Confirmed and received by
+Mission ElectronicsInternational Limited
+Viki欧阳桃
+英盛
+请签章
+客子国際
+有限公司
+Customer Chop and Signature
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F497"/>
+  <dimension ref="A1:F548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46676,6 +46676,5414 @@
         </is>
       </c>
     </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>MISSION F230816000018.pdf</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "F230816000018",
+    "Invoice Date": "2023-08-17",
+    "Currency": "USD",
+    "Amount": 39690.0,
+    "Bill To": "Hisense broadband multimedia technologies (HK) CO., Ltd",
+    "From": "Mission Electronics International Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "F230816000018",
+    "Invoice Date": "2023-08-17",
+    "Currency": "USD",
+    "Amount": 39690.0,
+    "Bill To": "Hisense broadband multimedia technologies (HK) CO., Ltd",
+    "From": "Mission Electronics International Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>INVOICE
+Customer:Hisense broadband multimedia technologies （HK)
+P.O.No.:4510089463,4510089463
+CO.,Ltd
+Invoice No.:F230816000018 Payment Term: 发货30天(NET 30) 付款单出货后
+Invoice Date:2023-08-17 Ship Via:
+Bill To:Hisense broadband multimedia technologies （HK)
+Ship To:CYTS-SPIRIT LOGISTICS,LTD
+CO.,Ltd
+Room 3101-3105, Singga Commercial Centre, 148 Conaught R 6/F,43-57.Wang Wo Tsai Street, Ever Gain centre ,Tsuen
+d. West, Sai Ying Pun, HK wan,NT,HONG KONG
+Attn: 蔺艳Attn:BO YIM 莉
+Tel: 15684730865 Tel: 31522507
+Cusr Internalpart QTY
+Part No. Package DC Brand Packing Unit Price Total Amount
+No. (pcs)
+TPS61022RWU 3000/RE
+3011055701 * W2Y TI 21000 0.190000 3990.00
+R EL
+TPS62480RNC 3000/RE
+3011089901 * 22+ TI 51000 0.700000 35700.00
+R EL
+●
+Total 39690.00
+Remark:
+Deposit/banking Charge:
+Total: 39690.00 Currency:USD
+Note:
+1.Purchase Order Number must be quoted on all documents to facilitate payment.
+2.No Cancellation ,No Return ,No Reschedule (except for Electronic Failure).
+3.Any complaints against this invoice must be notified to the company within 7 days of data hereof.
+4.We are not responsible for any banking charges outside ShenZhen The Payment received in our
+account must be the same as the amount we invoiced.
+For and on behalf of
+Confirmed and received by Mission Electronics International Limited
+请 签 章 Viki 欧阳桃
+_______________________ ___________________________________
+Customer Chop and Signature Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>MISSION F230816000018.pdf</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>2</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "其他",
+    "Invoice No.": "",
+    "Invoice Date": "",
+    "Currency": "",
+    "Amount": 0,
+    "Bill To": "Hisense broadband multimedia technologies (HK) CO., Ltd",
+    "From": "Mission Electronics International Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "其他",
+    "Invoice No.": "",
+    "Invoice Date": "",
+    "Currency": "",
+    "Amount": 0,
+    "Bill To": "Hisense broadband multimedia technologies (HK) CO., Ltd",
+    "From": "Mission Electronics International Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>PACKING LIST
+Customer:Hisense broadband multimedia technologies （HK) CO.,Ltd P.O.No.:4510089463
+Invoice No.:F230816000018 Payment Term: 发货30天(NE付T 3款0) 单出货后
+Invoice Date:2023-08-16 Ship Via:
+Bill To:Hisense broadband multimedia technologies （HK) CO.,Ltd Ship To:CYTS-SPIRIT LOGISTICS,LTD
+Room 3101-3105, Singga Commercial Centre, 148 Conaught R d. West, 6/F,43-57.Wang Wo Tsai Street, Ever Gain centre ,Tsuen wan,NT,
+Sai Ying Pun, HK HONG KONG
+Attn: 蔺艳莉Attn:BO YIM
+Tel: 15684730865 Tel: 31522507
+数重量尺寸产地 量
+行客Cusr 规号户料号格型号 DC Brand
+QTY Weight Dimension Country of LOT NO.
+CTN# Internalpart No. Part No. 年品份牌
+(pcs) (KG) (cm) origin
+NW:1.6
+1 3011055701 TPS61022RWUR 6000 42*38*28 PHILIPPINES 2144 TI MISS+2144
+GW:3.1
+3011055701 TPS61022RWUR 15000 PHILIPPINES 2204 TI MISS+2204
+NW:5.4
+2 3011089901 TPS62480RNCT 21000 48*38*56 PHILIPPINES 2204 TI MISS+2204
+GW:9.8
+3011089901 TPS62480RNCT 30000 PHILIPPINES 2210 TI MISS+2210
+●
+Total: 2 Cartons 72000 PCS NW:7.0 KG ; GW: 12.9 KG
+Note:
+1.Purchase Order Number must be quoted on all documents to facilitate payment.
+●
+2.No Cancellation ,No Return ,No Reschedule (except for Electronic Failure).
+3.Any complaints against this invoice must be notified to the company within 7 days of data hereof.
+4.We are not responsible for any banking charges outside ShenZhen The Payment received in our
+account must be the same as the amount we invoiced.
+For and on behalf of
+Confirmed and received by Mission Electronics International Limited
+请 签 章 Viki 欧阳桃
+Customer Chop and Signature Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>JP-TEC-00000780_CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)_WITH AWB.pdf</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "JP-TEC-00000780",
+    "Invoice Date": "03/01/2023",
+    "Currency": "USD",
+    "Amount": 2298.24,
+    "Bill To": "Hisense Broadband Mulitimedia Technologies(HK)Co.,LTD.",
+    "From": "TECDIA Co., Ltd.",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "JP-TEC-00000780",
+    "Invoice Date": "03/01/2023",
+    "Currency": "USD",
+    "Amount": 2298.24,
+    "Bill To": "Hisense Broadband Mulitimedia Technologies(HK)Co.,LTD.",
+    "From": "TECDIA Co., Ltd.",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>Page: 1 / 1
+Invoice
+Invoice No.: JP-TEC-00000780 TECDIA Co., Ltd.
+Invoice Date: 03/01/2023 2F, Tamachi Kiyota Building, 4-3-4 Shibaura, Minato-ku
+TOKYO, JAPAN, 108-0023
+Incoterms: FOB Cebu, Philippines
++81-3-5765-5400
+Payment Terms: T/T NET 30 DAYS
+Due Date: 03/31/2023 Bank Account Details:
+Shipment Method: DHL EXPRESS WORLDWIDE Mizuho Bank, Ltd. Ikebukuro branch, Saving USD
+SWIFT CODE:MHCBJPJT
+Freight: Collect
+CURRENT ACCOUNT: 9103570
+Freight Charge to: 966717576
+BANK CODE:0001 BRANCH CODE:230
+Duty_Tax Charge to: Receiver
+Customer: Ship To:
+Hisense Broadband Mulitimedia Technologies(HK)Co.,LTD. CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)
+Room 3101-3105 Singga Commercial Centre 148, Connaught Road West,Sai Eternity Warehouse 6/F, Ever Gain Centre,43-57, Wang Wo Tsai Street, Tsuen
+Ying Pun Wan, N.T.,
+HONG KONG HONG KONG
+Tel: 86-852-31522433
+Contact: Mr./Ms.BO Yim
+Line No PO No. Description 1 Description 2 Description 3 Quantity Unit Price(USD) Sub Total(USD)
+Invoice Note Country of Origin
+1 4510070053 4450000801 SKT02C221M11A1-63-B0-B (Chip Capacitor) 75,600 PC $0.03040 $2,298.24
+AL0000036950 Philippines
+Total Invoice Amount(USD): $2,298.24
+Signature:</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>JP-TEC-00000780_CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)_WITH AWB.pdf</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>2</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>Page: 1 / 1
+Packing List
+Invoice No.: JP-TEC-00000780 TECDIA Co., Ltd.
+Invoice Date: 03/01/2023 2F, Tamachi Kiyota Building, 4-3-4 Shibaura, Minato-ku
+Incoterms: FOB Cebu, Philippines
+TOKYO, JAPAN, 108-0023
+Payment Terms: T/T NET 30 DAYS
++81-3-5765-5400
+Due Date: 03/31/2023
+Shipment Method: DHL EXPRESS WORLDWIDE
+Freight: Collect
+Freight Charge to: 966717576
+Duty_Tax Charge to: Receiver
+Customer: Ship To:
+Hisense Broadband Mulitimedia Technologies(HK)Co.,LTD. CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)
+Room 3101-3105 Singga Commercial Centre 148, Connaught Road West,Sai Eternity Warehouse 6/F, Ever Gain Centre,43-57, Wang Wo Tsai Street, Tsuen
+Ying Pun Wan, N.T.,
+HONG KONG HONG KONG
+Tel:86-852-31522433
+Contact: Mr./Ms.BO Yim
+Case No. PO No. Description 1 Description 2 Description 3 Quantity Case Size Net Weight Gross Weight
+Invoice Note Country of Origin LxWxH (kg) (kg)
+1 4510070053 4450000801 SKT02C221M11A1-63-B0-B (Chip Capacitor) 75,600 PC 35x30x20 0.0800 1.0500
+AL0000036950 Philippines
+Total: 1 case 0.0800 1.0500
+( 75,600 PC)
+Signature:</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>JP-TEC-00000780_CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)_WITH AWB.pdf</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>3</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>*WAYBILL DOC* WPX
+Not to be attached to package - Hand to Courier
+2023-03-01 MYDHL+ /
+Shipper :
+Contact:
+TECDIA CEBU, INC.
++63323402947
+CCI-MS.MARLY
+Corner 3rd Street, 3rd Avenue MEPZ 1
+Pusok Lapu-Lapu City Cebu
+Central Visayas
+6015 IBO-LAPU-LAPU CITY (OPON)
+Philippines, the
+Receiver : Contact:
+CYTS-SPIRIT LOGISTICS LIMITED (HISENSE) MR./MS. BO YIM
+MR./MS. BO YIM +85231522433
+ETERNITY WAREHOUSE
+6/F, EVER GAIN CENTRE, 43-57
+WANG WO TSAI STREET TSUEN WAN, N.T.
+TSUEN WAN
+Hong Kong SAR, China
+. .
+PH-CEB-GTW HK-HKG-KWC
+Product Details: Features / Services (Service Code)
+[P] EXPRESS WORLDWIDE (48) Emergency Situation(CR)
+Payer Details Paperless Trade(WY)
+Freight A/C: 966717576
+Duty A/C: Receiver Will Pay
+Taxes A/C: Receiver Will Pay
+Shipment Details
+Ref: JP-TEC-00000780
+Custom Val: 2,298.24 USD
+Cust Decl Shpt Wgt (UOM) / Dim Wgt (UOM): Pieces
+1.1 kg 1
+Name (in Capital Letters) Signature Date (DD.MM.YYYY)
+Contents: CHIP
+CAPACITOR
+WAYBILL 20 2633 4085
+License Plates of pieces in shipment
+JD014600010835881592
+- page 1 of 1 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>JP-TEC-00000774_CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)_WITH AWB.pdf</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "JP-TEC-00000774",
+    "Invoice Date": "02/28/2023",
+    "Currency": "USD",
+    "Amount": 33818.11,
+    "Bill To": "Hisense Broadband Mulitimedia Technologies(HK)Co.,LTD.",
+    "From": "TECDIA Co., Ltd.",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "JP-TEC-00000774",
+    "Invoice Date": "02/28/2023",
+    "Currency": "USD",
+    "Amount": 33818.11,
+    "Bill To": "Hisense Broadband Mulitimedia Technologies(HK)Co.,LTD.",
+    "From": "TECDIA Co., Ltd.",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>Page: 1 / 1
+Invoice
+Invoice No.: JP-TEC-00000774 TECDIA Co., Ltd.
+Invoice Date: 02/28/2023 2F, Tamachi Kiyota Building, 4-3-4 Shibaura, Minato-ku
+TOKYO, JAPAN, 108-0023
+Incoterms: FOB Cebu, Philippines
++81-3-5765-5400
+Payment Terms: T/T NET 30 DAYS
+Due Date: 03/30/2023 Bank Account Details:
+Shipment Method: DHL EXPRESS WORLDWIDE Mizuho Bank, Ltd. Ikebukuro branch, Saving USD
+SWIFT CODE:MHCBJPJT
+Freight: Collect
+CURRENT ACCOUNT: 9103570
+Freight Charge to: 966717576
+BANK CODE:0001 BRANCH CODE:230
+Duty_Tax Charge to: Receiver
+Customer: Ship To:
+Hisense Broadband Mulitimedia Technologies(HK)Co.,LTD. CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)
+Room 3101-3105 Singga Commercial Centre 148, Connaught Road West,Sai Eternity Warehouse 6/F, Ever Gain Centre,43-57, Wang Wo Tsai Street, Tsuen
+Ying Pun Wan, N.T.,
+HONG KONG HONG KONG
+Tel: 86-852-31522433
+Contact: Mr./Ms.BO Yim
+Line No PO No. Description 1 Description 2 Description 3 Quantity Unit Price(USD) Sub Total(USD)
+Invoice Note Country of Origin
+1 4510067862 4450000201 SKT01C101M11A1-63-B0-B (Chip Capacitor) 166,400 PC $0.05400 $8,985.60
+AL0000036805 Philippines
+2 4510069848 4451000701 SKT00C101M11A6-X-B0-B (Chip Capacitor) 204,800 PC $0.06219 $12,736.51
+AL0000036930 Philippines
+3 4570066198 4450000201 SKT01C101M11A1-63-B0-B (Chip Capacitor) 224,000 PC $0.05400 $12,096.00
+AL0000036942 Philippines
+Total Invoice Amount(USD): $33,818.11
+Signature:</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>JP-TEC-00000774_CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)_WITH AWB.pdf</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>2</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>Page: 1 / 1
+Packing List
+Invoice No.: JP-TEC-00000774 TECDIA Co., Ltd.
+Invoice Date: 02/28/2023 2F, Tamachi Kiyota Building, 4-3-4 Shibaura, Minato-ku
+Incoterms: FOB Cebu, Philippines
+TOKYO, JAPAN, 108-0023
+Payment Terms: T/T NET 30 DAYS
++81-3-5765-5400
+Due Date: 03/30/2023
+Shipment Method: DHL EXPRESS WORLDWIDE
+Freight: Collect
+Freight Charge to: 966717576
+Duty_Tax Charge to: Receiver
+Customer: Ship To:
+Hisense Broadband Mulitimedia Technologies(HK)Co.,LTD. CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)
+Room 3101-3105 Singga Commercial Centre 148, Connaught Road West,Sai Eternity Warehouse 6/F, Ever Gain Centre,43-57, Wang Wo Tsai Street, Tsuen
+Ying Pun Wan, N.T.,
+HONG KONG HONG KONG
+Tel:86-852-31522433
+Contact: Mr./Ms.BO Yim
+Case No. PO No. Description 1 Description 2 Description 3 Quantity Case Size Net Weight Gross Weight
+Invoice Note Country of Origin LxWxH (kg) (kg)
+1 4510067862 4450000201 SKT01C101M11A1-63-B0-B (Chip Capacitor) 166,400 PC 45x40x35 0.2000 2.0000
+AL0000036805 Philippines
+1 4510069848 4451000701 SKT00C101M11A6-X-B0-B (Chip Capacitor) 204,800 PC 0.2000 0.0000
+AL0000036930 Philippines
+1 4570066198 4450000201 SKT01C101M11A1-63-B0-B (Chip Capacitor) 224,000 PC 0.2000 0.0000
+AL0000036942 Philippines
+Total: 1 case 0.6000 2.0000
+( 595,200 PC)
+Signature:</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>JP-TEC-00000774_CYTS-SPIRIT LOGISTICS LIMITED (HISENSE)_WITH AWB.pdf</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>3</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>*WAYBILL DOC* WPX
+Not to be attached to package - Hand to Courier
+2023-02-28 MYDHL+ /
+Shipper :
+Contact:
+TECDIA CEBU, INC.
++63323402947
+CCI-MS.MARLY
+Corner 3rd Street, 3rd Avenue MEPZ 1
+Pusok Lapu-Lapu City Cebu
+Central Visayas
+6015 IBO-LAPU-LAPU CITY (OPON)
+Philippines, the
+Receiver : Contact:
+CYTS-SPIRIT LOGISTICS LIMITED (HISENSE) MR./MS. BO YIM
+MR./MS. BO YIM +85231522433
+ETERNITY WAREHOUSE
+6/F, EVER GAIN CENTRE, 43-57
+WANG WO TSAI STREET TSUEN WAN, N.T.
+TSUEN WAN
+Hong Kong SAR, China
+. .
+PH-CEB-GTW HK-HKG-KWC
+Product Details: Features / Services (Service Code)
+[P] EXPRESS WORLDWIDE (48) Emergency Situation(CR)
+Payer Details Paperless Trade(WY)
+Freight A/C: 966717576
+Duty A/C: Receiver Will Pay
+Taxes A/C: Receiver Will Pay
+Shipment Details
+Ref: JP-TEC-00000774
+Custom Val: 33,818.11 USD
+Cust Decl Shpt Wgt (UOM) / Dim Wgt (UOM): Pieces
+2.0 kg 1
+Name (in Capital Letters) Signature Date (DD.MM.YYYY)
+Contents: CHIP
+CAPACITOR
+WAYBILL 17 6821 5503
+License Plates of pieces in shipment
+JD014600010807383984
+- page 1 of 1 -</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>8HISENSE3-20230831(R).pdf</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>清單明細
+送貨日期：
+2023-08-31
+物料编碼
+訂單號
+PRODUCTCODE
+來料生產日期
+來料数量
+發票號
+3011114901
+4510079671
+MALD-37059B
+2204
+1000
+PIC3080675
+4411012901
+4570073718
+MARP-FSAPD10B
+2244
+1074
+PIC3080676
+4411012901
+4570073718
+MARP-FSAPD10B
+2244
+1074
+PIC3080676
+4411012901
+4570073718
+MARP-FSAPD10B
+2244
+1075
+PIC3080676
+4411012901
+4570073718
+MARP-FSAPD10B
+2244
+1075
+PIC3080676
+4321006201
+4570072426
+MATA-37244E-DIE
+2151
+224
+PIC3080677
+4321006201
+4570072426
+MATA-37244E-DIE
+2151
+280
+PIC3080677
+4321006201
+4570072426
+MATA-37244E-DIE
+2151
+1120
+PIC3080677
+4321006201
+4570072426
+MATA-37244E-DIE
+2151
+1120
+PIC3080677
+TOTAL
+8042</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>8HISENSE3-20230831(R).pdf</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>2</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "PIC3080675",
+    "Invoice Date": "31-AUG-2023",
+    "Currency": "USD",
+    "Amount": 5900.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Pangaea (HK) Ltd",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "PIC3080675",
+    "Invoice Date": "31-AUG-2023",
+    "Currency": "USD",
+    "Amount": 5900.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Pangaea (HK) Ltd",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>環滕(香港)有限公司
+PANGAEA(H.K.) LIMITED
+香港灣仔莊士敦道181號大有大厦902-906室
+Room 902-906,Tai YauBuilding,181Johnston Road, Wanchai, Hong Kong
+Tel.電話：852-28363301Fax.傅：852-28347340E-mail:sales@pangaea.com.hk
+INVOICE
+INVOICENO.發票编號：PIC3080675
+DATE日期
+：31-AUG-2023
+發票
+PAGE真數
+1
+DEBITTO客户：
+SHIPTO送交：
+HISENSE BROADBAND MULTIMEDIA
+青旅思捷物流有限公司
+TECHNOLOGIES (HK) CO.,LIMITED
+香港荃灣横窝仔街43-57號
+ROOM3101-05,SINGGACOMMERCIALCENTRE,
+永得利中心六楼-QD
+NO.148 CONNAUGHT ROAD WEST,
+SAIYINGPUN.HONGKONG
+ATTN聯絡人
+宋澍威
+ATTN聯絡人
+：
+MR.KEY(阿仁)
+TELNO.電話
+15192039036
+TELNO.電話
+：
+31522431
+FAXNO.傅真
+FAXNO.傅真
+A/CCODE客户编號
+8HISENSE3
+SONO.售貨單编號
+：
+SOC3070317
+CUST PONO.
+：
+4510079671
+客户訂單编號
+PARTNO.&amp;DESCRIPTION
+QUANTITY
+UNITPRICE
+AMOUNT
+型號及摘要
+数量
+單價
+金额
+USD
+USD
+MALD-37059B
+1,000PC(S)
+5.9000
+5,900.0000
+光電動IC\MALD-37059B\TP
+CUST.P/N客户型號：3011114901
+LINENO.序號
+:0010
+TOTAL
+：
+5,900.0000
+PAYMENTTERMS付款方法
+NET 60 DAYS
+PRICETERMS付貨方法
+FCA HONG KONG
+DELIVERYDATE送貨日期
+：
+31-AUG-2023
+REMARKS備
+：
+MANUFACTURER:MACOM
+CUST.ASN#/入食號
+AL0000037697
+Assigned to The Hongkong and Shanghai Banking Corporation Limited and is to be paid directly to their ReceivableFinance Division.
+They alone are entitled to give a receipt therefore and should be advised immediately of any claims,disputes or returned goods on
+(852) 3941 6227 or (852) 3941 6221.
+Bank Name:The Hongkong and Shanghai Banking Corporation Limited:
+Swift Code: HSBC HKH H HKH
+Account Name: Pangaea (HK) Ltd (As Trustee For HSBC)
+Account No: 004-848-250338-274
+For and On Behalf of
+PANGAEA (H.K.) LIMITED
+環聯（香港)有限公司
+Authorized Signature(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>8HISENSE3-20230831(R).pdf</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>3</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "PIC3080676",
+    "Invoice Date": "31-AUG-2023",
+    "Currency": "USD",
+    "Amount": 3223.5,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "PANGAEA (H.K.) LIMITED",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "PIC3080676",
+    "Invoice Date": "31-AUG-2023",
+    "Currency": "USD",
+    "Amount": 3223.5,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "PANGAEA (H.K.) LIMITED",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>環聯 (香港)有限公司
+PANGAEA (H.K.) LIMITED
+香港灣仔莊士敦道181號大有大厦902-906室
+Room902-906,Tai YauBuilding,181Johnston Road,Wanchai,Hong Kong
+Tel.電話：852-28363301Fax.傅：852-28347340E-mail:sales@pangaea.com.hk
+INVOICE
+INVOICENO.發票编號：PIC3080676
+DATE日期
+:31-AUG-2023
+發票
+PAGE真數
+DEBITTO客户：
+SHIPTO送交：
+HISENSEBROADBANDMULTIMEDIA
+青旅思捷物流有限公司
+TECHNOLOGIES (HK)CO.,LIMITED
+香港荃灣横仔街43-57號
+ROOM3101-05,SINGGACOMMERCIALCENTRE,
+永得利中心六樓-QD
+NO.148 CONNAUGHT ROAD WEST,
+SAIYINGPUN,HONGKONG
+ATTN聯絡人
+徐萍
+ATTN聯絡人
+MR.KEY(阿仁)
+TELNO.電話
+175 1953 1365
+TELNO.電話
+31522431
+FAXNO.傅真
+FAXNO.傅真
+A/CCODE客户编號
+8HISENSE3
+SONO.售貨單编號
+：
+SOC3080315
+CUST PO NO.
+：
+4570073718
+客户言單號
+PART NO.&amp;DESCRIPTION
+QUANTITY
+UNIT PRICE
+AMOUNT
+型號及摘要
+数量
+單價
+金额
+USD
+USD
+MARP-FSAPD10B
+4,298
+PC(S)
+0.7500
+3,223.5000
+光敏二極管\MAPR-FSAPD10B\BD
+CUST.P/N客户型號：4411012901
+LINENO.序號
+:0010
+TOTAL
+3,223.5000
+SAYUSDTHREETHOUSANDTWOHUNDREDTWENTYTHREEANDCENTSFIFTY
+ONLY****
+PAYMENTTERMS付款方法
+：
+NET 60DAYS
+PRICETERMS付货方法
+：
+FCAHONGKONG
+DELIVERYDATE送貨日期
+：
+31-AUG-2023
+REMARKS備
+：
+MANUFACTURER:MACOM
+CUST.ASN#/入食號
+：
+AL0000037836
+Assigned to The Hongkong and Shanghai Banking Corporation Limited and is to be paid directly to their Receivable Finance Division.
+They alone are entitled to give a receipt therefore and should be advised immediately of any claims,disputes or returned goods on
+BankName:The Hongkong and Shanghai BankingCorporationLimited:
+Swift Code:HSBC HKH H HKH
+Account Name:Pangaea(HK)Ltd (As TrusteeFor HSBC)
+Account No: 004-848-250338-274
+For and On Behalf of
+PANGAEA (H.K.) LIMITED
+環聯(香港)有限公司
+Authorized Signature(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>8HISENSE3-20230831(R).pdf</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>4</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "PIC3080677",
+    "Invoice Date": "31-AUG-2023",
+    "Currency": "USD",
+    "Amount": 5213.6,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "PANGAEA (H.K.) LIMITED",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "PIC3080677",
+    "Invoice Date": "31-AUG-2023",
+    "Currency": "USD",
+    "Amount": 5213.6,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "PANGAEA (H.K.) LIMITED",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>環聯 (香港)有限公司
+PANGAEA (H.K.) LIMITED
+香港灣仔莊士敦道181號大有大厦902-906室
+Tel.電話：852-28363301Fax.傅：852-28347340E-mail:sales@pangaea.com.hk
+INVOICE
+INVOICENO.發票编號：PIC3080677
+DATE日期
+：31-AUG-2023
+發票
+PAGE真數
+：
+1
+DEBITTO客户：
+SHIPTO送交：
+HISENSEBROADBANDMULTIMEDIA
+青旅思捷物流有限公司
+TECHNOLOGIES (HK) CO., LIMITED
+香港荃灣横窝仔街43-57號
+ROOM3101-05,SINGGACOMMERCIALCENTRE,
+永得利中心六楼-QD
+NO.148 CONNAUGHT ROAD WEST,
+SAIYINGPUN,HONGKONG
+ATTN聯絡人
+：
+徐萍
+ATTN聯絡人
+：
+MR.KEY(阿仁)
+TELNO.電話
+13792889728
+TELNO.電話
+：
+31522431
+FAXNO.傅真
+FAXNO.傅真
+A/CCODE客户编號
+8HISENSE3
+SONO.售貨單编號
+SOC3070144
+CUST PO NO.
+：4570072426
+客户訂單编號
+#
+PARTNO.&amp;DESCRIPTION
+QUANTITY
+UNIT PRICE
+AMOUNT
+型號及摘要
+數量
+單價
+金额
+USD
+USD
+MATA-37244E-DIE
+2,744PC(S)
+1.9000
+5,213.6000
+TIA\MATA-37244E
+CUST.P/N客户型號：4321006201
+LINENO.序號
+:0010
+TOTAL:
+5,213.6000
+PAYMENTTERMS付款方法
+NET60DAYS
+PRICETERMS付貨方法
+FCA HONG KONG
+DELIVERYDATE送貨日期
+31-AUG-2023
+REMARKS備
+：
+MANUFACTURER:MACOM
+CUST.ASN#/人食號
+AL0000037664
+They alone are entitled to give a receipt therefore and should be advised immediately of any claims, disputes or returned goods on
+(852) 3941 6227 or (852) 3941 6221.
+Bank Name: The Hongkong and Shanghai Banking Corporation Limited:
+Swift Code:HSBC HKH H HKH
+Account Name:Pangaea (HK) Ltd (As Trustee For HSBC)
+Account No: 004-848-250338-274
+For and On Behalf of
+PANGAEA (H.K.) LIMITED
+環聯 (香港)有限公司
+Authorized Signature(s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>8HISENSE3-20230831(R).pdf</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>5</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>環聯 (香港)有限公司
+PACKING LIST
+PL#
+PLC3080373
+PANGAEA (H.K.) LIMITED
+DATE
+31-AUG-2023
+8HISENSE3
+香港灣仔莊士敦道181號大有大厦902-906室
+1/1
+Room902-906,TaiYauBuilding,181Johnston Road,Wanchai,HongKong
+CONTACT:S
+SUKIZHAN詹晓娜
+Tel.電话：852-28363301Fax.傅：852-28347340E-mail:sales@pangaea.com.hk
+BILLTO
+SHIPTO
+HISENSEBROADBANDMULTIMEDIA
+青旅思捷物流有限公司
+香港荃湾横禽仔街43-57號
+永得利中心六楼-QD
+ATTN
+徐萍
+ATTN
+MR.KEY(阿仁)
+TELNO
+13792889728
+TELNO.
+31522431
+FAX NO
+EAXNO
+COUNTRY
+ORIIN
+N.W.
+G.W.
+CARTON
+QUANTITY
+MANUFACTURER
+CARTON NO.
+MEASUREMENT
+ITEM NO.&amp;DESCRIPTION
+CUST.PO.NO.
+NVOICE NO
+客户買單
+發票编號
+数量
+座地
+品牌
+箱號
+箱碼
+项目&amp;货品名稠
+MALD-37059B
+4510079671
+PIC3080675
+1,000.00
+PC(S)
+MACOM
+1 OF3
+1.20
+2.20
+41x 39 ×23CM
+光電驱動ICIMALD-37059BITP
+CUST.P/N客户型號：301114901
+DATECODE
+2204
+LINE NO.序號
+:0010
+MARP-FSAPD10B
+4570073718
+PIC3080676
+4,298.00
+PC(S)
+CHINA
+MACOM
+2 OF3
+0.50
+0.80
+28x24x20cm
+光敏二管MAPR-FSAPD10BIBD
+2244
+LINE NO.序號
+:0010
+MATA724-DE
+4570072426
+PIC3080677
+2,744.00
+PC(S)
+MALAYSIA
+MACOM
+3 OF3
+1.60
+2.10
+33x33×22CM
+CUST.P/N客户型號：4321006201
+DATECODE
+2151
+LINENO.序號
+: 0010
+TOTAL QUANTITY
+8,042.00PC(S)
+NO OF CARTON
+3.00
+3.30
+5.10
+REMARKS :
+PANGAEA(H.K) LIMITED
+環滕（香港)有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Worldshine WT123645 A.pdf</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>华商龍科技有限公司
+Worldshine Technology Limited
+香港九龍觀塘開源道49號創贸廣場27樓2708室
+Room 2708, 27/F, APEC Plaza, 49 Hoi Yuen Road, Kwun Tong,Kowloon, Hong Kol
+Tel:852-2344 5685 Fax:852-2951 0086
+Packing List
+包装單
+Customer
+客户：HISENSEBROADBAND
+PackingList No．包装單号码：WT123645
+MULTIMEDIA
+TECHNOLOGIES(HK) CO.,LIMITED
+Date日
+期：23-08-02
+Customer
+客
+户：
+YT-C-2020100049
+地址：
+TEL No.
+電
+話：
+_31522507
+FAX No.
+傅
+真：0532-80878481
+林一凡
+部门：
+青岛华东销售部
+ATTN
+负责人：
+WT123645
+营业员：
+王志豪
+Invoice No.
+發票號碼：
+尺寸
+毛重/箱
+淨重/箱
+產品说明
+箱號
+箱数
+数量
+Measurement
+G.W.
+N.W.
+Carton
+Carton
+Quantity
+Product
+(KG)
+(KG)
+INo
+Qty.
+(/Carton)
+(CBM)
+Description
+物料名称：铁电存储器
+型号：MB85RC16PN-G-AMERE1
+客户物料號：3011090201
+1-1
+57.00X28.00X19.00
+1.680
+1. 344
+1
+3,000PCS
+客户P0號：4510075704
+(73134244)
+品牌：Fujitsu
+产地：MADE IN JAPAN
+LOT.N0.：3T33090039,3T33090040
+物料名称：铁电存储器
+型号：MB85RC16PN-G-AMERE1
+客户物料號：3011090201
+客户P0號：4510075704
+2-2
+57.00X28.00X19.00
+3.100
+2.480
+品牌：Fujitsu
+9,000PCS
+(73134246)
+产地：MADE IN JAPAN
+LOT.NO. :
+3T33090041,3T33100005,3T33100006,
+3T33100007,3T33100008,3T33100009
+4.7800
+3.824
+總數：
+2
+12,000
+0.06
+Total
+CBM
+KG
+KG
+PCS
+TermsofPayment付款條款：AMS 45DAYS(月结45天)
+PackingListRemarks装箱單要求：
+Shipping Mark 標：
+Other Remarks 備
+注：
+Delivery AddressCYTS -SPIRIT LOGISTICS LTD
+送货地址: 6/F, Ever Gain Centre,43-57 Wang Wo Tsai Street, Tsuen Wan, N.T.，Hong Kong
+联系人：Te1：31522507?Fax：31522435ATTN:B0YIM
+請收货人字章业署日期，否则，視此單日期為貴司確收貨日期。
+第1页，共1页</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Worldshine WT123645 A.pdf</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>2</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT123645",
+    "Invoice Date": "23-08-02",
+    "Currency": "USD",
+    "Amount": 3528.0,
+    "Bill To": "TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "华商龍科技有限公司",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT123645",
+    "Invoice Date": "23-08-02",
+    "Currency": "USD",
+    "Amount": 3528.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "华商龍科技有限公司",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>['Bill To']</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>華商龍科技有限公司
+Worldshine Technology Limited
+香港九龍觀塘開源道49號創贸廣場27樓2708室
+Room 2708, 27/F, APEC Plaza, 49 Hoi Yuen Road, Kwun Tong, Kowloon, Hong Kong.
+Tel:852-2344 5685 Fax:852-2951 0086
+HISENSEBROADBANDMULTIMEDIA
+Customer
+客户：
+Sales Invoice
+TECHNOLOGIES (HK) CO.,LIMITED
+售發票
+地址：
+ATTN
+負责人：
+林一凡
+話：
+31522507
+Invoice No.
+发票号码：WT123645
+TEL
+電
+0532-80878481
+Date
+发票日期：
+23-08-02
+FAX
+傅
+真：
+王志豪
+部門：青岛华东销售部
+Customer
+客
+户：
+YT-C-2020100049
+Salesman
+营業員：
+项目
+數量
+單位订价
+折扣率
+金额
+產品说明
+Product Description
+Quantity
+Unit Price Discount
+Amount
+Item
+USD
+USD
+No.
+物料名称：铁电存储器
+型号：MB85RC16PN-G-AMERE1
+3,528.00
+客户物料號：3011090201
+12,000 PCS
+0.294000
+客户P0號：4510075704
+品牌；Fujitsu
+产地：MADE IN JAPAN
+12,000PCS
+Net Amount 净金额：USD
+3,528.00
+Payment Terms
+付款條款：AMS 45DAYS（月结45天)
+InvoiceRemarks發票要求：贸易条款为：FOBHONGKONG;AMS45
+Other Remarks 備
+：
+Delivery Address
+CYTS - SPIRIT LOGISTICS LTD
+送货地址: 6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street，Tsuen Wan, N.T.，Hong Kong
+Tel:31522507? Fax:3152 2435 ATTN:B0 YIM
+HISENSEBROADBANDMULTIMEDIA
+华商龍科技有限公司
+TECHNOLOGIES (HK)CO.,LIMITED
+第1页，共1页</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>WORLDSHINE WT123734 B.pdf</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>華商龍科技有限公司
+Worldshine Technology Limited
+有银公司
+香港九龍觀塘開源道49號創贸廣場27楼2708室
+Room 2708， 27/F，APEC Plaza， 49 Hoi Yuen Road,Kwun Tong,Kowloon, Hong Kong
+Tel:852-2344 5685 Fax:852-2951 0086
+2GD-
+Packing List
+包装單
+客户：HISENSE BROADBAND
+Packing List No.
+包装單号码：
+WT123734
+Customer
+MULTIMEDIA
+1TECHNOLOGIES(HK)CO.,LIMITED
+Date
+日
+期：
+23-08-09
+客
+户：
+YT-C-2020100049
+地址：
+Customer
+TEL No.
+電
+話：Fax：3152 2435
+FAX No.
+傅
+真：0532-80878481
+负费人：
+林一凡
+部门：
+青岛华东销售部
+ATTN
+發票號碼：
+WT123734
+营业员：
+王志豪
+Invoice No.
+尺寸
+毛重/箱
+净重/箱
+產品明
+箱號
+箱数
+數量
+Quantity
+Measurement
+G.W.
+N.W.
+Product
+Carton
+Carton
+(CBM)
+(KG)
+(KG)
+No
+Qty.
+(/Carton)
+Description
+物料名称：铁电存储器
+型号：MB85RC16PN-G-AMERE1
+客户物料號：3011090201
+客户P0號：4510076819
+1-1
+3.100
+2.480
+1
+6,000PCS
+57.00X28.00X19.00
+品牌：Fujitsu
+(73134247)
+产地：MADE IN JAPAN
+LOT. NO. :
+3T33100018,3T33100019,3T33100020
+3T33100021,3T33100022,3T3310002
+物料名称：铁电存储器
+型号：MB85RC16PN-G-AMERE1
+客户物料號：3011090201
+客户P0號：4510075704
+1-1
+0.000
+0.000
+品牌：Fujitsu
+3,000PCS
+（73134247)
+0
+产地：MADE IN JAPAN
+LOT.NO. :
+3T33100018,3T33100019,3T33100020
+3T33100021,3T33100022,3T3310002
+物料名称：铁电存储器
+型号：MB85RC16PN-G-AMERE1
+客户物料號：3011090201
+2-2
+27.00X26.00X5.00
+0.410
+0.310
+1
+1,500PCS
+客户P0號：4510075704
+(73567947)
+品牌：Fujitsu
+产地：MADE IN JAPAN
+LOT.NO.：3T33080046
+0.03
+3.5100
+2.790
+總数：
+2
+10,500
+Total
+CBM
+KG
+KG
+PCS
+Termsof Payment付款條款：AMS 45DAYS（月结45天)
+Packing List Remarks 装箱單要求：
+Shipping Mark 標：
+Other Remarks储
+：
+Delivery Address CYTS - SPIRIT LOGISTICS LTD
+送货地址：6/F,Ever Gain Centre，43-57 Wang Wo Tsai Street，Tsuen Wan，N.T.，Hong Kong
+联系人：Tel:31522507?Fax：31522435 ATTN:B0YIM
+請收货人字章署日期，否则，視此單日期為貴司確收货日期。
+第1页，共1页</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>WORLDSHINE WT123734 B.pdf</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>2</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT123734",
+    "Invoice Date": "23-08-09",
+    "Currency": "USD",
+    "Amount": 3087.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Worldshine Technology Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT123734",
+    "Invoice Date": "23-08-09",
+    "Currency": "USD",
+    "Amount": 3087.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Worldshine Technology Limited",
+    "page": "1/1"
+}</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>华商龍科技有限公司
+JM
+Worldshine Technology Limited
+香港九龍觀塘開源道49號創贸廣場27楼2708室
+Room 2708, 27/F，APEC Plaza,49 Hoi Yuen Road, Kwun Tong, Kowloon, Hong Kong.
+Tel:852-2344 5685 Fax:852-2951 0086
+HISENSEBROADBANDMULTIMEDIA
+Customer
+客户：
+Sales Invoice
+TECHNOLOGIES (HK)CO.,LIMITED
+售發票
+地址：
+ATTN
+负黄人：
+林一凡
+Fax: 3152 2435
+Invoice No.
+发票号码：WT123734
+TEL
+電話：
+傅真：
+Date
+发票日期：
+23-08-09
+FAX
+0532-80878481
+部門：青岛华东销售部
+Customer
+客
+户：
+YT-C-2020100049
+Salesman
+营業員：
+王志豪
+数量
+單位订价
+折扣率
+金额
+项目
+產品明
+Quantity
+Unit Price Discount
+Amount
+Item
+Product Description
+USD
+USD
+No.
+物料名称：铁电存储器
+型号：MB85RC16PN-G-AMERE1
+1,323.00
+客户物料號：3011090201
+4,500 PCS
+0.294000
+客户P0號：4510075704
+品牌：Fujitsu
+产地：MADE IN JAPAN
+物料名称：铁电存储器
+型号：MB85RC16PN-G-AMERE1
+1,764.00
+客户物料号：3011090201
+6,000 PCS
+0.294000
+客户P0號：4510076819
+品牌：Fujitsu
+产地：MADE IN JAPAN
+10,500PCS
+Net Amount 淨金额：USD
+3,087.00
+Payment Terms
+付款條款：AMS 45DAYS（月结45天)
+InvoiceRemarks發票要求：贸易条款为：FOBHONGKONG;AMS45
+Other Remarks備
+注：
+Delivery Address
+CYTS - SPIRIT LOGISTICS LTD
+送货地址: 6/F, Ever Gain Centre， 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T.，Hong Kong
+Tel:31522507? Fax :3152 2435 ATTN:B0 YIM
+請收貨人字章署日期，否则，視此單日期為貴司確收貨日期。
+HISENSEBROADBANDMULTIMEDIA
+华商龍科技有限公司
+TECHNOLOGIES (HK) CO.,LIMITED
+10)
+第1页，共1页</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>HY 4632.pdf</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4632",
+    "Invoice Date": "24 July 2023",
+    "Currency": "USD",
+    "Amount": 70000.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK)Co.,Limited",
+    "From": "HOPEFUL YEAR HONG KONG LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4632",
+    "Invoice Date": "24 July 2023",
+    "Currency": "USD",
+    "Amount": 70000.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK)Co.,Limited",
+    "From": "HOPEFUL YEAR HONG KONG LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>INVO
+Invoice Number : 4632(宽带)
+注:此料為海信寬带多媒體
+有限公司的物料
+Date of Issue:
+24 July 2023
+HOPEFULYEARHONGKONGLIMITED
+Workshop7,9/F Thriving Ind Centre,
+26-38,Sha Tsui Road, Tsuen Wan, NT.
+Tel:31658835Fax:31658834 Email:hopefulyear@on-nets.com
+Ship to address
+Invoice to address
+Hisense Broadband Multimedia Technologies(HK)Co.,Limited
+Unit 6A &amp; 6C, 6th Floor, Shatin Industrial Building,
+HisenseBroadbandMultimedia
+22-28WShiStetFotanha,
+New Territories, Hong Kong.
+Technologies(HK)Co.,Limited
+Attn：曹玉新
+caoyuxin1801@hisense.com
+Via
+Term of Delivry:Local Delivery
+To
+Term of Payment:T/T
+Customer Contract Number
+：4510065447
+Customer Warrant Number
+Article-/type number/description
+Currency
+USD
+Quantity
+Price Per
+Amount
+Customer Part Number
+集成電路MSO9385-AKZ-M01-ND5
+20000
+3.50000
+70,000.00
+Origin
+中國台灣
+Total amount USD
+70,000.00
+Thank you for your business!
+有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>HY 4632.pdf</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>2</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>PACKING LIST
+Ref No.
+4632-P(寬带)
+Page
+1/1
+HOPEFULYEARHONGKONGLIMITED
+Invoice No.:
+4632
+此料为海信宽带多媒体有限公司的物料
+Workshop79/FThrivingIndCtr
+26-38 Sha Tsui Road Tsuen Wan
+Fax:31658834
+Date of Issue:
+24-Jul-23
+Tel:31658835
+Sailing On:
+Ship to address
+HISENSEBROADBANDMULTIMEDIA TECHNOLOGIES (HK) COLIMITED
+Unit 6A &amp; 6C, 6th Floor, Shatin Industrial Building,
+From:
+22-28 Wo Shui Street, Fotan, Shatin, New Tertories, Hong Kong.
+曹玉新
+訂單號：
+4510065447
+Attn:
+物料代碼：3011099101
+委書號：
+Description of Goods
+Quantity
+NetWeight
+No.ofpackages
+GrossWeight
+5,720.00粒/箱
+13.00KGS/箱
+纸箱集成電路MS09385-AKZ-M01-ND5
+5,720.00粒
+13.00 KGS
+品牌：MTK
+7,140.00粒/纸箱
+15.40KGS/箱
+2
+纸箱集成電路MS09385-AKZ-M01-ND5
+14,280.00粒
+30.80 KGS
+品牌：MTK
+HON
+鸿溢香港
+有限公司
+Totals
+3纸箱
+20,000.00
+43.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>HY 4699.pdf</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4699",
+    "Invoice Date": "31 July 2023",
+    "Currency": "USD",
+    "Amount": 2500.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "HOPEFUL YEAR HONG KONG LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4699",
+    "Invoice Date": "31 July 2023",
+    "Currency": "USD",
+    "Amount": 2500.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "HOPEFUL YEAR HONG KONG LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>[nvoiceNumher:4699(宽带）
+注：此料為海信寬带多媒體
+有限公司的物料
+Date of Issue
+31 July 2023
+HOPEFULYEARHONGKONGLIMITED
+Workshop 7, 9/F Thriving Ind Centre,
+26-38, Sha Tsui Road, Tsuen Wan, NT.
+Tel: 3165 8835
+Fax:3165 8834 Email hopefulyear@on-nets,
+Invoice lo adldress
+Ship to axlhes
+Hisense Broadband Multimedia
+Hisense Broadbamd Multimedia Technologies(-HK )Co.,Limited
+Unit 6A &amp; 6C. 6th Floor Shain lgdustrial Buiding,
+Technologies(HK)Co.,Limited
+22-2xWoShiStet.FotanShatin
+New Territories, Hong Kong.
+海信料号：3011041301
+Almn：曹玉新
+caoyuxin1801@@hisense.com
+Tem of Delivey:
+Local Delivery
+Fm
+Tens of Payment:
+T/1
+Tc1
+Customer Contract Number
+:5970023242
+Customer Warrant Number
+C'urrency
+USD
+Quantity
+Price Per
+Amount
+Anicle-ftype mumber/deseription
+5000
+0.50000
+2,500.00
+Customer Part Number
+绑成港路MSB1011
+Origin
+中國台灣
+Total amount USD
+2,500.00
+鸿溢香港
+Thank you for your business!
+有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>HY 4699.pdf</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>2</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>PACKING LIST
+Page
+Ref No.
+4699-P（宽带）
+1/ 1
+HOPEFULYEAR HONGKONG LIMITED
+Invoice No.:
+4699
+Workshop7 9/FThriving Ind Ctr
+此料为海信宽带多媒体有限公司的物料
+26-38 Sha Tsui Road Tsuen Wan
+Fax:31658834
+Dale of lssue:
+31-Jul-23
+Tel:31658835
+海信料号：3011041301
+Sailing On:
+Ship to address
+HSINSF BR ADBAND MULTIMEDIA TECHNOLOGIES (HK) CO LIMITED
+Lnit oA &amp; ox' 6t: Flour. Shatin Industrial Building,
+From:
+22-28 Wo Shui Street. Fotan. Shatin, New Territories, Hong Kong.
+曹玉新
+訂單号：
+5970023242
+At.
+委托書號：
+Descriptilon of Goods
+Quantity
+Net Weight
+No of packages
+Gross Weight
+5,000.00粒/纸箱
+7.20KGS/纸箱
+纸箱集成電路MISB1011
+5,000.00粒
+7.20 KGS
+品牌：MTK
+有限公
+Totals
+|纸箱
+5,000.00
+7.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307012.pdf</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307012",
+    "Invoice Date": "3/7/2023",
+    "Currency": "USD",
+    "Amount": 3760.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307012",
+    "Invoice Date": "3/7/2023",
+    "Currency": "USD",
+    "Amount": 3760.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>港德電子有限公
+KONG TAK ELECTRONIC CO., LTD.
+Tel: (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax: (852) 2764 8426
+Unit 203,2/F.,HarbourCentre,ower2,No.8HokCheung Stret,Hunghom,Kowloon,Hong Kong
+http://www.kongtak.com.hk
+INVOICE
+Customer Code
+: HKH019USD
+Sold To: Hisense Broadband Mulimedla Technologies(HK) Co., Limited
+Invoice Date
+:3/7/2023
+Invoice No.
+: 2307012
+Attn：徐萍
+Contract/Order No.:45900166084590016862
+Tel
+：0750-3997863
+A/L No.
+Payment Terms
+:AMS 45 DAYS
+Bill To:
+Hisense Broadband Multimedia Technologies(HK) Co., Limited
+Dellvery Date
+: 4/7/2023
+Rooms 3101-05 Singga Commercial Centre
+Currency
+:USD
+148 Connaught Road West,Hong Kong
+Payment Due Date
+:15/9/2023
+ShipTo:青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITEO
+6/F,Ever Gain Centre,43-57 Wang Wo Tsai Street,
+Tsuen Wan, N.T. Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etain
+Amount
+coder no.
+production Date
+Brand
+Descrlption
+Quantity
+Unit
+Price
+Item
+4590016608
+25/6/2023
+FERROTEC
+8P631
+4501004801
+85
+pcs
+19.0000
+1,615.00
+1
+TEC
+20034/040/029MN/R01
+China
+8P631
+2,145.00
+4590016862
+25/6/2023
+FERROTEC
+4501004801
+65
+pcs
+33.0000
+TEC
+20034/040/029MN/R01
+China
+Total Amount :
+3,760.00
+Deposit :
+0.00
+Shipped per:
+Balance:
+3,760.00
+For and on behalf of
+Kong Tak Electronic Co.,Ltd
+港德觉子
+有限公司
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307012.pdf</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>2</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+Lhnoy
+Tel : (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax: (852) 2764 8426
+Unit 203,2/F.,Harbour Centre,Tower 2,No.8 Hok Cheung Street,Hunghom,Kowloon,Hong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+Date
+：2023.07.03
+CYTS-SPIRIT LOGISTICS LIMITED.
+Customer Code
+：HKH019USD
+青旅思捷物流有限公司
+Invoice No
+：2307012
+香港荃灣横窝仔街43-57號永得利中心六楼
+Contract/0rder No.:
+Attn: Etain
+L/C No.
+：
+Tel:39020582
+Delivery
+：2023.07.04
+Packing No.
+：2307012
+Total Unit
+W.T.&amp; Measurement
+CBM
+Description
+Case Qty
+P/P
+Case No
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+(20034/040/029MN/R01)
+85 PCS
+0.10
+1.40
+0.030
+8P631
+85
+TEC
+0.10
+1.40
+0.030
+FERROTEC
+CHINA
+8P631
+65
+65 PCS
+TEC
+FERROTEC
+CHINA
+150
+0.10
+1.40
+0.030
+TOTAL:
+/
+Shipmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307166.pdf</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+Tel: (852) 2356 1832
+香港九龍紅鹤翔街8号港中心第二期2楼203室
+Fax:(852)2764 8426
+Unit 203,2/F,HarbourCentre,Tower2,No.HokCheung StreetHunghn,Koloon,ong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+Dale
+：2023.07.18
+CYTS-SPIRIT LOGISTICS LIMITED.
+Customer Code
+：HKH019USD
+青旅思捷物流有限公司
+香港荃灣横窝仔街43-57號永得利中心六楼
+Invoice No
+：2307166
+Attn: Etain
+Contract/0rder No.:
+L/C No.
+Tel:39020582
+：
+Delivery.
+：2023.07.18
+Packing No.
+：2307166
+Case Qty
+P/P
+Total Unit
+W.T.&amp; Measurement
+CBM
+Case No
+Deseript ion
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+2000
+2000 PCS
+0.30
+1.20
+0.040
+LENS6.0-jumper 9A56BX012
+1
+0.30
+1.20
+0.040
+FORWARD OPTICS TAIWAN,CHINA
+2000
+0.30
+1.20
+0.040
+TOTAL:
+Shipmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307166.pdf</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>2</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307166",
+    "Invoice Date": "2023/1/18",
+    "Currency": "USD",
+    "Amount": 1090.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307166",
+    "Invoice Date": "2023/7/18",
+    "Currency": "USD",
+    "Amount": 1090.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>['Invoice Date']</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+Tel : (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax:(852)2764 8426
+Unit 203,2/FHarbour Cente,Tower 2,No.HokCheung Street,Hunghom,Kowloon,HongKng.
+http://www.kongtak.com.hk
+INVOICE
+Customer Code
+: HKH019USD
+Sold To: Hlsense Brondband Multlmedla Technologles(HK) Co., Limlted
+involce Date
+2202/1/81:
+Involce No.
+: 2307166
+Atn：刘双
+Contract /Order No. :4510078892
+Tel
+：0750-3997863
+A/L No.
+Fex
+Hlsense Broadband Multimedla Technologles(HK) Co., Llmlted
+Payment Terms
+: AMS 45 DAYS
+Bill To:
+Rooms 3101-05 Slngga Commercial Cente
+Dellvery Date
+:18/7/2023
+148 Connaught Road West,Hong Kong
+Culrency
+:USD
+Payment Due Date
+:30/9/2023
+ShipTo:青旅想捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED
+6/F,Ever Gain Centre.43-57Wang Wo Tsa!Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Alin:
+Etaln
+Quantly
+Price
+Amount
+coder no,
+prodiuctton Date
+pue8
+tem
+Descrlptlon
+Unlt
+0.5450
+1,090.00
+4510078892
+24/2/2021
+2,000
+pcs
+ForwardOptics
+LENS
+9A568X012
+4341013501
+TAIHAN CHINA
+Totel Amount :
+1,090.00
+Depost :
+0.00
+Shlpped per:
+Balance:
+1,090,00
+For and on behaif of
+Kong Tak Electranlc Co.Ltd
+Authorlzed Slgnature</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2303227.pdf</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2303227",
+    "Invoice Date": "27/3/2023",
+    "Currency": "USD",
+    "Amount": 206040.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2303227",
+    "Invoice Date": "27/3/2023",
+    "Currency": "USD",
+    "Amount": 206040.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>港德
+電子有限
+公
+KONG TAK ELECTRONIC CO., LTD
+Tel: (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2楼203室
+Fax: (852) 2764 8426
+Unit 203, 2/F,Harbour Centre,Tower 2, No. 8 Hok Cheung Street,Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To: Hlsense Broadband Multimedia Technologies(HK) Co., Limited
+Customer Code
+：HKH002USD
+Involce Date
+:27/3/2023
+Attn：徐萍
+Involce No.
+:2303227
+Tel
+：0532-55751922
+Contract /Order No. : 4570065518
+Fax
+：0532-8601 6007*389
+A/L No.
+:AL0000036815
+Bill To:
+Hisense Broadband Muitimedia Technologles(HK) Co.,Limiled
+Payment Terms
+:AMS 45DAYS
+Rooms 3101-05 Singga Commerclal Centre
+Dellvery Date
+:28/3/2023
+148 Connaught Road West,Sat Ying Pun,Hong Kong
+Currency
+:USD
+Payment Due Date :15/6/2023
+Ship To:
+青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED.
+香港荃灣横腐仔街43-57號永得利中心六楼
+6/F, Ever Gain Centre, 43-57 Wang Wo ‘Tsai Street, Tsuen Wan, N.T, Hong Kong
+Tel:31522431Att:Mr.Key(阿仁)FAX:31522435
+交海信貨
+Emall:
+keyleungcyts-spirit.com
+Item
+Description
+Quantlty
+Unlt
+Price
+Amount
+coder no.
+production Date
+Brand
+TEC
+BG701
+1
+28133-018-010MN-C01
+4501001901
+121,200
+pcs
+1.7000
+206,040.00
+4570065518
+24/3/2023
+FERROTEC
+China
+Total Amount :
+206,040.00
+Shipped per:
+Deposit:
+0.00
+Balance:
+206,040.00
+For and on behalf of
+Kong TakElectronic Co.,Ltd
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2303227.pdf</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>2</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>港德
+電
+子有限
+公
+司
+KONG TAK ELECTRONIC CO., LTD.
+yol,bno%
+Tel : (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax:(852)2764 8426
+Unit 203,2/F.,Harbour Centre, Tower 2, No.8 Hok Cheung Street,Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+：2023.03.27
+青旅思捷物流有限公司
+Customer Code
+：HKH002USD
+荃灣横富仔街43-57號永得利中心6楼
+Invoice No
+：2303227
+Attn: Mr.Key （阿仁）
+Contract/0rder No.:
+Tel:31522431
+L/C No.
+Delivery
+：2023.03.28
+Packing No.
+：2303227
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T，&amp;Measurement
+CBMI
+(28133-018-010MN-C01)
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+1-22
+TEC
+8G701
+22
+3600
+79200 PCS
+0.70
+2.50
+0.041
+FERROTEC
+CHINA
+15.40
+55.00
+0.897
+23
+TEC
+8G701
+3382
+3382 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+24
+TEC
+8G701
+1
+3418
+3418 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+25
+TEC
+8G701
+1
+3390
+3390 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+26
+TEC
+8G701
+1
+3527
+3527 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+27
+TEC
+8G701
+1
+3371
+3371 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+28
+TEC
+8G701
+1
+112
+112 PCS
+0.10
+1.10
+0.029
+FERROTEC
+CHINA
+0.10
+1.10
+0.029
+29
+TEC
+8G701
+1
+3402
+3402 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+30
+TEC
+8G701
+1
+3398
+3398 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+31
+TEC
+8G701
+1
+1400
+1400 PCS
+0.30
+1.40
+0.029
+FERROTEC
+CHINA
+0.30
+1.40
+0.029
+32
+TEC
+8G701
+1
+3424
+3424 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+- Continued Next Page -.......</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2303227.pdf</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>3</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>港德電子有限公
+KONG TAK ELECTRONIC CO., LTD.
+Tel: (852) 2356 1832
+香港九龍紅础鹤翔街8號維港中心第二期2楼203室
+Fax:(852)2764 8426
+Unit 203,2/F, Harbour Centre, Tower 2, No. 8Hok Cheung Street, Hnghom, Kowloon,Hong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+：2023.03.27
+青旅思捷物流有限公司
+Customer Code
+：HKH002USD
+荃灣横窝仔街43-57號永得利中心6楼
+Invoice No
+：2303227
+Atin:Mr.Key （阿仁）
+Contract/Order No.:
+Tel:3152 2431
+L/C No.
+Delivery
+：2023.03.28
+Packing No.
+：2303227
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T.&amp; Measurement
+CBM
+(28133-018-010MN-C01)
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+33
+TEC
+8G701
+1
+3485
+3485 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+TEC
+8G701
+1
+3491
+3491 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+35
+TEC
+8G701
+1
+2674
+2674 PCS
+0.50
+2.20
+0.041
+FERROTEC
+CHINA
+0.50
+2.20
+0.041
+36
+TEC
+8G701
+1
+3526
+3526 PCS
+0.70
+2.40
+0.041
+FERROTEC
+CHINA
+0.70
+2.40
+0.041
+36
+:TV.LOL
+121200
+24.00
+86.10
+1.444
+Shi pmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2308195.pdf</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2308195",
+    "Invoice Date": "24/8/2023",
+    "Currency": "USD",
+    "Amount": 5070.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2308195",
+    "Invoice Date": "24/8/2023",
+    "Currency": "USD",
+    "Amount": 5070.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD.
+yL hmoX
+Tel: (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax: (852) 2764 8426
+Unit 203, 2/F.,Harbour Centre,Tower 2,No.8 Hok Cheung Street, Hunghom,Kowloon,Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To:Hisense Broadband MultimediaTechnologies(HK)Co.,Limited
+Customer Code
+:HKH002USD
+InvoiceDate
+:24/8/2023
+Attn：徐萍
+Invoice No.
+：2308195
+Tel
+：0532-55751922
+Contract /Order No.:4590017259
+x
+：0532-8601 6007*389
+A/LNo.
+:AL0000037681
+Bill To:
+Hisense Broadband Multimedia Technologies(HK) Co.,Limited
+Payment Terms
+:AMS45DAYS
+Rooms3101-05Singga Commercial Centre
+Delivery Date
+:25/8/2023
+148Connaught Road West,Sai Ying Pun,Hong Kong
+Currency
+:USD
+Payment Due Date
+:15/11/2023
+Ship To:
+青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED.
+香港荃灣横高仔街43-57號永得利中心六楼
+6/F,Ever Gain Centre,43-57Wang WoTsai Street Tsuen Wan,N.T,Hong Kong
+Tel:
+31522431Attn:Mr.Key(阿()FAX:31522435
+交海信貨
+Email:
+keyleungecyts-spirit.com
+Item
+Description
+Quantity
+Unit
+Price
+Amount
+coder no.
+production Date
+Brand
+TEC
+8P631
+1
+20034/040/029MN/R01
+4501004801
+260
+pcs
+19.5000
+5,070.00
+4590017259
+24/7/2023
+FERROTEC
+China
+Total Amount :
+5,070.00
+Shipped per:
+Deposit:
+0.00
+Balance:
+5,070.00
+For and on behalf of
+Kong Tak Electronic Co.,Ltd
+CTRO
+港德電子
+有限公司
+AuthorizedSignature</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2308195.pdf</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>2</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD.
+yL 6no
+Tel : (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax: (852) 2764 8426
+Unit 203,2/F.,Harbour Centre,Tower 2,No.8Hok Cheung Street,Hunghom,Kowloon,Hong Kong.
+http://www.kongtak.com.hk
+PACKINGLIST/WEIGHTMEMO
+CYTS-SPIRITLOGISTICSLIMITED.
+Date
+：2023.08.24
+青旅思捷物流有限公司
+Customer Code
+：HKH002USD
+荃灣横窝仔街43-57號永得利中心6楼
+Invoice No
+：2308195
+Attn: Mr.Key（阿仁）
+Cont ract/0rder No.:
+Tel:3152 2431
+L/C No.
+Delivery
+：2023.08.25
+Packing No.
+：2308195
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T.&amp;Measurement
+CBM
+(20034/040/029MN/R01)
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+TEC
+8P631
+1
+260
+260 PCS
+0.10
+1.60
+0.030
+FERROTEC
+CHINA
+0.10
+1.60
+0.030
+TOTAL:
+260
+0.10
+1.60
+0.030
+Shi pmark:
+泰德電子
+Goods Received By:
+有限公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2308247.pdf</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>1</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2308247",
+    "Invoice Date": "29/8/2023",
+    "Currency": "USD",
+    "Amount": 23700.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2308247",
+    "Invoice Date": "29/8/2023",
+    "Currency": "USD",
+    "Amount": 23700.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD.
+Tel:(852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax: (852) 2764 8426
+Unit 203,2/F.,Harbour Centre,Tower 2,No.8 Hok Cheung Street, Hunghom, Kowloon,Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To:Hisense Broadband Multimedia Technologies(HK) Co.,Limited
+Customer Code
+:HKH019USD
+InvoiceDate
+:29/8/2023
+Attn：徐萍
+Invoice No.
+:2308247
+Tel
+：0532-55751922
+Contract /Order No.:4510079789
+Fax
+：0532-8601 6007*389
+A/L No.
+Bill To:
+Hisense Broadband MultimediaTechnologies(HK) Co.,Limited
+Payment Terms
+:AMS 45DAYS
+Rooms 3101-05 Singga Commercial Centre
+Delivery Date
+:30/8/2023
+148 Connaught Road West,Sai Ying Pun,Hong Kong
+Currency
+:USD
+Payment Due Date
+:15/11/2023
+ShipTo:
+青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED.
+香港荃灣横高仔街43-57號永得利中心六樓
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+Tel:
+31522431Attn:Mr.Key(阿二）FAX:31522435
+交海信貨
+Email:
+keyleungecyts-spirit.com
+Item
+Description
+Quantity
+Unit
+Price
+Amount
+coder no.
+production Date
+Brand
+TEC
+8G938
+28133-030-018MN-C01
+4501002601
+3,000
+pcs
+7.9000
+23,700.00
+4510079789
+29/7/2023
+FERROTEC
+China
+Total Amount:
+23,700.00
+Shipped per:
+Deposit :
+0.00
+Balance:
+23,700.00
+For and on behalf of
+Kong TakElectronic Co.,Ltd
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2308247.pdf</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>2</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD.
+L hmoX
+Tel:(852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax: (852) 2764 8426
+Unit 203,2/F.,Harbour Centre,Tower 2,No.8Hok Cheung Street, Hunghom,Kowloon,Hong Kong.
+htt://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRITLOGISTICS LIMITED.
+Date
+：2023.08.29
+青旅思捷物流有限公司
+Customer Code
+：HKHO19USD
+香港荃灣横窝仔街43-57號永得利中心六楼
+Invoice No
+：2308247
+Attn:Etain
+Contract/0rder No.:
+Tel:39020582
+L/C No.
+Delivery
+：2023.08.30
+Packing No.
+：2308247
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T.&amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+(28133-030-018MN-C01)
+MEAS(m3)
+1
+TEC
+8G938
+1
+1800
+1800 PCS
+0.40
+2.60
+0.041
+FERROTEC
+CHINA
+0.40
+2.60
+0.041
+1200
+1200PCS
+0.30
+2.20
+0.041
+2
+TEC
+8G938
+FERROTEC
+CHINA
+0.30
+2.20
+0.041
+2
+TOTAL:
+3000
+0.70
+4.80
+0.082
+Shipma rk:
+ECTRC
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>KONG TAK 2309012.pdf</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>1</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2309012",
+    "Invoice Date": "4/9/2023",
+    "Currency": "USD",
+    "Amount": 26560.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2309012",
+    "Invoice Date": "4/9/2023",
+    "Currency": "USD",
+    "Amount": 26560.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD
+ 6no
+Tel:(852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax: (852) 2764 8426
+Unit 203,2/F.,Harbour Centre,Tower 2,No.8 Hok Cheung Street, Hunghom,Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To:Hisense Broadband Mulimedia Technologies(HK) Co.,Limited
+Customer Code
+:HKH019USD
+Invoice Date
+:4/9/2023
+Attn：刘双
+Invoice No.
+：2309012
+Tel:0750-3997863
+Contract /Order No.:4510071965 4510080673
+Fax
+：
+A/L No.
+Bill To:
+Hisense Broadband Multimedia Technologies(HK) Co.,Limited
+Payment Terms
+: AMS 45 DAYS
+Rooms3101-05SinggaCommercialCentre
+Delivery Date
+:5/9/2023
+148 Connaught Road West,Hong Kong
+Currency
+:USD
+Payment Due Date
+:15/11/2023
+ShipTo：青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED
+6/F,Ever Gain Centre,43-57 Wang Wo Tsai Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etain
+Quantity
+Unit
+Price
+Amount
+coder no.
+Item
+Description
+production Date
+Brand
+LENS
+EYLGMFB415R
+4390018201
+30,000
+pcs
+0.7000
+21,000.00
+4510071965
+13/4/2023
+Panasonic
+Japan
+LENS
+EYLGMFF001
+4390020701
+20,000
+pcs
+0.2780
+5,560.00
+4510080673
+18/5/2023
+Panasonic
+Japan
+Total Amount:
+26,560.00
+Shipped per:
+Deposit :
+0.00
+Balance:
+26,560.00
+For and on behalf of
+Kong Tak Electronic Co.,Ltd
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>KONG TAK 2309012.pdf</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>2</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD.
+yL 6noY
+Tel : (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax: (852) 2764 8426
+Unit 203,2/F.,Harbour Centre,Tower 2,No.8 Hok Cheung Street,Hunghom,Kowloon,Hong Kong
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+：2023.09.04
+青旅思捷物流有限公司
+Customer Code
+：HKH019USD
+香港荃灣横仔街43-57號永得利中心六楼
+Invoice No
+：2309012
+Attn:Etain
+Contract/0rder No.:
+Tel:39020582
+L/C No.
+Delivery
+：2023.09.05
+Packing No.
+：2309012
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T.&amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+LENS
+EYLGMFB415R
+1
+16000
+16000 pcs
+3.60
+3.80
+0.009
+PANASONIC
+JAPAN
+3.60
+3.80
+0.009
+LENS
+EYLGMFB415R
+1
+14000
+14000 pcs
+3.20
+3.40
+2
+0.009
+PANASONIC
+JAPAN
+3.20
+3.40
+0.009
+LENS
+EYLGMFF001
+1
+12000
+12000 pcs
+2.30
+2.60
+0.012
+3
+PANASONIC
+JAPAN
+2.30
+2.60
+0.012
+LENS
+EYLGMFF001
+8000
+8000 pcs
+1.30
+1.50
+0.009
+PANASONIC
+JAPAN
+1.30
+1.50
+0.009
+TOTAL:
+50000
+10.40
+11.30
+0.040
+4
+Shipmark:
+港德電子
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>FORCHIP FIV2308005.pdf</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>1</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "FIV2308005",
+    "Invoice Date": "9-Aug-23",
+    "Currency": "USD",
+    "Amount": 168537.6,
+    "Bill To": "海信（香港）有限公司",
+    "From": "FORCHIP ELECTRONICS LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "FIV2308005",
+    "Invoice Date": "9-Aug-23",
+    "Currency": "USD",
+    "Amount": 168537.6,
+    "Bill To": "海信（香港）有限公司",
+    "From": "FORCHIP ELECTRONICS LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>福芯電子有限公司
+FORCHIP ELECTRONICS LIMITED
+FT11,20/F.,Metro Ctr PHS1,32Lam Hing Street,Kowloon Bay,Kowloon,Hong Kong.
+TEL:(852) 2754 4699
+FAX:(852) 2754 4698
+INVOICE
+INV. NO.
+：FIV2308005
+MESSRS.
+：海信（香港）有限公司
+DATE
+: 9-Aug-23
+香港韩諾道西148號成基商業中心3101-05室
+CUS. NO.
+青旅思捷物流有限公司
+SALESMAN
+：Adam
+香港荃灣横仔街43-57號永得利中心六樓
+Atn:Mr.Key (仁) Tel:852-3152 2431 Fax:852-3902 0600
+S.O. NO.
+DUE DATE
+：
+TEL.
+：852-2559 0966 2559 2957
+FAX
+：852-2559 0195
+ATTN.
+：曹玉新
+C.C.
+YOUR PIO NO.
+：5970023807/5970023808
+批号
+Quantity
+Jnit Price (USD
+Amount (USD)
+Material#
+Description
+2319/2322/2323
+100,320 PCS
+0.84
+84,268.80
+1)
+3011183101
+A3T4GF40BBF-HP
+FBGA-96 Zentel
+2324/2325
+100,320 PCS
+0.84
+84,268.80
+2)
+3011183101
+A3T4GF40BBF-HP
+FBGA-96 Zentel
+USD
+168,537.60
+PAYMENT
+：月结30天
+REMARKS
+：容量：4G bit
+入仓号：ZGD-505941
+For And On Behalf Of
+FORCHIP ELECTRONICSLIMITED
+on
+SIGNED AND STAMPED
+AUTHORIZED SIGNATURE</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>FORCHIP FIV2308005.pdf</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>2</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>FORCHIP ELECTRONICS LIMITED
+FT 11,20/F.,Metro Ctr PHS 1,32Lam Hing Street,Kowloon Bay,Kowloon,Hong Kong.
+TEL:(852) 2754 4699
+FAX:(852) 2754 4698
+PACKING LIST
+INV. NO.
+:FPL2308005
+MESSRS.
+：海信（香港）有限公司
+DATE
+: 9-Aug-23
+香港幹諾道西148號成基商业中心3101-05室
+CUS.NO.
+青旅思捷物流有限公司
+：
+SALESMAN
+：Adam
+香港荃灣横仔街43-57號永得利中心六樓
+S.O.NO.
+Attn:Mr.Key(阿仁) Tel:852-31522431Fax:852-39020600
+：
+DUE DATE
+：852-2559 0966 2559 2957
+FAX
+：852-2559 0195
+TEL.
+ATTN.
+：曹玉新
+C.C.
+YOURP/O NO.
+：5970023807/5970023808
+Quantity
+产地
+G.W
+CM.
+C/NO
+Material#
+Description
+A3T4GF40BBF.HP
+3806PCS
+中国台湾
+@5.5KGS
+38*37*35CM
+1/17
+1)
+3011183101
+A3T4GF40BBF-HP
+12540 PCS
+中国台湾
+@12KGS
+38*37*35CM
+2/17
+2)
+3011183101
+A3T4GF40BBF-HP
+8734 PCS
+中国台湾
+@9.5KGS
+38*37*35CM
+3/17
+3)
+3011183101
+A3T4GF40BBF-HP
+12540 PCS
+中国台湾
+@12 KGS
+38*37*35CM
+3011183101
+4/17
+4)
+3011183101
+A3T4GF40BBF-HP
+12540PCS
+中国台湾
+@12KGS
+38*37*35CM
+5/17
+5）
+6
+3011183101
+A3T4GF40BBF-HP
+12540PCS
+中国台湾
+@12KGS
+38*37*35CM
+6/17
+3011183101
+A3T4GF40BBF-HP
+12540 PCS
+中国台湾
+@12KGS
+38*37*35CM
+7/17
+7)
+中国台湾
+@12 KGS
+38*37*35CM
+8/17
+3011183101
+A3T4GF40BBF-HP
+12540 PCS
+A3T4GF40BBF-HP
+12540 PCS
+中国台湾
+@12KGS
+38*37*35CM
+9/17
+6
+3011183101
+A3T4GF40BBF-HP
+12540PCS
+中国台湾
+@12KGS
+38*37*35CM
+10/17
+10)
+3011183101
+3011183101
+A3T4GF40BBF-HP
+12540PCS
+中国台湾
+@12KGS
+38*37*35CM
+11/17
+11)
+3011183101
+A3T4GF40BBF-HP
+12540PCS
+中国台湾
+@12KGS
+38*37*35CM
+12/17
+12)
+3011183101
+A3T4GF40BBF-HP
+12540 PCS
+中国台湾
+@12KGS
+38*37*35CM
+13/17
+13）
+A3T4GF40BBF-HP
+12540PCS
+中国台湾
+@12KGS
+38*37*35CM
+14/17
+14）
+3011183101
+3011183101
+A3T4GF40BBF-HP
+12540PCS
+中国台湾
+@12KGS
+38*37*35CM
+15/17
+15）
+3011183101
+A3T4GF40BBF-HP
+12540PCS
+中国台湾
+@12KGS
+38*37*35CM
+16/17
+16)3
+17) 3011183101
+A3T4GF40BBF-HP
+12540 PCS
+中国台湾
+@12KGS
+38*37*35CM
+17/17
+200640PCS
+195KGS
+PAYMENT
+：月结30天
+REMARKS
+：容量：4G bit
+入仓号：ZGD-505941
+Confirmed and accepted by Buyer(S)
+For And On Behalf Of
+FORCHIP ELECTRONICSLIMITED
+SIGNEDAND STAMPED
+AUTHORIZEDSIGNATURE</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>FORCHIP FPI2308012.pdf</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>1</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>福芯電子有限公司
+FORCHIP ELECTRONICS LIMITED
+FT 11, 20/F., Metro Ctr PHS 1, 32 Lam Hing Street, Kowloon Bay, Kowloon, Hong Kong.
+TEL:(852) 2754 4699 FAX:(852) 2754 4698
+PACKING LIST
+MESSRS. : 海信（香港）有限公司 INV. NO. : FPL2308012
+香港幹諾道西148號成基商業中心3101-05室 DATE : 24-Aug-23
+青旅思捷物流有限公司 CUS. NO. :
+香港荃灣橫窩仔街43-57號永得利中心六樓 SALESMAN : Adam
+Attn:Mr. Key (阿仁) Tel:852-3152 2431 Fax:852-3902 0600 S.O. NO. :
+DUE DATE :
+TEL. : 852-2559 0966 2559 2957 FAX : 852-2559 0195
+ATTN. : 曹玉新 C.C. :
+YOUR P/O NO. : 5970023884/4510079443/5970023823
+Material# Description Quantity 产地 G.W CM. C/NO
+1) 3011183101 A3T4GF40BBF-HP 12540 PCS 中国台湾 @12 KGS 38*37*35CM 1/9
+2) 3011183101 A3T4GF40BBF-HP 12540 PCS 中国台湾 @12 KGS 38*37*35CM 2/9
+3) 3011183101 A3T4GF40BBF-HP 12540 PCS 中国台湾 @12 KGS 38*37*35CM 3/9
+4) 3011183101 A3T4GF40BBF-HP 12540 PCS 中国台湾 @12 KGS 38*37*35CM 4/9
+5) 3011183101 A3T4GF40BBF-HP 12540 PCS 中国台湾 @12 KGS 38*37*35CM 5/9
+6) 3011183101 A3T4GF40BBF-HP 8689 PCS 中国台湾 @9.8 KGS 38*37*35CM 6/9
+7) 3011183101 A3T4GF40BBF-HP 10121 PCS 中国台湾 @10.5 KGS 38*37*35CM 7/9
+8) 3011097801 P6N2GF4DMF-GKT 10450 PCS 中国台湾 @10 KGS 38*37*35CM 8/9
+9) 3011182401 A3F8GH40BBF-KD 2090 PCS 中国台湾 @2.7 KGS 38*37*35CM 9/9
+94050PCS 93 KGS
+PAYMENT : 月结30天
+A3T4GF40BBF-HP 容量：4G bit
+REMARKS : A3F8GH40BBF-KD 容量：8G bit 入仓号：ZGD-506047
+P6N2GF4DMF-GKT 容量：2G bit
+Confirmed and accepted by Buyer(S) For And On Behalf Of
+FORCHIP ELECTRONICS LIMITED
+Tony
+SIGNED AND STAMPED AUTHORIZED SIGNATURE</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>FORCHIP FPI2308012.pdf</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>2</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "FPI2308012",
+    "Invoice Date": "24-Aug-23",
+    "Currency": "USD",
+    "Amount": 80674.0,
+    "Bill To": "海信（香港）有限公司",
+    "From": "FORCHIP ELECTRONICS LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "FPI2308012",
+    "Invoice Date": "24-Aug-23",
+    "Currency": "USD",
+    "Amount": 80674.0,
+    "Bill To": "海信（香港）有限公司",
+    "From": "FORCHIP ELECTRONICS LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>福芯電子有限公司
+FORCHIP ELECTRONICS LIMITED
+FT 11, 20/F., Metro Ctr PHS 1, 32 Lam Hing Street, Kowloon Bay, Kowloon, Hong Kong.
+TEL:(852) 2754 4699 FAX:(852) 2754 4698
+Proforma Invoice
+MESSRS. : 海信（香港）有限公司 PI. NO. : FPI2308012
+香港幹諾道西148號成基商業中心3101-05室 DATE : 24-Aug-23
+青旅思捷物流有限公司 CUS. NO. :
+香港荃灣橫窩仔街43-57號永得利中心六樓 SALESMAN : Adam
+Attn:Mr. Key (阿仁) Tel:852-3152 2431 Fax:852-3902 0600 S.O. NO. :
+DUE DATE :
+TEL. : 852-2559 0966 2559 2957 FAX : 852-2559 0195
+ATTN. : 曹玉新 C.C. :
+YOUR P/O NO. : 5970023884/4510079443/5970023823
+Material# Description 批号 Quantity Unit Price (USD) Amount (USD)
+1) 3011183101 A3T4GF40BBF-HP 81,510PCS 0.84 68,468.40
+FBGA-96 Zentel
+2) 3011182401 A3F8GH40BBF-KD 2,090PCS 1.34 2,800.60
+FBGA-96 Zentel
+3) 3011097801 P6N2GF4DMF-GKT 10,450PCS 0.90 9,405.00
+FBGA-96 Mira
+USD 80,674.00
+PAYMENT : 月结30天
+A3T4GF40BBF-HP 容量：4G bit
+REMARKS : A3F8GH40BBF-KD 容量：8G bit 入仓号：ZGD-506047
+P6N2GF4DMF-GKT 容量：2G bit
+Confirmed and accepted by Buyer(S) For And On Behalf Of
+FORCHIP ELECTRONICS LIMITED
+Tony
+SIGNED AND STAMPED AUTHORIZED SIGNATURE</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>UNITECS UNX23-036-2.pdf</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>1</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "UNX23-036-2",
+    "Invoice Date": "16-Jan-21",
+    "Currency": "USD",
+    "Amount": 2100.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.",
+    "From": "UNITECS CORPORATION"
+}</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "UNX23-036-2",
+    "Invoice Date": "16-Jan-21",
+    "Currency": "USD",
+    "Amount": 2100.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.",
+    "From": "UNITECS CORPORATION"
+}</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>UNITECSCORPORATION
+DAIICHIAKIYAMABLDG2-3-22TORANOMON
+MINATO-KU TOKYO 105-0001 JAPAN
+人盒号：
+TEL:0081-3-55211155,FAX:0081-3-55211157
+INVOICE
+Messrs.
+Invoice No.
+Date
+Messrs.
+UNX23-036-2
+16-Jan-21
+Hisense Broadband Multimedia Technologies(HK) Co.,Ltd.
+Paymentterm
+Room 3101-3105,Singga Commercial Centre,
+DDU HK
+148 Connaught Rd. West, Sai Ying Pun, HK
+Shipped per
+Sailing on or about
+Maker's Delivery No.
+CX0005
+29-Jun-23
+61917698
+From
+To
+TOKYO JAPAN
+HONG KONG
+Marks&amp;NotDescription
+Maker
+Quantity
+UnitPrice
+Total Amount(USD)
+PARTSFORMOBILEPHONE/CAMERAETC
+CFR HONG KONG
+HISENSEBROADBAND
+CONTRACT NO :
+4510075610
+FLBT9R401C
+ALPS
+1,000 pcs
+US$2.10000
+US$2,100.00
+Optical Lens
+4391002001
+GRAND TOTAL:
+1,000
+pcs
+US$2,100.00
+CASEMARK:
+4510075610
+FREIGHT PREPAID
+QINGDAO CHINA
+MADE IN JAPAN
+PACKING:STANDARDEXPORTPACKING.
+CONSIGNEE:
+青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED
+Eternity Warehouse
+6/F,Ever Gain Centre,43-57 Wang Wo Tsai Street,Tsuen Wan,
+N.T., Hong Kong
+UNITECS CORPORATION
+香港荃灣横窝仔街43-57號永得利中心六樓
+Tel:31522431Attn:Mr.Key(阿仁)
+MAIKO TAKEDA,MANAGER
+ACCOUNTING DEPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>UNITECS UNX23-036-2.pdf</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>2</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>UNITECSCORPORATION
+DAIICHIAKIYAMABLDG2-3-22TORANOMON
+MINATO-KU TOKYO 105-0001 JAPAN
+人盒号：
+TEL:0081-3-55211155,FAX:0081-3-55211157
+PACKINGLIST/WEIGHTMEMO
+Messrs.
+Invoice No.
+Date
+Messrs.
+UNX23-036-2
+16-Jan-21
+Hisense Broadband Multimedia Technologies(HK) Co.,Ltd.
+Paymentterm
+Room 3101-3105, Singga Commercial Centre,
+DDU HK
+148 Connaught Rd. West, Sai Ying Pun, HK
+Shipped per
+Sailing on or about
+Maker's Delivery No.
+CX0005
+29-Jun-23
+61917698
+From
+Ta
+via
+TOKYOJAPAN
+HONG KONG
+Marks &amp; Nos.
+Description
+Maker
+Quantity
+N/W(KGS)
+G/W(KGS)
+M3
+HISENSE BROADBAND
+CFR HONG KONG
+C/T
+NO.1
+Optical Lens
+ALPS
+FLBT9R401C
+1,000 PCS
+TOTAL:
+1
+1,000
+0.070
+0.400
+0.004
+CARTONS
+PCS
+KGS
+KGS
+M3
+FREIGHT PREPAID
+CASE MARK:
+4510075610
+PACKING:STANDARD EXPORT PACKING.
+QINGDAO CHINA
+MADE IN JAPAN
+CONSIGNEE:
+青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED
+Eternity Warehouse
+6/F,Ever Gain Centre, 43--57 Wang Wo Tsai Street,Tsuen Wan,
+N.T., Hong Kong
+香港茶灣横窝仔街43-57号永得利中心六楼
+UNITECS CORPORATION
+武国舞子
+MAIKO TAKCDA,MANAGER
+LANGSNLNIOOOV</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>UNITECS UNX23-061-1.pdf</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>1</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "UNX23-061-1",
+    "Invoice Date": "28-Aug-23",
+    "Currency": "USD",
+    "Amount": 6600.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.",
+    "From": "UNITECS CORPORATION"
+}</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "UNX23-061-1",
+    "Invoice Date": "28-Aug-23",
+    "Currency": "USD",
+    "Amount": 6600.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.",
+    "From": "UNITECS CORPORATION"
+}</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>UNITECSCORPORATION
+DAIICHIAKIYAMABLDG2-3-22TORANOMON
+ZGD-506093
+MINATO-KUTOKYO105-0001JAPAN
+入号：
+TEL:0081-3-55211155,FAX:0081-3-55211157
+INVOICE
+Invoice No.
+Date
+Messrs.
+UNX23-061-1
+28-Aug-23
+Hisense Broadband Multimedia Technologies(HK) Co.,Ltd.
+Payment term
+Room 3101-3105, Singga Commercial Centre,
+DDU HK
+148 Connaught Rd.West, Sai Ying Pun, HK
+Shipped per
+Sailing on or about
+Maker's Delivery No.
+CX0005
+28-Aug-23
+62120461
+From
+To
+via
+TOKYO JAPAN
+HONG KONG
+Marks&amp;No
+Description
+Maker
+Quantity
+UnitPrice
+Total Amount(USD)
+PARTS FOR MOBILEPHONE/CAMERA ETC
+CFR HONG KONG
+HISENSE BROADBAND
+CONTRACT NO :
+4510080345
+Optical LensFLDPLRE11A
+ALPS
+1,500 pcs
+US$4.40000
+US$6,600.00
+4391004901
+GRAND TOTAL:
+1,500
+pcs
+US$6,600.00
+CASE MARK:
+4510080345
+FREIGHT PREPAID
+QINGDAO CHINA
+MADE IN JAPAN
+PACKING:STANDARDEXPORTPACKING.
+CONSIGNEE:
+青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+Eternity Warehouse
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan,
+N.T, Hong Kong
+香港荃灣横富仔街43-57號永得利中心六楼
+Tel:31522431Attn:Mr.Key（阿仁)
+UNITECS CORPORATION
+武国舞子
+MAIKOTAKLDA,MANAGER
+ACCOUNTINGDEPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>UNITECS UNX23-061-1.pdf</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>2</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>UNITECSCORPORATION
+DAIICHIAKIYAMABLDG2--3--22TORANOMON
+MINATO-KUTOKYO 105-0001JAPAN
+人詹号：
+TEL:0081-3-55211155,FAX:0081-3--55211157
+PACKING LIST / WEIGHT MEMO
+Invoice No.
+Date
+Messrs.
+UNX23-061-1
+28-Aug-23
+Hisense Broadband Multimedia Technologies(HK) Co.,Ltd.
+Payment term
+Room 3101-3105,Singga Commercial Centre,
+DDU HK
+148 Connaught Rd. West, Sai Ying Pun, HK
+Shipped per
+Sailing on or about
+Maker'sDeliveryNo.
+CX0005
+28-Aug-23
+62120461
+From
+To
+via
+TOKYO JAPAN
+HONG KONG
+Marks &amp; Nos.
+Description
+Quantity
+N/W(KGS)
+G/W(KGS)
+M3
+HISENSE BROADBAND
+CFR HONG KONG
+C/T
+NO.1
+Optical Lens
+FLDPLRE11A
+1,500 PCS
+0.255
+1.700
+0.0300
+TOTAL:
+1
+1,500
+0.255
+1.700
+0.030
+PCS
+KGS
+KGS
+M3
+CARTONS
+FREIGHT PREPAID
+CASE MARK:
+4510080345
+PACKING:STANDARD EXPORT PACKING.
+QINGDAO CHINA
+MADE IN JAPAN
+CONSIGNEE:
+青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED
+Eternity Warehouse
+6/F, Ever Gain Centre, 43--57 Wang Wo Tsai Street, Tsuen Wan,
+N.T., Hong Kong
+香港荃灣横高仔街43-57号永得利中心六楼
+UNITECS CORPORATION
+武四舞子
+MAIKO TAKCDA,MANAGER
+ACCOUNTING DEPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>UNITECS UNX23-053-1.pdf</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>1</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "UNX23-053--1",
+    "Invoice Date": "25-Jul-23",
+    "Currency": "USD",
+    "Amount": 7800.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.",
+    "From": "UNITECS CORPORATION"
+}</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "UNX23-053--1",
+    "Invoice Date": "25-Jul-23",
+    "Currency": "USD",
+    "Amount": 7800.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.",
+    "From": "UNITECS CORPORATION"
+}</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>UNITECSCORPORATION
+海信寬带
+DAIICHIAKIYAMABLDG2-3-22TORANOMON
+MINATO-KU TOKYO105-0001JAPAN
+TEL:0081-3-55211155,FAX:55211157
+INVOICE
+Messrs.
+Invoice No.
+Date
+Hisense Broadband Multimedia Technologies(HK) Co.,Ltd.
+UNX23-053--1
+25-Jul-23
+Room 3101-3105, Singga Commercial Centre,
+Paymentterm
+148 Connaught Rd.West,Sai Ying Pun,HK
+DDU HK
+Shipped per
+Sailing on or about
+Maker's Invoice No.;
+CX0005
+27-Jul-23
+62007273
+From
+To
+via
+TOKYO JAPAN
+HONG KONG
+Marks&amp;Nos.
+Maker
+Quantity
+Unit Price
+Total Amount(USD)
+Description
+CFR HONGKONG
+PARTSFORMOBILEPHONE/CAMERAETC
+HISENSE BROADBAND
+CONTRACT NO :
+4510078419
+Optical Lens
+FLDPSRE11A
+ALPS
+1,000 pcs
+US$7.800
+US$7,800.00
+4391007201
+GRAND TOTAL:
+1,000
+pcs
+US$7,800.00
+CONSIGNEE:
+CONTRACT NO.:
+4510062956
+青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+Eternity Warehouse
+FREIGHT PREPAID
+6/F,Ever Gain Centre,43-57 Wang Wo Tsai Street,Tsuen Wan,
+N.T., Hong Kong
+PACKING:STANDARDEXPORTPACKING.
+香港荃灣横窝仔街43-57号永得利中心六樓
+Tel:31522431Attn:Mr.Key(阿二)
+Country of Origin: Japan
+UNITECS CORPORATION
+武四舞子
+MAIKOTAKEDA,MANAGER
+ACCOUNTING DEPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>UNITECS UNX23-053-1.pdf</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>2</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>UNITECSCORPORATION
+DAIICHIAKIYAMABLDG2-3-22TORANOMON
+MINATO-KUTOKYO105-0001JAPAN
+TEL:0081-3-55211155,FAX:55211157
+PACKINGLIST/WEIGHTMEMO
+Messrs.
+Invoice No.
+Date
+Hisense Broadband Multimedia Technologies(HK) Co.,Ltd.
+UNX23-053-1
+25-Jul-23
+Room 3101-3105, Singga Commercial Centre,
+Paymentterm
+148 Connaught Rd. West, Sai Ying Pun, HK
+DDUHK
+0
+Shipped per
+Sailing on or about
+Maker's Invoice No.;
+CX0005
+27-Jul-23
+62007273
+From
+To
+via
+TOKYOJAPAN
+HONG KONG
+N/W(KGS)
+G/W(KGS)
+Quantity
+M3
+Marks&amp;Nos.
+Description
+PARTSFORMOBILEPHONE/CAMERAETC
+CFR HONG KONG
+CONTRACT NO :
+4510078419
+NW/KG
+GW/KG
+M3
+Optical Lens
+FLDPSRE11A
+1,000 PCS
+0.221
+1.400
+0.030
+NO.1
+1,000
+0.221
+1.400
+0.030
+TOTAL:
+1
+PCS
+KGS
+KGS
+M3
+CONTRACT NO.:
+4510078419
+CONSIGNEE:
+青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED
+FREIGHT PREPAID
+EternityWarehouse
+6/F,Ever Gain Centre,43-57Wang WoTsai Street, Tsuen Wan,
+PACKING:STANDARDEXPORTPACKING.
+N.T.Hong Kong
+香港荃灣横窝仔街43-57号永得利中心六楼
+Tel:31522431Attn: Mr.Key (阿仁)
+Country of Origin : Japan
+UNITECS CORPORATION
+MAIKOTAKZDA,MANAGER
+ACCOUNTING DEPT</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>INV230823-1.pdf</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>1</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "INV23/08/23-1",
+    "Invoice Date": "2023-08-23",
+    "Currency": "USD",
+    "Amount": 3834.24,
+    "Bill To": "Hisense Broadband Multimedia Technologies（HK）Co.,Ltd",
+    "From": "Trend-tek Corporation Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "INV23/08/23-1",
+    "Invoice Date": "2023-08-23",
+    "Currency": "USD",
+    "Amount": 3834.24,
+    "Bill To": "Hisense Broadband Multimedia Technologies（HK）Co.,Ltd",
+    "From": "Trend-tek Corporation Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>入仓号：ZGD-506056
+INVOICE
+Trend-tek Corporation Ltd. INV Date 2023-08-23
+Contacting information :
+INV No. INV23/08/23-1
+Tel :+852 2324 2226 / 2324 2002
+20/F, King Centre, 5-9 Ka Hing Road,
+Kwai Chung, New Territories, Hong Kong
+Ship To: BILL To:
+Hisense Broadband Multimedia Technologies（HK）Co.,Ltd
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street,Tsuen Workshop P, 14/F., Haribest Industrial
+Wan, N.T., Hong Kong building,No.45-47 Au Pui Wan Street, Fotan,
+Shatin, N.T., Hong Kong
+Tel: 0852-39020582 Tel: 0532-80879768
+Contact:Miss zhang Contact:Xuping
+Ordered By Contact No Payment Terms Shipment Terms Remarks
+Net 60 days(after
+Xuping 0532-80879768 EXW TRENDTEK WAREHOUSE
+Inv.date)
+CUSTOMER PART Country Of UNIT
+PO NO. NO. P/N DESCRIPTION Origin ORDER QTY PRICE(US$) TOTAL AMOUNT (US$)
+4510080632 4320008301 GN1068-GRP6 US 23,964 0.1600 3,834.24
+Total Amount: USD 3,834.24
+In placing an order to Trend-tek, buyer certificates that any parts it purchases from Trend-tek will not be resale or
+transferred to other parties, and will not be incorporated into, or used in the production or development of any item
+that is for sales or transfer to any entity listed here:
+https://www.bis.doc.gov/index.php/documents/regulations-docs/2347-744-supp-4-6/file
+Beneficiary Name: Trend-tek Corporation Limited
+Beneficiary Bank Name: HSBC Hong Kong
+Beneficiary Bank Address: 1 Queen’s Road, Central, Hong Kong
+Beneficiary Account Numbers: 801-191172-838(HKD &amp; Foreign Currency Savings)
+Swift Code: HSBCHKHHHKH
+Bank Code:004</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>INV230830-3.pdf</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>1</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "INV23/08/30-3",
+    "Invoice Date": "2023-08-30",
+    "Currency": "USD",
+    "Amount": 160424.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies（HK）Co.,Ltd",
+    "From": "Trend-tek Corporation Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "INV23/08/30-3",
+    "Invoice Date": "2023-08-30",
+    "Currency": "USD",
+    "Amount": 160424.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies（HK）Co.,Ltd",
+    "From": "Trend-tek Corporation Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>入仓号：ZGD-506132
+INVOICE
+Trend-tek Corporation Ltd. INV Date 2023-08-30
+Contacting information :
+INV No. INV23/08/30-3
+Tel :+852 2324 2226 / 2324 2002
+20/F, King Centre, 5-9 Ka Hing Road,
+Kwai Chung, New Territories, Hong Kong
+Ship To: BILL To:
+Hisense Broadband Multimedia Technologies（HK）Co.,Ltd
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street,Tsuen Workshop P, 14/F., Haribest Industrial
+Wan, N.T., Hong Kong building,No.45-47 Au Pui Wan Street, Fotan,
+Shatin, N.T., Hong Kong
+Tel: 0852-39020582 Tel: 0532-80879768
+Contact:Miss zhang Contact:Xuping
+Ordered By Contact No Payment Terms Shipment Terms Remarks
+Net 60 days(after
+Xuping 0532-80879768 EXW TRENDTEK WAREHOUSE
+Inv.date)
+CUSTOMER PART Country Of UNIT
+PO NO. NO. P/N DESCRIPTION Origin ORDER QTY PRICE(US$) TOTAL AMOUNT (US$)
+4510076076 3011070101 GN2558-CHIP US 6,720 7.1000 47,712.00
+4510076076 3011080201 GN2559-CHIP US 6,720 7.1000 47,712.00
+4510076076 3010098401 GN2044-INTE3D Taiwan,China 500 6.3000 3,150.00
+4510077083 3010098401 GN2044-INTE3D Taiwan,China 500 6.3000 3,150.00
+4510078240 3010098401 GN2044-INTE3D Taiwan,China 1,000 6.3000 6,300.00
+4510079291 3010098301 GN1444-INTE3D Taiwan,China 2,500 2.8000 7,000.00
+4510080363 3010028901 GN1157-INTE3Z Taiwan,China 10,000 0.5400 5,400.00
+4510080480 3011093601 GN2538-CHIP US 5,000 4.0000 20,000.00
+4510080480 3011093701 GN2539-CHIP US 5,000 4.0000 20,000.00
+Total Amount: USD 160,424.00
+In placing an order to Trend-tek, buyer certificates that any parts it purchases from Trend-tek will not be resale or
+transferred to other parties, and will not be incorporated into, or used in the production or development of any item
+that is for sales or transfer to any entity listed here:
+https://www.bis.doc.gov/index.php/documents/regulations-docs/2347-744-supp-4-6/file
+Beneficiary Name: Trend-tek Corporation Limited
+Beneficiary Bank Name: HSBC Hong Kong
+Beneficiary Bank Address: 1 Queen’s Road, Central, Hong Kong
+Beneficiary Account Numbers: 801-191172-838(HKD &amp; Foreign Currency Savings)
+Swift Code: HSBCHKHHHKH
+Bank Code:004</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>IV220118.pdf</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>1</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "IV220118",
+    "Invoice Date": "2022-12-12",
+    "Currency": "USD",
+    "Amount": 21203.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES CO.,LTD",
+    "From": "BRILIGHT TECHNOLOGY CO., LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "IV220118",
+    "Invoice Date": "2022-12-12",
+    "Currency": "USD",
+    "Amount": 21203.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES CO.,LTD",
+    "From": "BRILIGHT TECHNOLOGY CO., LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>Brilight Technology Co., Limited
+Add: FLAT A,17/F.,WARDLEY CENTRE,9-11
+PRAT AVENUE,
+博 龙 科 技 有 限 公 司 TSIM SHA TSUI ,KOWLOON, HONGKONG
+Invoice
+FROM: Date: 2022-12-12
+BRILIGHT TECHNOLOGY CO., LIMITED PF220118 IV#: IV220118
+FLATA,17/F.,WARDLEY CENTRE,9-11 PRAT AVENUE,TSIM SHA TSUI Payment: 月结60天
+,KOWLOON Currency: USD
+Attention: Rainy Cao Ref. No. PF220118
+Email: rainy.cao@brilight.cn
+Bill To: Ship To:
+HISENSE BROADBAND MULTIMEDIA
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES（HK）
+TECHNOLOGIES CO.,LTD / CYTS-SPIRIT
+CO.,LIMITED
+LOGISTICS LIMITED
+ROOMS 3101-3105,SINGGA COMMERCIAL CENTRE,148 CONNAUGHT RD. 6/F, EVER GAIN CENTRE, 43-57 WANG WO TSAI STREET,
+WEST, SAI YING PUN,HK TSUEN WAN, N.T., HONG KONG
+Attention: WANG ZHIGANG Attention: MR. KEY
+Phone: 852-9816 9271 Phone: 31522431
+Fax: Fax:
+Incoterm: Carrier: Ship Via:
+CTN
+P/O NO. CUST.PN PART NO. Lot No. DateCode QTY/PCS Unit Price Line Total
+NO.
+APD32T-
+APD32T-
+001 4510067133 XS/APD10E1- 4,660 4.550 21,203.00
+XS/APD10E1-T3W
+T3W
+GRAND TOTAL(USD): 21,203.00
+Brilight Technology Co., Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>IV230005.pdf</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>1</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "IV230005",
+    "Invoice Date": "2023-2-23",
+    "Currency": "USD",
+    "Amount": 13104.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES CO.,LTD",
+    "From": "BRILIGHT TECHNOLOGY CO., LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "IV230005",
+    "Invoice Date": "2023-2-23",
+    "Currency": "USD",
+    "Amount": 13104.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES CO.,LTD",
+    "From": "BRILIGHT TECHNOLOGY CO., LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>Brilight Technology Co., Limited
+Add: FLAT A,17/F.,WARDLEY CENTRE,9-11
+PRAT AVENUE,
+博 龙 科 技 有 限 公 司 TSIM SHA TSUI ,KOWLOON, HONGKONG
+Invoice
+FROM: Date: 2023-2-23
+BRILIGHT TECHNOLOGY CO., LIMITED PF230005 IV#: IV230005
+FLATA,17/F.,WARDLEY CENTRE,9-11 PRAT AVENUE,TSIM SHA TSUI Payment: 月结60天
+,KOWLOON Currency: USD
+Attention: Rainy Cao Ref. No. PF230005
+Email: rainy.cao@brilight.cn
+Bill To: Ship To:
+HISENSE BROADBAND MULTIMEDIA
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES（HK）
+TECHNOLOGIES CO.,LTD / CYTS-SPIRIT
+CO.,LIMITED
+LOGISTICS LIMITED
+ROOMS 3101-3105,SINGGA COMMERCIAL CENTRE,148 CONNAUGHT RD. 6/F, EVER GAIN CENTRE, 43-57 WANG WO TSAI STREET,
+WEST, SAI YING PUN,HK TSUEN WAN, N.T., HONG KONG
+Attention: WANG ZHIGANG Attention: MR. KEY
+Phone: 852-9816 9271 Phone: 31522431
+Fax: Fax:
+Incoterm: Carrier: Ship Via:
+CTN
+P/O NO. CUST.PN PART NO. Lot No. DateCode QTY/PCS Unit Price Line Total
+NO.
+APD32T-
+001 4510069683 4410011501 2,880 4.550 13,104.00
+XS/APD10E1-T3W
+GRAND TOTAL(USD): 13,104.00
+Brilight Technology Co., Limited</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>1 发票 PO 436165 &amp; 437013 -XDA85 XDA89 - DN1404372 .pdf</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>1</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1404372",
+    "Invoice Date": "",
+    "Currency": "USD",
+    "Amount": 52182.16,
+    "Bill To": "Hiscnsc International Singapore Holdings Pte, Ltd",
+    "From": "GUANGDONG ARCAIR APPLIANCE CO., LTD."
+}</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1404372",
+    "Invoice Date": "",
+    "Currency": "USD",
+    "Amount": 52182.16,
+    "Bill To": "Hiscnsc International Singapore Holdings Pte, Ltd",
+    "From": "GUANGDONG ARCAIR APPLIANCE CO., LTD."
+}</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>GUANGDONG ARCAIR APPLIANCE C0。
+,LTD。
+No,37,sHUNXIANG RoAD,FENGXIANG INDUsTRIAL PARK,DALIANG,sHUNDE,FOsHAN,GUANGDONG,CHINA
+Add∶
+COMMERCIALINⅤ OICE
+DATE:
+Hiscnsc Intcrnational singaporc Holdings Ptc,Ltd
+AYMENT TERMs∶ 90DAYs AFTER/FROM B/L DATE INVOICE No。 1404372
+:
+DN∶
+DEsCRIPTION OF GooDs UNIT PRICE oUNT
+A~Ι
+sHIPMENT TERMs
+CIF
+MEXICO CITY
+s T UsD/sET USD
+Ε s ~ HooD
+姒 HHⅥ⒚01Ws 87,34 26,55136
+猢 HHU761Ws 32.86 25,630,80
+FoB sHUNDE,CHINA
+Total
+sHIPPING MARK:N/M
+sAY UNITED sTATEs DOLLARs
+FIFTY TWO THOUsAND oNE HUNDuD AND EIGHTY TWo AND CENSsIXTEEN ONLY
+BENEFICIARY BANK∶ AGRIC∪LTURAL BANK OF CHlNA LTD,GUANGDONG, sHUNDE(SUB→ BRANCH
+BENEFICIARY A/C∶ 44~460014040031100(Us DOLLARs)
+WIFT CODE# ABOccNBJ190
+BANK ADDREss,∶ zHENGToNGRD,FENGsHANXl,DA凵ANG,sHUNDE,F0sHAN,
+BENEFICIARY∶ GuANGDONG ARCAlR APP凵 A"CE Co.,LTD.
+粝
+冫
+孑
+芳
+'</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>1420515 CI.pdf</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>1</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1420515",
+    "Invoice Date": "AUGUST.10.2022",
+    "Currency": "USD",
+    "Amount": 34337.4,
+    "Bill To": "HISENSE INTERNATIONAL SINGAPORE HOLDINGS PTE. LTD.",
+    "From": "HANDIAN GROUP NINGBO WASHING MACHINE CO., LTD"
+}</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1420515",
+    "Invoice Date": "AUGUST.10.2022",
+    "Currency": "USD",
+    "Amount": 34337.4,
+    "Bill To": "HISENSE INTERNATIONAL SINGAPORE HOLDINGS PTE. LTD.",
+    "From": "HANDIAN GROUP NINGBO WASHING MACHINE CO., LTD"
+}</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>韩电集团宁波洗衣机有限公司
+HANDIAN GROUP NINGBO WASHING MACHINE CO.,LTD
+ADD：EAST GUANHAIWEI INDUSTRIAL ZONE
+CIXI,NINGBO,CHINA
+PH : +86 757 29378958, FAX:+86 757 29378950.
+COMMERCIAL INVOICE
+发票号码 1 420515
+TO：HISENSE INTERNATIONAL SINGAPORE HOLDINGS Invoice No.
+PTE. LTD. 合同号
+HD220421-01
+PO No.
+8 EU TONG SEN STREET#14-87 THE CENTRAL SINGAPORE
+059818
+AUGUST.10.2022
+日期
+Date
+装船口岸 目的地
+From LIANYUNGANG ToTHAILAND
+信用证号数 开证银行
+L/C No. Issued by
+唛头 货物名称及数量 单价 总值
+Mark &amp; No. Quantities and Description U. Price Amount
+N/M FOB LINYUNGANG PORT
+WASHING MACHINE AND SPARE PARTS
+WB4K3 WSRB1201W 260 CTNS USD63.40 USD 16484.00
+WB4K2 WSRB1401W 236 CTNS USD75.65 USD 17853.40
+TOTAL 496 CTNS USD 34337.40
+SAY US DOLLARS THIRTY-FOUR THOUSAND,THREE HUNDRED AND THIRTY-SEVEN AND CENTS FOUR ONLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>1439369 + 1440334 付款资料.pdf</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>1</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "CI2207-017",
+    "Invoice Date": "24-Aug-22",
+    "Currency": "USD",
+    "Amount": 31692.0,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "ZHONGSHAN TINON GAS COOKERS AND ELECTRICAL APPLIANCES CO.LTD"
+}</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "CI2207-017",
+    "Invoice Date": "24-Aug-22",
+    "Currency": "USD",
+    "Amount": 31692.0,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "ZHONGSHAN TINON GAS COOKERS AND ELECTRICAL APPLIANCES CO.LTD"
+}</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>COMMERCIAL INVOICE
+SOLD TO: Hisense International Singapore Holdings Pte. Ltd. DATE: 24-Aug-22
+INVOICE NO.: CI2207-017
+PO NO.: 20220711
+QUANTITY DESCRIPTION OF GOODS UNIT PRICE AMOUNT
+SHIPMENT TERMS
+FOB
+RONGQI,CHINA
+SETS USD/SET USD
+CERAMIC HOB
+200 HHU60CEEL US$115.00 US$23,000.00
+ELECTRIC OVEN
+50 HBO60102 US$170.00 US$8,500.00
+SPARE PARTS
+11 Touch control PCB 221026001042007 US$12.00 US$132.00
+1 Vitro-ceramic glass - EUROK 24102605W057001 US$60.00 US$60.00
+FOB SHEKOU,CHINA 31,692.00
+SHIPPING MARK: N/M
+SAY UNITED STATES DOLLARS THIRTY-ONE THOUSAND SIX HUNDRED AND NINETY-TWO
+ONLY.
+PAYMENT TERMS: OA 90 DAYS AFTER/FROM B/L DATE
+DUE DATE: 22/Nov/22
+OVERDUE INTEREST: 0.5‰ A DAY
+Name and address of Beneficiary Ban:
+INDUSTRIAL AND COMMERCIAL BANK OF CHINA ZHONGSHAN CITY BRANCH
+Address:NO.7 YUE LAI NAN ROAD,ZHONGSHAN CITY,GUANGDONG,P.R CHINA
+SWIFT code: ICBKCNBJZSN
+Name of Beneficiary:
+ZHONGSHAN TINON GAS COOKERS AND ELECTRICAL APPLIANCES CO.LTD
+Address:NORTH SHENGHUI INDUSTRIAL ZONE,NANTOU TOWN,ZHONGSHAN CITY,
+USD Statement Savings A/C No. 2011027819031416273</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F548"/>
+  <dimension ref="A1:F550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52084,6 +52084,146 @@
         </is>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>TREND-TEK INV230906-3.pdf</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>{
+    "error": "fail: 调用大模型接口出错"
+}</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>{
+    "error": "fail: 调用大模型接口出错"
+}</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>入仓号：ZGD-506184
+INVOICE
+Trend-tek Corporation Ltd. INV Date 2023-09-06
+Contacting information :
+INV No. INV23/09/06-3
+Tel :+852 2324 2226 / 2324 2002
+20/F, King Centre, 5-9 Ka Hing Road,
+Kwai Chung, New Territories, Hong Kong
+Ship To: BILL To:
+Hisense Broadband Multimedia Technologies（HK）Co.,Ltd
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street,Tsuen Workshop P, 14/F., Haribest Industrial
+Wan, N.T., Hong Kong building,No.45-47 Au Pui Wan Street, Fotan,
+Shatin, N.T., Hong Kong
+Tel: 0852-39020582 Tel: 0532-80879768
+Contact:Miss zhang Contact:Xuping
+Ordered By Contact No Payment Terms Shipment Terms Remarks
+Net 60 days(after
+Xuping 0532-80879768 EXW TRENDTEK WAREHOUSE
+Inv.date)
+CUSTOMER PART Country Of UNIT
+PO NO. NO. P/N DESCRIPTION Origin ORDER QTY PRICE(US$) TOTAL AMOUNT (US$)
+5970023938 4320008301 GN1068-GRP6 US 23,772 0.1600 3,803.52
+5970023938 4320008301 GN1068-GRP6 US 23,523 0.1600 3,763.68
+5970023938 4320008301 GN1068-GRP6 US 23,861 0.1600 3,817.76
+Total Amount: USD 11,384.96
+In placing an order to Trend-tek, buyer certificates that any parts it purchases from Trend-tek will not be resale or
+transferred to other parties, and will not be incorporated into, or used in the production or development of any item
+that is for sales or transfer to any entity listed here:
+https://www.bis.doc.gov/index.php/documents/regulations-docs/2347-744-supp-4-6/file
+Beneficiary Name: Trend-tek Corporation Limited
+Beneficiary Bank Name: HSBC Hong Kong
+Beneficiary Bank Address: 1 Queen’s Road, Central, Hong Kong
+Beneficiary Account Numbers: 801-191172-838(HKD &amp; Foreign Currency Savings)
+Swift Code: HSBCHKHHHKH
+Bank Code:004</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>TREND-TEK INV230906-3.pdf</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>2</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>Trend-tek Corporation Limited
+PACKING LIST
+20/F,King Centre,5-9 Ka Hing Road,
+Kwai Chung,New Territories,
+Hong Kong.
+Tel: +852 2324 2226 Fax: +852 2324 2077
+Ship To: CYTS-SPIRIT LOGISTICS LIMITED Date: 2023-09-06
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, INV. NO.: INV23/09/06-3
+Tsuen Wan, N.T., Hong Kong
+Attn: Miss zhang Tel: 0852-39020582
+Bill To: H isense Broadband Multimedia Technologies （HK）Co.,Limited
+Workshop P, 14/F., Haribest Industrial building,
+No.45-47 Au Pui Wan Street,
+Fotan, Shatin, N.T., Hong Kong
+Packages: 3 cartons BY: Van Brand: Semtech
+From: New Territories,Hong Kong
+入仓号ZGD-506184 ：
+TO: New Territories,Hong Kong
+ITEM Description QTY(PCS) N.W.(KGS) G.W.(KGS) C.O.O
+Carton No.9000020(40x38x15)CM
+01 4320008301 10G TIA(GN1068)_ODM 专用23,772 0.94 1.50 US
+Cust.PN: 4320008301
+MFG PN: GN1068-GRP6 PO#:5970023938
+Date code: 2314
+Carton No.9000021(40x38x15)CM
+02 4320008301 10G TIA(GN1068)_ODM 专用23,523 0.94 1.50 US
+Cust.PN: 4320008301
+●
+MFG PN: GN1068-GRP6 PO#:5970023938
+Date code: 2314
+Carton No.9000022(40x38x15)CM
+03 4320008301 10G TIA(GN1068)_ODM 专用23,861 0.94 1.50 US
+Cust.PN: 4320008301
+●
+MFG PN: GN1068-GRP6 PO#:5970023938
+Date code: 2314
+TOTAL 71,156 2.82 KGS 4.50 KGS
+P.1/1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F550"/>
+  <dimension ref="A1:F565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52224,6 +52224,1345 @@
         </is>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>W214607+W214608 美国.pdf</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1403039",
+    "Invoice Date": "13-Apr-22",
+    "Currency": "USD",
+    "Amount": 140826.24,
+    "Bill To": "HISENSE INTERNATIONAL SINGAPORE HOLDINGS PTE. LTD.",
+    "From": "BOEVT (HONG KONG) CO., LTD"
+}</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1403039",
+    "Invoice Date": "13-Apr-22",
+    "Currency": "USD",
+    "Amount": 140826.24,
+    "Bill To": "HISENSE INTERNATIONAL SINGAPORE HOLDINGS PTE. LTD.",
+    "From": "BOEVT (HONG KONG) CO., LTD"
+}</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>BOEVT (HONG KONG) CO., LTD
+ROOM 2702-03, C.C. WU BUILDING,
+302-8 HENNESSY ROAD,
+WANCHAI, HONG KONG
+INVOICE
+INVOICE TO: DATE: 13-Apr-22 SHIPPING MARK:
+HISENSE INTERNATIONAL SINGAPORE HOLDINGS N/M
+PTE. LTD.
+INV NO.: 1403039
+8 EU TONG SEN STREET #14-87, THE CENTRAL.
+SINGAPORE 059818
+VESSEL NAME: EMMA MAERSK / 204W PAYMENT TERM: OA 60 DAYS
+SAILING ON OR ABOUT B/L NO. : COSU6327009441
+ETD :1-Mar-22 CONTAINER NO.: CSNU2133960
+ETA :16-Mar-22
+PORT OF LOADING: SHANGHAI CHINA PO NO: W214607/W214608
+PORT OF DISCHARGE:ENSENADA MODEL NO. : 32H4030F3
+DESCRIPTION QUANTITY UNIT PRICE AMOUNT
+USD USD
+TV21450101 32H4030F3 2208 63.78 140826.24
+Total 2208 PCS US$140,826.24
+SAY TOTAL U.S. DOLLARS one hundred forty thousand eight hundred twenty six, twenty four cents Only.
+BOEVT (HONG KONG) CO., LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2022年3月份美国订单付款发票.pdf</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1406080",
+    "Invoice Date": "2022/3/5",
+    "Currency": "USD",
+    "Amount": 1052022.4,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (Qing Dao) Co. Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1406080",
+    "Invoice Date": "2022/3/5",
+    "Currency": "USD",
+    "Amount": 1052022.4,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (Qing Dao) Co. Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>TPVTECHNOLOGY(QINGDAO)CO.LTD
+NO.99HUOJUROAD,HIGH-TECHINDUSTRIALDEVELOPMENTZONEQINGDAOSHANDONGPROVINCEP.R.CHINA
+COMMERCIALINVOICE
+ShippedPer
+BYSEA
+INVOICENO:
+1406080
+From
+TPVTechnology(QingDao)Co.Ltd.
+DATE:
+2022/3/5
+To:
+LOSANGELES.USA
+PAYMENTTERNOA60.Within60daysDuenet
+Hisense International SingaporeHoldingsPte.Ltd.
+8EUTONGSENSTREET,#14-87THECENTRAL,Singapore059818
+PartNo.
+QuantityPCS
+UnitePrice(USD)
+品名
+Amount(USD)
+数量
+140608040H4030F1
+单价
+总价
+set
+6,080
+$87.07
+$529,385.60
+44625|40H4030F1
+set
+6,080
+$85.96
+$522,636.80
+合计
+$1,052,022.40
+发票专用章</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2022年3月份美国订单付款发票.pdf</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>2</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1407138",
+    "Invoice Date": "2022/3/13",
+    "Currency": "USD",
+    "Amount": 344775.2,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (QingDao) Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1407138",
+    "Invoice Date": "2022/3/13",
+    "Currency": "USD",
+    "Amount": 344775.2,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (QingDao) Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>TPVTECHNOLOGY(QINGDAO)CO.LTD
+NO.99HUOJUROAD,HIGH-TECHINDUSTRIALDEVELOPMENTZONEQINGDAOSHANDONGPROVINCEP.R.CHINA
+COMMERCIALINVOICE
+Shipped Per
+BYSEA
+INVOICENO.:
+1407138
+From
+TPVTechnology(QingDao)Co.,Ltd.
+DATE:
+2022/3/13
+To:
+LOSANGELES.USA
+PAYMENTTERMOA60.Within60daysDuenet
+Hisense International Singapore HoldingsPte.Ltd.
+8EUTONGSENSTREET,#14-87THECENTRAL,Singapore059818
+发No
+Unit
+QuantityPCS
+UnitePrice(USD)
+Amo
+nt(USD)
+单位
+数量
+单价
+总价
+140713840H4030F1
+set
+4060
+$84.92
+$344,775.20
+合计
+$344,775.20
+青岛
+91370222607182069X
+发票专用章</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2022年3月份美国订单付款发票.pdf</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>3</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1407478",
+    "Invoice Date": "2022/3/20",
+    "Currency": "USD",
+    "Amount": 1869938.4,
+    "Bill To": "Hisense International Singapore Holdings Pte.Ltd.",
+    "From": "TPV Technology (QingDao) Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1407478",
+    "Invoice Date": "2022/3/20",
+    "Currency": "USD",
+    "Amount": 1869938.4,
+    "Bill To": "Hisense International Singapore Holdings Pte.Ltd.",
+    "From": "TPV Technology (QingDao) Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>TPVTECHNOLOGY(QINGDAO)CO.LTD
+NO.99HUOJUROADHIGH-TECHINDUSTRIALDEVELOPMENTZONEQINGDAOSHANDONGPROVINCEPR.CHINA
+COMMERCIALINVOICE
+ShippedPer
+BYSEA
+INVOICENO.:
+1407478
+From
+TPV Technology(QingDao)Co.,Ltd.
+DATE:
+2022/3/20
+To:
+LOS ANGELES.USA
+PAYMENT TERMOA60Within60daysDuenet
+Hisense International Singapore Holdings Pte.Ltd.
+8EUTONGSENSTREET14-87THECENTRALSingapore059818
+位
+QuantityPCS
+UnitePrice(USD)
+Amount(USD)
+数量
+单价
+总价
+1407478|40H4030F1
+set
+6080
+$84.92
+$516,313.60
+40H4030F1
+set
+1,320
+$84.92
+$112,094.40
+40H4030F1
+set
+4,060
+$84.92
+$344,775.20
+40H4030F1
+set
+10,560
+$84.92
+$896,755.20
+合计
+$1,869,938.40
+发票专用章</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2022年3月份美国订单付款发票.pdf</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>4</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1410969",
+    "Invoice Date": "2022/3/27",
+    "Currency": "USD",
+    "Amount": 1408556.8,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (QingDao) Co. Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1410969",
+    "Invoice Date": "2022/3/27",
+    "Currency": "USD",
+    "Amount": 1408556.8,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (QingDao) Co. Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>TPVTECHNOLOGY(QINGDAO)CO.LTD
+NO.99HUOJUROAD,HIGH-TECHINDUSTRIALDEVELOPMENTZONEQINGDAOSHANDONGPROVINCEPRCHINA
+COMMERCIALINVOICE
+Shipped Per
+BYSEA
+From
+INVOICENO.:
+1410969
+TPV Technology(QingDao)Co.Ltd.
+To:
+LOSANGELES.USA
+DATE:
+2022/3/27
+PAYMENTTERMOA60Within60daysDuenet
+Hisense International Singapore Holdings Pte.Ltd.
+8EUTONGSENSTREET,#14-87THECENTRAL,Singapore059818
+QuantityPCS
+UnitePrice(USD)
+141096940H4030F1
+数量
+单价
+总价
+set
+6080
+40H4030F1
+$84.23
+$512,118.40
+set
+10560
+$84.89
+$896,438.40
+合计
+$1,408,556.80
+发票专用章</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2022年3月份美国订单付款发票.pdf</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>5</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1410979",
+    "Invoice Date": "2022/4/2",
+    "Currency": "USD",
+    "Amount": 896755.2,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (QingDao) Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1410979",
+    "Invoice Date": "2022/4/2",
+    "Currency": "USD",
+    "Amount": 896755.2,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (QingDao) Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>TPVTECHNOLOGY(QINGDAO)CO.LTD
+NO.99HUOJUROAD,HIGH-TECHINDUSTRIALDEVELOPMENTZONEQINGDAOSHANDONGPROVINCEP.RCHINA
+COMMERCIALINVOICE
+ShippedPer
+BYSEA
+INVOICENO.:
+1410979
+From
+TPV Technology(QingDao)Co.,Ltd
+DATE:
+LOSANGELES.USA
+2022/4/2
+To:
+PAYMENTTERNOA60Within60days Duenet
+HisenseInternational SingaporeHoldingsPte.Ltd.
+8EUTONGSENSTREET,#14-87THECENTRAL,Singapore059818
+发票号
+QuantityPCS
+UnitePrice(USD)
+数量
+t(USD)
+141097940H4030F1
+单价
+set
+总价
+10560
+$84.92
+$896,755.20
+896,755.20
+合计
+9137022697182069X
+发票专用章</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>T222402&amp;nbsp; 美国付款发票.pdf</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>1</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1435487",
+    "Invoice Date": "2022/8/14",
+    "Currency": "USD",
+    "Amount": 766761.6,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (QingDao) Co. Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1435487",
+    "Invoice Date": "2022/8/14",
+    "Currency": "USD",
+    "Amount": 766761.6,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "TPV Technology (QingDao) Co. Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>TPVTECHNOLOGY(QINGDAO)CO.LTD
+NO.99HUOIUROADIGHTECHINDUSTRIALEVELOPMENTZONEQINGDAOSHANDONGPROVINCEPRCHINA
+COMMERCIALINVOICE
+1435487
+INVOICENO.:
+2022/8/14
+BYSEA
+DATE:
+Shipped Per
+TPVTechnology(QingDao)Co.Ltd
+From
+LOSANGELES.USA
+To:
+PAYMENTTERMOA60,Within60daysDuenet
+HisenseInternational SingaporeHoldingsPte.Ltd.
+8EUTONGSENSTREET,#14-87THECENTRAL,Singapore059818
+UnitePrice(USD)
+Amo
+nt(USD)
+Quantity PCS
+单价
+总价
+数量
+$72.61
+$766,761.60
+10,560
+set
+$766,761.60
+143548740H4030F1
+合计
+(青岛）
+发票专用章</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>冠捷形式发票-FA扫描0001.pdf</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>1</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4504383792",
+    "Invoice Date": "2022/7/13",
+    "Currency": "USD",
+    "Amount": 554.4,
+    "Bill To": "Hisense International (HK) Co Ltd.",
+    "From": "TPV Technology (QingDao) Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4504383792",
+    "Invoice Date": "2022/7/13",
+    "Currency": "USD",
+    "Amount": 554.4,
+    "Bill To": "Hisense International (HK) Co Ltd.",
+    "From": "TPV Technology (QingDao) Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>TPVTECHNOLOGY(QINGDAO)CO.LTD
+NO.99HUOJUROADHIGH-TECHINDUSTRIALDEVEOPMENTZONEQINGDASHANDONGPROVINCEPRCH
+COMMERCIALINVOICE
+INVOICENO.:
+4504383792
+ShippedPer
+BYSEA
+2022/7/13
+TPVTechnology(QingDao)Co.,Ltd
+DATE:
+From
+To:
+KOPER
+PAYMENTTERMOA60.Within60daysDuenet
+Hisense International (HK) Co Ltd.
+RM3101-3105,SinggaCommercial Center,No.148Connaught RoadWest,HK
+QuantityPCS
+UnitePrice(USD)
+At(USD)
+数量
+单价
+总价
+36.96
+554.40
+4504383792317GAAMBF66HIS0030
+set
+15
+（青岛）
+554.40
+发票专用章</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>CI-Hisense K220801 40A34UR 10560 20220328(2).pdf</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>1</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WJL2022032801R",
+    "Invoice Date": "28th, Mar., 2022",
+    "Currency": "USD",
+    "Amount": 929280.0,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "SHENZHEN KTC TECHNOLOGY CO., LTD."
+}</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WJL2022032801R",
+    "Invoice Date": "28th, Mar., 2022",
+    "Currency": "USD",
+    "Amount": 929280.0,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "SHENZHEN KTC TECHNOLOGY CO., LTD."
+}</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>KTC
+InvoiceNo.:WJL2022032801R
+SHENZHENKTCTECHNOLOGYCO.,LTD.
+Add: Northern Wuhe Road, Banxuegang Industrial Area, Buji, Shenzhen, China
+Tel:+867533615537;
+Fax:+8675533615500
+COMMERCIALINVOICE
+To:Hisense International Singapore Holdings Pte.Ltd.
+Date:28th,Mar.,2022
+8EuTong Sen Street,#14-87,The Central,Singapore 059818
+PONo.:K220801
+PriceTerm:USDS,FOBSHENZHEN
+Plan number
+Q'ty
+Amount
+S/N
+Model/Specifications
+UnitPrice
+(pcs)
+(USD)
+K220801
+LEDTV(SKD),40A34UR
+10560
+88.00
+929280.00
+TOTAL:
+10,560
+929,280.00
+EIGHTYONLY
+1Paymentterms:OA60DAYSFROMB/LDATE
+2 DateLadenonBoard:1APR2022
+3Bank Details:
+Beneficiary:SHENZHENKTCTECHNOLOGY CO.,LTD
+NameofBank:CHINA CONSTRUCTIONBANK,SHENZHEN ZHONGXINQU SUB-BRANCH
+Nameof Bank:44214809300220104129
+AddrofBank:1-2/F,EXCELLENCETIMESSQUAREBUILDING,4068YITIANROAD,
+FUTIANDISTRICT,SHENZHENCHINA
+SWIFT:PCBCCNBJSZX
+The Seller:
+Signature:
+KTC?
+業務专用章
+(②)
+KTC TECHNO</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>危地马拉-INV （1435398  1435398）.pdf</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>1</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1435388",
+    "Invoice Date": "12-Aug-22",
+    "Currency": "USD",
+    "Amount": 33901.98,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "XINYANG (HONG KONG) COMPANY LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1435388",
+    "Invoice Date": "12-Aug-22",
+    "Currency": "USD",
+    "Amount": 33901.98,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "XINYANG (HONG KONG) COMPANY LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>XINYANG (HONG KONG) COMPANY LIMITED
+ROOM 3101-05, SINGGA COMMERCIAL CENTRE,
+NO. 148 CONNAUGHT ROAD WEST, HONG KONG
+TEL : (852) 2559 0966 FAX : (852) 2559 0195
+COMMERCIAL INVOICE
+BILL TO : Hisense lnternational Singapore Holdings Pte. Ltd. INVOICE NO.: 1435388
+8 Eu Tong Sen Stree t#14-87,The Central. Singapore 059818
+DATE : 12-Aug-22
+PAYMENT TERMS : OA 60 DAYS FROM THE SHIPPING ON BOARD DATE
+PAYMENT DATE : 11-Oct-22
+QUANTITY DESCRIPTION OF GOODS UNIT PRICE TOTAL AMOUNT
+(SETS) (USD) (USD)
+FOB SHENZHEN
+PO NO.: Y220425GT
+371 HISENSE BRAND ELECTRONICS PRODUCTS (SOUND BAR) 91.38 33,901.98
+MODEL NO.: HP130
+TOTAL : TOTAL : USD 33,901.98
+BANK INFORMATION:
+Beneficiary : XINYANG (HONG KONG) COMPANY LIMITED
+Banker : HSBC Hong Kong
+Account : 848-657599-274
+Swift Code : HSBCHKHHHKH</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>WT20221031004 HLTE108E.02 10K.pdf</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>1</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT20221031004",
+    "Invoice Date": "2022/10/31",
+    "Currency": "USD",
+    "Amount": 429300.0,
+    "Bill To": "HISENSE (HONGKONG) MIDDLE EAST-AFRICA SALES HOLDINGS CO., LIMITED",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT20221031004",
+    "Invoice Date": "2022/10/31",
+    "Currency": "USD",
+    "Amount": 429300.0,
+    "Bill To": "HISENSE (HONGKONG) MIDDLE EAST-AFRICA SALES HOLDINGS CO., LIMITED",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>FS-SC-BM-021B
+Water World International Industrial Limited
+UNIT C 24/F GOLDEN BEAR INDUSTRIAL CENTRE 66-82 CHAI WAN KOK STREET TSUEN WAN NT.HONGKONG
+Tel：+86-0755-26397431 Fax：+86-755-26397000
+PROFORMA INVOICE
+Buyer： HISENSE (HONGKONG) MIDDLE EAST-AFRICA SALES HOLDINGS CO., LIMITED PO No.:
+ATTN: June PI NO.： WT20221031004
+Room3101-05,Singga Commercial Centre.No.148 Connaught Road
+Address: Date： 2022/10/31
+West,HongKong
+Seller’s Unit Price Quantity Total
+Description Buyer’s model SKU Color
+model （USD） (PCS) （USD）
+Mobile phone KS108C HLTE108E.02 Blue US$42.93 10,000 US$429,300.00
+Total: 10,000 US$429,300.00
+Says Total In USD: FOUR HUNDRED AND TWENTY NINE THOUSAND AND THREE HUNDRED ONLY.
+Shipping Terms: FCA Hong Kong or FOB Shenzhen Destination:
+Payment terms： 20% deposit before prepare material +30% deposit before going online +50% balance before delivery.
+other terms：If the products are not delivered exceeding 30 days due to buyer‘s failure to perform its obligation in relation to
+delivery of products, seller may select to terminate and cancel the order and/or purchase contract by sending a notice to buyer.
+Upon cancellation, Seller shall be entitled to confiscate all deposit and freely sell the products with or without change product
+trademarks, logo, package or specification for compensation of storage costs and unpaid price, without prejudice to any other
+remedies granted to the Supplier under applicable law.
+BANK INFORMATION: (USD)
+ACCOUNT NAME： Water World International Industrial Limited
+UNIT C 24/F GOLDEN BEAR INDUSTRIAL CENTRE 66-82 CHAI
+Address：
+WAN KOK STREET TSUEN WAN NT.HONGKONG
+Beneficiary Bank Name： HSBC Hong Kong
+Beneficiary Bank Address： 1 Queen’s Road Central,Hong Kong
+Beneficiary Bank Code： 004(for local payment)
+SWIFT Address： HSBCHKHHHKH(for telegraphic transfers)
+Account Number(T/T)： 747-023521-838 L/C Account No: 166-401679- 095
+Seller : Water World International Industrial Limited Buyer:
+Signature:
+Date:</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>沃特沃德PI 20220802 (1).pdf</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>1</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT2022080203",
+    "Invoice Date": "2022/8/2",
+    "Currency": "USD",
+    "Amount": 798900.0,
+    "Bill To": "HISENSE(HONGKONG)MIDDLEEAST-AFRICASALESHOLDINGSCO.,LIMITED",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT2022080203",
+    "Invoice Date": "2022/8/2",
+    "Currency": "USD",
+    "Amount": 798900.0,
+    "Bill To": "HISENSE(HONGKONG)MIDDLEEAST-AFRICASALESHOLDINGSCO.,LIMITED",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>WATER
+沃特沃德集团
+WORLD
+WaterWorldGroup
+FS-SC-BM-021B
+Water World International Industrial Limited
+UNITC24/FGOLDENBEARINDUSTRIALCENTRE66-82CHAIWANKOKSTREETTSUENWANNT.HONGKONG
+Tel:+86-0755-26397431Fax:+86-755-26397000
+PROFORMA INVOICE
+HISENSE(HONGKONG)MIDDLEEAST-AFRICASALESHOLDINGSCO.,LIMITED
+PO No.:
+Buyer:
+PINO.:
+WT2022080203
+ATTN:
+June
+Room3101-05,SinggaCommercialCentre.No.148ConnaughtRoad
+Date:2022/8/2
+Address:
+West,HongKong
+Unit Price
+Quantity
+Total
+Seller's
+Buyer'smodel
+SKU
+Color
+Description
+(USD)
+(PCS)
+(USD)
+model
+Blue
+US$53.26
+15,000
+US$798,900.00
+Mobilephone
+KS107A
+HLTE107E
+15,000
+US$798,900.00
+Total:
+FCA HongKongor FOBShenzhen
+Destination:
+ShippingTerms:
+Paymentterms:
+20%depositbeforepreparematerial+30%deposit beforegoingonline+50%balancebeforedelivery.
+otherterms:Iftheproductsarenotdeliveredexceeding30 daysduetobuyer'sfailuretoperformitsobligationinrelationto
+deliveryofproducts,sellermayselecttoterminateandcancelthe orderand/orpurchasecontractbysendinganoticetobuyer.
+Uponcancellation,Sellershallbeentitledtoconfiscatealldepositandfreelyselltheproductswithorwithoutchangeproduct
+trademarkslogopackagerpecificationforcomensationofstoragecostsandunaidpricewithoutprejudicetoanyothr
+remediesgranted totheSupplierunderapplicablelaw.
+BANKINFORMATION:(USD)
+ACCOUNTNAME:WaterWorldInternationalIndustrial Limited
+UNITC24/FGOLDENBEARINDUSTRIALCENTRE66-82CHAI
+Address:
+WANKOKSTREETTSUENWANNT.HONGKONG
+BeneficiaryBankName:
+HSBC HongKong
+BeneficiaryBankAddress:
+1 Queen's Road Central,Hong Kong
+BeneficiaryBankCode:
+004(forlocalpayment)
+SWIFTAddress:HSBCHKHHHKH(for telegraphictransfers)
+Account Number(T/T):747-023521-838
+L/CAccountNo:166-401679-095
+Seller:WaterWorldJuternationalIndustrial Limited
+Buyer:
+ERNATIO
+Signature:
+Signature:
+Date:
+Date:</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>沃特沃德PI 20220802 (1).pdf</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>2</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT2022080202",
+    "Invoice Date": "2022/8/2",
+    "Currency": "USD",
+    "Amount": 1774200.0,
+    "Bill To": "HISENSE (HONG KONG) MIDDLE EAST-AFRICA SALES HOLDING CO., LIMITED",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT2022080202",
+    "Invoice Date": "2022/8/2",
+    "Currency": "USD",
+    "Amount": 1774200.0,
+    "Bill To": "HISENSE (HONG KONG) MIDDLE EAST-AFRICA SALES HOLDING CO., LIMITED",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>WATER
+沃特沃德集团
+WORLD
+Water WorldGroup
+FS-SC-BM-021B
+Water World International Industrial Limited
+UNITC24/FGOLDENBEARINDUSTRIALCENTRE66-82CHAIWANKOKSTREETTSUENWANNT.HONGKONG
+Tel:+86-0755-26397431Fax:+86-755-26397000
+PROFORMAINVOICE
+Buyer:
+HISENSE(HONGKONG)MIDDLEEAST-AFRICASALESHOLDINGSCO.,LIMITED
+PONo.:
+PINO.:WT2022080202
+ATTN:
+June
+Room3101-05SinggaCommercialCentre.No.148ConnaughtRoad
+Date:2022/8/2
+Address:
+West,HongKong
+Unit Price
+Quantity
+Total
+Seller's
+Description
+Buyer'smodel
+SKU
+Color
+(USD)
+(PCS)
+(USD)
+model
+HWCD100E.11
+Blue
+US$29.57
+60,000
+US$1,774,200.00
+Mobilephone
+KS101C
+60,000
+US$1,774,200.00
+Total:
+SaysTotal InUSD:ONEMILLOINSEVENHUNDREDANDSEVENTYFOURTHOUSANDTWOHUNDREDONLY.
+FCA HongKongorFOBShenzhen
+Destination:
+ShippingTerms:
+Paymentterms:
+20%depositbeforepreparematerial+30%deposit beforegoingonline+50%balancebeforedelivery.
+otherterms:Iftheproductsarenotdelivered exceeding30daysduetobuyer'sfailuretoperformitsobligationinrelationto
+deliveryofproducts,sellermayselecttoterminateandcanceltheorderand/orpurchasecontractbysendinganoticetobuyer.
+Uponcancellation,Sellershallbeentitledtoconfiscatealldepositandfreelyselltheproductswithorwithoutchangeproduct
+trademarkslogo,packageorspecificationforcompensationofstoragecostsandunpaidricewithoutprejudicetoanyother
+remediesgrantedtotheSupplierunderapplicablelaw.
+BANKINFORMATION:(USD)
+ACCOUNTNAME:WaterWorldInternational Industrial Limited
+UNITC24/FGOLDENBEARINDUSTRIALCENTRE66-82CHAI
+Address:
+WANKOKSTREETTSUENWANNT.HONGKONG
+BeneficiaryBankName:
+HSBCHongKong
+BeneficiaryBankAddress:
+1Queen'sRoadCentral,HongKong
+BeneficiaryBankCode:
+004(forlocalpayment)
+SWIFTAddress:HSBCHKHHHKH(fortelegraphictransfers)
+AccountNumber(T/T):747-023521-838
+L/CAccount No:166-401679-095
+Buyer:
+Seller:WaterWorldInternatiouaLIndustrial Limited
+Signature:
+Signature:
+Date:
+Date:</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>沃特沃德PI 20220802 (1).pdf</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>3</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT2022080201",
+    "Invoice Date": "2022/8/2",
+    "Currency": "USD",
+    "Amount": 1054800.0,
+    "Bill To": "HISENSE(HONGKONG)MIDDLEEAST-AFRICASALESHOLDINGSCO.,LIMITED",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT2022080201",
+    "Invoice Date": "2022/8/2",
+    "Currency": "USD",
+    "Amount": 1054800.0,
+    "Bill To": "HISENSE(HONGKONG)MIDDLEEAST-AFRICASALESHOLDINGSCO.,LIMITED",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>WATER
+沃特沃德集团
+WORLD
+WaterWorldGroup
+FS-SC-BM-021B
+Water World International Industrial Limited
+UNITC24/FGOLDENBEARINDUSTRIALCENTRE66-82CHAIWANKOKSTREETTSUENWANNT.HONGKONG
+Tel:+86-0755-26397431Fax:+86-755-26397000
+PROFORMA INVOICE
+HISENSE(HONGKONG)MIDDLEEAST-AFRICASALESHOLDINGSCO.,LIMITED
+PONo.:
+Buyer:
+PINO.:
+WT2022080201
+ATTN:
+June
+Room3101-05,Singga CommercialCentre.No.148ConnaughtRoad
+Date:2
+2022/8/2
+Address:
+West,HongKong
+Seller's
+UnitPrice
+Quantity
+Total
+Buyer'smodel
+SKU
+Color
+Description
+(USD)
+(PCS)
+(USD)
+model
+Nebula
+HWCD103E.01
+US$35.16
+30,000
+US$1,054,800.00
+Mobilephone
+KS113C
+Blue
+Total:
+30,000
+US$1,054,800.00
+SaysTotal InUSD:ONEMILLIONANDFIFTYFOURTHOUSANDEIGHTHUNDREDONLY.
+FCA HongKongorFOBShenzhen
+Destination:
+ShippingTerms:
+Paymentterms:
+20%depositbeforepreparematerial+30%deposit beforegoingonline+50%balancebeforedelivery.
+otherterms:Iftheproductsarenot deliveredexceeding30 daysduetobuyer'sfailuretoperform itsobligationinrelationto
+deliveryofproducts,sellermayselecttoterminateandcanceltheorderand/orpurchasecontractbysendinganoticetobuyer.
+Uponcancellation,Sellershallbeentitledtoconfiscatealldepositandfreelyselltheproductswithorwithoutchangeproduct
+remediesgrantedtotheSupplierunderapplicablelaw.
+BANKINFORMATION:(USD)
+ACCOuNTNAME:WaterWorldInternationalIndustrialLimited
+UNITC24/FGOLDENBEARINDUSTRIALCENTRE66-82CHAI
+Address:
+WANKOKSTREETTSUENWANNT.HONGKONG
+BeneficiaryBankName:
+HSBC HongKong
+BeneficiaryBankAddress:
+1Queen'sRoad Central,HongKong
+Beneficiary Bank Code:
+004（forlocalpayment)
+SWIFTAddress:HSBCHKHHHKH(fortelegraphictransfers)
+AccountNumber(T/T):747-023521-838
+L/CAccountNo:166-401679-095
+Seller:WaterWorldnternationalIndustrial Limited
+Buyer:
+Signature:
+Signature:
+Date:
+Date:</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>沃特沃德PI 20220802 (1)_test.pdf</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>1</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT2022080203",
+    "Invoice Date": "2022/8/2",
+    "Currency": "USD",
+    "Amount": 798900.0,
+    "Bill To": "Hisense (Hong Kong) Middle East-Africa Sales Holdings Co., Limited",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "WT2022080203",
+    "Invoice Date": "2022/8/2",
+    "Currency": "USD",
+    "Amount": 798900.0,
+    "Bill To": "Hisense (Hong Kong) Middle East-Africa Sales Holdings Co., Limited",
+    "From": "Water World International Industrial Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>WATER
+沃特沃德集团
+WORLD
+WaterWorldGroup
+FS-SC-BM-021B
+Water World International Industrial Limited
+UNITC24/FGOLDENBEARINDUSTRIALCENTRE66-82CHAIWANKOKSTREETTSUENWANNT.HONGKONG
+Tel:+86-0755-26397431Fax:+86-755-26397000
+PROFORMA INVOICE
+HISENSE(HONGKONG)MIDDLEEAST-AFRICASALESHOLDINGSCO.,LIMITED
+PO No.:
+Buyer:
+PINO.:
+WT2022080203
+ATTN:
+June
+Room3101-05,SinggaCommercialCentre.No.148ConnaughtRoad
+Date:2022/8/2
+Address:
+West,HongKong
+Unit Price
+Quantity
+Total
+Seller's
+Buyer'smodel
+SKU
+Color
+Description
+(USD)
+(PCS)
+(USD)
+model
+Blue
+US$53.26
+15,000
+US$798,900.00
+Mobilephone
+KS107A
+HLTE107E
+15,000
+US$798,900.00
+Total:
+FCA HongKongor FOBShenzhen
+Destination:
+ShippingTerms:
+Paymentterms:
+20%depositbeforepreparematerial+30%deposit beforegoingonline+50%balancebeforedelivery.
+otherterms:Iftheproductsarenotdeliveredexceeding30 daysduetobuyer'sfailuretoperformitsobligationinrelationto
+deliveryofproducts,sellermayselecttoterminateandcancelthe orderand/orpurchasecontractbysendinganoticetobuyer.
+Uponcancellation,Sellershallbeentitledtoconfiscatealldepositandfreelyselltheproductswithorwithoutchangeproduct
+trademarkslogopackagerpecificationforcomensationofstoragecostsandunaidpricewithoutprejudicetoanyothr
+remediesgranted totheSupplierunderapplicablelaw.
+BANKINFORMATION:(USD)
+ACCOUNTNAME:WaterWorldInternationalIndustrial Limited
+UNITC24/FGOLDENBEARINDUSTRIALCENTRE66-82CHAI
+Address:
+WANKOKSTREETTSUENWANNT.HONGKONG
+BeneficiaryBankName:
+HSBC HongKong
+BeneficiaryBankAddress:
+1 Queen's Road Central,Hong Kong
+BeneficiaryBankCode:
+004(forlocalpayment)
+SWIFTAddress:HSBCHKHHHKH(for telegraphictransfers)
+Account Number(T/T):747-023521-838
+L/CAccountNo:166-401679-095
+Seller:WaterWorldJuternationalIndustrial Limited
+Buyer:
+ERNATIO
+Signature:
+Signature:
+Date:
+Date:</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F565"/>
+  <dimension ref="A1:F572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53563,6 +53563,618 @@
         </is>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>W221404 日本-1440224.pdf</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>1</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1440224",
+    "Invoice Date": "2-Nov-22",
+    "Currency": "USD",
+    "Amount": 371176.64,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "BOEVT (Hong Kong) Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1440224",
+    "Invoice Date": "2-Nov-22",
+    "Currency": "USD",
+    "Amount": 371176.64,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "BOEVT (Hong Kong) Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>BOEVT (HONG KONG) CO., LTD
+ROOM 2702-03, C.C. WU BUILDING,
+302-8 HENNESSY ROAD,
+WANCHAI, HONG KONG
+INVOICE
+INVOICE TO: DATE: 2-Nov-22 SHIPPING MARK:
+HISENSE INTERNATIONAL SINGAPORE HOLDINGS N/M
+PTE. LTD.
+INV NO.: 1440224
+8 EU TONG SEN STREET #14-87, THE CENTRAL.
+SINGAPORE 059818
+VESSEL NAME: XIN HAI KOU / 249E PAYMENT TERM: OA 60 DAYS
+SAILING ON OR ABOUT B/L NO. : PASU5157402560
+ETD :10-Sep-22 CONTAINER NO.: TGBU8591610
+ETA :14-Sep-22
+PORT OF LOADING: SHANGHAI CHINA PO NO: W221404
+PORT OF DISCHARGE:TOKYO MODEL NO. : 32A35G
+DESCRIPTION QUANTITY UNIT PRICE AMOUNT
+USD USD
+TV22160104 32A35G 4216 88.04 371176.64
+Total 4216 PCS US$371,176.64
+SAY TOTAL U.S. DOLLARS three hundred seventy one thousand one hundred seventy six, sixty four cents Only.
+BOEVT (HONG KONG) CO., LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>W222609+W222608 乌克兰.pdf</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>1</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1437390",
+    "Invoice Date": "2-Nov-22",
+    "Currency": "USD",
+    "Amount": 122925.6,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "BOEVT (Hong Kong) Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1437390",
+    "Invoice Date": "2-Nov-22",
+    "Currency": "USD",
+    "Amount": 122925.6,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "BOEVT (Hong Kong) Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>BOEVT (HONG KONG) CO., LTD
+ROOM 2702-03, C.C. WU BUILDING,
+302-8 HENNESSY ROAD,
+WANCHAI, HONG KONG
+INVOICE
+INVOICE TO: DATE: 2-Nov-22 SHIPPING MARK:
+HISENSE INTERNATIONAL SINGAPORE HOLDINGS N/M
+PTE. LTD.
+INV NO.: 1437390
+8 EU TONG SEN STREET #14-87, THE CENTRAL.
+SINGAPORE 059818
+VESSEL NAME: CSCL ARCTIC OCEAN / 044W PAYMENT TERM: OA 60 DAYS
+SAILING ON OR ABOUT B/L NO. : COSU6343251350
+ETD :12-Sep-22 CONTAINER NO.: GESU6729340
+ETA :25-Oct-22
+PORT OF LOADING: SHANGHAI CHINA PO NO: W222609/W222608
+PORT OF DISCHARGE:Gdansk MODEL NO. : 32A5710FA
+DESCRIPTION QUANTITY UNIT PRICE AMOUNT
+USD USD
+TV21120114 32A5710FA 1680 73.17 122925.6
+Total 1680 PCS US$122,925.60
+SAY TOTAL U.S. DOLLARS one hundred twenty two thousand nine hundred twenty five, sixty cents Only.
+BOEVT (HONG KONG) CO., LTD</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>海信中东非#1444260--INV.pdf</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>1</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1444260",
+    "Invoice Date": "2022/9/21",
+    "Currency": "USD",
+    "Amount": 97840.0,
+    "Bill To": "Hisense (Hong Kong) Middle East-Africa Sales Holdings Co., Limited",
+    "From": "Shenzhen Xinyang International Trade Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1444260",
+    "Invoice Date": "2022/9/21",
+    "Currency": "USD",
+    "Amount": 97840.0,
+    "Bill To": "Hisense (Hong Kong) Middle East-Africa Sales Holdings Co., Limited",
+    "From": "Shenzhen Xinyang International Trade Co., Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>深圳信扬国际经贸股份有限公司
+深圳市南山区创业路1777号海信南方大厦2401室
+COMMERCIAL INVOICE
+BILLTO:
+Hisense(Hong Kong)Middle East-AfricaSales Holdings Co.,Limited
+INVOICENO.:
+1444260
+SAP:
+8039580639
+SHIPTO:
+HISENSESASALESHOLDINGS(PTY)LTD
+DATE:
+2022/9/21
+17OXBOWRESCENTBOULEVARD,CENTURYCITY,CAPETOWN,SOUTH
+AFRICA
+PAYMENTTERMS:OA30天
+SHIP TERMS:
+[FOBJiujiang
+QUANTITY
+UNITPRICE
+PONO.
+Brand
+TOTALAMOUNT
+DESCRIPTION
+PartNo
+(Kg)
+(USD)
+(USD)
+BD2022083001
+HIPS
+英力士
+8265，挤板级
+19,000.00
+1.7600
+33,440.00
+BD2022083001
+HIPS
+英力士
+8265，挤板级
+19,000.00
+1.7600
+33,440.00
+BD2022090801
+S-PVC
+万朗
+S-PVC/DT18W-72A
+1,000.00
+1.5400
+1,540.00
+BD2022090801
+S-PVC
+万朗
+S-PVC/DT16G-72A
+18,000.00
+1.5400
+27,720.00
+BD2022090801
+GPPS
+奇美
+PH-888G
+1,000.00
+1.7000
+1,700.00
+TOTAL:USD
+97,840.00
+经贸股份
+深圳信扬国际经贸股份有限公司
+公
+13003985061668 
+发票专用拿
+皮慕专用章</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>海信国际中东非#1434650-门封SPVC-INV.pdf</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>1</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1434650",
+    "Invoice Date": "2022/7/20",
+    "Currency": "USD",
+    "Amount": 29260.0,
+    "Bill To": "Hisense (Hong Kong) Middle East-Africa Sales Holdings Co., Limited",
+    "From": "Xinyang International Trading Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1434650",
+    "Invoice Date": "2022/7/20",
+    "Currency": "USD",
+    "Amount": 29260.0,
+    "Bill To": "Hisense (Hong Kong) Middle East-Africa Sales Holdings Co., Limited",
+    "From": "Xinyang International Trading Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>深圳信扬国际经贸股份有限公司
+Xinyang International Trading Co.，Ltd
+深圳市南山区创业路1777号海信南方大厦2401室
+COMMERCIAL INVOICE
+BILLTO:
+Hisense(HongKong)MiddleEast-AfricaSalesHoldings Co.,Limited
+INVOICENO.:
+1434650
+SAP:
+8038175085
+SHIPTO:
+HISENSESASALESHOLDINGS(PTY)LTD
+DATE:
+2022/7/20
+17OXBOWCRESCENTBOULEVARD,CENTURYCITY,CAPETOWN,SOUTH
+AFRICA
+PAYMENTTERMS:OA30天
+SHIPTERMS:
+FOB Jiujiang
+PONO.
+QUANTITY
+UNITPRICE
+TOTALAMOUNT
+DESCRIPTION
+Brand
+Part No
+(Kg)
+(USD)
+(USD)
+BD2022070402
+S-PVC
+万朗
+DT18W-69A
+1,000.00
+1.5400
+1,540.00
+BD2022070402
+S-PVC
+万朗
+DT13G-69A
+18,000.00
+1.5400
+27,720.00
+TOTAL:USD
+29,260.00
+国际经贸股
+深圳信扬国际经贸股份有限公司
+914403003986061668
+发票专用章</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>CI-TO HISENSE-441PCS-20220524001.xlsx.pdf</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>1</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "CI20220524001",
+    "Invoice Date": "2022/05/24",
+    "Currency": "USD",
+    "Amount": 8908.2,
+    "Bill To": "HISENSE (HONG KONG) MIDDLE EAST-AFRICA SALES HOLDINGS CO., LIMITED",
+    "From": "SIGNALINKS LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "CI20220524001",
+    "Invoice Date": "2022/05/24",
+    "Currency": "USD",
+    "Amount": 8908.2,
+    "Bill To": "HISENSE (HONG KONG) MIDDLE EAST-AFRICA SALES HOLDINGS CO., LIMITED",
+    "From": "SIGNALINKS LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>SIGNALINKSLIMITED
+Date:05/24/2022
+COMMERGIAL INVOICE
+ISSUER:
+Delivery time:About45DaysAfterPO
+SIGNALINKSLIMITED:
+ROOM2002,20/F,MULTIFIELDCOMMERCIALCENTER426
+SHANGHAISST.,MONGKOK,KOWLOONHONGKONG
+Attn:AliceShu
+Title:SALESDirector
+E-mail:shu@signalinks.com
+Phone:+8618507557139
+TO:
+IssuingDate:2022/05/24
+HISENSE(HONGKONG)MIDDLEEAST-AFRICASALESHOLDINGS
+CO.,LIMITED
+InvoiceNo.:CI20220524001
+Room3101-05,SinggaCommercial Centre.No.148Connaught Road
+West,HongKong
+PONo.:001/MiFi/PO-HMEAS/V/2022
+Attn:wanglifeng
+Phone:+8613969779043
+E-mail:wanglifeng@hisense.com
+TRADETERM:
+FCA Hongkong
+TRANSPORTDETAILS:
+TERMSOFPAYMENT:
+FROMSHENZHENTOHKBYTRUCK
+50%T/Tpayment10workingdaysbefore
+FROMHKTOSOUTHAFRICABYSHIP
+goodshandover,balance50%T/Tpayment
+7workingdays aftergoodsqualified and
+handoverbaseon commercial invoice.
+Model
+Description of Goods
+Quantity
+Unit Price（USD)
+Amount(USD)
+(PCS)
+4GMobileRouter
+MZ403DYellow
+441
+YellowColor
+$20.20
+$8,908.20
+Total:
+441
+$8,908.20
+BankInformation
+Beneficiary'sname:SIGNALINKSLIMITED
+Beneficiary's account number:143-164028838
+Beneficiary'sbankname:TheHongkong andShanghaiBankingCorporation Limited(HSBCHK)
+Beneficiary's bank address:No.1 Queen's Road Central HongKong
+SWIFTCode:HSBCHKHHHKH
+Bankcode:004</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>PI__for__HLTE237E 第四单 3000台.pdf</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>1</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "KBHI20220825001",
+    "Invoice Date": "2022/8/25",
+    "Currency": "USD",
+    "Amount": 247920.0,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "COOSEA GROUP (HK) COMPANY LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "KBHI20220825001",
+    "Invoice Date": "2022/8/25",
+    "Currency": "USD",
+    "Amount": 247920.0,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "COOSEA GROUP (HK) COMPANY LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>酷赛集团（香港）有限公司
+COOSEA GROUP (HK) COMPANY LIMITED
+UNIT 5-6 16F MULTIFIELD PLAZA 3-7A PRAT AVENUE TSIM SHA TSUI KL HONGKONG
+TEL: 86-0755-3397 1000 FAX:86-0755-3397 0928
+形式发票
+PROFORMA INVOICE
+发票号： 日期：
+PI NO: KBHI20220825001 DATE： 2022/8/25
+PO NUMBER:
+MX220331HLTE237E-9000
+TO : Hisense International Singapore Holdings Pte. Ltd.
+电话/Tel: +86-532-55754868
+地址/ADD： 8 Eu Tong Sen Street, #14-87 The Central,Singapore 059818
+联系人/Attn: Luo Yong
+付款方式：
+Payment terms: 50% TT before shipment, 49% TT in 7days after shipment(1% kept for quality assurance) .
+Shipment terms:
+DAP HongKong.
+贸易条款：
+产品：
+Item/Product:
+序号 颜色 数量 单价（美元） 订单总金额（美元） 产品描述
+Model MDM
+No. Color Quantity (PCS) Unit Price (USD) Total Amount (USD) Description
+Screen size/Pixel:：6.517" HD+Display,
+Front camera:8MP
+1 HLTE237E 1MF75KF9ZA1CN0 dark blue 1500 82.640 US$123,960.00
+Rear camera:13MP+5MP+2MP
+Battery:5000mAh
+Screen size/Pixel:：6.517" HD+Display,
+Front camera:8MP
+2 HLTE237E 1MF75KF9ZA1CN0 gold 1500 82.640 US$123,960.00
+Rear camera:13MP+5MP+2MP
+Battery:5000mAh
+TOTAL US$247,920.00
+50% TT payment before shipment US$123,960.00
+49% TT balance payment after shipment in 7 days US$121,480.80
+1% TT in 450 days after shipment(kept for quality assurance before 450 days) US$2,479.20
+TOTAL SAYS U.S DOLLARS TWO HUNDRED FORTY SEVEN THOUSAND NINE HUNDRED AND TWENTY ONLY .
+备注/Remarks:
+银行账号/Bank information
+银行/Bank Name: 汇丰银行 THE HONGKONG AND SHANGHAI BANKING CORPORATION LIMITED
+银行地址/Bank Address: 香港皇后大道中1号/1 QUEEN’S ROAD CENTRAL,HONGKONG
+受益人/Beneficiary: 酷赛集团（香港）有限公司/COOSEA GROUP (HK) COMPANY LIMITED
+银行账号/Bank Account Number: 411-347529-838
+币种/Beneficiary Account Currency: 美元/US DOLLAR
+银行识别代码/Swift code: HSBCHKHHHKH
+银行收费/Bank Charges: 所有在卖方产生的银行费用由卖方承担，所有在买方产生的银行费用由买方承担。
+All the Bank Charges at seller side to be paid by seller &amp; Buyer Side to be paid by Buyer.
+酷赛集团（香港）有限公司
+Hisense International Singapore
+COOSEA GROUP (HK) COMPANY LIMITED Holdings Pte. Ltd.
+Authorized signature Authorized signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>惠科形式发票-海信墨西哥 H221403 INV 2022-9-2.pdf</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>1</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1428949",
+    "Invoice Date": "2022-7-7",
+    "Currency": "USD",
+    "Amount": 130005.0,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "HKC Overseas Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1428949",
+    "Invoice Date": "2022-7-7",
+    "Currency": "USD",
+    "Amount": 130005.0,
+    "Bill To": "Hisense International Singapore Holdings Pte. Ltd.",
+    "From": "HKC Overseas Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>HKC OVERSEAS LIMITED
+UNIT 8 28/F W50 50 WONG CHUK HANG RD WONG CHUK HANG HONG KONG
+COMMERCIAL INVOICE
+Invoice NO.:1428949
+TO: Hisense International Singapore Holdings Pte. Ltd.
+Date：2022-7-7
+Address:8 Eu Tong Sen Street #14-87, The Central. Singapore
+Incoterms: FOB SHANGHAI
+059818
+Country Of Origin : CHINA
+Tel :(+65) 6225 8922
+PAYMENT TERMS: OA/60 days upon date on board
+PO: H221403
+HKC Invoice NO.:2205HA7200515
+QUANTITY UNIT PRICE AMOUNT
+GOODS DESCRIPTION
+（SETS） (USD) (USD)
+LED TV 2250 US$57.78 US$130,005.00
+TOTAL 2250 US$130,005.00
+Beneficiary Bank Name：BNP Paribas Hong Kong Branch HKC OVERSEAS LIMITED
+Beneficiary A/C Name: HKC OVERSEAS LIMITED
+Benificiary A/C No. : 00001-207923-049-18-USD
+Swift Code: BNPAHKHH</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F572"/>
+  <dimension ref="A1:F578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54175,6 +54175,702 @@
         </is>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>11.pdf</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>1</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1212",
+    "Invoice Date": "2003-6-18",
+    "Currency": "USD",
+    "Amount": 1572.12,
+    "Bill To": "Lonuet Unied Trading Ltd.",
+    "From": "Guangzhou Xinxi Technical &amp; Trading Co. Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1212",
+    "Invoice Date": "2003-6-18",
+    "Currency": "USD",
+    "Amount": 1572.12,
+    "Bill To": "Lonuet Unied Trading Ltd.",
+    "From": "Guangzhou Xinxi Technical &amp; Trading Co. Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>GUANGZHOUXINXITECHICAL&amp;TRADINGCO.LTD
+25/F ,NO.449,TIANHEBEI ROAD,GUANGZHOU,CHINA
+TEL:020-38815152 FAX:020-38813926 EMAIL:GZ-XINXI@163.COM
+PROFORMA INVOICE
+TO:
+LONUET UNIED TRADING LTD.
+INV NO. 1212
+LONUET HOUSE 38 MACHEST WAY, LONDON NW4
+3AL, ENGLAND
+DATE:
+2003-6-18
+ITEM NO.
+COMMODITY&amp;DESCRIPTION
+QUANTITY
+PRICE
+AMOUNT
+FOB
+SHOE08968
+SPORTS SHOES
+1,234PAIRS
+USD 1.3
+USD 1,604.20
+MORE ORLESS:
+3
+%AREALLOWED.
+LESS COMMISSION 2%
+USD 32.08
+SAY USD ONE THOUSAND FIVE HUNDRED AND
+TOTAL NET: 1,234PAIRS
+USD 1,572.12
+SEVENTY-TWO AND TWELVE CENT ONLY
+SHIPMENT:
+BEFORE 30 JUNE,2003
+DESTINATION:
+LONDON
+LOADPORT: ZHUANGPU
+PAYMENT:
+L/C
+INSURANCE:
+BY THE SELLER AT 110 % OF INVOICE VALUE COVERING ALL RISK AND WAR RISK AS
+PER C.1.C.
+BANK A/C:
+Bank:广州市商业银行森保支行
+A/C: 985-201-8083257-48
+ADD:广州市体育东路
+REMARK:
+remarks
+MARKS:
+GDGSDF/SDFSDF
+1/1</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>KONG TAK 2309084.pdf</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>2</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2309084",
+    "Invoice Date": "11/9/2023",
+    "Currency": "USD",
+    "Amount": 5560.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2309084",
+    "Invoice Date": "11/9/2023",
+    "Currency": "USD",
+    "Amount": 5560.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD
+Tel:(852) 2356 1832
+香港九龍紅鶴翔街8號維港中心第二期2樓203室
+Fax: (852) 2764 8426
+Unit 203,2/F.,Harbour Centre,Tower 2,No.8 Hok Cheung Street,Hunghom,Kowloon,Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To:Hisense Broadband Multimedia Technologies(HK) Co.,Limited
+Customer Code
+:HKH019USD
+InvolceDate
+: 11/9/2023
+Attn：刘双
+Invoice No.
+:2309084
+Tel
+：0750-3997863
+Contract /Order No.:4510080673
+Fax
+A/L No.
+Bill To:
+Hisense Broadband Multimedia Technologies(HK) Co.,Limited
+Payment Terms
+:AMS45DAYS
+Rooms3101-05SinggaCommercial Centre
+Delivery Date
+:12/9/2023
+148Connaught Road West,HongKong
+Currency
+:USD
+Payment Due Date
+：15/11/2023
+Ship To：青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED
+6/F,Ever Gain Centre,43-57Wang WoTsai Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etain
+Item
+Description
+Quantity
+Unit
+Price
+Amount
+coder no.
+production Date
+Brand
+LENS
+EYLGMFF001
+4390020701
+20,000
+pcs
+0.2780
+5,560.00
+4510080673
+16/5/2023
+Panasonic
+Japan
+Total Amount :
+5,560.00
+Shipped per:
+Deposit :
+0.00
+Balance:
+5,560.00
+For and on behalf of
+Kong Tak Electronic Co.,Ltd
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>KONG TAK 2309084.pdf</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>3</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD
+ynL bnoZ
+Tel: (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax:(852)2764 8426
+Unit 203,2/F,HarbourCentre,Tower2,No.8Hok Cheung Street,Hunghom,Kowloon,HongKong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+:2023.09.11
+青旅思捷物流有限公司
+Customer Code
+：HKH019USD
+香港荃灣横窝仔街43-57號永得利中心六楼
+Invoice No
+：2309084
+Attn:Etain
+Contract/0rder No.:
+Tel:39020582
+L/C No.
+Delivery
+：2023.09.12
+Packing No.
+：2309084
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T.&amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+LENS
+EYLGMFF001
+1
+20000
+20000 pcs
+3.50
+4.00
+0.043
+PANASONIC
+JAPAN
+3.50
+4.00
+0.043
+1
+TOTAL:
+20000
+3.50
+4.00
+0.043
+ Shi pmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>KONG TAK 2309083.pdf</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>2</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD
+Tel : (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2楼203室
+Fax:(852)2764 8426
+Unit 203,2/F,Harbour Centre,Tower 2,o.8Hok Cheung Street,Hunghom,Kowloon,Hong Kong
+http://www.kongtak.com.hk
+INVOICE
+Sold To:Hisense Broadband Multimedia Technologies(HK) Co., Limited
+Customer Code
+:HKH019USD
+Invoice Date
+: 11/9/2023
+Attn：刘双
+Invoice No.
+:2309083
+Tel
+：0750-3997863
+Contract /Order No.:4510081621 4510081750 4510081881
+Fax
+A/L No.
+：
+BlI To:
+Hisense Broadband Multimedia.Technologies(HK) Co.,Limited
+Payment Terms
+:AMS 45 DAYS
+Rooms3101-05SinggaCommercial Centre
+Delivery Date
+:12/9/2023
+148Connaught Road West,HongKong
+Currency
+:USD
+Payment Due Date
+：15/11/2023
+Ship To:
+青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED
+6/F,Ever Gain Centre，43-57 Wang WoTsai Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etain
+Item
+Description
+Quantity
+Unit
+Price
+Amount
+coder no.
+production Date
+Brand
+9A56BX012
+4341013501
+5,000
+pcs
+0.5450
+2,725.00
+4510081621
+24/2/2021
+LENS
+Forward Optics
+TAIWAN CHINA
+LENS
+9A47LC045
+4341015201
+2,000
+pcs
+0.2400
+480.00
+4510081750
+11/4/2023
+Forward Optics
+2
+TAIWAN CHINA
+LENS
+9A43AL018（穴一）
+4340008301
+1,500
+pcs
+0.6300
+945.00
+4510081881
+10/3/2020
+Forward Optics
+TAIWAN CHINA
+Total Amount :
+4,150.00
+Shipped per:
+Deposit :
+0.00
+Balance:
+4,150.00
+For and on behalf of
+Kong Tak Electronic Co.,Lto
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>KONG TAK 2309083.pdf</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>3</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD
+Tel :(852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2樓203室
+Fax:(852)27648426
+Unit 203,2/F,HarbourCentre,Tower 2,No.8Hok CheungStreet,Hunghom,Kowloon,Hong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+: 2023.09.11
+青旅思捷物流有限公司
+Customer Code
+：HKH019USD
+香港荃灣横嵩仔街43-57號永得利中心六楼
+Invoice No
+：2309083
+Attn:Etain
+Contract/Order No.:
+Tel:39020582
+L/C No.
+Delivery
+:2023.09.12
+Packing No.
+：2309083
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T.&amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+LENS6.0-jumper 9A56BX012
+1
+5000
+5000 PCS
+0.70
+1.60
+0.039
+FORWARD OPTICS TAIWAN, CHINA
+0.70
+1.60
+0.039
+LENS
+9A47LC045
+2000
+2000PCS
+1.00
+1.70
+0.027
+FORWARD OPTICSTAIWAN,CHINA
+1.00
+1.70
+0.027
+LENS
+9A43AL018
+1500
+1500pcs
+1
+0.60
+1.60
+0.039
+FORWARD OPTICS TAIWAN, CHINA
+0.60
+1.60
+0.039
+3
+TOTAL:
+8500
+2.30
+4.90
+0.105
+Shipmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>KONG TAK 2309083.pdf</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>1</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "4510044687",
+    "Invoice Date": "2023/08/04",
+    "Currency": "USD",
+    "Amount": 4590.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONGTAKELECTRONICCO.,LTD
+Tel : (852) 2356 1832
+香港九龍紅鹤翔街8號維港中心第二期2楼203室
+Fax:(852)2764 8426
+Unit 203,2/F,Harbour Centre,Tower 2,o.8Hok Cheung Street,Hunghom,Kowloon,Hong Kong
+http://www.kongtak.com.hk
+INVOICE
+Sold To:Hisense Broadband Multimedia Technologies(HK) Co., Limited
+Customer Code
+:HKH019USD
+Invoice Date
+: 11/9/2023
+Attn：刘双
+Invoice No.
+:2309083
+Tel
+：0750-3997863
+Contract /Order No.:4510081621 4510081750 4510081881
+Fax
+A/L No.
+：
+BlI To:
+Hisense Broadband Multimedia.Technologies(HK) Co.,Limited
+Payment Terms
+:AMS 45 DAYS
+Rooms3101-05SinggaCommercial Centre
+Delivery Date
+:12/9/2023
+148Connaught Road West,HongKong
+Currency
+:USD
+Payment Due Date
+：15/11/2023
+Ship To:
+青旅思捷物流有限公司
+CYTS-SPIRITLOGISTICSLIMITED
+6/F,Ever Gain Centre，43-57 Wang WoTsai Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etain
+Item
+Description
+Quantity
+Unit
+Price
+Amount
+coder no.
+production Date
+Brand
+9A56BX012
+4341013501
+5,000
+pcs
+0.5450
+2,725.00
+4510081621
+24/2/2021
+LENS
+Forward Optics
+TAIWAN CHINA
+LENS
+9A47LC045
+4341015201
+2,000
+pcs
+0.2400
+480.00
+4510081750
+11/4/2023
+Forward Optics
+2
+TAIWAN CHINA
+LENS
+9A43AL018（穴一）
+4340008301
+1,500
+pcs
+0.6300
+945.00
+4510081881
+10/3/2020
+Forward Optics
+TAIWAN CHINA
+Total Amount :
+4,150.00
+Shipped per:
+Deposit :
+0.00
+Balance:
+4,150.00
+For and on behalf of
+Kong Tak Electronic Co.,Lto
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F578"/>
+  <dimension ref="A1:F629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54871,6 +54871,5988 @@
         </is>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>CEAC SOC000570619.pdf</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>1</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000570619",
+    "Invoice Date": "2023/08/07",
+    "Currency": "USD",
+    "Amount": 19602.0,
+    "Bill To": "人仓单 ZGD-505933",
+    "From": "CEAC INTERNATIONAL LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000570619",
+    "Invoice Date": "2023/08/07",
+    "Currency": "USD",
+    "Amount": 19602.0,
+    "Bill To": "人仓单 ZGD-505933",
+    "From": "CEAC INTERNATIONAL LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>Invoice
+SOC000570619
+C
+CEAC INTERNATIONAL LIMITED
+TO:江门
+No.
+¿141¿
+8
+Date
+2023/08/07
+G03, Kerry warehouse(Fanling 1) , 39 On Lok
+中电器材
+MunStreet,On Lok Tsuen, Fanling, NEW TERRITORIES
+Page
+1/1
+TEL:852-23024018
+FAX:852-23758378
+INVOICE
+WMS
+102308070000036
+SHIP TO:
+人仓单
+ZGD-505933
+BILL TO:
+号
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+Customer ID
+107183
+TECH (HK) CO., LTD
+Currency
+USD
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓~6th Floor, Ever Gain
+Delivery
+LOC HONGKONG
+Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong
+Kone
+Payment
+货到60天付款(
+联联系
+申话:
+联系
+Etain
+电话:3902.0582
+Item
+MPN
+Mfrs.
+Brand Name
+ECCN_NO
+CPN
+CPO
+Quantit
+Unit
+Amount
+1
+GDP2BFLM-CB
+Gigadevice境内自主品牌
+兆易创新
+3011160001
+5970023671
+5,040
+0.900000
+4,536.00
+2
+GDP2BFLM-CB
+Gigadevice境内自主品牌
+兆易创新
+3011160001
+5970023671
+16,740
+0.900000
+15,066.00
+备注:
+Total
+19,602.00
+Diversion contrary to U.S law is prohibited.
+()he goods ny be subjet to oprt conrols thoe relewant ountrhies incwdine ht tot hinite toe China thes hited States, the Ruropen thion and te hioe Mrions and shall nt be direthy or intirtly, in violaion of splicable lans nd rpulations efferd
+WAANes pnyiae r inivils shient t weinn/meyictione inmead hy The ahaamentinmd rtee The hnemr ametnrpwlw withallwmlihle emthewandraleri
+(UA T An: opP, e, o rewrt uster villesre te requiree pertisios (icne linse eception, ec,) wilbe oiained and the Custor shill tot proride, eprty roport er ransfer the gonds to ailitary endisars or fr
+miaryed  gsshll be usdin e en,tiou prai sallinuingita alli,minnnsi)rrnareuina of fupeletedinordsindtt
+we pntrpints at or fai tydnetnresyof  ue(ic pde uen
+ee e    neyA temted hteaite eins htsinali e
+Bank Information by Wire Transfer for Payment:
+Bank Name: BANK OF CHINA (HONG KONG) LIMITED
+Acknowledge receipt of goods
+CEAC INTERNATIONAL LIMITED
+in good order &amp; conditions
+Bank Code: 012
+Account No(USD)
+012-875-9-275717-0(USD/CNY),012-875-
+1-246918-7(HKD)
+Authorised Signature
+Received by/Company Chop
+Swift Code BKCHHKHH
+Bank ADDRESS:10/F Bank of China Tower lst Garden Road Central, Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>CEAC SOC000570619.pdf</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>2</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>中国电子器材国际有限公司
+102308070000036
+=C
+CEAC INTERNATIONAL LIMITED
+Packing List
+SOC000570619
+G03, Kerry warehouse (Fanling 1),39 On Lok
+1/1
+SINCE 1964
+Page
+MunStreet,On Lok Tsuen, Fanling, NEW TERRITORIES, Hong
+中电器材
+D.0. No(入盒號)
+ZGD-505933
+Tel:852-23024018
+FAX: 852-23758378
+Wms No
+102308070000036
+Packing List
+打印日期
+2023/08/07 21:17:59
+BILL TO:
+SHIP TO:
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH (HK) CO.,LTD
+青旅思捷物流有限公司~CYTS -SPIRIT LOGISTICS LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓~6th Floor, Ever Gain Centre, 43-57
+Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong Kong
+联系
+电话:
+联系
+Etain
+电话:3902 0582
+CTN
+MPN
+Mfrs.
+Brand Name
+CPN
+CPO
+Quantity
+Gross
+Net(KGS
+Size(CM)
+Origin
+D/C
+1
+GDP2BFLM-CB
+Gigadevice境内自主
+兆易创新
+3011160001
+5970023671
+1,980
+4.8
+0.396
+54*41*27
+CN
+2327
+品牌
+2
+GDP2BFLM-CB
+Gigadevice境内自主
+兆易创新
+3011160001
+5970023671
+1,778
+4.8
+0.396
+54*41*27
+CN
+2319
+品牌
+2
+GDP2BFLM-CB
+Gigadevice境内目主
+兆易创新
+3011160001
+5970023671
+202
+CN
+2309
+品牌
+3
+GDP2BFLM-CB
+Gigadevice境内自主
+兆易创新
+3011160001
+5970023671
+11,880
+15.5
+2.376
+54*41*27
+CN
+2330
+品牌
+4
+GDP2BFLM-CB
+Gigadevice境内自主
+兆易创新
+3011160001
+5970023671
+4,056
+9
+1.188
+54*41*27
+CN
+2328
+品牌
+4
+GDP2BFLM-CB
+Gigadevice境内自王
+兆易创新
+3011160001
+5970023671
+1,884
+CN
+2330
+品牌
+()Tetodsny be subject to eprt controls roe relewant coutrnes inluing u net linised te Chin the Unined Suaes, the uropsan Uhione nd the thited tarions and shall mt be diretly or indiresdy, in violaom of applitable las and epulations ffrd
+to or used by any countries, entities or individuals oubjeet to sanctions/restrictione imposed by The aforementioned countries. The Customer aprees to cooply with all applicable expoert laws and regulations.
+dt sltsi th MAl puio  ea,istali (liesite italli)nee ekinp) nar,r euisin of a perompter aed in or destind toth
+HLr oif ineedsaemiconc ria eiy adnaPicesnrmanyofthe folrieria(Dlapie interate cireits iea nopntrsisr
+BGAAA  nyint /mrs or e () MOT AG (AD) ry inprated cireits with 128 layers or re or () Oranie rapteess tenory ORMD intiegrated eireuits sing s proetion” tetnplogy nde of8
+Number of
+4
+For and on behalf of
+Acknowledge receipt of goods in good
+Total Quantity:
+21,780
+CEAC INTERNATIONAL
+order &amp; conditions
+Total Gross
+34.1
+LIMITED
+w·车
+Total Net Woight 4.356
+Authorised Signature
+Received by/Company Chop</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>CEAC SOC000578295.pdf</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>1</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>中国电子器材国际有限公司
+躍會¿
+502309050000170
+C
+CEAC INTERNATIONAL LIMITED
+Packing List
+SOC000578295
+截
+603. Kiey wspehousegfanling i , 3yr On Lok MunSrrect,0n Lok
+Page
+1/1
+器总案当管长4
+Tsten. Ranling. NEW TERRTTORIES, lfong Kong
+中电器材
+D.0. No(入倉號)
+ZGD-506176
+Tel: 852-22021018
+PAN: 852-23758378
+Wms No
+502309050000178
+Packing List
+打印日期
+2023/09/06 10:58:55
+BILL TO:
+SHIP TO:
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH (HK) CO.,LTD
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓~6th Floor,Ever Gain Centre, 43-57 Wang Wo
+Tsai Street, Tsuen Wan, New Territories, Hong Kong
+联系
+电话:
+联系
+Etain
+电话:
+3902 0582
+CTN
+MPN
+Mfrs.
+Brand Name
+CPN
+CPO
+Quantity
+Gross
+Net (KGS)
+Size(CM)
+Origin
+D/C
+1
+MAX24034EMT+T
+MAXIM境外品牌(其他)
+无中文品牌
+3011004201
+5970022312
+2,000
+0.82
+0.278
+28*25*24
+SG
+2149
+1
+MAX24034EMT+T
+MAXIM境外品牌(其他)
+无中文品牌
+3011004201
+5970022312
+2,000
+SG
+2221
+(edsmy eer own c a  is lett iii piyry ieaioof alieste ls usinaleias olieid te arutiyayontis
+ehtitles or individuols suhjoci to sanctions/rvsrictions imposnd hy The aloremehtioned countrios. The Cistemer ogrens to romply with all opplicoblc export lass and reglations.
+Qnecwofloa'o. r rewpr, Our illeereinaipii (in ewi eeleaOrhllr rp rerts terilirys et tar ailiaryiitl
+1t heid in the wlt:  uwio , wri intallunion (tinin nsite intallo, mintene ckied. wair oertailor rpristineofs tapoheante" leatnd is eretital totlo Mor he tdeomrtar tdeti”tof intsrd
+mlkseraohfotali *hsily hod in thePR ht trlens intpri cirailsiethesayit hefillrinperitei:ieinerael cineitssismomrplnrtrister areliteweor eths troaeris" tiehplgy rleo / atts ors
+(NAND) memory integrated elrcuits with 128 laynrs or moret or () Dynamie rondomocess pempry 《DRAD) integrated eirouits using a "production" technology node of 18 nanomerer hafi-pilch or less
+Number of Carton:
+1
+For and on behalf of
+Acknowledge receipt of goods in good order &amp;
+Total Quantity:
+4,000
+CEAC INTERNATIONAL
+conditions
+Total Gross Weight 0.82
+LIMITED
+Total Net Weight
+0.278
+Authorised Signature
+Received by/Company Chop</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>CEAC SOC000578295.pdf</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>2</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "S0C000578295",
+    "Invoice Date": "2023/09/05",
+    "Currency": "USD",
+    "Amount": 26964.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECH (HK)CO.,LTD",
+    "From": "CEIC INTERNATIONAL LIMITED",
+    "Bank Information": {
+        "Bank Name": "BANK OF CHINA (HONG KONG) LIMITED",
+        "Bank Code": "012",
+        "Account No(USD)": "012-875-9-275717-0(USD/CNY),012-875-1-246918-7(HKD)",
+        "Swift Code": "BKCHHKHH",
+        "Bank Address": "10/F Bank of China Tower 1st Garden Road Central, Hong Kong"
+    }
+}</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "S0C000578295",
+    "Invoice Date": "2023/09/05",
+    "Currency": "USD",
+    "Amount": 26964.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECH (HK)CO.,LTD",
+    "From": "CEIC INTERNATIONAL LIMITED",
+    "Bank Information": {
+        "Bank Name": "BANK OF CHINA (HONG KONG) LIMITED",
+        "Bank Code": "012",
+        "Account No(USD)": "012-875-9-275717-0(USD/CNY),012-875-1-246918-7(HKD)",
+        "Swift Code": "BKCHHKHH",
+        "Bank Address": "10/F Bank of China Tower 1st Garden Road Central, Hong Kong"
+    }
+}</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>CEIC INTERNATIONAL LOWITED
+TO:江门
+Invoice No
+S0C000578295
+¿
+Date
+2023/09/05
+nnEc2 10%
+A02, Keuiy etsshonseEanlingg 1 , 39 On Lek
+中电器材
+1/1
+MunSttct.0n Cok fsnon, Fanling, NEFW THRRIRRIPS, Houg
+Page
+TEU: 852-23024018
+FAN: 852-23758378
+INVOICE
+WMS
+502309050000178
+BILL TO:
+SHIP TO:
+入仓单号
+ZGD-506176
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+Customer ID
+107183
+(HK)CO.,LTD
+Currency
+USD
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横高仔街43-57號永得利中心六樓~6th Floor, Ever Gain Centre, 43-57
+Delivery
+LOC HONGKONG
+Wang Wo Tsai Street. Tsuen Wan, New Territories, Hong Kong
+Payment
+货到60天付款(电
+联系人·
+申话·
+联系人:Rtain
+电话
+3902 0582
+Item
+MPN
+Mfrs.
+Brand Name
+ECCN_NO
+CPN
+CPO
+Quantit
+Jnit Price
+Amount
+MAX24034EMT+T
+MAXIM境外品牌(其他)
+无中文品牌
+3011004201
+5970022312
+2,000
+6.741000
+13,482.00
+1
+MAX24034EMT+T
+MAXIM境外品牌(其他)
+无中文品牌
+3011004201
+5970022312
+2,000
+6.741000
+13,482.00
+2
+备注:
+Total
+26,964.00
+Diversion contrary to U.S law is prohibited.
+udnbenhttnrmsie deaoepshlinehwt hititetn i the thitre Sots th Eronea Iaio atl tie hint hatios and stel ro pe tiney or iesiretlpe in tilation of pleoble la aoe rpalalies itireal te wr iet lyiaryoris
+Cewalhetpieerrtarsiethlewoteaiterynesertrailiter th
+Anllt edin te h:ai i iisollheismenpun waorhfenthetiedwid te nnerthesnit settrhe
+Amsan n eitinr tderiettie theitiyt hnetel in thi n hl harrawesihoentdsireitsmetne awof tle tolpwhsetreraltle peront eieotswie tr trsisw rilitener iha histi tetitliegs     r
+Bank Information by Wire Transfer for Payment:
+Bank Name:
+BANK OF CHINA (HONG KONG) LIMITED
+Acknowledge receipt of goods in
+CEAC INTERNATIONAL LIMITED
+good order &amp; conditions
+Bank Code:
+012
+Account No(USD): 012-875-9-275717-0(USD/CNY),012-875-1-
+246918-7(HKD)
+Authorised Signature
+Received by/Company Chop
+Swift Code : BKCHHKHH
+Bank ADDRESS:10/F Bank of China Tower 1st Garden Road Central, Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>CEAC SOC000577568.pdf</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>1</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>中国电子器材国际有限公司
+153379080307014
+CEAC INTERNATIONAL LIMITED
+SOC000577568
+Packing List
+¿
+G03, Kerry warehouse(Fanling 1), 39 On Lok MunStreet,On Lok
+Page
+1/1
+SINCU 164
+Tsuen, Fanling, NEW TERRITORIES, Hong Kong
+中电器材
+D.0. No(入盒號)
+ZGD-506166
+Tel: 852-23024018
+FAX: 852-23758378
+Wms No
+102309050000014
+Packing List
+打印日期
+2023/09/06 09:20:55
+BILL TO:
+SHIP TO:
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH (HK) CO.,LTD
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六模~6th Floor, Ever Gain Centre, 43-57 Wang Wo
+Tsai Street, Tsuen Wan, New Territories, Hong Kong
+联系
+申话:
+联系
+Ftain
+由话。
+3902_0582
+CTN
+MPN
+Mfrs.
+Brand Name
+CPN
+CPO
+Quantity
+Gross
+Net(KGS)
+Size(CM)
+Origin
+D/C
+1
+GDQ2BFAA-CQ
+Gigadevice境内自主品牌
+兆易创新
+3011177201
+5970023957
+80
+1.28
+0.0192
+38*37*20
+CN
+2321
+2
+GDP2BFLM-CB
+Gigadevice境内自主品牌
+兆易创新
+3011160001
+5970023747
+1,700
+4.47
+0.396
+54*41*27
+CN
+2333
+2
+GDP2BFLM-CB
+Gigadevice境内自主品牌
+兆易创新
+3011160001
+5970023828
+280
+CN
+2333
+(D Themodsmobesettpe peds froa reateonripshehdine ht t iniwto i the nited stes the hros hien and the hrind latas ard tal at e tircy er ininely. is violation of apllele tas ad raltions ftrd te er uod by ryrtrils
+ontitics or individuls subject to sanetions/restrictions imosod by The aforementionod countries. The Castomor agrees to comply with all upplicsble export laws end regulations
+htheetf utol'wr tferor rilemsis )llieeirm
+ahinndinteniepinan itr thatei tehlei at tters rle T
+GNAD) aeaory inteeated aireits with 128 lavnrs or mnre: or (3) Dynaie rndnm-Access mry DRAM) interated eirenits usinc a “eroduction” tchnlney nnde f 18 maoetnr halfpitsh or less.
+Number of Carton:
+2
+For and on behalf of
+Acknowledge receipt of goods in good order &amp;
+Total Quantity:
+2,060
+CEAC INTERNATIONAL
+conditions
+Total Gross Weight 5.75
+LIMITED
+Total Net Weight
+0.4152
+Authorised Signature
+Received by/Company Chop</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>CEAC SOC000577568.pdf</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>2</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000577568",
+    "Invoice Date": "2023/09/06",
+    "Currency": "USD",
+    "Amount": 1855.6,
+    "Bill To": "海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH",
+    "From": "CEAC INTERNATIONAL LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000577568",
+    "Invoice Date": "2023/09/06",
+    "Currency": "USD",
+    "Amount": 1855.6,
+    "Bill To": "海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH",
+    "From": "CEAC INTERNATIONAL LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>TO:江门
+CEAC INTERNATIONAL LIMITED
+Invoice No
+SOC000577568
+sICE 1ota
+2
+Date
+2023/09/06
+中电器材
+G03, Kerry warehouse (Fanling 1),39 On Lok
+MunStreet,On Lok Tsuen, Fanling, NEW TERRITORIES, Hong
+Page
+1/1
+TEL: 852-23024018
+FAX: 852-23758378
+INVOICE
+WMS
+102309050000014
+BILL TO:
+SHIP TO:
+入仓单号
+ZGD-506166
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+Customer ID
+107183
+(HK)CO.,LTD
+Currencv
+USD
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓~6th Floor, Ever Gain Centre, 43-57
+Delivery
+LOC_HONGKONG
+Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong Kong
+Pavment
+货到60天付款(电
+税花
+中话:
+联税:R+in
+中迁:
+2002 0509
+Item
+MPN
+Mfrs.
+Brand Name
+ECCN_NO
+CPN
+CPO
+Quantit
+Unit Price
+Amount
+1
+GDQ2BFAA-CQ
+Gigadevice境内自主品牌
+兆易创新
+3011177201
+5970023957
+80
+0.920000
+73.60
+2
+GDP2BFLM-CB
+Gigadevice境内自主品牌
+兆易创新
+3011160001
+5970023747
+1,700
+0.900000
+1,530.00
+3
+GDP2BFLM-CB
+Gigadevice境内自主品牌
+兆易创新
+3011160001
+5970023828
+280
+0.900000
+252.00
+备注:
+Total
+1,855.60
+Diversion contrary to U.S law is prohibited.
+()hant torts a w oie itthite hi teaStaes te roer ir sthe ain Mhtinsad sal mtbetreyorinirely in violation of tplielte esadristins fidtser dyayotrie mtiis
+f la rs lerl parttesl ses at feralltarheod teolsMl
+G sueit.mece,it csifpdirtdter ntar elf inwad ir n
+traneiattistiistllesar he yteetrser ) NTANA)
+Bank Information by Wire Transfer for Payment:
+Bank Name:
+BANK OF CHINA (HONG KONG) LIMITED
+Acknowledge receipt of goods in
+CEAC INTERNATIONAL LIMITED
+good order &amp; conditions
+Bank Code:
+012
+Account No(USD): 012-875-9-275717-0(USD/CNY),012-875-1-
+246918-7(HKD)
+Authorised Signature
+Received by/Company Chop
+Swift Code : BKCHHKHH
+Bank ADDRESS:10/F Bank of China Tower lst Garden Road Central, Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>CEAC SOC000574564.pdf</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>1</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>中国电子器材国际有限公司
+W社聲習
+902308230009008
+C
+C
+CEAC TNTERNATIONAL LIMITED
+Packing List
+S0C000574564
+Gsse:as
+603. Rrtey wemreslunuse(Fanling 1) , 39 On Lok MunStreet.On Lok
+1/1
+8N室1的格品
+Page
+中电器材
+Tsueni, Fenting, KEW TERRTTORICS, Hong Rong
+Tel:852-23021018
+FAX:852-2:3758378
+D.0. No(入盒號)
+ZGD-506057
+Wms No
+902308230000008
+Packing List
+打印日期
+2023/08/24 09:54:26
+BILL TO:
+SHIP TO:
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH (HK) CO.,LTD
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窩仔街43-57號永得利中心六樓~6th Floor, Ever Gain Centre, 43-57 Wang Wo
+Tsai Street, Tsuen Wan, New Territories, Hong Kong
+联系
+电话:
+联系
+Etain
+电话:
+3902 0582
+CTN
+MPN
+Mfrs.
+Brand Name
+CPN
+CPO
+Quantity
+Gross
+Net(KGS)
+Size(CM)
+Origin
+D/C
+1
+CXDB4CBAM-ML-A
+CXMT境内自主品牌
+长鑫存储
+3011172301
+5970023857
+200
+0.6
+0.049
+38*37*22
+CN
+2322
+(Toisyle er o ci cosha n nia iuianliti  ei  teislyr ety. invintier of plitble tos aiteatltins ofiei te eritiyaycntr.is
+entities Or individunls subject to sanctions/restrictions imposed by The aforomentioned coantrios. The Customor agrees to comply with all applicableo cxport laws and rogulutions.
+Wnwnoftort.aireupOrlreres (eo)lntaiep se teraiirp mhm
+sellnot hoeusedin the “depdomenta "orodetintn tineteuemerote sntetimsdeetinsnsienme er e n r o s
+(NAD) mmory integroted cireuits with 128 layers or moret or (3) Dynomic randomaccess memory 《DR/M) inregrared cireuits using s“proderion” technolosy nde of 18 naoeter half pitch or less
+Number of Carton:
+1
+For and on behalf of
+Acknowledge receipt of goods in good order &amp;
+Total Quantity:
+200
+CEAC INTERNATIONAL
+conditions
+Total Gross Weight 0.6
+LIMITED
+Total Net Weight
+0.049
+Received by/Company Chop
+Authorised Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>CEAC SOC000574564.pdf</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>2</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "S0C000574564",
+    "Invoice Date": "2023/08/23",
+    "Currency": "USD",
+    "Amount": 680.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECH (HK)CO.,LTD",
+    "From": "CEAC INTERNATIONAL LTMITED",
+    "Bank Information": {
+        "Bank Name": "BANK OF CHINA (HONG KONG) LIMITED",
+        "Bank Code": "012",
+        "Account No(USD)": "012-875-9-275717-0(USD/CNY),012-875-1-246918-7(HKD)",
+        "Swift Code": "BKCHHKHH",
+        "Bank Address": "10/F Bank of China Tower lst Garden Road Central, Hong Kong"
+    }
+}</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "S0C000574564",
+    "Invoice Date": "2023/08/23",
+    "Currency": "USD",
+    "Amount": 680.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECH (HK)CO.,LTD",
+    "From": "CEAC INTERNATIONAL LTMITED",
+    "Bank Information": {
+        "Bank Name": "BANK OF CHINA (HONG KONG) LIMITED",
+        "Bank Code": "012",
+        "Account No(USD)": "012-875-9-275717-0(USD/CNY),012-875-1-246918-7(HKD)",
+        "Swift Code": "BKCHHKHH",
+        "Bank Address": "10/F Bank of China Tower lst Garden Road Central, Hong Kong"
+    }
+}</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>TO:江门
+CEAC INTERNATIONAL LTMITED
+Invoice No
+S0C000574564
+银海
+Date
+2023/08/23
+4管.1
+G03. Rerry warehonse dFanting D .39 On Lek
+中电器材
+1/1
+YumSirnet.On Lok Tspen. Eanling. NEW TERRITORTES, Hong
+Page
+TEL:852-23024018
+PAX: 852-23758378
+INVOICE
+WMS
+902308230000008
+BILL TO:
+SHIP TO:
+入仓单号
+ZGD-506057
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+Customer ID
+107183
+(HK)CO.,LTD
+Currency
+USD
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓~6th Floor, Ever Gain Centre,43-57
+Delivery
+LOC HONGKONG
+Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong Kong
+Payment
+货到60天付款(电
+联系人:
+申话·
+联系人:Ftain
+电话:
+3902 0582
+MPN
+Mfrs.
+Brand Name
+ECCN_NO
+CPN
+CPO
+Quantit
+Unit Price
+Amount
+Item
+CXDB4CBAM-ML-A
+CXMT境内自主品牌
+长鑫存储
+3011172301
+5970023857
+200
+3.400000
+680.00
+1
+备注:
+Total
+680.00
+Oky ur ors ni i eellny erin inidtip suiti eid te ar idiy y ctris
+Diversion contrary To U.S law is prohibited.
+(2)heewtpfAto's er, tnt omnernpp Opteeail/nnwrwwnmiins des lsnnwtA ten neinnn  n F    tit t   n eiot ofht
+wlhyudinh woptnl wall(nwihnmieeherrwhwnsntes tenosmonwas.e nst
+(l ie 1  hlds  in ttd leite lne hdahlil le sst alte aelee
+Bank Information by Wire Transfer for Payment:
+Bank Name:
+BANK OF CHINA (HONG KONG) LIMITED
+Acknowledge receipt of goods in
+CEAC INTERNATIONAL LIMITED
+good order &amp; conditions
+Bank Code:
+012
+Account No(USD): 012-875-9-275717-0(USD/CNY),012-875-1-
+246918-7(HKD)
+Authorised Signature
+Received by/Company Chop
+Swift Code : BKCHHKHH
+Bank ADDRESS:10/F Bank of China Tower lst Garden Road Central, Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>CEAC SOC000574530.pdf</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>1</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>中国电子器材国际有限公司
+102308230000001
+CC
+CEAC INTERNATIONAL LIMITED
+SOC000574530
+Packing List
+¿
+G03, Kerry warehouse(Fanling 1) ,39 On Lok
+Page
+1/1
+SINCE 1964
+MunStreet,On Lok Tsuen, Fanling, NEW TERRITORIES, Hong
+中电器材
+D.0. No(入盒號)
+ZGD-506046
+Tel:852-23024018
+FAX:852-23758378
+Wms No
+102308230000001
+Packing List
+打印日期
+2023/08/23 09:20:27
+BILL TO:
+SHIP TO:
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH (HK) CO.,LTD
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓 6th Floor, Ever Gain Centre, 43-57
+Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong Kong
+联系
+电话:
+联系
+Etain
+电话:3902 0582
+CTN
+MPN
+Mfrs.
+Brand Name
+CPN
+CPO
+Quantity
+Gross
+Net(KGS
+Size(CM)
+Origin
+D/C
+1
+GDP2BFLM-CB
+Gigadevice境内自主
+兆易创新
+3011160001
+5970023747
+2,800
+8.85
+1.188
+54*41*27
+CN
+2332
+品换
+1
+GDP2BFLM-CB
+Gigadevice境内目主
+兆易创新
+3011160001
+5970023671
+3,140
+CN
+2332
+品牌
+() The gods ny he sublet to eport conrols fra relesant contris ineluding but not hiaited to China, the tnited States, the Eropos hion and the hied Masions wndsha not be diretly or hndredy in violatton otf plicable las and reglatins ofer
+wo pr used by any countries, entities or individuala subject to sanetions/restrictions Amposed by The aforementioned countries. The Custoner agrees to comply with all appliable export laws and regulations
+(lhenofuis  in  tr leed in r deti tte
+P epa i nadiisat r iin y aedie arfis padstyft fe eGits isrrisr
+we ha  elyf/ TD y nesswi  yrre es ry R inreted eiruits using a "produtiar technology nodef
+Number of
+1
+For and on behalf of
+Acknowledge receipt of goods in good
+Total Quantity:
+5,940
+CEAC INTERNATIONAL
+order &amp; conditions
+8.85
+LIMITED
+Total Gross
+0·1
+Received by/Company Chop
+Total Net Weight 1.188
+Authorised Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>CEAC SOC000574530.pdf</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>2</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000574530",
+    "Invoice Date": "2023/08/23",
+    "Currency": "USD",
+    "Amount": 5346.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA",
+    "From": "CEAC INTERNATIONAL LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000574530",
+    "Invoice Date": "2023/08/23",
+    "Currency": "USD",
+    "Amount": 5346.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA",
+    "From": "CEAC INTERNATIONAL LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>Invoice
+SOC000574530
+C
+CEAC INTERNATIONAL LIMITED
+TO:江门
+No
+¿
+Date
+2023/08/23
+3I0L 1644
+G03, Kerry warehouse(Fanling 1) ,39 On Lok
+中电器材
+1/1
+MunStreet, On Lok Tsuen, Fanling, NEW TERRITORIES
+Page
+TEL:852-23024018
+FAX: 852-23758378
+INVOICE
+WMS
+102308230000001
+人仓单
+ZGD-506046
+BILL TO:
+SHIP TO:
+号
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+Customer ID
+107183
+TECH (HK) CO.,LTD
+Currency
+USD
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓~6th Floor, Ever Gain
+Delivery
+LOC HONGKONG
+Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong
+Kone
+Payment
+货到60天付款(
+联系
+电话:
+联系
+Etain
+申话:3902.0582
+MPN
+Mfrs.
+Brand Name
+ECCN_NO
+CPN
+CPO
+Quantit
+Unit
+Amount
+Item
+GDP2BFLM-CB
+Gigadevice境内自主品牌
+兆易创新
+3011160001
+5970023747
+2,800
+0.900000
+2,520.00
+1
+GDP2BFLM-CB
+Cigadevice境内自主品牌
+兆易创新
+3011160001
+5970023671
+3,140
+0.900000
+2,826.00
+2
+备注:
+Total
+5,346.00
+Diversion contrary to U.S law is prohibited.
+() Thegdsmaybe sbjet teeport cmnrols fromerelewnt conries inluine bwt mot iaitee to China the Whtted States the Eurepan nion and the thitad hations nd hall not te tirely ar insiretly, ta vlolasior otf aplicable las ad reelatios ffrds
+Cflp   o l Asr all nt wie eer reaprt er traer the peds to ailitarymes or f
+PHRLUn die nvelopnt gr rouint of intead cirpisna a smicoor oricsio "raety loae in Une R a rres interee enuis ing y t e fng etr e inerd tri s e pia
+A
+Bank Information by Wire Transfer for Payment:
+Bank Name: BANK OF CHINA (HONG KONG) LIMITED
+Acknowledge receipt of goods
+CEAC INTERNATIONAL LIMITED
+in good order &amp; conditions
+Bank Code: 012
+Account No(USD) 012-875-9-275717-0(USD/CNY), 012-875-
+1-246918-7(HKD)
+Authorised Signature
+Received by/Company Chop
+Swift Code BKCHHKHH
+Bank ADDRESS:10/F Bank of China Tower Ist Garden Road Central, Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>CEAC SOC000573007.pdf</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>3</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000573007",
+    "Invoice Date": "2023/08/17",
+    "Currency": "USD",
+    "Amount": 264427.8,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECH (HK) CO.,LTD",
+    "From": "CHAC INTERNATIONAL LTMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000573007",
+    "Invoice Date": "2023/08/17",
+    "Currency": "USD",
+    "Amount": 264427.8,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECH (HK) CO.,LTD",
+    "From": "CHAC INTERNATIONAL LTMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>TO:江门
+CHAC INTERNATIONAL LTMITED
+Invoice No
+SOC000573007
+鄂ar+b5
+¿
+GO2, Kvrty misshoase(Poidling Ii , 3y.On Lok
+Date
+2023/08/17
+中电器材
+MunStreet.On Lok (sucn. Fanling. NEW TRRITORIES. Hong
+Page
+1/1
+TEL: 852-23024018
+FAX: 852-23758378
+INVOICE
+WMS
+502308160000152
+BILL TO:
+SHIP TO:
+入仓单号
+ZGD-506001
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH
+青旅思捷物流有限公司~CYTS -SPIRIT LOGISTICS LIMITED
+Customer ID
+107183
+(HK) CO.,LTD
+Currency
+USD
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓^6th Floor, Ever Gain Centre, 43-57
+Delivery
+LOC HONGKONG
+Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong Kong
+Payment
+货到60天付款(电
+联系人:
+申话·
+联系人:Etain
+申话:
+3902 0582
+Item
+MPN
+Mfrs.
+Brand Name
+ECCN_NO
+CPN
+CPO
+Quantit
+Unit Price
+Amount
+1
+S905L3-B
+AMLOGIC境内自主品牌
+晶晨
+3011060801
+5970023862
+25,311
+3.900000
+98,712.90
+2
+S905L3-B
+AMLOGIC境内自主品牌
+晶晨
+3011060801
+5970023341
+25,831
+3.900000
+100,740.90
+S905L3-B
+AMLOGIC境内自主品牌
+晶晨
+3011060801
+5970023829
+16,660
+3.900000
+64,974.00
+3
+备注:
+Total
+264,427.80
+Diversion contrary to U.S law is prohibited.
+(fesylo o prt s  eri ilig nt ido lt ies hitnllttyrney h wiin efplia sdnsisidte or ds ay earries
+2cni tallri prptartrtiatd tealiry mhers ar tor ilitary eahsates
+Aelt e in t wln,pctia u rui iasalarineineieinstlli, nei  thal r rsiof a tner at in or etined te tle ler ths tleealtser terhetiat ef hn
+Gisrsseiaurhai etiy ete in htar aiesihis ye i i r eser ahierorvitha *tetialt tehpliey mse o s nanaieser es
+Bank Information by Wire Transfer for Payment:
+Bank Name:
+BANK OF CHINA (HONG KONG) LIMITED
+Acknowledge receipt of goods in
+CEAC INTERNATIONAL LIMITED
+good order &amp; conditions
+Bank Code:
+012
+Account No(USD): 012-875-9-275717-0(USD/CNY), 012-875-1-
+246918-7(HKD)
+Authorised Signature
+Received by/Company Chop
+Swift Code : BKCHHKHH
+Bank ADDRESS:10/F Bank of China Tower Ist Garden Road Central, Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>CEAC SOC000571339.pdf</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>1</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>中国电子器材国际有限公司
+102308090000219
+=C
+CEAC INTERNATIONAL LIMITED
+Packing List
+SOC000571339
+¿
+G03, Kerry warehouse (Fanling 1),39 On Lok
+Page
+1/1
+SINCE 1964
+MunStreet,On Lok Tsuen, Fanling, NEW TERRITORIES, Hong
+中电器材
+D.O. No(入盒號)
+ZGD-505958
+Tel:852-23024018
+FAX:852-23758378
+Wms No
+102308090000219
+Packing List
+打印日期
+2023/08/10 10:00:38
+BILL TO:
+SHIP TO:
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH (HK) CO.,LTD
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓~6th Floor, Ever Gain Centre, 43-57
+Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong Kong
+联系
+电话:
+联系
+Etain
+电话:3902 0582
+CTN
+MPN
+Mfrs.
+Brand Name
+CPN
+CPO
+Quantity
+Gross
+Net(KGS
+Size(CM)
+Origin
+D/C
+1
+GDP2BFLM-CB
+Gigadevice境内自主
+兆易创新
+3011160001
+5970023671
+37
+9
+1.188
+55*41*27
+CN
+2330
+品牌
+1
+GDP2BFLM-CB
+Gigadevice境内主
+兆易创新
+3011160001
+5970023671
+5,903
+CN
+2331
+品牌
+2
+GDP2BFLM-CB
+Gigadevice境内自主
+兆易创新
+3011160001
+5970023671
+1,520
+6.8
+0.792
+55*41*27
+CN
+2328
+品牌
+2
+GDP2BFLM-CB
+Gigadevice境内自王
+兆易创新
+3011160001
+5970023671
+2,440
+CN
+2330
+品牌
+3
+GDP2BFLM-CB
+Gigadevice境内自主
+兆易创新
+3011160001
+5970023671
+9,900
+13.3
+1.98
+55*41*27
+CN
+2330
+品牌
+(1) Thepods uy be subject to eprs cotrpis hron relewant coutries ineluine hut mot limited to Chine the ited States the Bropean hion, and the thited tations and shall mt be directly er indiretly, in violationotf agplitale las and rpulations dfferd
+to or used by any countries, entities or individuals subjeet to sanctions/restrictions imposed by The aforementioned countries. The Customer agrees to couply with all applicable export iaws and regulaticns.
+Cteyfuinie )wilrllnorida nor emper er tasfer the pods te ilitary eders arf
+Pthe avet”er touin a ineraed ciruits at a saicmeuctor friration *facility" lokated ia the PC that harleetes inteprated ciruis meting any of the fllowing riteris: ()logie intgrad cieuits wsing a tomplaar tasistr
+mieureorita ypuionehlogy e of / ntes ar es (2)NT AND UND)Nry npated eireits with 128 layers or ncre: or () ytic ranto se pry (R) inteprete sirits using a "prorction” techoloy node of 8
+Number of
+3
+For and on behalf of
+Acknowledge receipt of goods in good
+Total Quantity:
+19,800
+CEAC INTERNATIONAL
+order &amp; conditions
+Total Gross
+29.1
+LIMITED
+W·1
+Total Net Weight 3.96
+Authorised Signature
+Received by/Company Chop</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>CEAC SOC000571339.pdf</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>2</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000571339",
+    "Invoice Date": "2023/08/10",
+    "Currency": "USD",
+    "Amount": 17820.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA",
+    "From": "CEAC INTERNATIONAL LIMITED",
+    "Bank Information": {
+        "Bank Name": "BANK OF CHINA (HONG KONG) LIMITED",
+        "Bank Code": "012",
+        "Account No(USD)": "012-875-9-275717-0(USD/CNY), 012-875-1-246918-7(HKD)",
+        "Swift Code": "BKCHHKHH",
+        "Bank Address": "10/F Bank of China Tower 1st Garden Road Central, Hong Kong"
+    }
+}</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000571339",
+    "Invoice Date": "2023/08/10",
+    "Currency": "USD",
+    "Amount": 17820.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA",
+    "From": "CEAC INTERNATIONAL LIMITED",
+    "Bank Information": {
+        "Bank Name": "BANK OF CHINA (HONG KONG) LIMITED",
+        "Bank Code": "012",
+        "Account No(USD)": "012-875-9-275717-0(USD/CNY), 012-875-1-246918-7(HKD)",
+        "Swift Code": "BKCHHKHH",
+        "Bank Address": "10/F Bank of China Tower 1st Garden Road Central, Hong Kong"
+    }
+}</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>CEAC·INTERNATIONAL LIMITED
+Invoice
+SOC000571339
+TO:江门
+No
+2
+mhGL 10G4
+Date
+2023/08/10
+中电器材
+G03, Kerry warehouse (Fanling 1) , 39 On Lok
+MunStreet, On Lok Tsuen, Fanling, NEW TERRITORIES
+Page
+1/1
+TEL:852-23024018 FAX: 852-23758378
+INVOICE
+WMS
+102308090000219
+BILL TO:
+SHIP TO:
+人仓单
+ZGD-505958
+号
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA
+青旅思捷物流有限公司^CYTS -SPIRIT LOGISTICS LIMITED
+Customer ID
+107183
+TECH (HK) CO.,LTD
+Currency
+USD
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓~6th Floor, Ever Gain Centre,
+43-57 Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong Kong
+Delivery
+LOC HONGKONG
+Payment
+货到60天付款(
+联系
+申话:
+联系
+Btain
+电话:3902 0582
+Item
+MPN
+Mfrs.
+Brand Name
+ECCN_NO
+CPN
+CPO
+Quantit
+Unit
+Amount
+1
+GDP2BFLM-CB
+Gigadevice境内自主品牌
+兆易创新
+3011160001
+5970023671
+19,800
+0.900000
+17,820.00
+备注:
+Total
+17,820.00
+Diversion contrary to U.S law is prohibited.
+() Thegdsnybe wbject to eprt cotrels row rederat conteries ineeking bt not lited to Chin the Uhite Sttes the hropea ioa and the aied Metios and thll ot te diretly er indiretly, ina riplation of apliable laes and realation offerei to r
+(inAwnAn Gn uons/s uopudiranste hn r p, hnner thninuenanan epe  mnm n nndi idnpor epr, o traster the gods te litary edser or fr
+nilitaryenfhusw Aad the gode shall rat he used in the tdwelopent," *prourtiona " *use ” operatien, inestalatioe (neluding or ste instalation), aintenae (eeckinp), repair, nrhanl, on refubitine of a "aperopue lotew i r esinei  ,
+wnalle  rsia mr tsisrit
+Bank Information by Wire Transfer for Payment:
+Bank Name: BANK OF CHINA (HONG KONG) LIMITED
+Acknowledge receipt of goods
+CEAC INTERNATIONAL LIMITED
+in good order &amp; conditions
+Bank Code: 012
+Account No(USD) 012-875-9-275717-0(USD/CNY), 012-875-
+1-246918-7(HKD)
+Authorised Signature
+Received by/Company Chop
+Swift Code BKCHHKHH
+Bank ADDRESS:10/F Bank of China Tower lst Garden Road Central, Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>CEAC SOC000571309.pdf</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>1</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>中国电子器材国际有限公司
+902358090000010
+BC
+CEAC INTERNATIONAL LIMITED
+Packing List
+S0C000571309
+02
+G03. Kery watehoosiFanling D , 39 on Lek MunStivet.om Lok
+Page
+1/1
+当内名货备
+1suen. Fenling. NEW TERRITORIES, Hong Kong
+中电器材
+D.0. No(入食號)
+ZGD-505956
+Ta1:-852-23021018
+PAX: 852-23758378
+Wms No
+902308090000019
+Packing List
+打印日期
+2023/08/11 09:22:30
+BILL TO:
+SHIP TO:
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH (HK) CO.,LTD
+青旅思捷物流有限公司~CYTS -SPIRIT LOGISTICS LIMITED
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窝仔街43-57號永得利中心六樓~6th Floor, Ever Gain Centre, 43-57 Wang Wo
+Tsai Street, Tsuen Wan, New Territories, Hong Kong
+联系
+电话:
+联系
+Etain
+电话:3902 0582
+MPN
+Mfrs.
+Brand Name
+CPN
+CPO
+Quantity
+Gross
+Net(KGS)
+Size(CM)
+Origin
+D/C
+CTN
+1
+CXDB3ABAM-MK
+CXMT境内自主品牌
+长鑫存储
+3011142701
+5970023724
+2,000
+8.4
+2.51
+42*38*37
+CN
+2137/2231
+1
+CXDB3ABAM-MK
+CXMT境内自主品牌
+长鑫存储
+3011142701
+4510078962
+8,000
+CN
+2137/2231
+2
+CXDB3ABAM-MK
+CXMT境内自主品牌
+长鑫存储
+3011142701
+4510078962
+2,000
+3.5
+0.502
+42*38*37
+CN
+2228/2231
+(dsybeuhr  ptiots  dtouis ig   ia o an td ns tupn tchtid urelltael r hmne iniinof linle s ndaaulstinsnid te nr usd ty ar anris
+entities or individuals subject to sanctions/postrictions imposod by The aforementioned countries. The Customer aprees te comply with all applicablc export laes and regulations.
+thi of Quuiso,ha,eur,Cgeryll hadpsistitlhndli alysraiy ti
+Ailltdinta pia,aintlanuiiiitallea alrifa t ine tstined ttePaher the tt ertmhaisnt h
+Gs  aRorn helity eatd l e Ptuhthatisiadeins ein y ltefellin ritia(cie internd ciritswsine a momrpnr transistoer artitietweoar ritha"prohetiat terisltr rte  /i hasters er less)r
+(KAND) memory integrated eirenits with 128 layers or more: or (3) Dynaic raedoe-ncess mmory DRAO integrated cireuits usine a "prodmetion" technology node of i8 ngnometer half pitch or less.
+Number of Carton:
+2
+For and on behalf of
+Acknowledge receipt of goods in good order &amp;
+Total Quantity:
+12,000
+CEAC INTERNATIONAL
+conditions
+Total Gross Weight 11.9
+LIMITED
+Total Net Weight
+3.012
+Authorised Signature
+Received by/Company Chop</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>CEAC SOC000571309.pdf</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>2</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000571309",
+    "Invoice Date": "2023/08/10",
+    "Currency": "USD",
+    "Amount": 19200.0,
+    "Bill To": "海信宽带多媒体技术(香港)有限公司 HISENSE BROADBAND MULTIMEDIA TECHNOLOGY (HK) CO., LTD",
+    "From": "CEAC INTERNATIONAL LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "SOC000571309",
+    "Invoice Date": "2023/08/10",
+    "Currency": "USD",
+    "Amount": 19200.0,
+    "Bill To": "海信宽带多媒体技术(香港)有限公司 HISENSE BROADBAND MULTIMEDIA TECHNOLOGY (HK) CO., LTD",
+    "From": "CEAC INTERNATIONAL LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>CEAC INTERNATIONAL LTMITED
+TO:江门
+Invoice No
+SOC000571309
+合
+G03. Remery wareleusc(Fanling D) , 39 On Lok
+Date
+2023/08/10
+Mehn雪
+中电器材
+MunStreei.On Lok Tsuen, Fanling. NEW TERRTTORIES, Hong
+Page
+1/1
+TEL: 852-23024018
+FAX: 852-23758378
+INVOICE
+WMS
+902308090000019
+BILL TO:
+SHIP TO:
+入仓单号
+ZGD-505956
+海信宽带多媒体技术(香港)有限公司HISENSE BROADBAND MULTIMEDIA TECH
+青旅思捷物流有限公司 CYTS -SPIRIT LOGISTICS LIMITED
+Customer ID
+107183
+(HK) CO.,LTD
+Currency
+USD
+香港干诺道西148号成基商业中心3101-3105室
+香港新界荃灣横窩仔街43-57號永得利中心六樓~6th Floor, Ever Gain Centre,43-57
+Delivery
+LOC HONGKONG
+Wang Wo Tsai Street, Tsuen Wan, New Territories, Hong Kong
+Payment
+货到60天付款(电
+联系人:
+电话·
+联系人:Etain
+申话·
+3902 0582
+Item
+MPN
+Mfrs.
+Brand Name
+ECCN_NO
+CPN
+CPO
+Quantit
+Unit Price
+Amount
+1
+CXDB3ABAM-MK
+CXMT境内自主品牌
+长鑫存储
+3011142701
+4510078962
+10,000
+1.600000
+16,000.00
+2
+CXDB3ABAM-MK
+CXMT境内自主品牌
+长鑫存储
+3011142701
+5970023724
+2,000
+1.600000
+3,200.00
+备注:
+Total
+19,200.00
+Diversion contrary to U.S law is prohibired.
+(si bett e prwdsira n ouiesini t  itd e ,titt tpe tilt ny a tty iviioof liae as dtim ol te er ui by ay cmtries
+×hp ltsershlpeprt rt r tastir thersteaihitary mhesat twr ilitaryeehdth
+ldhth p ia twullim luittllmteptrl artsieiahpo irestidtet a tby telemntm htiat af ind
+Cits atssouaty far heiy adt rins hnsyles ptitr rhieee ar ritha "poeotint tehpley rodeof i neterser lest r
+Bank Information by Wire Transfer for Payment:
+Bank Name:
+BANK OF CHINA (HONG KONG) LIMITED
+Acknowledge receipt of goods in
+CEAC INTERNATIONAL LIMITED
+good order &amp; conditions
+Bank Code:
+012
+Account No(USD): 012-875-9-275717-0(USD/CNY),012-875-1-
+246918-7(HKD)
+Authorised Signature
+Received by/Company Chop
+Swift Code : BKCHHKHH
+Bank ADDRESS:10/F Bank of China Tower 1st Garden Road Central, Hong Kong</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307145.pdf</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>1</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307145",
+    "Invoice Date": "18/7/2023",
+    "Currency": "USD",
+    "Amount": 916.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd",
+    "Note": "Address information has been removed."
+}</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307145",
+    "Invoice Date": "18/7/2023",
+    "Currency": "USD",
+    "Amount": 916.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd",
+    "Note": "Address information has been removed."
+}</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Tel:(852)2356 1832
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No. 8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To: Hisense Broadband Multimedla Technologles(HK) Co., Limited
+Customer Code
+: HKH019USD
+Invoice Date
+:18/7/2023
+Attn :刘双
+Invoice No.
+: 2307145
+Tel
+: 0750-3997863
+Contract /Order No. : 4510078200
+Fax
+:
+A/L No.
+:
+Ⅲ To: Hisense Broadband Multimedla Technologles(HK) Co., Limited
+Payment Terms
+: AMS 45 DAYS
+Rooms 3101-05 Singga Commerclal Centre
+Delivery Date
+: 18/7/2023
+148 Connaught Road West,Hong Kong
+Currency
+: USD
+Payment Due Date
+:30/9/2023
+Ship To: 青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Galn Centre, 43-57 Wang Wo Tsal Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etaln
+Descriptlon
+Quantity
+Unlt
+Price
+Amount
+coder no.
+production Date
+Brand
+Item
+1
+LENS
+EYLGMFB295R
+4390001101
+1,000
+pcs
+0.9160
+916.00
+4510078200
+25/5/2023
+Panasonic
+Japan
+Total Amount:
+916.00
+Shipped per:
+Deposit:
+0.00
+Balance:
+916.00
+For and on behalf of
+Kong Tak Electronic Co.,Ltd
+Authorized Signature
+Kong Tak
+d</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307145.pdf</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>2</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+Ro0g 7ae
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Tel:(852)2356 1832
+Unit 203,2/F., Harbour Centre, Tower 2, No. 8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+Fax:(852)2764 8426
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+:2023.07.18
+青旅思捷物流有限公司
+Customer Code
+: HKH019USD
+香港荃灣横窝仔街43-57號永得利中心六樓
+Invoice No
+:2307145
+Attn: Etain
+Contract/Order No.:
+Tel: 39020582
+L/C No.
+:
+Delivery
+:2023.07.18
+Packing No.
+:2307145
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T. &amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+1
+LENS
+EYLGMFB295R
+1
+1000
+1000 pcs
+0.20
+0.50
+0.009
+PANASONIC
+JAPAN
+0.20
+0.50
+0.009
+1
+TOTAL:
+1000
+0.20
+0.50
+0.009
+Shipmark:
+Goods Received By:
+2</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307059.pdf</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>1</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307059",
+    "Invoice Date": "10/7/2023",
+    "Currency": "USD",
+    "Amount": 240.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd",
+    "Address": {
+        "Bill To": "Rooms 3101-05 Singaa Commercial Centre, 148 Connaught Road West, Hong Kong",
+        "From": "Unit 203, 2/F., Harbour Centre, Tower 2, No.8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong",
+        "Ship To": "6/F, Ever Geln Centre, 43-57 Wang Wo Tsal Street, Tsuen Wan, N.T., Hong Kong"
+    }
+}</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307059",
+    "Invoice Date": "10/7/2023",
+    "Currency": "USD",
+    "Amount": 240.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd",
+    "Address": {
+        "Bill To": "Rooms 3101-05 Singaa Commercial Centre, 148 Connaught Road West, Hong Kong",
+        "From": "Unit 203, 2/F., Harbour Centre, Tower 2, No.8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong",
+        "Ship To": "6/F, Ever Geln Centre, 43-57 Wang Wo Tsal Street, Tsuen Wan, N.T., Hong Kong"
+    }
+}</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+Tel:(852)2356 1832
+香港九龍紅磡鹤翔街8號維港中心第二期2樓203室
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No.8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To: Hlsense Broadband Multlmedia Technologies(HK) Co., Lmited
+Customer Code
+: HKH019VSD
+Involce Date
+:10/7/2023
+Attn : 刘双
+Involce No.
+:2307059
+Tel
+: 0750-3997863
+Contract /Order No. : 4510076767
+Fax
+:
+A/L No.
+:
+BIll To:
+Hisense Broadband Multimedla Technologles(HK) Co., Ltmlted
+Payment Terms
+: AMS 45 DAYS
+Rooms 3101-05 Singaa Commerclal Centre
+Dellvery Date
+: 11/7/2023
+148 Connaught Road West,Hong Kong
+Currency
+: USD
+Payment Due Date
+: 15/9/2023
+Ship To: 青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Geln Centre, 43-57 Wang Wo Tsal Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etaln
+Item
+Description
+Quantity
+Unlt
+Prlce
+Amount
+coder no.
+production Date
+Brand
+1
+LENS
+9A47LC045
+4341015201
+1,000
+pcs
+0.2400
+240.00
+4510076767
+11/4/2023
+Forward Optics
+TAIWAN CHINA
+Total Amount:
+240.00
+Shlpped per:
+Daposlt:
+0.00
+Belance:
+240.00
+For and on behall of
+Kong Tak Electronlc Co.,Ltd
+Authorized Slgnature
+ZGD-505720
+Kotg Tak
+5</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307059.pdf</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>2</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+Ro09 7ae
+Tel:(852)2356 1832
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No.8 Hok Cheang Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+:2023.07.10
+青旅思捷物流有限公司
+Customer Code
+: HKH019USD
+香港荃灣横窝仔街43-57號永得利中心六樓
+Invoice No
+:2307059
+Attn: Etain
+Contract/Order No.:
+Tel: 39020582
+L/C No.
+:
+Delivery
+: 2023.07.11
+Packing No.
+:2307059
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T. &amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+1
+LENS
+9A47LC045
+1
+1000
+1000 PCS
+1.60
+2.10
+0.040
+FORWARD OPTICS TAIWAN, CHINA
+1.60
+2.10
+0.040
+1
+TOTAL:
+1000
+1.60
+2.10
+0.040
+Shipmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307056.pdf</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>1</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307056",
+    "Invoice Date": "7/7/2023",
+    "Currency": "USD",
+    "Amount": 603.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307056",
+    "Invoice Date": "7/7/2023",
+    "Currency": "USD",
+    "Amount": 603.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+香港九龍紅磡鹤翔街8號維港中心第二期2樓203室
+Tel:(852)2356 1832
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No. 8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To: Hisense Broadband Multimedla Technologles(HK) Co., Llmited
+Customer Code
+:HKH019USD
+Involce Date
+:7/7/2023
+Attn : 曹玉新
+Involce No.
+:2307056
+Tel
+:(0532)80879748
+Contract /Order No. : 4510057940
+Fax
+: 0532-8601 6007*389
+A/L No.
+:
+To: Hisense Broadband Multlmedla Technologles(HK) Co., Limlted
+Payment Terms
+: AMS 45 DAYS
+Rooma 3101-05 Singga Commerclal Centre
+Dellvery Date
+:11/7/2023
+148 Connaught Road West,Hong Kong
+Currency
+; USD
+Payment Due Date
+: 15/9/2023
+Shlp To: 青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Galn Centre, 43-57 Wang Wo Tsal Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Att:
+Etaln
+Item
+Descrlption
+Quantlty
+Unlt
+Price
+Amount
+coder no.
+production Date
+Brand
+1
+IC
+RT8059GJ5
+3010067501
+9,000
+pcs
+0.0670
+603.00
+4510057940
+18/5/2022
+Richtek
+China
+Total Amount:
+603.00
+Shlpped per:
+Deposlt:
+0.00
+Balance:
+603.00
+For and on behalf of
+Kong Tak Electronlc Co.,Ltd
+Authorized Slgnature
+ZD-505714
+Koug Tak</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307056.pdf</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>2</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+R009 7a1
+香港九龍紅磡鹤翔街8號維港中心第二期2樓203室
+Tel:(852)2356 1832
+Fax:(852)2764 8426
+Unit 203, 2/F., Harbour Centre, Tower 2, No. 8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+:2023.07.07
+青旅思捷物流有限公司
+Customer Code
+: HKH019USD
+香港荃灣横窩仔街43-57號永得利中心六樓
+Invoice No
+: 2307056
+Atin: Btain
+Contract/Order No.:
+Tel: 39020582
+L/C No.
+:
+Delivery
+:2023.07.11
+Packing No.
+:2307056
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T. &amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+1
+IC
+RT8059GJ5
+1
+9000
+9000 pcs
+0.60
+0.80
+0.009
+RICHTEK
+CHINA
+0.60
+0.80
+0.009
+1
+TOTAL:
+9000
+0.60
+0.80
+0.009
+Shipmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307024.pdf</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>1</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307024",
+    "Invoice Date": "5/7/2023",
+    "Currency": "USD",
+    "Amount": 13818.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307024",
+    "Invoice Date": "5/7/2023",
+    "Currency": "USD",
+    "Amount": 13818.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Tel:(852)2356 1832
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No. 8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To: Hlsense Broadband Multimedla Technologles(HK) Co., Limited
+Customer Code
+:HKH019USD
+Invoice Date
+: 5/7/2023
+Attn : 刘双
+Invoice No.
+:2307024
+Tel
+:0750-3997863
+Contract /Order No. : 4510078249
+Fax
+:
+A/L No.
+:
+Bill To:
+Hisense Broadband Multimedia Technologles(HK) Co., Limited
+Payment Terms
+: AMS 45 DAYS
+Rooms 3101-05 SIngga Commercial Centre
+Delivery Date
+: 6/7/2023
+148 Connaught Road West,Hong Kong
+Currency
+: USD
+Payment Due Date
+: 15/9/2023
+Ship To:青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Galn Centre, 43-57 Wang Wo Tsal Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etain
+Description
+Quantity
+Unit
+Prlce
+Amount
+coder no.
+productlon Date
+Brand
+Item
+1
+LENS
+9A37LC019
+4340009201
+98,000
+pcs
+0.1410
+13,818.00
+4510078249
+14/1/2020
+Forward Optics
+TAIWAN CHINA
+Total Amount:
+13,818.00
+Shipped per:
+Deposit:
+0.00
+Balance:
+13,818.00
+For and on behalf of
+Kong Tak Electronic Co.,Ltd
+Authorized Slgnature
+Kong Tak</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307024.pdf</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>2</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+oag 7ae
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Tel:(852)2356 1832
+Unit 203,2/F., Harbour Centre, Tower 2, No.8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+Fax:(852)2764 8426
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+:2023.07.05
+青旅思捷物流有限公司
+Customer Code
+: HKH019USD
+香港荃灣横窩仔街43-57號永得利中心六樓
+Invoice No
+:2307024
+Attn: Etain
+Contract/Order No.:
+Tel: 39020582
+L/C No.
+:
+Delivery
+:2023.07.06
+Packing No.
+:2307024
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T. &amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+1-14
+LENS
+9A37LC019
+14
+7000
+98000 PCS
+3.30
+3.90
+0.035
+FORWARD OPTICS TAIWAN, CHINA
+46.20
+54.60
+0.486
+14
+TOTAL:
+98000
+46.20
+54.60
+0.486
+Shipmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307015.pdf</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>1</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307015",
+    "Invoice Date": "3/7/2023",
+    "Currency": "USD",
+    "Amount": 916.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co.,Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2307015",
+    "Invoice Date": "3/7/2023",
+    "Currency": "USD",
+    "Amount": 916.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co.,Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Tel:(852)2356 1832
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No.8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To: Hisense Broadband Multimedia Technologles(HK) Co., Limited
+Customer Code
+: HKH019USD
+Invoice Date
+: 3/7/2023
+Attn
+:刘双
+Invoice No.
+:2307015
+Tel
+: 0750-3997863
+Contract /Order No. : 4510078200
+Fax
+:
+A/L No.
+:
+Bill To:
+Hlsense Broadband Muttimedia Technologies(HK) Co., Limited
+Payment Terms
+: AMS 45 DAYS
+Rooms 3101-05 Singga Commercial Centre
+Delivery Date
+:4/4/2023
+148 Connaught Road West,Hong Kong
+Currency
+: USD
+Payment Due Date
+: 15/9/2023
+Ship To:青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsal Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etain
+Item
+Description
+Quantity
+Unit
+Price
+Amount
+coder no.
+production Date
+Brand
+1
+LENS
+EYLGMFB295R
+4390001101
+1,000
+pcs
+0.9160
+916.00
+4510078200
+1/6/2023
+Panasonic
+Japan
+Total Amount:
+916.00
+Shipped per:
+Deposit:
+0.00
+Balance:
+916.00
+For and on behalf of
+Kong Tak Electronic Co.,Ltd
+Authorized Signature
+Kong Tak
+长:</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>KONG TAK 2307015.pdf</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>2</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+Ro00 7ak
+Tel:(852)2356 1832
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No.8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+:2023.07.03
+青旅思捷物流有限公司
+Customer Code
+:HKH019USD
+香港荃灣横窝仔街43-57號永得利中心六樓
+Invoice No
+:2307015
+Attn: Etain
+Contract/Order No.:
+Tel: 39020582
+L/C No.
+:
+Delivery
+:2023.07.04
+Packing No.
+:2307015
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T. &amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+1
+LENS
+EYLGMFB295R
+1
+1000
+1000 pcs
+0.30
+0.50
+0.009
+PANASONIC
+JAPAN
+0.30
+0.50
+0.009
+1
+TOTAL:
+1000
+0.30
+0.50
+0.009
+Shipmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>KONG TAK 2306197.pdf</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>1</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2306197",
+    "Invoice Date": "26/6/2023",
+    "Currency": "USD",
+    "Amount": 6477.9,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd",
+    "Items": [
+        {
+            "Item Description": "LENS",
+            "Item No.": "EYLGMFW192KR",
+            "Quantity": 1100,
+            "Unit Price": 1.989,
+            "Amount": 2187.9,
+            "Production Date": "18/5/2023",
+            "Brand": "Panasonic Japan"
+        },
+        {
+            "Item Description": "LENS",
+            "Item No.": "EYLGMFB4748",
+            "Quantity": 2200,
+            "Unit Price": 1.95,
+            "Amount": 4290.0,
+            "Production Date": "16/3/2023",
+            "Brand": "Panasonic Japan"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2306197",
+    "Invoice Date": "26/6/2023",
+    "Currency": "USD",
+    "Amount": 6477.9,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd",
+    "Items": [
+        {
+            "Item Description": "LENS",
+            "Item No.": "EYLGMFW192KR",
+            "Quantity": 1100,
+            "Unit Price": 1.989,
+            "Amount": 2187.9,
+            "Production Date": "18/5/2023",
+            "Brand": "Panasonic Japan"
+        },
+        {
+            "Item Description": "LENS",
+            "Item No.": "EYLGMFB4748",
+            "Quantity": 2200,
+            "Unit Price": 1.95,
+            "Amount": 4290.0,
+            "Production Date": "16/3/2023",
+            "Brand": "Panasonic Japan"
+        }
+    ]
+}</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+香港九龍紅磡額翔街8號維港中心第二期2樓203室
+Tel:(852)2356 1832
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No.8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To: Hisense Broadband Multlmedia Technologies(HK) Co., Limited
+Customer Code
+:HKH019USD
+Invoice Date
+:26/6/2023
+Attn : 刘双
+Invoice No.
+:2306197
+Tel
+: 0750-3997863
+Contract /Order No. :4570066550 4510075234
+Fax
+:
+A/L No.
+:
+To: Hisense Broadband Multimedla Technologles(HK) Co., Limited
+Payment Terms
+: AMS 45 DAYS
+Rooms 3101-05 Singga Commerclal Centre
+Dellvery Date
+:27/6/2023
+148 Connaught Road West,Hong Kong
+Currency
+: USD
+Payment Due Date
+: 15/9/2023
+Ship To: 青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsal Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Attn:
+Etain
+Item
+Description
+Quantlty
+Unit
+Price
+Amount
+coder no.
+production Date
+Brand
+1
+LENS
+EYLGMFW192KR
+4340007201
+1,100
+pcs
+1.9890
+2,187.90
+4570066550
+18/5/2023
+Panasonic
+Japan
+2
+LENS
+EYLGMFB4748
+4391000201
+2,200
+pcs
+1,9500
+4,290.00
+4510075234
+16/3/2023
+Panasonic
+Japan
+Total Amount:
+6,477.90
+Shipped per:
+Deposit:
+0.00
+Balance:
+6,477.90
+For and on behalf of
+Kong Tak Electronic Co.,Ltd
+Authorized Signature
+Z60-505607
+Kong Talk
+九心</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>KONG TAK 2306197.pdf</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>2</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F605" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+Koag 7ak
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Tel:(852)2356 1832
+Fax:(852)2764 8426
+Unit 203, 2/F., Harbour Centre, Tower 2, No.8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+:2023.06.26
+青旅思捷物流有限公司
+Customer Code
+:HKH019USD
+香港荃灣横禽仔街43-57號永得利中心六樓
+Invoice No
+:2306197
+Attn: Etain
+Contract/Order No.:
+Tel: 39020582
+L/C No.
+:
+Delivery
+:2023.06.27
+Packing No.
+:2306197
+Case No
+Description
+Case Qty
+P/P
+Total Unit
+W.T. &amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+1
+LENS
+EYLGMFW192KR
+1
+1100
+1100 pcs
+0.30
+0.50
+0.009
+PANASONIC
+JAPAN
+0.30
+0.50
+0.009
+2
+LENS
+EYLGMFB474R
+1
+2200
+2200 pes
+1.00
+1.20
+0.009
+PANASONIC
+JAPAN
+1.00
+1.20
+0.009
+2
+TOTAL:
+3300
+1.30
+1.70
+0.019
+Shipmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>KONG TAK 2305199.pdf</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>1</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2305199",
+    "Invoice Date": "29/5/2023",
+    "Currency": "USD",
+    "Amount": 36300.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "2305199",
+    "Invoice Date": "29/5/2023",
+    "Currency": "USD",
+    "Amount": 36300.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Kong Tak Electronic Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+Tel:(852)2356 1832
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No.8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+INVOICE
+Sold To: Hisense Broadband Multimedia Technologies(HK) Co., Limited
+Customer Code
+: HKH019USD
+Invoice Date
+: 29/5/2023
+Attn
+:刘双
+Invoice No.
+:2305199
+Tel
+: 0750-3997863
+Contract /Order No. : 4510071056
+Fax
+:
+A/L No.
+:
+Bill To:
+Hisense Broadband Multimedia Technologies(HK) Co., Limited
+Payment Terms
+: AMS 45 DAYS
+Rooms 3101-05 Singga Commercial Centre
+Delivery Date
+: 30/5/2023
+148 Connaught Road West,Hong Kong
+Currency
+: USD
+Payment Due Date
+: 15/8/2023
+Ship To: 青旅思捷物流有限公司
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsal Street,
+Tsuen Wan, N.T., Hong Kong
+Tel:
+39020582
+交海信貨
+Atln:
+Etain
+Item
+Description
+Quantity
+Unlt
+Prlce
+Amount
+coder no.
+production Date
+Brand
+1
+LENS
+EYLGMFB463R
+4390019901
+30,250
+pcs
+1.2000
+36,300.00
+4510071056
+2/2/2023
+Panasonic
+Japan
+Total Amount:
+36,300.00
+Shipped per:
+Deposit:
+0.00
+Balance:
+36,300.00
+For and on behalf of
+Kong Tak Electronic Co.,Ltd
+Authorized Signature
+ZGD-3505419
+Kong Tak
+世0</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>KONG TAK 2305199.pdf</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>2</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr">
+        <is>
+          <t>港德電子有限公司
+KONG TAK ELECTRONIC CO., LTD.
+%0007ah
+Tel:(852)2356 1832
+香港九龍紅磡鶴翔街8號維港中心第二期2樓203室
+Fax:(852)2764 8426
+Unit 203,2/F., Harbour Centre, Tower 2, No. 8 Hok Cheung Street, Hunghom, Kowloon, Hong Kong.
+http://www.kongtak.com.hk
+PACKING LIST/WEIGHT MEMO
+CYTS-SPIRIT LOGISTICS LIMITED.
+Date
+:2023.05.29
+青旅思捷物流有限公司
+Customer Code
+:HKH019USD
+香港荃灣横窩仔街43-57號永得利中心六樓
+Invoice No
+:2305199
+Attn: Etain
+Contract/Order No.:
+Tel: 39020582
+L/C No.
+:
+Delivery
+:2023.05.30
+Packing No.
+:2305199
+Casc No
+Description
+Case Qty
+P/P
+Total Unit
+W.T. &amp; Measurement
+CBM
+N.W.(kg)
+G.W.(kg)
+MEAS(m3)
+1
+LENS
+EYLGMFB463R
+1
+17600
+17600 pcs
+8.10
+8.60
+0.023
+PANASONIC
+JAPAN
+8.10
+8.60
+0.023
+2
+LENS
+EYLGMFB463R
+1
+7700
+7700 pcs
+3.50
+4.00
+0.023
+PANASONIC
+JAPAN
+3.50
+4.00
+0.023
+3
+LENS
+EYLGMFB463R
+1
+4950
+4950 pcs
+2.20
+2.40
+0.009
+PANASONIC
+JAPAN
+2.20
+2.40
+0.009
+3
+TOTAL:
+30250
+13.80
+15.00
+0.055
+Shipmark:
+Goods Received By:</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>AIT G323080443.pdf</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>1</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "G323080443",
+    "Invoice Date": "2023/08/10",
+    "Currency": "USD",
+    "Amount": 206.5,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "G323080443",
+    "Invoice Date": "2023/08/10",
+    "Currency": "USD",
+    "Amount": 206.5,
+    "Bill To": "Hisense Broadband Multimedia Technologies(HK) Co., Limited",
+    "From": "Hisense Broadband Multimedia Technologies(HK) Co., Limited"
+}</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr">
+        <is>
+          <t>INVOICE
+10F., No. 189, Jingmao 2nd Rd., Nangang Dist., Taipei City 115, Taiwan, China. INV. NO: G323080443
+TEL:886-2-26563868 FAX:886-2-26563747 DATE: 2023/08/10
+SHIPPING NO: 66852801
+SOLD TO NAME:88996
+BILL TO: PAYMENT TERMS: OA60 days
+Hisense Broadband Multimedia Technologies(HK) Co., Limited DELIVERY MODE: Local
+ROOMS 3101-3105 SINGGA COMMERCIAL CENTRE SHIPPING ON OR ABOUT:
+148 CONNAUGHT ROAD WEST HONGK KONG SHIPMENT TERMS:
+VENDOR CODE: 5000001
+SHIP TO: DELIVER TO:
+海信寬帶多媒體技術(香港)有限公司 青旅思捷物流有限公司
+香港新界葵涌4號貨櫃碼頭1樓101室 香港新界荃灣橫窩仔街43-57號永得利中心 6/F
+Item No. / Customer parts No. / Brand / Description P/O NO QUANTITY UOM UNI PRICE AMOUNT
+THGAMVG8T13BAILH2H 5970023856 70 pcs 2.950000 206.50
+(3011168701)
+KIOXIA NAND FLASH LINE NO: RTNO:
+Made in Taiwan, China
+SUB TOTAL: 206.50
+TAX: 0 % 0.00
+TOTAL CARTON: 1 TOTAL: 70 TOTAL: USD 206.50
+SHIPMENT FROM: HONG KONG
+江門貨物--JM
+請留意: 以上產品之全部或部分，可能屬於進出口受管制之貨物，進出口前須向國家相關當局申辦許可證。另請留意產品是否受美國出口及經濟制裁法律規管。
+PLEASE NOTE: all or part of the above products might be subjected to import and export control. Prior authorization from the relevant government authorities is required before any Import
+and Export arrangement. Please also observe whether the products are subject to export control and economic sanctions laws of the United States.
+Page 1 / 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>AIT G323080443.pdf</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>2</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr">
+        <is>
+          <t>PACKING LIST/Delivery Note
+振遠科技股份有限公司
+10F., No. 189, Jingmao 2nd Rd., Nangang Dist., Taipei City 115, Taiwan, China.
+TEL:886-2-26563868 FAX:886-2-26563747 62010
+SHIPPING NO: 22267811-66852801
+TEL: 886-2-21910098 FAX: 886-2-26535189
+SOLD TO: 海信寬帶多媒體技術(香港)有限公司(HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED)
+BILL TO: INV. NO: G323080443
+(88996)Hisense Broadband Multimedia Technologies(HK) Co., Limited DATE: 2023/08/10 12:25:19
+ROOMS 3101-3105 SINGGA COMMERCIAL CENTRE OUR REF: 66852801
+148 CONNAUGHT ROAD WEST HONGK KONG
+PAYMENT TERMS: OA60 days
+SHIPMENT TERMS:
+VENDOR CODE: 5000001
+SHIP TO: DELIVER TO:
+海信寬帶多媒體技術(香港)有限公司 青旅思捷物流有限公司
+香港新界葵涌4號貨櫃碼頭1樓101室 香港新界荃灣橫窩仔街43-57號永得利中心 6/F
+Ship To Country: HONG KONG
+CARTON NO. Item No./Customer Parts No./Description P/O NO. QUANTITY N/W(KG) G/W(KG)
+001 THGAMVG8T13BAILH2H 5970023856 70 0.24 0.74
+3011168701 PCS
+KIOXIA--NAND FLASH LineNO: DIM(CM): 39 (L)X 25 (W)X 17 (H)
+境外品牌(其他)
+Made in Taiwan, China ECCN:NO CLASS DC:202229
+1
+Total: CARTONS Total: 70 0.24 0.74
+REMARKS: 江門貨物--JM Volumn WT: 2.76
+MARK: 广东宽带 DATED
+江門貨物--JM
+ShipFrom:HONG KONG
+Carton:
+AUTHORISED SIGNATURE &amp; COMPANY STAMP
+請留意: 以上產品之全部或部分，可能屬於進出口受管制之貨物，進出口前須向國家相關當局申辦許可證。另請留意產品是否受美國出口及經濟制裁法律規管。
+PLEASE NOTE: all or part of the above products might be subjected to import and export control. Prior authorization from the relevant government authorities is required before any Import and Export arrangement. Please also
+observe whether the products are subject to export control and economic sanctions laws of the United States.
+此ECCN屬WPG內部使用目的，使用者必需自行負責正確之商品分類。
+ECCN classification shown here is for WPG internal use only. ECCN classification is subject to change and user (of the ECCN) is responsible for determining the correct classifications used.
+頁碼: 1 / 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>SEKORM 882333.pdf</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>1</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr">
+        <is>
+          <t>香港新界葵涌梨木道79号亚洲贸易中心19楼01室
+页数:1/1
+证
+世强硬创电商
+硬制
+UNIT01,19/F ASIA TRADE CENTRE,79 LEI MUK ROAD,
+www.sekorm.com
+KWAI CHUNG,NEW TERRITORIES,HONG KONG
+电话:400-830-1766
+网址:www.sekorm.com
+ZGYS2308101245
+BSWO2308101245
+世强控股有限公司
+Packing List
+收货人\单位:广东海信宽带科技有限公司
+发票号:
+882333
+收货地址:香港特别行政区新界荃湾区青旅思捷物流有限公司_香港荃湾
+发货日期:
+2023-08-10
+横窝仔街43-57号永得利中心六楼-JM
+收货人:ANDY CHENG/GARY, ANDY CHENGGARY
+出库单号:
+BSWO2308101245
+收货人电话:00852-39020521,;00852-39020555,
+Trade Terms:
+入仓号:
+ZGD-505944
+出库
+产地
+Date
+净重
+毛重
+尺寸
+备注
+箱号
+客户订单号
+客户物料号
+物料型号
+品牌
+数量
+Code
+(KG)
+(KG)
+(CM)
+301112380
+SGM2058XW
+5000
+SGMICRO
+.China
+2250
+0.025
+0.72
+24*22*12
+01
+4510080180
+Q10G/TR
+1
+合
+5000
+0.025
+0.72
+计
+总箱数:共1箱
+备注:纸箱送货
+运输方式:
+发货方(签字/盖章):世强控股有限公司
+收货方(签字/盖章):
+收货日期:
+收货注意事项:
+1、本次发货货品在递交承运商之时状态完好并妥善包装,承运商接受货物之后承担将其安全运抵至收货单位的责任。为保护您的利
+益,请仔细查验外观并点收总箱数,核对完毕后再签收。
+2、包装箱外观损坏严重的情况下请拒收货物。包装箱外观破损较轻的情况下,请开箱查验后决定是否签收并请在此单上注明破损情
+况,以便我司跟踪处理。
+3、货物数量若有差异,自货物签收之日起一周内提出有效。</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>SEKORM 882333.pdf</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>2</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "882333",
+    "Invoice Date": "23-08-11",
+    "Currency": "USD",
+    "Amount": 1350.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101, 1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "882333",
+    "Invoice Date": "23-08-11",
+    "Currency": "USD",
+    "Amount": 1350.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101, 1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED"
+}</t>
+        </is>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F611" t="inlineStr">
+        <is>
+          <t>世强控股有限公司
+新界葵涌梨木道79号亚洲贸易中心19楼01室
+Unit 01,19/F,Asia Trade Centre,79 Lei Muk
+SEKORM LIMITED
+Road,Kwai Chung,New Territories,Hong Kong.
+TEL,:(852)26249917
+FAX.:(852)26249937
+Issuing Bank: Bank of China (Hong Kong) Limnited
+HKD 012-591-2-036199-7
+USD/JPY/EUR 01259120362000
+Swift Code:BKCHHKHHXXX
+INVOICE
+Bill To:
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED,UNIT 101 .1/F HUTCHISON
+LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG
+-JM
+Attn:
+NG
+Date: 11-08-23
+Tel:
+Terms of Trade: FOB HONG KONG
+Fax:
+00852-21229453
+Payment Terms: NET 60 DAYS
+Invoice No: 882333
+Sailing On/About:
+Curr Code: USD
+Port of Loading: HongKong
+Item
+Description
+Quantity
+U/P
+Amount.
+1
+SGM2058XWQ10G/TR
+5000
+0.27000
+1350.00
+Material Coding:
+3011123801
+Customer PO No:
+4510080180
+壹仟叁佰伍拾零元零角零分
+Net Amount:
+1,350.00
+Remarks:
+*
+SEKORM LIMITED
+GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD.
+End of Sales Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>SEKORM 882333.pdf</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>3</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F612" t="inlineStr">
+        <is>
+          <t>香港新界葵涌梨木道79号亚洲贸易中心19楼01室
+页数:1/1
+世强
+世强硬创电商
+UNIT01,19/F ASIA TRADE CENTRE,79 LEI MUK ROAD,KWAI CHUNG,NEW
+硬创
+www.sekorm.com
+TERRITORIES,HONG KONG
+电话:400-830-1766
+网址:www.sekorm.com
+ZGYS2308101245
+BSWO2308101245
+世强控股有限公司
+送货单
+收货人单位:广东海信宽带科技有限公司
+交货号:
+882333
+收货地址:香港特别行政区新界荃湾区青旅思捷物流有限公司_香港荃湾横窝仔街43-
+发货日期:
+2023-08-10
+57号永得利中心六楼-JM
+收货人:ANDY CHENG/GARY, ANDY CHENGGARY
+出库单号:
+BSWO2308101245
+收货人电话:00852-39020521,
+箱号
+客户订单号
+客户物料号
+物料型号
+出库数量
+品牌
+Date Code
+备注
+001
+4510080180
+3011123801
+SGM2058XWQ10G/TR
+5000
+SGMICRO
+2250
+合计
+5000
+总箱数:共1箱
+发货方(签字/盖章):世强控股有限公司
+收货方(签字/盖章):
+收货日期:
+计
++
+收货注意事项:
+1、本次发货货品在递交承运商之时状态完好并妥善包装,承运商接受货物之后承担将其安全运抵至收货单位的责任。为保护您的利益,请仔细查验外观并点收总箱数,核对完毕后再签收。
+2、包装箱外观损坏严重的情况下请拒收货物。包装箱外观破损较轻的情况下,请开箱查验后决定是否签收并请在此单上注明破损情况,以便我司跟踪处理。
+3、货物数量若有差异,自货物签收之日起一周内提出有效。</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>SEKORM 872514.pdf</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>1</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "872514",
+    "Invoice Date": "30-06-23",
+    "Currency": "USD",
+    "Amount": 3883.19,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101 .1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED, Unit 01.19/F, Asia Trade Centre, 79 Lei Muk Road, Kwai Chung, New Territories, Hong Kong"
+}</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "872514",
+    "Invoice Date": "30-06-23",
+    "Currency": "USD",
+    "Amount": 3883.19,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101 .1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED, Unit 01.19/F, Asia Trade Centre, 79 Lei Muk Road, Kwai Chung, New Territories, Hong Kong"
+}</t>
+        </is>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F613" t="inlineStr">
+        <is>
+          <t>世强控股有限公司
+新界葵涌梨木道79号亚洲贸易中心19楼01室
+Unit 01.19/F,Asia Trade Centre,79 Lei Muk
+SEKORM LIMITED
+Road,Kwai Chung,New Territories,Hong Kong.
+TEL.:(852)26249917
+FAX.:(852)26249937
+Issuing Bank: Bank of China (Hong Kong) Limited
+HKD 012-591-2-036199-7
+USD/JPY/EUR 01259120362000
+Swift Code:BKCHHKHHXXX
+INVOICE
+Bill To:
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED,UNIT 101 .1/F HUTCHISON
+LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG
+-JM
+Attn:
+NG
+Date: 30-06-23
+Tel:
+Terms of Trade: FOB HONG KONG
+Fax:
+00852-21229453
+Payment Terms: NET 60 DAYS
+Invoice No: 872514
+Sailing On/About:
+Curr Code: USD
+Port of Loading: Hongkong
+Item
+Description
+Quantity
+U/P
+Amount.
+1
+SGM8605-1XUDL6G/TR
+5000
+0.13300
+665.00
+Material Coding:
+3010133801
+Customer P0 No:
+4510067697
+2
+SGM8740YC5G/TR
+4102
+0.14400
+590.69
+Material Coding:
+3011007901
+Customer PO No:
+林一帆4510045064
+3
+SGM2036-2.5YUDH4G/TR
+1000
+0.02500
+25.00
+Material Coding:
+3011078201
+Customer PO No:
+4510075863
+4
+SGM6012-ADJYTN5G/TR
+5000
+0.05850
+292.50
+Material Coding:
+3011084001
+Customer PO No:
+4510069830
+5
+SGM8541XC5/TR
+10000
+0.09000
+900.00
+Material Coding:
+3011070901
+Customer PO No:
+4510069830
+6
+SGM7SZ125YC5G/TR
+3000
+0.03500
+105.00
+Material Coding:
+3011091601
+Customer PO No:
+林一帆4510048549
+7
+SGM2564YG/TR
+5000
+0.12000
+600.00
+Material Coding:
+3011076601
+Customer PO No:
+4510077515
+8
+SGM41285AXTQ16G/TR
+3000
+0.23500
+705.00
+Material Coding:
+3011072301
+Customer PO No:
+4510074758
+End of Sales Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>SEKORM 872514.pdf</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>2</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "872514",
+    "Invoice Date": "30-06-23",
+    "Currency": "USD",
+    "Amount": 5923.19,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101, 1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED",
+    "Remarks": "SEKORM LIMITED GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD."
+}</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "872514",
+    "Invoice Date": "30-06-23",
+    "Currency": "USD",
+    "Amount": 5923.19,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101, 1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED",
+    "Remarks": "SEKORM LIMITED GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD."
+}</t>
+        </is>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F614" t="inlineStr">
+        <is>
+          <t>世强控股有限公司
+新界葵涌梨木道79号亚洲贸易中心19楼01室
+Unit 01,19/F,Asia Trade Centre,79 Lei Muk
+SEKORM LIMITED
+Road,Kwai Chung,New Territories,Hong Kong.
+TEL.:(852)26249917
+FAX.:(852)26249937
+Issuing Bank: Bank of China (Hong Kong) Limited
+HKD 012-591-2-036199-7
+USD/JPY/EUR 01259120362000
+Swift Code:BKCHHKHHXXX
+INVOICE
+Bill To:
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED,UNIT 101 .1/F HUTCHISON
+LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG
+-JM
+Attn:
+NG
+Date: 30-06-23
+Tel:
+Terms of Trade: FOB HONG KONG
+Fax:
+00852-21229453
+Payment Terms: NET 60 DAYS
+Invoice No:
+872514
+Sailing On/About:
+Curr Code: USD
+Port of Loading: HongKong
+Item
+Description
+Quantitv
+U/P
+Amount.
+9
+SGM66099-ADJXTDI6G/TR
+12000
+0.17000
+2040.00
+Material Coding:
+3011094101
+Customer PO No:
+4510077147
+伍仟玖佰贰拾叁元壹角玖分
+Net Amount:
+5,923.19
+Remarks:
+SEKORM LIMITED
+GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD.
+End of Sales Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>SEKORM 872514.pdf</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>3</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>香港新界葵涌梨木道79号亚洲贸易中心19楼01室
+世强硬创电商
+www.sekorm,com
+UNIT01,19/F ASIA TRADE CENTRE:79 LEI MUK ROAD,KWAI CHUNG,NEW
+TERRITORIES,HONG KONG
+电话:400-830-1766
+已
+网址:www.sekorm.com
+經
+世强控股有限公司
+Packing List
+BSWO2306290568
+收货人单位:广东海信宽带科技有限公司
+发票号:
+872514
+收货地址:香港特别行政区新界荃湾区青旅思捷物流有限公司_香港荃
+湾横窝仔街43-57号永得利中心六楼-JM
+发货日期:
+2023-06-29
+收货人:ANDY CHENG/GARY, ANDY CHENGGARY
+出库单号:
+BSWO2306290568
+收货人电话:00852-39020521,;00852-39020555,
+Trade Terms:
+入仓号:
+ZGD-505632
+箱号客户订单号
+客户物料号
+物料型号
+出库:
+品牌
+Date
+净重
+毛重
+尺寸
+数量
+产地
+批次号
+备注
+Code
+(KG)
+(KG)
+(CM)
+01
+451007475
+SGM41285AXTQ1
+SGMICR
+3011072301
+3000
+China
+2309
+8
+6G/TR
+○
+0.0639
+1.2
+38*38*15
+林一帆
+451004506
+3011007901;
+SGM8740YC5G/TR
+4000
+SGMICR
+China
+2116
+0.2533
+4
+○
+02
+1.2
+22*22*24
+林一帆
+451004506
+3011007901
+SGM8740YC5G/TR
+102
+SGMICR
+China
+2116
+0.0065
+4
+0
+03
+451006983
+SGMICR|
+3011070901
+SGM8541XC5/TR
+10000
+Thailand
+2237
+0
+○
+0.07
+1.18
+24*22*12
+04
+451007586
+SGM2036-
+SGMICR
+3011078201
+1000
+China
+2249
+3
+2.5YUDH4G/TR
+○
+0.0055
+0.32
+24*22*12
+451007751
+SGMICR
+3011076601
+SGM2564YG/TR
+4530
+China
+2317
+5
+0
+0.0054
+05
+0.68
+24*22*12
+451007751
+SGMICR
+3011076601
+SGM2564YG/TR
+470
+China
+2317
+5
+0
+0.0006
+06
+451006769
+SGM8605-
+SGMICR
+3010133801
+5000
+China
+2239
+7
+1XUDL6G/TR
+○
+0.0127
+0.48
+24*22*12
+林一帆
+07
+451004854
+3011091601
+SGM7SZ125YC5G/
+SGMICR
+TR
+3000
+China
+2140
+0.15
+0.48
+9
+0
+24*22*12
+08
+451007714
+SGM66099-
+SGMICR
+3011094101
+12000
+China
+2317
+7
+ADJXTDI6G/TR
+0
+0.0948
+1.38
+22*22*24
+RY4518
+92633943</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>SEKORM 872514.pdf</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>4</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Other",
+    "Invoice No.": "",
+    "Invoice Date": "",
+    "Currency": "China",
+    "Amount": 0,
+    "Bill To": "世强控股有限公司",
+    "From": ""
+}</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Other",
+    "Invoice No.": "",
+    "Invoice Date": "",
+    "Currency": "China",
+    "Amount": 0,
+    "Bill To": "世强控股有限公司",
+    "From": ""
+}</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>451006983
+SGM6012-
+SGMICR
+3011084001
+1000
+China
+2309
+0.0122
+0
+ADJYTN5G/TR
+0
+451006983
+3011084001
+SGM6012-
+SGMICR
+0
+ADJYTN5G/TR
+1351
+China
+2309
+0.0165
+09
+○
+0.5
+24*22*12
+451006983
+SGM6012-
+SGMICR
+3011084001
+649
+China
+2310
+0.0079
+0
+ADJYTN5G/TR
+○
+451006983
+SGM6012-
+SGMICR
+3011084001
+351
+China
+2310
+0.0043
+0
+ADJYTN5G/TR
+0
+10
+0.33
+24*22*12
+451006983
+3011084001
+SGM6012-
+SGMICR
+0
+649
+China
+2310
+0.0079
+ADJYTN5G/TR
+○
+11
+451006983
+3011084001
+SGM6012-
+SGMICR
+0
+ADJYTN5G/TR
+1000
+China
+2309
+0.0122
+0.35
+24*22*12
+○
+合计
+48102
+0.7237
+8.1
+总箱数:共11箱
+备注:纸箱送货
+运输方式:
+发货方(签字/盖章):世强控股有限公司
+收货方(签字/盖章):
+收货日期:
+收货注意事项:
+1、本次发货货品在递交承运商之时状态完好并妥善包装,承运商接受货物之后承担将其安全运抵至收货单位的责任。为保护您的利益,请
+仔细查验外观并点收总箱数,核对完毕后再签收。
+2、包装箱外观损坏严重的情况下请拒收货物。包装箱外观破损较轻的情况下,请开箱查验后决定是否签收并请在此单上注明破损情况,以
+便我司跟踪处理。
+3、货物数量若有差异,自货物签收之日起一周内提出有效。</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>SEKORM 889099.pdf</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>1</v>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>香港新界葵涌梨木道79号亚洲贸易中心19楼01室
+页数:1/1
+世强
+世强硬创电商
+UNIT01,19/F ASIA TRADE CENTRE,79 LEI MUK ROAD,KWAI CHUNG,NEW
+硬创
+www.sekorm.com
+TERRITORIES,HONG KONG
+电话:400-830-1766
+网址:www.sekorm.com
+ZGYS2309081611
+BSWO2309081611
+世强控股有限公司
+送货单
+收货人\单位:广东海信宽带科技有限公司
+交货号:
+889099
+收货地址:香港特别行政区新界荃湾区青旅思捷物流有限公司_香港荃湾横窝仔街43-
+发货日期:
+2023-09-09
+57号永得利中心六楼-JM
+收货人:ANDY CHENG/GARY, ANDY CHENGGARY
+出库单号:
+BSWO2309081611
+收货人电话:00852-39020521,
+箱号
+客户订单号
+客户物料号
+物料型号
+出库数量
+品牌
+Date Code
+备注
+001
+4510079190
+1111011901
+X1G005221000800
+4000
+EPSON
+20230901
+合计
+4000
+总箱数:共1箱
+发货方(签字/盖章):世强控股有限公司
+收货方(签字/盖章):
+收货日期:
+*
+收货注意事项:
+1、本次发货货品在递交承运商之时状态完好并妥善包装,承运商接受货物之后承担将其安全运抵至收货单位的责任。为保护您的利益,请仔细查验外观并点收总箱数,核对完毕后再签收。
+2、包装箱外观损坏严重的情况下请拒收货物。包装箱外观破损较轻的情况下,请开箱查验后决定是否签收并请在此单上注明破损情况,以便我司跟踪处理。
+3、货物数量若有差异,自货物签收之日起一周内提出有效。
+5Y1324
+ID1039
+94119079
+1件</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>SEKORM 889099.pdf</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>2</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>香港新界葵涌梨木道79号亚洲贸易中心19楼01室
+页数:1/1
+他阳
+世强硬创电商
+硬仓
+UNIT01,19/F ASIA TRADE CENTRE,79 LEI MUK ROAD,
+www.sekorm.com
+KWAI CHUNG,NEW TERRITORIES,HONG KONG
+电话:400-830-1766
+网址:www.sekorm.com
+ZGYS2309081611
+BSWO2309081611
+世强控股有限公司
+Packing List
+收货人\单位:广东海信宽带科技有限公司
+发票号:
+889099
+收货地址:香港特别行政区新界荃湾区青旅思捷物流有限公司_香港荃湾
+横窝仔街43-57号永得利中心六楼-JM
+发货日期:
+2023-09-09
+收货人:ANDY CHENG/GARY, ANDY CHENGGARY
+出库单号:
+BSWO2309081611
+收货人电话:00852-39020521,;00852-39020555,
+Trade Terms:
+入仓号:
+ZGD-506199
+箱号
+客户订单号客户物料号
+物料型号
+出库
+品牌
+产地
+Date
+净重
+毛重
+尺寸
+数量
+备注
+Code
+(KG)
+(KG)
+(CM)
+01
+4510079190
+111101190
+X1G00522100
+1
+4000
+EPSON
+Thailand
+20230901
+0.104
+0.5
+24*22*12
+0800
+合
+4000
+计
+0.104
+0.5
+总箱数:共1箱
+备注:纸箱送货
+运输方式:
+发货方(签字/盖章)世强控股有限公司
+收货方(签字/盖章):
+收货日期:
+收货注意事项:
+1、本次发货货品在递交承运商之时状态完好并妥善包装,承运商接受货物之后承担将其安全运抵至收货单位的责任。为保护您的利
+益,请仔细查验外观并点收总箱数,核对完毕后再签收。
+2、包装箱外观损坏严重的情况下请拒收货物。包装箱外观破损较轻的情况下,请开箱查验后决定是否签收并请在此单上注明破损情
+况,以便我司跟踪处理。
+3、货物数量若有差异,自货物签收之日起一周内提出有效。</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>SEKORM 889099.pdf</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>3</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "889099",
+    "Invoice Date": "23-09-11",
+    "Currency": "USD",
+    "Amount": 5400.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101, 1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED",
+    "Remarks": "SEKORM LIMITED GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD."
+}</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "889099",
+    "Invoice Date": "23-09-11",
+    "Currency": "USD",
+    "Amount": 5400.0,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101, 1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED",
+    "Remarks": "SEKORM LIMITED GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD."
+}</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>世强控股有限公司
+新界葵涌梨木道79号亚洲贸易中心19楼01室
+Unit 01,19/F,Asia Trade Centre,79 Lei Muk
+SEKORM LIMITED
+Road,Kwai Chung,New Territories,Hong Kong.
+TEL.:(852)26249917
+FAX.:(852)26249937
+Issuing Bank: Bank of China (Hong Kong) Limited
+HKD 012-591-2-036199-7
+USD/JPY/EUR 01259120362000
+Swift Code:BKCHHKHHXXX
+INVOICE
+Bill To:
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED,UNIT 101 .1/F HUTCHISON
+LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG
+-JM
+Attn:
+NG
+Date: 11-09-23
+Tel:
+Terms of Trade: FOB HONG KONG
+Fax:
+00852-21229453
+Payment Terms: NET 60 DAYS
+Invoice No: 889099
+Sailing On/About:
+Curr Code: USD
+Port of Loading: HongKong
+Item
+Description
+Quantity
+U/P
+Amount.
+1
+X1G005221000800
+4000
+1.35000
+5400.00
+Material Coding:
+1111011901
+Customer PO No:
+4510079190
+伍仟肆佰零拾零元零角零分
+Net Amount:
+5,400.00
+Remarks:
+SEKORM LIMITED
+GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD.
+End of Sales Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>SEKORM 888736.pdf</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>1</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>香港新界葵涌梨木道79号亚洲贸易中心19楼01室
+页数:1/1
+世强
+世强硬创电商
+硬剑
+UNIT01,19/F ASIA TRADE CENTRE,79 LEI MUK ROAD,
+www.sekorm.com
+KWAI CHUNG,NEW TERRITORIES,HONG KONG
+电话:400-830-1766
+网址:www.sekorm.com
+ZGYS2309071562
+BSWO2309071562
+世强控股有限公司
+Packing List
+收货人\单位:广东海信宽带科技有限公司
+发票号:
+888736
+收货地址:香港特别行政区新界荃湾区青旅思捷物流有限公司_香港荃湾
+发货日期:
+2023-09-07
+横窝仔街43-57号永得利中心六楼-JM
+收货人:ANDY CHENG/GARY, ANDY CHENGGARY
+出库单号:
+BSWO2309071562
+收货人电话:00852-39020521,;00852-39020555,
+Trade Terms:
+入仓号:
+ZGD-506198
+出库
+Date
+净重
+毛重
+尺寸
+箱号
+客户订单号客户物料号
+物料型号
+品牌
+产地
+备注
+数量
+Code
+(KG)
+(KG)
+(CM)
+SGM6012-
+301108400
+1500
+SGMICRO
+China
+2317
+0.0183
+0.36
+24*22*12
+01
+4510078129
+ADJYTN5G/
+1
+TR
+合
+1500
+0.0183
+0.36
+计
+总箱数:共1箱
+备注:纸箱送货
+运输方式:
+发货方(签字/盖章)世强控股有限公司
+收货方(签字/盖章):
+收货日期:
+世强控股
+收货注意事项:
+1、本次发货货品在递交承运商之时状态完好并妥善包装,承运商接受货物之后承担将其安全运抵至收货单位的责任。为保护您的利
+益,请仔细查验外观并点收总箱数,核对完毕后再签收。
+2、包装箱外观损坏严重的情况下请拒收货物。包装箱外观破损较轻的情况下,请开箱查验后决定是否签收并请在此单上注明破损情
+况,以便我司跟踪处理。
+3、货物数量若有差异,自货物签收之日起一周内提出有效。</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>SEKORM 888736.pdf</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>2</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "888736",
+    "Invoice Date": "23-09-08",
+    "Currency": "USD",
+    "Amount": 87.75,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101, 1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED",
+    "Remarks": "SEKORM LIMITED GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD."
+}</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "888736",
+    "Invoice Date": "23-09-08",
+    "Currency": "USD",
+    "Amount": 87.75,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED, UNIT 101, 1/F HUTCHISON LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG",
+    "From": "SEKORM LIMITED",
+    "Remarks": "SEKORM LIMITED GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD."
+}</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>世强控股有限公司
+新界莫涌梨木道79号亚洲贸易中心19楼01室
+Unit 01,19/F,Asia Trade Centre,79 Lei Muk
+SEKORM LIMITED
+Road,Kwai Chung,New Territories,Hong Kong.
+TEL,:(852)26249917
+FAX.:(852)26249937
+Issuing Bank: Bank of China (Hong Kong) Limited
+HKD 012-591-2-036199-7
+USD/JPY/EUR 01259120362000
+Swift Code:BKCHHKHHXXX
+INVOICE
+Bill To:
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LIMITED,UNIT 101 .1/F HUTCHISON
+LOGISTICS CENTRE, BERTH 4 CONTAINER PORT ROAD, KWAI CHUNG, NT, HONG KONG
+-JM
+Attn:
+NG
+Date: 08-09-23
+Tel:
+Terms of Trade: FOB HONG KONG
+Fax:
+00852-21229453
+Payment Terms: NET 60 DAYS
+Invoice No: 888736
+Sailing On/About:
+Curr Code: USD
+Port of Loading: HongKong
+Item
+Description
+Quantity
+U/P
+Amount.
+1
+SGM6012-ADJYTN5G/TR
+1500
+0.05850
+87.75
+Material Coding:
+3011084001
+Customer PO No:
+4510078129
+捌拾柒元柒角伍分
+Net Amount:
+87.75
+Remarks:
+SEKORM LIMITED
+GUANGDONG HISENSE BROADBAND TECHNOLOGY CO.,LTD.
+End of Sales Invoice</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>AVNET 1161555980.pdf</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>1</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1161555980",
+    "Invoice Date": "23.08.2023",
+    "Currency": "USD",
+    "Amount": 4400.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.",
+    "From": "Avnet Technology Hong Kong Limited",
+    "P/O No.": "19:07:33"
+}</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "1161555980",
+    "Invoice Date": "23.08.2023",
+    "Currency": "USD",
+    "Amount": 4400.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Ltd.",
+    "From": "Avnet Technology Hong Kong Limited",
+    "P/O No.": "19:07:33"
+}</t>
+        </is>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F622" t="inlineStr">
+        <is>
+          <t>IVNET'
+AVNET TECHNOLOGY HONG KONG LIMITED
+Invoice
+22/F, Tower 2, Enterprise Square Five,
+38 Wang Chiu Road,
+1161555980
+Page 1 of 1
+AVNET TECHNOLOGY
+Kowloon Bay, Kowloon,
+Invoice Date 23.08.2023
+23.08.2023
+Hong Kong
+P/O No.
+19:07:33
+HONG KONG LIMITED
+4510074406
+TEL:(852)2176-5388
+FAX:(852)2790-2182
+Bill To
+Ship To
+Hisense Broadband Multimedia
+Hisense Broadband Multimedia
+Technologies (HK) Co., Ltd.
+C/O CYTS-SPIRIT LOGISTICS LIMITED
+ROOMS 31031-3105 SINGGA
+6/F, EVER GAIN CENTRE,
+COMMERCIAL CENTRE 148 CONNAUGHT
+43-57 WANG WO TSAI STREET,
+ROAD WEST
+HONGKONG
+HONG KONG
+HONG KONG
+HONG KONG
+Contact Person :ETAIN.CHEUNG/3902 0582
+Contact Person : Wang Chao/86-532-86016016
+Cust Code:397028
+Cust Code:503320
+Sold To
+Care Of
+Hisense Broadband Multimedia
+CYTS-SPIRIT LOGISTICS LIMITED
+Technologies (HK) Co., Ltd.
+6/F, EVER GAIN CENTRE,
+ROOMS 31031-3105 SINGGA
+43-57 WANG WO TSAI STREET,
+COMMERCIAL CENTRE 148 CONNAUGHT
+TSUEN WAN, N.T.,
+ROAD WEST
+HK
+HONG KONG
+HONG KONG
+HONG KONG
+Cust Code:451636
+Remit TT To
+Currency
+: USD
+Standard Chartered Bank, Hong Kong Central Branch
+Delivery Terms
+: LDO Hong Kong
+Swift Code: SCBLHKHHXXX
+Favoring: Avnet Technology Hong Kong Limited
+Payment Due Date: 31.10.2023
+Payment Terms : Mth End 60 Days After Inv Date
+Account No.: 003-447-006-11978
+Total Cartons: 1
+Total Gross Weight:
+0.800 KG
+Total Net Weight:
+0.500 KG
+Total Items:
+1
+Port of Departure:
+Hong Kong
+Port of Arrival:
+Hong Kong
+Any Sales Querles Pls Contact: WANG Rosie
+Packing Listy
+I000¿
+132343890
+Item
+Avnet Part No / Goods Description
+MFG
+Shipped
+Unit Price
+Amount
+H.S.Code.
+Origin
+Qty
+Inhouse#ZGD-506058
+0020
+X1G005221001600
+EPSON
+2,000
+2.20000
+4,400.00
+SG3225EEN 156.25MHZ CJHA/X1G00522100160
+Thailand
+Customer PO Item: 20
+CPN:1111001601
+US ECCN:EAR99/HK ECCN:Not on Control List
+TOTAL USD
+4,400.00
+GST
+0% USD
+Inv Total USD
+4,400.00
+Please Pay in (USD) US Dollars: Four thousand four hundred and zero cents only
+These items are subject to the export control laws and trade sanctions of the U.S., the European Union, and/or relevant countries and are authorized for
+export only to the country of ultimate destination for use by the ultimate consignee or end-user(s) herein identified. They may not be resold or transferred to
+any country or to any person other than the authorized ultimate consignee or end-user(s), either in their original form or after being incorporated into other
+items, without authorlzation under such export control laws and trade sanctions of the U.S., the European Union, and/or relevant countries.
+CERTIFIED TRUE AND CORRECT AVNET
+This is a computer generated invoice and does not require manual signature.
+This sale is governed by Avnel's Terms and Conditions of sale found al www.avnel.com exclusively which are incorporated into and form a part of this document as if set foth at iength hereln.
+Certificate of Compllance/Conformance:
+Seller hereby certifies that this shipment is part of the shipment covered by the Manufacturer's documentation. Results of all substantlating tests and other
+evidence supporting such documentation are elther on file with Seller or the Seller will assist to request from the Manufacturer of the product if requested by
+Buyer. Warrantles provided by Seller, if any, are subject to the Seller's Terms and Conditions of Sate found at
+http://www.avnet.com/en-us/leqal/pades/terms-and-condition.aspx or the applicable written aareement between Seller and Buver.
+Vice President - Logistics Operations, Asia Pacifio ALS
+Kaven Koh.
+E
+20</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>AVNET 1161555980.pdf</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>2</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr">
+        <is>
+          <t>/VNET
+Packing List
+AVNET TECHNOLOGY HONG KONG LIMITED
+22/F, Tower 2, Enterprise Square Five,
+38 Wang Chiu Road,
+1161555980 I| ¿|¿
+AVNET TECHNOLOGY
+Kowloon Bay, Kowloon,
+HONG KONG LIMITED
+Hong Kong
+Del. No: 132343890 I|||| |||||||
+TEL:(852)2176-5388
+Invoice Date
+:08/23/2023
+FAX:(852)2790-2182
+Confirmed Ship Date
+:08/23/2023
+Page 1 of 1
+Deliver To:
+Ship To:
+Hisense Broadband Multimedia
+Hisense Broadband Multimedia
+CIO CYTS-SPIRIT LOGISTICS LIMITED
+CIO CYTS-SPIRIT LOGISTICS LIMITED
+6/F, EVER GAIN CENTRE,
+6/F,EVER GAIN CENTRE,
+43-57 WANG WO TSAI STREET,
+43-57 WANG WO TSAI STREET,
+HONGKONG
+HONGKONG
+HONG KONG
+HONG KONG
+ETAIN.CHEUNG/3902 0582
+ETAIN.CHEUNG/3902 0582
+Care of:
+CYTS-SPIRIT LOGISTICS LIMITED
+6/F, EVER GAIN CENTRE,
+43-57 WANG WO TSAI STREET,
+TSUEN WAN, N.T.,
+HK
+HONG KONG
+Delivery Terms
+: LDO Hong Kong
+Port of Arrival
+: Hong Kong
+Port of Departure : Hong Kong
+Total Cartons
+1
+Total Quantity
+:
+2,000.000
+Total Gross Weight
+0.800KG
+Total Net weight :
+0.500KG
+•
+Shipping Remarks
+Inhouse#ZGD-506058
+Ctn
+Part No
+Good Description
+Shipped Qty
+Customer Part No
+Tariff Code
+MFG
+SO/DO /PO#/ PO Item
+US ECCN/Local ECCN
+Origin
+1
+X1G005221001600
+SG3225EEN 156.25MHZ CJHA/X1G00522100160
+2,000
+1111001601
+EPSON
+199143826/132343890/4510074406/20
+EAR99/NONCONTROL
+Thailand
+Dimension
+:
+41.000× 21.000× 21.000CM
+Net Weight
+:
+0.500KG
+Gross Weight
+:
+0.800KG
+This sate is governed by Avnet's Terms and Conditions of sale found al www.avnet.com exclusively which are incorporated into and form a part of this document as if set forth at length herein.</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>LUXNET DI202309001.pdf</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>1</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F624" t="inlineStr">
+        <is>
+          <t>*WAYBILL DOC*
+WPX
+居理昌
+Met ls be aiached to pac)age-Hand te Courer
+2023:02-04.MYDHL11
+Shippar:
+Contech
+LUXNET CORPORATION
++88634525108ex13001
+Atlta Lee
+No.6, HoJTang Rd., Zhongll Dist,
+Teoyuan Clty 32061, Tatwen
+32061 JUNGLI TAOYUAN CITY
+Tatan
+Recelver :
+Contacl:
+HISENISE CIO,CYTS-SPIITLOGISIICS UITED
+Wing Lal
+Wing Lal
++85239020582
+6IF, Ever Galn Centra,43-57 Wang Wo
+whops3gcyts-splricon
+Tsal GVeet, Tstn Wan,N.T.,
+HONG KONG
+Hong Kong SAR, China
+1
+TW-TTT-CKW HK-HKG-HKC
+•
+•
+Produot Detalts:
+Fertures /Serlcas [brmice cede
+(PJ EXPRESS WORL¿WDE(4B)
+Emergency Situation(CR)
+Payer Detalls
+Import Bling(DT)
+Frelght A/C: 953065956
+Duty A/C: 953065956
+Taxes A/C: D53055956
+Shipment Delalle
+Ref: Di202309001(ZGD-506134)
+Custon Vel: 13,322.10 USD
+Pleces
+Cuul Drd Spi Nat ¿uо ID ato
+1.5kg
+1
+¿apscatis)
+钩t
+Dta (m
+Contenta: Optical
+Parts
+WAYBILL 49 0610 9948
+TA* ¿¿les¿plinsin pped
+JD014600011158227035
+费
++Pag 10
+e程</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>LUXNET DI202309001.pdf</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>2</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "DI202309001",
+    "Invoice Date": "2023/09/04",
+    "Currency": "USD",
+    "Amount": 13322.1,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Limited",
+    "From": "LuxNet Corporation"
+}</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "DI202309001",
+    "Invoice Date": "2023/09/04",
+    "Currency": "USD",
+    "Amount": 13322.1,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Limited",
+    "From": "LuxNet Corporation"
+}</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr">
+        <is>
+          <t>No.6, Hejiang Rd., Zhongll Dist.,
+LUXNET
+Taoyuan City 32061, Talwan
+*0NnORATID N
+Tel:+886-3-452-5188
+Fax:+806-3-462-9588
+COMMERCIAL INVOICE
+INVOICE NO. DI202309001
+Date:
+2023/09/04
+Bill to Hisense Broadband Multimedia Technologles (HK) Co.,Limited
+Attn:梁嘉欣 Jessie Llang
+Room,3101-3105, Singga Commerclal Centre, 148 Connaught Road West, Hong Kong
+TEL:13427238424
+Ship to HISENSE BROADBAND MUL TIMEDIA TECH.,(HK) CO.,LTD.
+Attn:Wing Lal
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsal Street, Tsuen Wan, N.T., HONG KONG
+TEL;+852-3902-0582
+(C/O:CYTS-SPIRIIT LOGISTICS LIMITED)
+Shlpped by
+LuxNet Corporation
+Per
+DHL # 4906109946
+salling on or about
+2023/09/04
+LIC No.
+P/O Number AS BELOWS
+Reference No.
+人仓号:ZGD-506134
+Contract No.
+Notify:
+P/L Number
+230900002
+Lister
+PO
+DESCRIPTION OF GOODS
+QUANTITY
+UNIT PRICE
+AMOUNT
+Optical Parts
+Item NO:L-CR-CP99-01
+24,222 PCS
+US$
+@
+0.55
+USS
+13,322.10
+5070089517
+2.5Ghps 1310/1550 nm PIN PD(4411008401)
+Harmonized Code:8541.10.90.00-9
+24,222 PCS
+TOTAL AMOUNT
+US$
+13,322.10
+wwwwwwwwwwwwwwwwwwwvwwwwwvvwwwwvw
+TERM: FCA
+NO BRAND
+Luxnet Corporation
+Remark: Guangdong Hisonse Broadband
+Authorized Signature
+心P
+周東照
+N京
+己额
+進出口客用章
+遗出□喜用章
+Anitalee</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>LUXNET DI202309001.pdf</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>3</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "DI202309001",
+    "Invoice Date": "2023/09/04",
+    "Currency": "USD",
+    "Amount": 13322.1,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Limited",
+    "From": "LuxNet Corporation",
+    "Description of Goods": "Optical Parts 2.5Gbps 1310/1550 nm PIN PD(4411008401)",
+    "Quantity": "24,222 PCS",
+    "Unit Price": "US$ 0.55",
+    "Total Amount": "US$ 13,322.10"
+}</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "DI202309001",
+    "Invoice Date": "2023/09/04",
+    "Currency": "USD",
+    "Amount": 13322.1,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Limited",
+    "From": "LuxNet Corporation",
+    "Description of Goods": "Optical Parts 2.5Gbps 1310/1550 nm PIN PD(4411008401)",
+    "Quantity": "24,222 PCS",
+    "Unit Price": "US$ 0.55",
+    "Total Amount": "US$ 13,322.10"
+}</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr">
+        <is>
+          <t>No.6, Hejiang Rd., Zhongli Dist.,
+Taoyuan City 32061, Taiwan
+Tel: +886-3-452-5188
+Fax: +886-3-462-9588
+COMMERCIAL INVOICE
+INVOICE NO. DI202309001 Date: 2023/09/04
+Bill to Hisense Broadband Multimedia Technologies (HK) Co.,Limited
+Attn:梁嘉欣 Jessie Liang
+Room, 3101-3105, Singga Commercial Centre, 148 Connaught Road West, Hong Kong
+TEL:13427238424
+Ship to HISENSE BROADBAND MULTIMEDIA TECH.,(HK) CO.,LTD. Attn:Wing Lai
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan,N.T., HONG KONG TEL:+852-3902-0582
+(C/O : CYTS-SPIRIT LOGISTICS LIMITED )
+Shipped by LuxNet Corporation Per DHL # 4906109946
+sailing on or about 2023/09/04 From Taiwan to HONG KONG
+L/C No. P/O Number AS BELOWS
+Reference No. 入仓号: ZGD-506134 Contract No.
+Notify: P/L Number 230900002
+Lister
+PO DESCRIPTION OF GOODS QUANTITY UNIT PRICE AMOUNT
+Optical Parts
+Item NO: L-CR-CP99-01 24,222 PCS US$ @ 0.55 US$ 13,322.10
+5070089517
+2.5Gbps 1310/1550 nm PIN PD(4411008401)
+Harmonized Code : 8541.10.90.00-9
+24,222 PCS TOTAL AMOUNT US$ 13,322.10
+vvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv
+TERM : FCA
+NO BRAND Luxnet Corporation
+MADE IN TAIWAN
+Remark: Guangdong Hisense Broadband Anita.Lee
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>LUXNET DI202309001.pdf</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>4</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr">
+        <is>
+          <t>PACKING LIST
+PL Number: 230900002
+Invoice No: DI202309001 Date: 2023/9/4
+Messrs.: Hisense Broadband Multimedia Technologies (HK) Co.,Limited
+Ship From: 華星光通科技股份有限公司 LuxNet Corporation.
+桃園巿中壢區合江路6號 電話:(03)4525188 傳真:(03)4629588 統一編號:12927477
+No.6, Hejiang Rd., Zhongli Dist., Taoyuan City 32061, Taiwan Tel:+886-3-4525188 Fax:+886-3-4629588
+Warehouse No.: ZGD-506134
+Ship By: Anita Li
+淨重
+Item No Part No. Lot No. Description Q'ty(Lot) PO #
+N/W(kg)
+P060C-0115-10-012*6080 , P060C-0115-10-013*5890 ,
+1 L-CR-CP99-01 2.5Gbps 1310/1550 nm PIN PD(4411008401) 24,222 5070089517 0.002
+P060C-0115-10-014*4621 , P060C-0115-10-015*7631
+2
+3
+4
+5
+6
+淨重Net Weight(kg): 0.002 Summary(Q'ty) 24222
+毛重Gross Weight(kg): 1.50 Remark: Guangdong Hisense Broadband
+第 1 箱 共 1 箱</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>LUXNET DI202309001.pdf</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>5</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "DI202309001",
+    "Invoice Date": "2023/09/04",
+    "Currency": "USD",
+    "Amount": 13322.1,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Limited",
+    "From": "LuxNet Corporation",
+    "Description of Goods": "Optical Parts 2.5Gbps 1310/1550 nm PIN PD(4411008401)",
+    "Quantity": "24,222 PCS",
+    "Unit Price": "US$ 0.55",
+    "Total Amount": "US$ 13,322.10"
+}</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "DI202309001",
+    "Invoice Date": "2023/09/04",
+    "Currency": "USD",
+    "Amount": 13322.1,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co.,Limited",
+    "From": "LuxNet Corporation",
+    "Description of Goods": "Optical Parts 2.5Gbps 1310/1550 nm PIN PD(4411008401)",
+    "Quantity": "24,222 PCS",
+    "Unit Price": "US$ 0.55",
+    "Total Amount": "US$ 13,322.10"
+}</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr">
+        <is>
+          <t>No.6, Hejiang Rd., Zhongli Dist.,
+Taoyuan City 32061, Taiwan
+Tel: +886-3-452-5188
+Fax: +886-3-462-9588
+COMMERCIAL INVOICE
+INVOICE NO. DI202309001 Date: 2023/09/04
+Bill to Hisense Broadband Multimedia Technologies (HK) Co.,Limited
+Attn:梁嘉欣 Jessie Liang
+Room, 3101-3105, Singga Commercial Centre, 148 Connaught Road West, Hong Kong
+TEL:13427238424
+Ship to HISENSE BROADBAND MULTIMEDIA TECH.,(HK) CO.,LTD. Attn:Wing Lai
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Tsuen Wan,N.T., HONG KONG TEL:+852-3902-0582
+(C/O : CYTS-SPIRIT LOGISTICS LIMITED )
+Shipped by LuxNet Corporation Per DHL # 4906109946
+sailing on or about 2023/09/04 From Taiwan to HONG KONG
+L/C No. P/O Number AS BELOWS
+Reference No. 入仓号: ZGD-506134 Contract No.
+Notify: P/L Number 230900002
+Lister
+PO DESCRIPTION OF GOODS QUANTITY UNIT PRICE AMOUNT
+Optical Parts
+Item NO: L-CR-CP99-01 24,222 PCS US$ @ 0.55 US$ 13,322.10
+5070089517
+2.5Gbps 1310/1550 nm PIN PD(4411008401)
+Harmonized Code : 8541.10.90.00-9
+24,222 PCS TOTAL AMOUNT US$ 13,322.10
+vvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvvv
+TERM : FCA
+NO BRAND Luxnet Corporation
+MADE IN TAIWAN,CHINA
+Remark: Guangdong Hisense Broadband Anita.Lee
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>LUXNET DI202309001.pdf</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>6</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F629" t="inlineStr">
+        <is>
+          <t>PACKING LIST
+PL Number: 230900002
+Invoice No: DI202309001 Date: 2023/9/4
+Messrs.: Hisense Broadband Multimedia Technologies (HK) Co.,Limited
+Ship From: 華星光通科技股份有限公司 LuxNet Corporation.
+桃園巿中壢區合江路6號 電話:(03)4525188 傳真:(03)4629588 統一編號:12927477
+No.6, Hejiang Rd., Zhongli Dist., Taoyuan City 32061, Taiwan Tel:+886-3-4525188 Fax:+886-3-4629588
+Warehouse No.: ZGD-506134
+Ship By: Anita Li
+淨重
+Item No Part No. Lot No. Description Q'ty(Lot) PO #
+N/W(kg)
+P060C-0115-10-012*6080 , P060C-0115-10-013*5890 ,
+1 L-CR-CP99-01 2.5Gbps 1310/1550 nm PIN PD(4411008401) 24,222 5070089517 0.002
+P060C-0115-10-014*4621 , P060C-0115-10-015*7631
+2
+3
+4
+5
+6
+淨重Net Weight(kg): 0.002 Summary(Q'ty) 24222
+毛重Gross Weight(kg): 1.50 Remark: Guangdong Hisense Broadband
+第 1 箱 共 1 箱</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F629"/>
+  <dimension ref="A1:F642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60853,6 +60853,1683 @@
         </is>
       </c>
     </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>111.pdf</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>1</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F630" t="inlineStr">
+        <is>
+          <t>电子发票(普通发票)
+发票号码:23502000000039955212
+开票日期:2023年11月11日
+购
+销
+-
+买
+名称:重庆电讯职业学院
+名称:江津区徐先国餐厅
+油
+售
+方
+方
+济
+信
+统一社会信用代码/纳税人识别号:52500000688918935T
+信
+牌
+统一社会信用代码/纳税人识别号:92500116MA5YBMMN57
+··
+息
+息
+-
+项目名称
+规格型号
+单 位
+数 量
+单 价
+金额
+税率/征收率
+税额
+*餐饮服务*餐饮费
+715.84
+1%
+7.16
+合
+计
+¥715.84
+¥7.16
+价税合计(大写)
+×柒佰贰拾叁圆整
+(小写)¥723.00
+备
+注
+开票人:余倩
+电子发票(普通发票)
+发票号码:23502000000039955222
+开票日期:2023年11月11日
+购
+销
+-
+买
+名称:重庆电讯职业学院
+售
+名称:江津区徐先国餐厅
+★
+方
+方
+泮
+信
+统一社会信用代码/纳税人识别号:52500000688918935T
+信
+潭
+统一社会信用代码/纳税人识别号:92500116MA5YBMMN57
+··
+息
+息
+-
+项目名称
+规格型号
+单 位
+数量
+单 价
+金额
+税率/征收率
+税额
+*餐饮服务*餐饮费
+792.08
+1%
+7.92
+合
+计
+¥792.08
+¥7.92
+价税合计(大写)
+×捌佰圆整
+(小写)¥800.00
+备
+注
+开票人:余倩</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>HK00213635.pdf</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>1</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "HK00213635",
+    "Invoice Date": "2023/5/8",
+    "Currency": "USD",
+    "Amount": 16254.7,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LTD.",
+    "From": "Hitachi High-Tech Hong Kong Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "HK00213635",
+    "Invoice Date": "2023/5/8",
+    "Currency": "USD",
+    "Amount": 16254.7,
+    "Bill To": "HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO., LTD.",
+    "From": "Hitachi High-Tech Hong Kong Ltd."
+}</t>
+        </is>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F631" t="inlineStr">
+        <is>
+          <t>Hitachi High-Tech Hong Kong Ltd.
+8/F, Building 20E, Phase 3, Hong Kong Science Park,
+Pak Shek Kok, N.T., Hong Kong
+TEL: 852-2737-4700
+FAX: 852-2370-7255
+Invoice
+Bill To: PAGE 1/1
+Purchasing Departmet Invoice No.: HK00213635
+HISENSE BROADBAND MULTIMEDIA TECHNOLOGIES (HK) CO.,LTD. Invoice Date : 2023/5/8
+ROOMS 3010-3105 SINGGA COMMERCIAL CENTRE Inco Terms : FCA JAPAN
+148 CONNAUGHT ROAD WEST HONG KONG Terms Of Payment : T/T 60 DAYS MONTYLY
+Shipped Per : DHL
+Ship To : Shipment date: 2023/5/8
+Loading Port : TOKYO
+CYTS-SPIRIT LOGISTICS LIMITED Discharge Port : HONG KONG
+Eternity Warehouse 6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street, Vendor Code: 5001060
+Tsuen Wan, N.T.. HONGKONG
+boyim@cyts-spirit.com
+Item Cust. PO No. Description Part NO. Quantity Unit Price Amount
+(PCS) (USD) (USD)
+1 4510070544 4501000301 KCMT018C62 2,111 7.70 16,254.70
+Total : 2,111 16,254.70
+Packing list
+COUNTRY Gross
+OF ORIGIN Quantity(PCS) Carton Net Weight(KGS) Weight(KGS) CBM(CM)
+JAPAN 4501000301 2,111 1-1 0.10 1.30 25X33X15
+Total: 2,111 1 0.10 1.30
+Remarks:
+Remit to : MUFG BANK LTD HONG KONG BRANCH
+Account Name : HITACHI HIGH-TECH HONG KONG LTD
+Account No : 047-821-85806018194
+Swift Code : BOTKHKHH
+for Hitachi High-Tech Hong Kong Ltd.
+Authorized Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>IR 103720.pdf</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>1</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "103720",
+    "Invoice Date": "7/8/2023",
+    "Currency": "USD",
+    "Amount": 22050.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "IR Corporation Pte Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "103720",
+    "Invoice Date": "7/8/2023",
+    "Currency": "USD",
+    "Amount": 22050.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "IR Corporation Pte Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F632" t="inlineStr">
+        <is>
+          <t>汉
+IR Corporation Pte Ltd
+Invoice Number : 103720
+Date
+:7/8/2023
+Company Registration No.:199801375R
+GST Reg No.:M289226834
+Term
+: 30 days
+63 Hillview Avenue
+DO Ref
+#08-11 Lam Soon Industrial Buiding
+: 104478
+Tel:(65)6896 7492 Fax:(65)6896 7490
+Order Ref
+:5060030263
+Email:enquiry@ircorp.com.sg
+Order Date
+:6/9/2023
+TAX INVOICE
+Customer Code:
+C00012
+Delivery Address:
+Hisense Broadband Multimedia Technologies (HK) Co.,
+Limited
+Rooms 3101-05 Singga
+C/O: CYTS-SPIRIT LOGISTICS LIMITED
+Commercial Centre 148 Connaught
+6/F, Ever Gain Centre,43-57
+Road West Hong Kong
+Wang Wo Tsai Street, Tsuen Wan, N.T., Hong
+Kong
+Attn:
+Tel: 852 2259 0195
+Fax:
+Page 1 of 1
+SrNo
+Product Code / Description
+Quantity UOM
+Unit Price
+Amount
+1
+5430004601
+1,500
+SYR
+14.700
+22,050.00
+ACRYLATE ADHESIVES PHOTOBOND AD491 VE54998,
+3CC,
+COUNTRY OF ORIGIN: GERMANY
+WEIGHT: 3 GRAMS/ SYRINGE
+YOUR PO#5060030263 DATED: APR 18,2023
+BATCH NUMBER: 20330811, EXP Date: 11-MAR-2024
+817418234092
+SUBTOTAL
+22,050.00
+Remarks:
+Ex-Work Singapore via FedEx A/C:293857954
+0.00
+Add GST @
+0.00 %
+0.00
+GST Base Currency:
+US Dollar
+NET AMOUNT
+22,050.00
+Currency:
+Amt in Words
+US DOLLAR TWENTY-TWO THOUSAND FIFTY US DOLLARS ONLY.
+Please notify us within 7 days from the date of the invoice should there
+IR Corporation Pte Ltd
+be any discrepancy.
+BANK DETAILS
+United Overseas Bank Limited
+298 Tiong Bahru Road, #01-01/02 Central Plaza, Singapore 168730
+SGD Account No.407-306-260-2 USD Account No.407-900-047-1
+EUR Account No.393-900-040-0
+Bank Code:7375 Branch Code:437 Swift Code: UOVBSGSG
+*All bank charges incurred must be borne by payer.
+Authorised Signature
+heque should be crossed and made payable to IR Corporation Pte Ltd.
+北d</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>IR 103720.pdf</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>2</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F633" t="inlineStr">
+        <is>
+          <t>印
+IR Corporation Pte Ltd
+DO Number
+:104478
+Date
+:7/8/2023
+Company Registration No.: 199801375R
+GST Reg No.: M289226834
+Order Ref
+:5060030263
+63 Hillview Avenue
+#08-11Lam Soon Industrial Buiding
+Tel:(65)6896 7492 Fax:(65)6896 7490
+Email:enquiry@ircorp.com.sg
+DELIVERY ORDER/PACKING LIST
+Customer Code:
+C00012
+Sold To:
+Delivery To:
+Hisense Broadband Multimedia Technologies (HK) Co.,
+Limited
+Rooms 3101-05 Singga
+C/O: CYTS-SPIRIT LOGISTICS LIMITED
+Commercial Centre 148 Connaught
+6/F, Ever Gain Centre,43-57
+Road West Hong Kong
+Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+Attn:
+Tel: 852 2259 0195
+Fax:
+Page 1 of 1
+SrNo
+Product Code / Description
+Quantity UOM
+1
+5430004601
+1,500 SYR
+ACRYLATE ADHESIVES PHOTOBOND AD491 VE54998,3CC,
+COUNTRY OF ORIGIN: GERMANY
+WEIGHT: 3 GRAMS / SYRINGE
+YOUR PO#5060030263 DATED: APR 18,2023
+BATCH NUMBER: 20330811, EXP Date: 11-MAR-2024
+Delivery Term: Ex-Work Singapore via FedEx A/C: 293857954
+No of PKG:
+01 CTN
+Total Weight:
+13 KG
+Dry Ice Weight:
+N.A
+Dimension:
+41×41×46 CM
+Remarks:
+(GOODS DELIVERED ARE FOR EXPORT) MSDS and C.O.C Attached
+Goods sold cannot be returned or exchanged The goods described in this DO remains our property until fully paid.
+Goods received in good order and condition.
+IR Corporation Pte Ltd
+Acknowledgement
+Authorised Signature
+水</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>IR 103720.pdf</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>3</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F634" t="inlineStr">
+        <is>
+          <t>Expanded Service
+Sender's Copy
+FedEx。
+International Air Waybill
+Express
+、 For FedEx services worldwide.
+!
+Not all services and options are available to all destinations.
+New service offered in section 4: FedEx Intl. Priority Express.
+1 From Please print and press hard.
+Note: The service order has changed.
+Sender's FedEx
+For Completion Instructions, and details on services and options, see back of fourth page.
+Date
+Account Number
+COUNT NUMBER ONLY
+Sender's
+0425
+Name
+Phone
+FedEx Tracking Number
+8174 1823 4092
+Form ID No.
+Company
+4a Express Package Service
+Packages up to 150 lbs./68kg
+Address
+□ FedEx Intl. First
+□ FedEx Intl. Priority Express
+Delivery by noon to select locations.
+Address
+FedEx Intl. Priority
+□ FedEx Intl. Economy
+Delivery by end of day.
+State
+City
+Province
+Country/
+ZIP
+4b Express Freight Service
+Packages over 150 lbs./68 kg
+Territory
+Postal Code
+FedEx Intl. Priority Freight
+□ FedEx Intl. Economy Freight
+Email
+Address
+Booking Number
+REQUIRED
+Internal Billing
+Please call your nearest FedEx location to book shipments.
+Reference
+TARACTERS WILL APPEAR ON INVOICE
+5 Packaging
+2 To
+□ FedEx Envelope
+□ FedEx Pak
+□ FedEx Box
+□ FedEx Tube
+□ Residential Delivery
+Recipient's
+□ FedEx 10kg Box
+□ FedEx 25kg Box
+Other
+Name
+Phone
+6a Special Handling and Delivery Signature Options
+Fees may apply. See the FedEx
+Service Guide. Not available to
+Company
+Hold at FedEx Location
+□ Saturday Delivery
+all locations or for all shipments.
+Address
+□
+Direct Signature
+□
+Indirect Signature
+Someone at recipient's address
+If no one is available at recipient's address,
+may sign for delivery.
+someone at a neighboring address may sign for delivery.
+Address
+Does this shipment contain dangerous goods?
+-One box must be checked /ticked.
+State
+Dry Ice
+City
+Province
+□ No
+Yes
+□ Yes
+□
+As per attached
+Shipper's Declaration
+DryIce,9, UN 1845
+×
+kg
+Country/
+ZIP
+Shipper's Deciaration.
+not required.
+Territory
+Postal Code
+Restrictions applyfor dangerous goods — see the current FedEx Service Guide.
+□ Cargo Aircraft Only
+Email
+6b Broker Selection Optional To specify a broker other than FedEx.
+Address
+Recipient's Tax ID Number
+□ Intl. Broker Select
+BROKER'S NAME
+GST/RFC/VAT/IN/EIN/ABN/TIN, OR AS LOCALLY REOUIRED
+for Customs Purposes
+Broker's Email
+3 Shipment Information
+Ciy/ State/ Province/Country/ Territory
+□ 帅bs.
+□in.
+Total Packages
+Total
+REQUIRED
+Shipper's Load and Count/SLAC
+Weight
+kg DIM
+cm
+ZIP/Postal Code
+Phone
+Commodity Description
+Harmonized Code
+Country of
+Value for Customs
+Payment Complete payment options for both transportation charges and duties and taxes.
+DETAIL REQUIRED. PRINT IN ENGLISH.
+Manufacture
+Bill transportation charges to:
+Enter FedEx Acct. No.or Credit Card No.below.
+□ Sender Acet. No.in
+□ Third Party □ Credit Card
+□ Check
+Cash
+Recipient
+Section 1 will be billed.
+Cheque
+FedEx Acct No.
+FedEx Use Only
+Credit Card No.
+Credit Card Exp. Date
+Bill duties and taxes to:
+/Enter FedEx Acct. No.below.
+□
+Sender Acct No.in
+Recipient
+□ Third Party
+Section 1 will be billed.
+FedEx Acct No.
+8 Required Signature
+Use of this Air Waybill constitutes your agreement to the Conditions of Contract on the back of this Air
+Has EEI been filed in AES?
+Total Declared Value
+Total Value
+Waybill, and you represent that this shipment does not require a U.S. State Department license. Certain
+international treaties, including the Warsaw or Montreal Convention, may appiv to this shipment and limit
+For U.S. Export Only: Check One
+for Carriage
+for Customs
+our liability for damage, loss, or delay, as described in the Conditions of Contrts
+No EEl required, value $2,500 or less per Schedule B Number,
+(Specify Currency)
+no license required (NLR), not subject to ITAR.
++,If other than NLR, enter License Exception:
+Sender's
+Signature:
+□ No EEl required, enter exemption number:
+ID:4413907
+FedEx
+Courier Receipt:
+Date:
+□ Yes - Enter AES proof of filing citation:
+For letter of credit shipments only.
+PART 158411*Rev. Date 11/19•©1994-2019 FedEx • PRINTED IN U.S.A.• Non-Negotiable International Air Waybill
+For questions or to ship and track packages, go to fedex.com.
+Orin the U.S.call 1.800.GoFedEx 1.800.463.3339.
+Terms and conditions of service may vary from country to country.
+711
+For a full version of the Conditions of Contract, go to fedex.com.
+Pikp No: 5603t
+080722
+228686697
+Ms momiko
+(65)68967492
+IRurporation fEe Ltd
+63 Hiilview Aunre #08-11
+msoun Industrial Building
+Smgapore
+669569
+7
+Inv #:103720
+ungthi曾慧
+(0750)3997870
+h
+HBnSC Broadband Multinedia Technologies (+)Y) co,inite
+C10=CYTS-SPIRIT WgBTiC LMitd
+6/F,lVLr Gain centre,43-57 wang Tsui street
+Tsuen Wan,NT
+Hong kng
+zengttni 3@ hizinse.cm
+01CM
+13.0
+41x41x46
+on
+U50
+b
+Epoxy
+22,050.00
+Arcylnte Alhesives
+293857954
+Photobond A0491,E54998,34
+UN176D,Class 8
+293857954
+USD
+1m4 071081008
+07108/20022
+22,050.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>IR 103720.pdf</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>4</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F635" t="inlineStr">
+        <is>
+          <t>SHIPPER'S DECLARATION FOR DANGEROUS GOODS
+Shipper
+AirWaybill No.8174 1823 4092
+IR CORPORATION PTE LTD
+63 HILLVIEW AVENUE,
+Page 1 of 1 Pages
+#08-11 LAM SOON INDUSTRIAL BUILDING
+SINGAPORE 669569
+Shipper's Reference Number 103720
+(optional)
+Consignee
+Hisense Broadband Multimedia Technologies (HK) Co. Limited
+C/O: CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street,
+Tsuen Wan, N.T.,Hong Kong
+Two completed and signed copies of this Declaration must be
+WARNING
+handed to the operator
+Failure to comply in all respects with the
+TRANSPORT DETAILS
+applicable Dangerous Goods Regulations
+This shipment is within the
+Airport of Departure
+may be in breach of the applicable law,
+limitations prescribed for
+subject to legal penalties.
+(delete non- applicable)
+SINGAPORE
+CARGO
+AIRCRAFT
+XXXXX×XX
+ONLY
+HONG KONG
+Shipment type (delete non- applicable)
+Airport of Destination
+NON - RADIOACTIVE XXXXXXXXXX×
+NATURE AND QUANTITY OF DANGEROUS GOODS
+Dangerous Goods Identification
+UN
+Class
+or
+Proper Shipping Name
+or Division
+Packing
+Quantity and
+Packing
+ID
+(Subsidiary
+Authorization
+Group
+type of packing
+Inst.
+No.
+Risk)
+UN
+CORROSIVE LIQUID, N.O.S.
+8
+Ⅱ
+1 FIBREBOARD BOX
+855
+1760
+(ACRYLIC ACID, MIXTURE)
+X4.5L
+Additional Handling Information
+24 HR SHIPPER EMERGENCY CONTACT TEL:+65 68967492
+I hereby declare that the contents of this consignment are fully and
+Name /Title of Signatory
+accurately described above by the proper shipping name, and are
+MOMIKO/LOGISTIC ASSISTANT
+classified, packaged, marked and labelled/placarded, and are in all
+Place and Date
+ATloN
+respects in proper condition for the transport according to
+SINGAPORE
+07 AUG 2023
+applicable International and national governmental regulations.I
+Signature
+㎡T
+declare that all of the applicable air transport requirements have
+(see warning above)
+6
+been met.
+★
+CAR 064C
+ly</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>IR 103704.pdf</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>1</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F636" t="inlineStr">
+        <is>
+          <t>Samiterrs Cany
+C0
+.40
+Express
+For FadEx services wortdwidle.
+WV6s921DE01T4n94809香3率022011033
+Not all servicns and options are available to all destinations.
+RTTENAIanAuSTF Da
+1 From Please print and press hard.
+Sender's FediEx
+ForCopfsfiosbsaon:liniv,and dalaile ont Rorvicos and ephess, ssebatf af fory谁ipngn.
+Date
+Account Number
+Sender's
+0425
+Phone
+TelEx hraringNenhur
+8374 1823 4130
+FortD No.
+Name
+Company
+4a Express Paekage Service
+Packages up te 150 18s.188kg
+Address
+[ FedEx Inil, First
+□ FedEx Intl, Prierity Express
+D+lvory bg noonto.seleclIncalions.
+Address
+FedEx Inti, Priority
+□ FodEx ial Economy
+Bekvrery b ond of day.
+Siate
+City.
+Province
+4 Expreass Freight Service
+Packages over 150 16s./G8kg
+Country!
+ZIP
+Postat Cade
+FedEx Intl. Priority Freight
+□ FedEx Intf. Economy freight
+Territoty
+Emall
+Address
+BoiegBg理
+PAo e38yso GssreSitnExlecsNinio heak shigirents
+Interal Billing
+Refurence
+5 Packaging
+□ FodEx Envelope
+□ FedEx Pak
+□ FedEx Box
+1 FedEx Iibe
+2
+To
+□ Residential Dafivery
+□ FedEx 10kg Box
+□] FedEx25kg Box
+Other.
+Recipient's
+Name
+Phone
+.6a Special Handling and Belivery Sigaature 0ptions
+Hnes hag opply Setsafedtx
+Sersstssde Mat sedate l
+5 Hokd at FedEx Location
+□ Saturday Delivery
+alassteespr boshpmedle
+Company
+Oiect Signature
+□
+Indirect Siguature
+Address
+□
+Sorec aTfcipents eddress
+Hna eseissvsatse af tatien's addeess,
+w*nd
+semepu al watcighborirg cduiress may sin fou dwiy.
+Address
+Mees this slspeseot cowesie darggereos. goeds?
+号hWs:822q4/4ed
+State
+E No
+□ Yes
+□
+Dry len
+Ciy
+Province
+Yes
+0iylce,9001855..
+Asgaretedtyd
+Swp Dedogoa
+Countryl
+ZIP
+Sy'sbeas9
+tt4e)
+□ Cargo Airerelt Only
+Terrilory
+Postal Code.
+Wewicsou appiyte drgeoeis gorhp--otheeeertFedtx, Senicatiuide
+Email
+6b Broker Selection Dpaal lo sporify a teoter ohorthenTesEa.
+Address
+□ InB. Bikur Selent
+Recipient's Tax ID Number
+for Customs Purposes
+BterIst
+3 Shipment Information
+(srlSeteffrxhe:(CensyIXs8Y..
+□ ls.
+□jn.
+Total Packages
+¿k mM.
+2/nsatods_.
+Phom
+Shippsr'sbeedland CoreSAC
+Weight
+jcm
+Hasmenized Cude
+County of
+Value for Custoes
+7 Payment eovplato paymorit optant fer hohtisnsportation crgss and tuties aA3se
+Cummidity Description
+Manulactie
+DETAIL REOUIRED. FRINT IN ENGUSH.
+B transpartatfon charges tn:
+纸
+Voter FodEx Aect.No.cr Decdil Cani No.balow.--
+Cash
+□
+Sender Aoct #to.j
+Rucipaent
+□ TidParty □ Crefi Card
+□J Check
+Sesilwl瞬e
+Chaque
+FgfExfcdtNu..
+FodEx lJsg 0nly
+GR6f9fo..
+Cedt Condtsrd03%..
+Bill duties and faxes to:
+Faex TedEx,Aeea Be.hew.
+[
+□
+Seador Acdt Na.l
+Recipient
+□ TidPary
+Sedtontwlhabeed
+Isfx8Al
+8 Required Signature
+Use of shis Air Waybill censtitutes your agreement to the Cordtians of Centact on the back of this Air
+Weyhall, and you represent (hiat this shipment dnes iot roquire a U.S. Stale Dopatimsnt ficease. Caitain
+Hos EEl heon Bed in AES?
+Total Declared Volun
+Toial Valuo
+internatonat treaties, including the Waisaw or Montreal Conventine, nay apply to this shipment en fimi
+FoafS. I'spsut 0odetherk 8es
+fo: Caoiage
+for Custems
+eu liabily for damage, loss, or detay, as described in ine Conditions of Conract.
+(Specify Cuareney!
+□ HotEhrendted, vahuu $y.u er lers per Schedub a Nurte
+MoNetnve regiued Uпi, rsufoctt IAB
++,lemerguan都f cdherticensataceydew
+Sender's
+Sigaatore:
+□Notthreqaired, eter essnglionumbor:
+FedEx
+Courer Receipt:
+Dat:
+□ Nes-tmer AES proot of fiiag cipnfin:
+Tor leter dforadi slperests tly
+WRT841vate Ti/S 00S1 2015 EPNTED ES AL Non Negolialle lialinnel ãVaal
+For questions or to ship and track packages.goto fedlex.com.
+Or in the U.S. calf 1.800.GoFedEx 1,800.463.3339.
+Terms and conditions of service may vary from coumntry to countty.
+711
+For a iull version of the Cenditioas of Contract go te fedex.com.
+Expanded Soivice
+Intemational AirWaybil
+开测2
+2286 8669t
+M3mMikO
+(65)6896749
+IR urpentivn Pe ild
+63veWan4e #08-11
+Lan sim industrt Buldg
+Songsgers
+669569
+7
+IN103时04
+Iegi曾慧
+10750)394+87
+Hcense Bruadbant meHimedia Tethapioges (y)con
+le=cyc-spiit unistie umited
+/E,2drGaim Centre 3:5 wam Tsat straet
+Ces WnNT
+hongtng
+TeAgui 2aliserst.cor
+01CRoat
+130
+41 X41x46
+40x9
+150
+Artyute Adlesies
+22,05009
+293857954
+Pufoland A0411 V054978,30
+UN146O,dass8
+293859954
+150
+My24州03
+22,05日.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>IR 103704.pdf</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>2</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>IR Corporation Pte Ltd
+DO Number
+:104464
+Date
+:24/7/2023
+Company Registration No.:199801375R
+GST Reg No.:M289226834
+Order Ref
+: 5060030263
+63 Hillview Avenue
+#08-11Lam Soon Industrial Buiding
+Tel:(65)6896 7492 Fax:(65)6896 7490
+Email:enquiry@ircorp.com.sg
+DELIVERY ORDER/PACKING LIST
+Customer Code:
+C00012
+Sold To:
+Delivery To:
+Hisense Broadband Multimedia Technologies (HK) Co.,
+Limited
+Rooms 310105 Singga
+C/O: CYTS-SPIRIT LOGISTICS LIMITED
+Commercial Centre 148 Connaught
+6/F, Ever Gain Centre,43-57
+Road West Hong Kong
+Wang Wo Tsai Street, Tsuen Wan, N.T., Hong Kong
+Attn:
+Tel: 8522259 0195
+Fax:
+Page 1 of 1
+SrNo
+Product Code / Description
+Quantity UOM
+1
+5430004601
+1,500 SYR
+ACRYLATE ADHESIVES PHOTOBOND AD491 VE54998,3CC,
+COUNTRY OF ORIGIN: GERMANY
+WEIGHT: 3 GRAMS / SYRINGE
+YOUR PO#5060030263 DATED: APR 18,2023
+BATCH NUMBER:20330811, EXP Date: 11-Mar-2024
+Delivery Term: Ex-Work Singapore via FedEx A/C: 293857954
+No of PKG:
+01 CTN
+Total Weight:
+13 KG
+Dry Ice Weight:
+N.A
+Dimension:
+41×41×46 CM
+Remarks:
+(GOODS DELIVERED ARE FOR EXPORT) MSDS and C.O.C Attached
+Goods sold cannot be returned or exchanged. The goods described in this DO remains our property until fully paid.
+Goods received in good order and condition.
+IR Corporation Pte Ltd
+8.00
+Acknowledgement
+Authorised Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>IR 103704.pdf</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>3</v>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "103704",
+    "Invoice Date": "24/7/2023",
+    "Currency": "USD",
+    "Amount": 22050.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "IR Corporation Pte Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "103704",
+    "Invoice Date": "24/7/2023",
+    "Currency": "USD",
+    "Amount": 22050.0,
+    "Bill To": "Hisense Broadband Multimedia Technologies (HK) Co., Limited",
+    "From": "IR Corporation Pte Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>武
+Invoice Number : 103704
+IR Corporation Pte Ltd
+Date
+:24/7/2023
+Company Registration No.:199801375R
+GST Reg No.:M289226834
+Term
+: 30 days
+63 Hilview Avenue
+DO Ref
+: 104464
+#08-11 Lam Soon Industrial Buiding
+Tel:(65)6896 7492 Fax:(65)6896 7490
+Order Ref
+:5060030263
+Email:enquiry@ircorp.com.sg
+Order Date
+6/9/2023
+TAX INVOICE
+Customer Code:
+C00012
+Delivery Address:
+Hisense Broadband Multimedia Technologies (HK) Co.,
+Limited
+Rooms 310105 Singga
+C/O: CYTS-SPIRIT LOGISTICS LIMITED
+Commercial Centre 148 Connaught
+6/F, Ever Gain Centre,43-57
+Road West Hong Kong
+Wang Wo Tsai Street, Tsuen Wan, N.T., Hong
+Kong
+Attn:
+Tel: 8522259 0195
+Fax:
+Page 1 of 1
+SrNo
+Produst Code / Description
+Quantity UOM
+Unit Price
+Amount
+1
+5430004601
+SYR
+14.700
+22,050.00
+ACRYLATE ADHESIVES PHOTOBOND AD491 VE54998,
+3CC,
+COUNTRY OF ORIGIN: GERMANY
+WEIGHT: 3 GRAMS / SYRINGE
+YOUR PO#5060030263 DATED: APR 18, 2023
+BATCH NUMBER: 20330811, EXP Date: 11-Mar-2024
+Remars :
+SUBTOTAL
+22,050.00
+Ex-Work Singapore via FedEx A/C:293857954
+GST Base Currency:
+0.00
+Add GST @
+0.00 %
+0.00
+Currency:
+US Dollar
+NET AMOUNT
+22,050.00
+Amt in Words
+US DOLLAR TWENTY-TWO THOUSAND FIFTY US DOLLARS ONLY.
+Please notify us within 7 days from the date of the invoice should there
+IR Corporation Pte Ltd
+be any discrepancy.
+BANK DETAILS
+United Overseas Bank Limited
+298 Tiong Bahru Road, #01-01/02 Central Plaza, Singapore 168730
+SGD Account No.407-306-260-2 USD Account No.407-900-047-1
+EUR Account No.393-900-040-0
+Bank Code:7375 Branch Code:437 Swift Code: UOVBSGSG
+*All bank charges incurred must be borne by payer.
+Cheque should be crossed and made payable to IR Corporation Pte Ltd.
+Authorised Signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>IR 103704.pdf</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>4</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "非发票：可能是装货单、waybill或其他"
+}</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>SHIPPER'S DECLARATION FOR DANGEROUS GOODS
+Shipper
+AirWaybill No.8174 1823 4130
+IR CORPORATION PTE LTD
+63 HILLVIEW AVENUE,
+Page 1 of 1 Pages
+#08-11 LAM SOON INDUSTRIAL BUILDING
+SINGAPORE 669569
+Shipper's Reference Number 103704
+(optional)
+Consignee
+Hisense Broadband Multimedia Technologies (HK) Co. Limited
+C/O: CYTS-SPIRIT LOGISTICS LIMITED
+6/F, Ever Gain Centre, 43-57 Wang Wo Tsai Street,
+Tsuen Wan, N.T.,Hong Kong
+Two completed and signed copies of this Declarotion must be
+WARNING
+handed to the operator
+Failure to comply in all respects with the
+TRANSPORT DETAILS
+applicable Dangerous Goods Regulations
+Airport of Departure
+may be in breach of the applicable law,
+This shipment is within the
+limitations prescrlbed for
+subject to legal penalties.
+fdelete non - applicable)
+SINGAPORE
+XXXXXX
+CARGO
+AMXXX(X)
+AIRCRAFT
+XXXXX×XX
+ONLY
+HONG KONG
+Shipment type (dalete non - opplicable)
+Airport of Destination
+[NON- RADIOACTIVE |XXXX×XXXX××)
+NATURE AND QUANTITY OF DANGEROUS GOODS
+Dangerous Goods Identification
+UN
+Class
+01
+Proper Shipping Name
+or Division
+Packing
+Quantity and
+Packing
+Authorization
+ID
+(Subskdiary
+Group
+iype of packing
+Inst.
+No.
+Bisk)
+UN
+CORROSIVE LIQUID, N.O.S.
+8
+Ⅱ
+1 FIBREBOARD BOX
+855
+1760
+(ACRYLIC ACID, MIXTURE)
+×4.5L
+Additional Handling Information
+24 HR SHIPPER EMERGENCY CONTACT TEL:+65 68967492
+I hereby declare that the contents of this consignment are fully and
+Name /Title of Signatory
+accurately desoribed above by the proper shipping name, and are
+MOMIKO/LOGISTIC ASSISTANT
+classified, packaged, marked and labelled/placarded, and are in all
+Place and Date
+LT0
+respects in proper condition for the transport according to
+SINGAPORE
+24 JUL2023
+卡
+applicable International and national governmental regulations. 1
+Signature
+心
+declare that all of the applicable air transport requirements have
+Isee warning above)
+d800.
+been met.
+CAR 064C
+)</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>IR 103704.pdf</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>5</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "其他",
+    "Invoice No.": "",
+    "Invoice Date": "",
+    "Currency": "",
+    "Amount": 0,
+    "Bill To": "",
+    "From": "IR CORPORATION PTE LTD"
+}</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "其他",
+    "Invoice No.": "",
+    "Invoice Date": "",
+    "Currency": "",
+    "Amount": 0,
+    "Bill To": "",
+    "From": "IR CORPORATION PTE LTD"
+}</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>23.08.2014
+IR CORPORATION PTE LTD
+21 Bukit Batok Crescent #24-75
+Test Record
+WCEGA Tower Singapore 658068
+Tel: 65-6896 7492;Fax: 65-6896 7490
+Type:
+Avago:5188-3314/54998
+Batch number of product:
+20330811
+Date of Expiry:
+11 March 2024
+Criterion
+Handicap
+Test result
+Form
+homogeneous
+Pass
+Colour:
+colourless/slight yellowish
+Pass
+Viscosity(mPas):
+90000(+/-15K),mPa
+84000
+23℃ Brookfield
+Time of illumination:
+60 sec.--DELOLUX 03-E
+Pass
+Compression/shear strength (N/mm²)
+PC/PC
+20+30 MPa
+35.76
+IR-Sprectrum:
+Pass
+AA-QK 27 IR
+Release:
+yes
+Confirmation
+We herewith confirm that our adhesives keep the following norms:
+76/769/EEC directive for substance restriction
+■ 91/157/EEC battery directive, not relevant for adhesives
+* 2000/53/EC end-of-llfe-vehicles-directive
+m
+2002/95/EC RoHS-directive
+# Reg.-No.2037/2000 Regulation on substances that deplete the Ozone layer
+= 2003/11/EC restriction of pentabrome- and octabromediphenylether</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>20190528154014_22933.pdf</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>1</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "PI20181208",
+    "Invoice Date": "17-Dec-18",
+    "Currency": "USD",
+    "Amount": 3017.0,
+    "Bill To": "Union Trade Co, Ltd",
+    "From": "Zhengzhou Zehua Trade Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "PI20181208",
+    "Invoice Date": "17-Dec-18",
+    "Currency": "USD",
+    "Amount": 3017.0,
+    "Bill To": "Union Trade Co, Ltd",
+    "From": "Zhengzhou Zehua Trade Co., Ltd"
+}</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>郑州泽华贸易有限公司
+Zhengzhou Zehua Trade Co., Ltd
+Jinma Steel Logistics Park, Nansihuan, Zhengzhou City, Henan Province, China
+PROFORMA INVOICE
+TO: Union Trade Co, Ltd
+Inv. No.:
+PI20181208
+8th FL., No. 10, De-Hui Street, Jhong-Shan District 104
+Date:
+17-Dec-18
+Taipei, Taiwan
+Place:
+Zhengzhou,Henan
+886-2-25954321
+Invoice of
+Plactic Fibers
+purchased or agreed to
+purchase by
+Union Trade Co. Ltd
+from
+Zhengzhou Zehua Trade Co., Ltd
+as per order accepted.
+to be shipped per:
+salling on/ about
+from
+Dlian Port
+to
+Keelung
+via
+by the undersigned.
+QUANTITY
+UNIT PRICE
+TOTAL AMOUNT
+NO.
+MARKS&amp;NO.
+COMMODITY AND DESCRIPTION
+(KG)
+(USD)
+(USD)
+CIF Keelung
+1
+As per shiping marks Plactic Fibers
+600
+5.03
+3,017.00
+below
+Model No.:UC-105
+Length: 5mm
+TOTAL
+600
+3,017.00
+Packing:
+Export standard Packing, Total 2 Pallet, 660kgs,4.36cbm.
+Shipment:
+To be made on or about 22-Dec-18 from Qingdao to Keelung.
+Payment Terms: T/T,30% TT in advance as down payment, then balance of 70% against B/L copy at once.
+Insurance:
+To be covered by the seller for all risks of 110% of the invoice value.
+Claim:
+For quantity,discrepancy claim should be filed by the Buyer within 10 days after the arrival of the goods at the
+port of destination;For quality,discrepancy claim should be filed by the Buyer within 15 days after the arrival
+of the goods at the port of destination.It's understood that the seller shall not be liable for any
+discrepancy of the goods shipped due to causes for which the Insuerance Company and other
+transportation organization or Post Office.
+Issued by:
+Signature:
+粮公司
+Confirmed by:
+Signature:</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>11121.pdf</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>1</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "75/2025",
+    "Invoice Date": "01.06.2025",
+    "Currency": "EUR",
+    "Amount": 26480.0,
+    "Bill To": "AUDI FAW NEV Co.Ltd",
+    "From": "Bartosch Engineering GmbH"
+}</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>{
+    "Doc Type": "Invoice",
+    "Invoice No.": "75/2025",
+    "Invoice Date": "01.06.2025",
+    "Currency": "EUR",
+    "Amount": 26480.0,
+    "Bill To": "AUDI FAW NEV Co.Ltd",
+    "From": "Bartosch Engineering GmbH"
+}</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>Bartosch
+mn Drg venyGnee, Drany Inudes:505gm
+Aud FAW NEV Co.Ltd
+Rechnung
+75/2025
+9753 Automcbile Rood
+Projekt
+21A1039-1
+Automobile Industry Development Zone
+Datum
+01.06.2025
+Jiin Province
+Zeitrour
+02-05/2023
+China
+5. Partial Invoice
+Tragwerksplanung in Bodyshop, AUDI FAW NEV Co. Itd., Chungchun China
+Purchase Order No
+:5900000030 from 2022-06-03
+Novigation protocal: AU20221000095
+Toxpayer ident no: 91220100MA84JOUH9F
+Service - Trogwerksplanung in Bodyshop Stufe 2b, LP 4-6
+Position
+Anzohl Einheit
+Preis
+Total
+Porticl amount
+Order suoplied Service period: 2023-02-16 to 2023-05-31
+Portial amount
+1.00 EURO
+26,480.00
+26.480.00
+Total Netto
+EUR
+26,480.00
+USt(0.00 %)
+EUR
+0.00
+Totol Brutto
+EUR
+26.480.00
+Leistung fur Wirschoftsgut mit Grundstück nicht fest verbunden.
+Nicht im Inland steuerbare Leistung /non taxoble Service
+Wir danken fir Ihr Vertrouen/Thank you for your trust
+Bartosch Ingineering GmbH - Despeg-Seretes•85055 Ingelstodt
+1/1
+bartesch-wngineering.com +inte @hertosch-anginearing.com+T(49) 0841 9575651+F(4) 0841 473¿
+Geschafratihrung: Alfred Bortosch, Dipiom Ingenieur PH, Beretender Ingenieur
+Einzeiprokure: sike @artosc', Diptom-Ingenieur fH, Architektin
+Aegistergerichr Ingolshodt , Cerichhastond Ingoiitedt +HRB 12• UsN-IdN DE1824510
+Valkesbark Roiffeisanbenk Icyern irte IC :IBAN DE9S 721 008 00G+ 4*BIC GENODEFIINP
+Deutsche Bonk Ingeisradr +IBAN DE58 7217 0024 0218 3929 00 + BIC DEUTDEDB72!
+V.6bbL
+208-06-07</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
